--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="484">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/05/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/05/18</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1596,14 +1599,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z229"/>
+  <dimension ref="A1:AA229"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomRight" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1693,13 +1696,16 @@
       <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1768,15 +1774,18 @@
         <v>8</v>
       </c>
       <c r="Z2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>41</v>
@@ -1847,13 +1856,16 @@
       <c r="Z3" s="0" t="n">
         <v>62</v>
       </c>
+      <c r="AA3" s="0" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>62</v>
@@ -1924,13 +1936,16 @@
       <c r="Z4" s="0" t="n">
         <v>87</v>
       </c>
+      <c r="AA4" s="0" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2001,13 +2016,16 @@
       <c r="Z5" s="0" t="n">
         <v>74</v>
       </c>
+      <c r="AA5" s="0" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2076,15 +2094,18 @@
         <v>6</v>
       </c>
       <c r="Z6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2153,15 +2174,18 @@
         <v>8</v>
       </c>
       <c r="Z7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>25</v>
@@ -2232,13 +2256,16 @@
       <c r="Z8" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="AA8" s="0" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2309,13 +2336,16 @@
       <c r="Z9" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AA9" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -2386,13 +2416,16 @@
       <c r="Z10" s="0" t="n">
         <v>49</v>
       </c>
+      <c r="AA10" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -2461,15 +2494,18 @@
         <v>6</v>
       </c>
       <c r="Z11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>3</v>
@@ -2535,15 +2571,18 @@
         <v>4</v>
       </c>
       <c r="Z12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>210</v>
@@ -2614,13 +2653,16 @@
       <c r="Z13" s="0" t="n">
         <v>298</v>
       </c>
+      <c r="AA13" s="0" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -2689,15 +2731,18 @@
         <v>4</v>
       </c>
       <c r="Z14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -2768,13 +2813,16 @@
       <c r="Z15" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="AA15" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -2845,13 +2893,16 @@
       <c r="Z16" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AA16" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -2922,13 +2973,16 @@
       <c r="Z17" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="AA17" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -2999,13 +3053,16 @@
       <c r="Z18" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AA18" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>261</v>
@@ -3076,13 +3133,16 @@
       <c r="Z19" s="0" t="n">
         <v>535</v>
       </c>
+      <c r="AA19" s="0" t="n">
+        <v>552</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>79</v>
@@ -3153,13 +3213,16 @@
       <c r="Z20" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="AA20" s="0" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>44</v>
@@ -3230,13 +3293,16 @@
       <c r="Z21" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="AA21" s="0" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>31</v>
@@ -3307,13 +3373,16 @@
       <c r="Z22" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="AA22" s="0" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -3382,15 +3451,18 @@
         <v>5</v>
       </c>
       <c r="Z23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -3461,13 +3533,16 @@
       <c r="Z24" s="0" t="n">
         <v>71</v>
       </c>
+      <c r="AA24" s="0" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -3536,15 +3611,18 @@
         <v>8</v>
       </c>
       <c r="Z25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -3615,13 +3693,16 @@
       <c r="Z26" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AA26" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -3692,13 +3773,16 @@
       <c r="Z27" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AA27" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>250</v>
@@ -3769,13 +3853,16 @@
       <c r="Z28" s="0" t="n">
         <v>324</v>
       </c>
+      <c r="AA28" s="0" t="n">
+        <v>324</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -3846,13 +3933,16 @@
       <c r="Z29" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="AA29" s="0" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>10</v>
@@ -3923,13 +4013,16 @@
       <c r="Z30" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AA30" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>197</v>
@@ -4000,13 +4093,16 @@
       <c r="Z31" s="0" t="n">
         <v>285</v>
       </c>
+      <c r="AA31" s="0" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>87</v>
@@ -4077,13 +4173,16 @@
       <c r="Z32" s="0" t="n">
         <v>166</v>
       </c>
+      <c r="AA32" s="0" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -4152,15 +4251,18 @@
         <v>4</v>
       </c>
       <c r="Z33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -4231,13 +4333,16 @@
       <c r="Z34" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AA34" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -4308,13 +4413,16 @@
       <c r="Z35" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="AA35" s="0" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -4383,15 +4491,18 @@
         <v>4</v>
       </c>
       <c r="Z36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>974</v>
@@ -4462,13 +4573,16 @@
       <c r="Z37" s="0" t="n">
         <v>1153</v>
       </c>
+      <c r="AA37" s="0" t="n">
+        <v>1154</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -4539,13 +4653,16 @@
       <c r="Z38" s="0" t="n">
         <v>119</v>
       </c>
+      <c r="AA38" s="0" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>11</v>
@@ -4616,13 +4733,16 @@
       <c r="Z39" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="AA39" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -4693,13 +4813,16 @@
       <c r="Z40" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AA40" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>14</v>
@@ -4770,16 +4893,19 @@
       <c r="Z41" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="AA41" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>4</v>
@@ -4824,18 +4950,21 @@
         <v>4</v>
       </c>
       <c r="Z42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>3</v>
@@ -4867,10 +4996,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -4941,13 +5070,16 @@
       <c r="Z44" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="AA44" s="0" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -5018,13 +5150,16 @@
       <c r="Z45" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AA45" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -5095,13 +5230,16 @@
       <c r="Z46" s="0" t="n">
         <v>66</v>
       </c>
+      <c r="AA46" s="0" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>6</v>
@@ -5170,15 +5308,18 @@
         <v>6</v>
       </c>
       <c r="Z47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA47" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -5249,13 +5390,16 @@
       <c r="Z48" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AA48" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -5326,13 +5470,16 @@
       <c r="Z49" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="AA49" s="0" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>302</v>
@@ -5403,13 +5550,16 @@
       <c r="Z50" s="0" t="n">
         <v>475</v>
       </c>
+      <c r="AA50" s="0" t="n">
+        <v>476</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -5478,15 +5628,18 @@
         <v>5</v>
       </c>
       <c r="Z51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA51" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>10</v>
@@ -5557,13 +5710,16 @@
       <c r="Z52" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AA52" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>99</v>
@@ -5634,13 +5790,16 @@
       <c r="Z53" s="0" t="n">
         <v>104</v>
       </c>
+      <c r="AA53" s="0" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -5709,15 +5868,18 @@
         <v>3</v>
       </c>
       <c r="Z54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -5788,13 +5950,16 @@
       <c r="Z55" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="AA55" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -5865,13 +6030,16 @@
       <c r="Z56" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AA56" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -5942,13 +6110,16 @@
       <c r="Z57" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AA57" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -6019,13 +6190,16 @@
       <c r="Z58" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="AA58" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>9</v>
@@ -6096,13 +6270,16 @@
       <c r="Z59" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AA59" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>371</v>
@@ -6173,13 +6350,16 @@
       <c r="Z60" s="0" t="n">
         <v>567</v>
       </c>
+      <c r="AA60" s="0" t="n">
+        <v>567</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>60</v>
@@ -6250,13 +6430,16 @@
       <c r="Z61" s="0" t="n">
         <v>144</v>
       </c>
+      <c r="AA61" s="0" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -6327,13 +6510,16 @@
       <c r="Z62" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AA62" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -6402,15 +6588,18 @@
         <v>7</v>
       </c>
       <c r="Z63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -6479,15 +6668,18 @@
         <v>4</v>
       </c>
       <c r="Z64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>7</v>
@@ -6556,15 +6748,18 @@
         <v>8</v>
       </c>
       <c r="Z65" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA65" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>3</v>
@@ -6630,15 +6825,18 @@
         <v>6</v>
       </c>
       <c r="Z66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA66" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>66</v>
@@ -6709,13 +6907,16 @@
       <c r="Z67" s="0" t="n">
         <v>82</v>
       </c>
+      <c r="AA67" s="0" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>40</v>
@@ -6786,13 +6987,16 @@
       <c r="Z68" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="AA68" s="0" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -6863,13 +7067,16 @@
       <c r="Z69" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="AA69" s="0" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -6940,13 +7147,16 @@
       <c r="Z70" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AA70" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>72</v>
@@ -7017,13 +7227,16 @@
       <c r="Z71" s="0" t="n">
         <v>105</v>
       </c>
+      <c r="AA71" s="0" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>58</v>
@@ -7094,13 +7307,16 @@
       <c r="Z72" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="AA72" s="0" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>286</v>
@@ -7171,13 +7387,16 @@
       <c r="Z73" s="0" t="n">
         <v>394</v>
       </c>
+      <c r="AA73" s="0" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>19</v>
@@ -7248,13 +7467,16 @@
       <c r="Z74" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="AA74" s="0" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -7286,10 +7508,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -7358,15 +7580,18 @@
         <v>4</v>
       </c>
       <c r="Z76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M77" s="0" t="n">
         <v>3</v>
@@ -7408,15 +7633,18 @@
         <v>3</v>
       </c>
       <c r="Z77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -7487,13 +7715,16 @@
       <c r="Z78" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="AA78" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>3</v>
@@ -7553,15 +7784,18 @@
         <v>4</v>
       </c>
       <c r="Z79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA79" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -7632,13 +7866,16 @@
       <c r="Z80" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA80" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>897</v>
@@ -7709,13 +7946,16 @@
       <c r="Z81" s="0" t="n">
         <v>1053</v>
       </c>
+      <c r="AA81" s="0" t="n">
+        <v>1053</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -7786,13 +8026,16 @@
       <c r="Z82" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AA82" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -7863,13 +8106,16 @@
       <c r="Z83" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA83" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -7940,13 +8186,16 @@
       <c r="Z84" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AA84" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>486</v>
@@ -8017,13 +8266,16 @@
       <c r="Z85" s="0" t="n">
         <v>673</v>
       </c>
+      <c r="AA85" s="0" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -8092,15 +8344,18 @@
         <v>6</v>
       </c>
       <c r="Z86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -8171,16 +8426,19 @@
       <c r="Z87" s="0" t="n">
         <v>122</v>
       </c>
+      <c r="AA87" s="0" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -8251,13 +8509,16 @@
       <c r="Z88" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AA88" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -8326,15 +8587,18 @@
         <v>3</v>
       </c>
       <c r="Z89" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA89" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -8405,13 +8669,16 @@
       <c r="Z90" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="AA90" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>64</v>
@@ -8482,13 +8749,16 @@
       <c r="Z91" s="0" t="n">
         <v>79</v>
       </c>
+      <c r="AA91" s="0" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1346</v>
@@ -8559,13 +8829,16 @@
       <c r="Z92" s="0" t="n">
         <v>1938</v>
       </c>
+      <c r="AA92" s="0" t="n">
+        <v>1962</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -8636,13 +8909,16 @@
       <c r="Z93" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="AA93" s="0" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>304</v>
@@ -8713,13 +8989,16 @@
       <c r="Z94" s="0" t="n">
         <v>612</v>
       </c>
+      <c r="AA94" s="0" t="n">
+        <v>642</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -8788,15 +9067,18 @@
         <v>6</v>
       </c>
       <c r="Z95" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA95" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -8867,13 +9149,16 @@
       <c r="Z96" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AA96" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>167</v>
@@ -8944,13 +9229,16 @@
       <c r="Z97" s="0" t="n">
         <v>297</v>
       </c>
+      <c r="AA97" s="0" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -9021,13 +9309,16 @@
       <c r="Z98" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AA98" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -9096,15 +9387,18 @@
         <v>5</v>
       </c>
       <c r="Z99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -9175,13 +9469,16 @@
       <c r="Z100" s="0" t="n">
         <v>97</v>
       </c>
+      <c r="AA100" s="0" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>770</v>
@@ -9252,13 +9549,16 @@
       <c r="Z101" s="0" t="n">
         <v>909</v>
       </c>
+      <c r="AA101" s="0" t="n">
+        <v>912</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>63</v>
@@ -9329,13 +9629,16 @@
       <c r="Z102" s="0" t="n">
         <v>78</v>
       </c>
+      <c r="AA102" s="0" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -9404,15 +9707,18 @@
         <v>7</v>
       </c>
       <c r="Z103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>58</v>
@@ -9483,13 +9789,16 @@
       <c r="Z104" s="0" t="n">
         <v>86</v>
       </c>
+      <c r="AA104" s="0" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>15</v>
@@ -9560,13 +9869,16 @@
       <c r="Z105" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AA105" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>945</v>
@@ -9637,13 +9949,16 @@
       <c r="Z106" s="0" t="n">
         <v>1233</v>
       </c>
+      <c r="AA106" s="0" t="n">
+        <v>1236</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -9714,13 +10029,16 @@
       <c r="Z107" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AA107" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -9791,13 +10109,16 @@
       <c r="Z108" s="0" t="n">
         <v>54</v>
       </c>
+      <c r="AA108" s="0" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -9866,15 +10187,18 @@
         <v>5</v>
       </c>
       <c r="Z109" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA109" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>12</v>
@@ -9945,13 +10269,16 @@
       <c r="Z110" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="AA110" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -10022,13 +10349,16 @@
       <c r="Z111" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA111" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -10099,13 +10429,16 @@
       <c r="Z112" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AA112" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>3</v>
@@ -10171,15 +10504,18 @@
         <v>5</v>
       </c>
       <c r="Z113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -10250,13 +10586,16 @@
       <c r="Z114" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="AA114" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>62</v>
@@ -10327,13 +10666,16 @@
       <c r="Z115" s="0" t="n">
         <v>111</v>
       </c>
+      <c r="AA115" s="0" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -10404,13 +10746,16 @@
       <c r="Z116" s="0" t="n">
         <v>111</v>
       </c>
+      <c r="AA116" s="0" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -10418,10 +10763,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -10441,10 +10786,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>5</v>
@@ -10513,15 +10858,18 @@
         <v>7</v>
       </c>
       <c r="Z119" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA119" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -10592,13 +10940,16 @@
       <c r="Z120" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="AA120" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -10669,13 +11020,16 @@
       <c r="Z121" s="0" t="n">
         <v>107</v>
       </c>
+      <c r="AA121" s="0" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>5</v>
@@ -10746,13 +11100,16 @@
       <c r="Z122" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AA122" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -10823,13 +11180,16 @@
       <c r="Z123" s="0" t="n">
         <v>68</v>
       </c>
+      <c r="AA123" s="0" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -10900,13 +11260,16 @@
       <c r="Z124" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AA124" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -10977,13 +11340,16 @@
       <c r="Z125" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AA125" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>14</v>
@@ -11054,13 +11420,16 @@
       <c r="Z126" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AA126" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>5</v>
@@ -11128,13 +11497,16 @@
       <c r="Z127" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="AA127" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>3</v>
@@ -11204,14 +11576,17 @@
       </c>
       <c r="Z128" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AA128" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>195</v>
@@ -11282,13 +11657,16 @@
       <c r="Z129" s="0" t="n">
         <v>341</v>
       </c>
+      <c r="AA129" s="0" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>218</v>
@@ -11359,13 +11737,16 @@
       <c r="Z130" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="AA130" s="0" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>15</v>
@@ -11436,13 +11817,16 @@
       <c r="Z131" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AA131" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>149</v>
@@ -11513,13 +11897,16 @@
       <c r="Z132" s="0" t="n">
         <v>195</v>
       </c>
+      <c r="AA132" s="0" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>8</v>
@@ -11590,13 +11977,16 @@
       <c r="Z133" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AA133" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>17</v>
@@ -11667,13 +12057,16 @@
       <c r="Z134" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="AA134" s="0" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>12</v>
@@ -11744,13 +12137,16 @@
       <c r="Z135" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AA135" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>30</v>
@@ -11821,13 +12217,16 @@
       <c r="Z136" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="AA136" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>536</v>
@@ -11898,13 +12297,16 @@
       <c r="Z137" s="0" t="n">
         <v>640</v>
       </c>
+      <c r="AA137" s="0" t="n">
+        <v>640</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>222</v>
@@ -11975,13 +12377,16 @@
       <c r="Z138" s="0" t="n">
         <v>293</v>
       </c>
+      <c r="AA138" s="0" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>18</v>
@@ -12052,13 +12457,16 @@
       <c r="Z139" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AA139" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>251</v>
@@ -12129,13 +12537,16 @@
       <c r="Z140" s="0" t="n">
         <v>325</v>
       </c>
+      <c r="AA140" s="0" t="n">
+        <v>326</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>7</v>
@@ -12204,15 +12615,18 @@
         <v>7</v>
       </c>
       <c r="Z141" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA141" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>3</v>
@@ -12281,15 +12695,18 @@
         <v>3</v>
       </c>
       <c r="Z142" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA142" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>14</v>
@@ -12360,13 +12777,16 @@
       <c r="Z143" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AA143" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>135</v>
@@ -12437,13 +12857,16 @@
       <c r="Z144" s="0" t="n">
         <v>158</v>
       </c>
+      <c r="AA144" s="0" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>3</v>
@@ -12512,15 +12935,18 @@
         <v>4</v>
       </c>
       <c r="Z145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA145" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>10</v>
@@ -12591,13 +13017,16 @@
       <c r="Z146" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="AA146" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>52</v>
@@ -12668,13 +13097,16 @@
       <c r="Z147" s="0" t="n">
         <v>59</v>
       </c>
+      <c r="AA147" s="0" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>22</v>
@@ -12745,13 +13177,16 @@
       <c r="Z148" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AA148" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>39</v>
@@ -12822,13 +13257,16 @@
       <c r="Z149" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="AA149" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>4</v>
@@ -12897,15 +13335,18 @@
         <v>8</v>
       </c>
       <c r="Z150" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA150" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>5</v>
@@ -12974,15 +13415,18 @@
         <v>6</v>
       </c>
       <c r="Z151" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA151" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>5</v>
@@ -13051,15 +13495,18 @@
         <v>6</v>
       </c>
       <c r="Z152" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA152" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>24</v>
@@ -13130,13 +13577,16 @@
       <c r="Z153" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="AA153" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>3</v>
@@ -13162,10 +13612,10 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>6</v>
@@ -13234,15 +13684,18 @@
         <v>6</v>
       </c>
       <c r="Z155" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA155" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>3</v>
@@ -13311,15 +13764,18 @@
         <v>6</v>
       </c>
       <c r="Z156" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA156" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>33</v>
@@ -13390,13 +13846,16 @@
       <c r="Z157" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="AA157" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1120</v>
@@ -13467,13 +13926,16 @@
       <c r="Z158" s="0" t="n">
         <v>1317</v>
       </c>
+      <c r="AA158" s="0" t="n">
+        <v>1318</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>6</v>
@@ -13544,13 +14006,16 @@
       <c r="Z159" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AA159" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>5</v>
@@ -13619,15 +14084,18 @@
         <v>4</v>
       </c>
       <c r="Z160" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA160" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>39</v>
@@ -13698,13 +14166,16 @@
       <c r="Z161" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="AA161" s="0" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>95</v>
@@ -13775,13 +14246,16 @@
       <c r="Z162" s="0" t="n">
         <v>145</v>
       </c>
+      <c r="AA162" s="0" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>6</v>
@@ -13850,15 +14324,18 @@
         <v>7</v>
       </c>
       <c r="Z163" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA163" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>62</v>
@@ -13929,13 +14406,16 @@
       <c r="Z164" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="AA164" s="0" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>3</v>
@@ -14004,15 +14484,18 @@
         <v>3</v>
       </c>
       <c r="Z165" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA165" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>14</v>
@@ -14083,13 +14566,16 @@
       <c r="Z166" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AA166" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>6</v>
@@ -14158,15 +14644,18 @@
         <v>7</v>
       </c>
       <c r="Z167" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA167" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>6</v>
@@ -14237,13 +14726,16 @@
       <c r="Z168" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA168" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>9</v>
@@ -14314,13 +14806,16 @@
       <c r="Z169" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AA169" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>6</v>
@@ -14389,15 +14884,18 @@
         <v>5</v>
       </c>
       <c r="Z170" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA170" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>358</v>
@@ -14468,13 +14966,16 @@
       <c r="Z171" s="0" t="n">
         <v>450</v>
       </c>
+      <c r="AA171" s="0" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q172" s="0" t="n">
         <v>3</v>
@@ -14504,15 +15005,18 @@
         <v>3</v>
       </c>
       <c r="Z172" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA172" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>67</v>
@@ -14583,13 +15087,16 @@
       <c r="Z173" s="0" t="n">
         <v>91</v>
       </c>
+      <c r="AA173" s="0" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>14</v>
@@ -14660,13 +15167,16 @@
       <c r="Z174" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="AA174" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>284</v>
@@ -14737,27 +15247,33 @@
       <c r="Z175" s="0" t="n">
         <v>380</v>
       </c>
+      <c r="AA175" s="0" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y176" s="0" t="n">
         <v>3</v>
       </c>
       <c r="Z176" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA176" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>55</v>
@@ -14828,13 +15344,16 @@
       <c r="Z177" s="0" t="n">
         <v>66</v>
       </c>
+      <c r="AA177" s="0" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>8</v>
@@ -14905,13 +15424,16 @@
       <c r="Z178" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AA178" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>3</v>
@@ -14980,15 +15502,18 @@
         <v>3</v>
       </c>
       <c r="Z179" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA179" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>7</v>
@@ -15057,15 +15582,18 @@
         <v>8</v>
       </c>
       <c r="Z180" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA180" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>8</v>
@@ -15136,13 +15664,16 @@
       <c r="Z181" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AA181" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>152</v>
@@ -15213,13 +15744,16 @@
       <c r="Z182" s="0" t="n">
         <v>253</v>
       </c>
+      <c r="AA182" s="0" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>4</v>
@@ -15276,15 +15810,18 @@
         <v>6</v>
       </c>
       <c r="Z183" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA183" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>18</v>
@@ -15355,13 +15892,16 @@
       <c r="Z184" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AA184" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>4</v>
@@ -15430,15 +15970,18 @@
         <v>4</v>
       </c>
       <c r="Z185" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA185" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>19</v>
@@ -15509,13 +16052,16 @@
       <c r="Z186" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="AA186" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>59</v>
@@ -15586,13 +16132,16 @@
       <c r="Z187" s="0" t="n">
         <v>76</v>
       </c>
+      <c r="AA187" s="0" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>29</v>
@@ -15663,13 +16212,16 @@
       <c r="Z188" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="AA188" s="0" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>21</v>
@@ -15740,13 +16292,16 @@
       <c r="Z189" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AA189" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>523</v>
@@ -15817,13 +16372,16 @@
       <c r="Z190" s="0" t="n">
         <v>880</v>
       </c>
+      <c r="AA190" s="0" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>19</v>
@@ -15894,13 +16452,16 @@
       <c r="Z191" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="AA191" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>34</v>
@@ -15971,13 +16532,16 @@
       <c r="Z192" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="AA192" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>32</v>
@@ -16048,13 +16612,16 @@
       <c r="Z193" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="AA193" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>9</v>
@@ -16125,13 +16692,16 @@
       <c r="Z194" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="AA194" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>10</v>
@@ -16202,13 +16772,16 @@
       <c r="Z195" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AA195" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>13</v>
@@ -16279,13 +16852,16 @@
       <c r="Z196" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AA196" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>20</v>
@@ -16356,13 +16932,16 @@
       <c r="Z197" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AA197" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>11</v>
@@ -16433,13 +17012,16 @@
       <c r="Z198" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AA198" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>31</v>
@@ -16510,13 +17092,16 @@
       <c r="Z199" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="AA199" s="0" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>17</v>
@@ -16587,13 +17172,16 @@
       <c r="Z200" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AA200" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>115</v>
@@ -16664,13 +17252,16 @@
       <c r="Z201" s="0" t="n">
         <v>144</v>
       </c>
+      <c r="AA201" s="0" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>17</v>
@@ -16741,13 +17332,16 @@
       <c r="Z202" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="AA202" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>85</v>
@@ -16818,13 +17412,16 @@
       <c r="Z203" s="0" t="n">
         <v>153</v>
       </c>
+      <c r="AA203" s="0" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>7</v>
@@ -16895,13 +17492,16 @@
       <c r="Z204" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AA204" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>660</v>
@@ -16972,13 +17572,16 @@
       <c r="Z205" s="0" t="n">
         <v>740</v>
       </c>
+      <c r="AA205" s="0" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>5</v>
@@ -17047,15 +17650,18 @@
         <v>6</v>
       </c>
       <c r="Z206" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA206" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>6</v>
@@ -17124,15 +17730,18 @@
         <v>5</v>
       </c>
       <c r="Z207" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA207" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>7</v>
@@ -17201,15 +17810,18 @@
         <v>8</v>
       </c>
       <c r="Z208" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA208" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>133</v>
@@ -17280,13 +17892,16 @@
       <c r="Z209" s="0" t="n">
         <v>179</v>
       </c>
+      <c r="AA209" s="0" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>25</v>
@@ -17357,13 +17972,16 @@
       <c r="Z210" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="AA210" s="0" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>7</v>
@@ -17432,15 +18050,18 @@
         <v>7</v>
       </c>
       <c r="Z211" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA211" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>212</v>
@@ -17511,13 +18132,16 @@
       <c r="Z212" s="0" t="n">
         <v>286</v>
       </c>
+      <c r="AA212" s="0" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>5</v>
@@ -17586,15 +18210,18 @@
         <v>4</v>
       </c>
       <c r="Z213" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA213" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>150</v>
@@ -17665,13 +18292,16 @@
       <c r="Z214" s="0" t="n">
         <v>298</v>
       </c>
+      <c r="AA214" s="0" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>3</v>
@@ -17712,10 +18342,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>6</v>
@@ -17785,14 +18415,17 @@
       </c>
       <c r="Z216" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AA216" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>313</v>
@@ -17863,13 +18496,16 @@
       <c r="Z217" s="0" t="n">
         <v>390</v>
       </c>
+      <c r="AA217" s="0" t="n">
+        <v>391</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>79</v>
@@ -17940,13 +18576,16 @@
       <c r="Z218" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="AA218" s="0" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>1180</v>
@@ -18017,13 +18656,16 @@
       <c r="Z219" s="0" t="n">
         <v>1479</v>
       </c>
+      <c r="AA219" s="0" t="n">
+        <v>1485</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>4</v>
@@ -18092,15 +18734,18 @@
         <v>5</v>
       </c>
       <c r="Z220" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA220" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>3</v>
@@ -18169,15 +18814,18 @@
         <v>4</v>
       </c>
       <c r="Z221" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA221" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>145</v>
@@ -18248,13 +18896,16 @@
       <c r="Z222" s="0" t="n">
         <v>150</v>
       </c>
+      <c r="AA222" s="0" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>14</v>
@@ -18325,13 +18976,16 @@
       <c r="Z223" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AA223" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>140</v>
@@ -18402,13 +19056,16 @@
       <c r="Z224" s="0" t="n">
         <v>214</v>
       </c>
+      <c r="AA224" s="0" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>7</v>
@@ -18479,13 +19136,16 @@
       <c r="Z225" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AA225" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>24</v>
@@ -18556,13 +19216,16 @@
       <c r="Z226" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="AA226" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>81</v>
@@ -18633,13 +19296,16 @@
       <c r="Z227" s="0" t="n">
         <v>98</v>
       </c>
+      <c r="AA227" s="0" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>72</v>
@@ -18710,13 +19376,16 @@
       <c r="Z228" s="0" t="n">
         <v>108</v>
       </c>
+      <c r="AA228" s="0" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>6</v>
@@ -18785,6 +19454,9 @@
         <v>8</v>
       </c>
       <c r="Z229" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA229" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="485">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/05/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/05/19</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1599,14 +1602,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA229"/>
+  <dimension ref="A1:AB229"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V2" activeCellId="0" sqref="V2"/>
+      <selection pane="bottomRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1699,13 +1702,16 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1777,15 +1783,18 @@
         <v>8</v>
       </c>
       <c r="AA2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>41</v>
@@ -1859,13 +1868,16 @@
       <c r="AA3" s="0" t="n">
         <v>62</v>
       </c>
+      <c r="AB3" s="0" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>62</v>
@@ -1939,13 +1951,16 @@
       <c r="AA4" s="0" t="n">
         <v>87</v>
       </c>
+      <c r="AB4" s="0" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2019,13 +2034,16 @@
       <c r="AA5" s="0" t="n">
         <v>73</v>
       </c>
+      <c r="AB5" s="0" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2097,15 +2115,18 @@
         <v>6</v>
       </c>
       <c r="AA6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2177,15 +2198,18 @@
         <v>8</v>
       </c>
       <c r="AA7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>25</v>
@@ -2259,13 +2283,16 @@
       <c r="AA8" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="AB8" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2339,13 +2366,16 @@
       <c r="AA9" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AB9" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -2419,13 +2449,16 @@
       <c r="AA10" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="AB10" s="0" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -2497,15 +2530,18 @@
         <v>6</v>
       </c>
       <c r="AA11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>3</v>
@@ -2574,15 +2610,18 @@
         <v>4</v>
       </c>
       <c r="AA12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>210</v>
@@ -2656,13 +2695,16 @@
       <c r="AA13" s="0" t="n">
         <v>305</v>
       </c>
+      <c r="AB13" s="0" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -2734,15 +2776,18 @@
         <v>4</v>
       </c>
       <c r="AA14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -2816,13 +2861,16 @@
       <c r="AA15" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="AB15" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -2896,13 +2944,16 @@
       <c r="AA16" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AB16" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -2976,13 +3027,16 @@
       <c r="AA17" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="AB17" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -3056,13 +3110,16 @@
       <c r="AA18" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AB18" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>261</v>
@@ -3136,13 +3193,16 @@
       <c r="AA19" s="0" t="n">
         <v>552</v>
       </c>
+      <c r="AB19" s="0" t="n">
+        <v>568</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>79</v>
@@ -3216,13 +3276,16 @@
       <c r="AA20" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="AB20" s="0" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>44</v>
@@ -3296,13 +3359,16 @@
       <c r="AA21" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="AB21" s="0" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>31</v>
@@ -3376,13 +3442,16 @@
       <c r="AA22" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="AB22" s="0" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -3454,15 +3523,18 @@
         <v>5</v>
       </c>
       <c r="AA23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -3536,13 +3608,16 @@
       <c r="AA24" s="0" t="n">
         <v>71</v>
       </c>
+      <c r="AB24" s="0" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -3614,15 +3689,18 @@
         <v>8</v>
       </c>
       <c r="AA25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB25" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -3696,13 +3774,16 @@
       <c r="AA26" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AB26" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -3776,13 +3857,16 @@
       <c r="AA27" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AB27" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>250</v>
@@ -3856,13 +3940,16 @@
       <c r="AA28" s="0" t="n">
         <v>324</v>
       </c>
+      <c r="AB28" s="0" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -3936,13 +4023,16 @@
       <c r="AA29" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="AB29" s="0" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>10</v>
@@ -4016,13 +4106,16 @@
       <c r="AA30" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AB30" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>197</v>
@@ -4096,13 +4189,16 @@
       <c r="AA31" s="0" t="n">
         <v>295</v>
       </c>
+      <c r="AB31" s="0" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>87</v>
@@ -4176,13 +4272,16 @@
       <c r="AA32" s="0" t="n">
         <v>172</v>
       </c>
+      <c r="AB32" s="0" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -4254,15 +4353,18 @@
         <v>4</v>
       </c>
       <c r="AA33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -4336,13 +4438,16 @@
       <c r="AA34" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AB34" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -4416,13 +4521,16 @@
       <c r="AA35" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="AB35" s="0" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -4494,15 +4602,18 @@
         <v>4</v>
       </c>
       <c r="AA36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>974</v>
@@ -4576,13 +4687,16 @@
       <c r="AA37" s="0" t="n">
         <v>1154</v>
       </c>
+      <c r="AB37" s="0" t="n">
+        <v>1173</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -4656,13 +4770,16 @@
       <c r="AA38" s="0" t="n">
         <v>119</v>
       </c>
+      <c r="AB38" s="0" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>11</v>
@@ -4736,13 +4853,16 @@
       <c r="AA39" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="AB39" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -4816,13 +4936,16 @@
       <c r="AA40" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AB40" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>14</v>
@@ -4896,16 +5019,19 @@
       <c r="AA41" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="AB41" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>4</v>
@@ -4953,18 +5079,21 @@
         <v>4</v>
       </c>
       <c r="AA42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>3</v>
@@ -4996,10 +5125,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -5073,13 +5202,16 @@
       <c r="AA44" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="AB44" s="0" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -5153,13 +5285,16 @@
       <c r="AA45" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AB45" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -5233,13 +5368,16 @@
       <c r="AA46" s="0" t="n">
         <v>66</v>
       </c>
+      <c r="AB46" s="0" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>6</v>
@@ -5311,15 +5449,18 @@
         <v>6</v>
       </c>
       <c r="AA47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB47" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -5393,13 +5534,16 @@
       <c r="AA48" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AB48" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -5473,13 +5617,16 @@
       <c r="AA49" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="AB49" s="0" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>302</v>
@@ -5553,13 +5700,16 @@
       <c r="AA50" s="0" t="n">
         <v>476</v>
       </c>
+      <c r="AB50" s="0" t="n">
+        <v>479</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -5632,14 +5782,17 @@
       </c>
       <c r="AA51" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AB51" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>10</v>
@@ -5713,13 +5866,16 @@
       <c r="AA52" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AB52" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>99</v>
@@ -5793,13 +5949,16 @@
       <c r="AA53" s="0" t="n">
         <v>104</v>
       </c>
+      <c r="AB53" s="0" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -5871,15 +6030,18 @@
         <v>3</v>
       </c>
       <c r="AA54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -5953,13 +6115,16 @@
       <c r="AA55" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="AB55" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -6033,13 +6198,16 @@
       <c r="AA56" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AB56" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -6113,13 +6281,16 @@
       <c r="AA57" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AB57" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -6193,13 +6364,16 @@
       <c r="AA58" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="AB58" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>9</v>
@@ -6273,13 +6447,16 @@
       <c r="AA59" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AB59" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>371</v>
@@ -6353,13 +6530,16 @@
       <c r="AA60" s="0" t="n">
         <v>567</v>
       </c>
+      <c r="AB60" s="0" t="n">
+        <v>572</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>60</v>
@@ -6433,13 +6613,16 @@
       <c r="AA61" s="0" t="n">
         <v>145</v>
       </c>
+      <c r="AB61" s="0" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -6513,13 +6696,16 @@
       <c r="AA62" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AB62" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -6591,15 +6777,18 @@
         <v>7</v>
       </c>
       <c r="AA63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -6671,15 +6860,18 @@
         <v>4</v>
       </c>
       <c r="AA64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>7</v>
@@ -6751,15 +6943,18 @@
         <v>8</v>
       </c>
       <c r="AA65" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB65" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>3</v>
@@ -6828,15 +7023,18 @@
         <v>6</v>
       </c>
       <c r="AA66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB66" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>66</v>
@@ -6910,13 +7108,16 @@
       <c r="AA67" s="0" t="n">
         <v>82</v>
       </c>
+      <c r="AB67" s="0" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>40</v>
@@ -6990,13 +7191,16 @@
       <c r="AA68" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="AB68" s="0" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -7070,13 +7274,16 @@
       <c r="AA69" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="AB69" s="0" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -7150,13 +7357,16 @@
       <c r="AA70" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AB70" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>72</v>
@@ -7230,13 +7440,16 @@
       <c r="AA71" s="0" t="n">
         <v>105</v>
       </c>
+      <c r="AB71" s="0" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>58</v>
@@ -7310,13 +7523,16 @@
       <c r="AA72" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="AB72" s="0" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>286</v>
@@ -7390,13 +7606,16 @@
       <c r="AA73" s="0" t="n">
         <v>394</v>
       </c>
+      <c r="AB73" s="0" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>19</v>
@@ -7470,13 +7689,16 @@
       <c r="AA74" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="AB74" s="0" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -7508,10 +7730,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -7583,15 +7805,18 @@
         <v>4</v>
       </c>
       <c r="AA76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB76" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M77" s="0" t="n">
         <v>3</v>
@@ -7636,15 +7861,18 @@
         <v>3</v>
       </c>
       <c r="AA77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -7718,13 +7946,16 @@
       <c r="AA78" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="AB78" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>3</v>
@@ -7787,15 +8018,18 @@
         <v>4</v>
       </c>
       <c r="AA79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB79" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -7869,13 +8103,16 @@
       <c r="AA80" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AB80" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>897</v>
@@ -7949,13 +8186,16 @@
       <c r="AA81" s="0" t="n">
         <v>1053</v>
       </c>
+      <c r="AB81" s="0" t="n">
+        <v>1058</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -8029,13 +8269,16 @@
       <c r="AA82" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AB82" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -8109,13 +8352,16 @@
       <c r="AA83" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AB83" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -8189,13 +8435,16 @@
       <c r="AA84" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AB84" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>486</v>
@@ -8269,13 +8518,16 @@
       <c r="AA85" s="0" t="n">
         <v>676</v>
       </c>
+      <c r="AB85" s="0" t="n">
+        <v>682</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -8347,15 +8599,18 @@
         <v>6</v>
       </c>
       <c r="AA86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -8429,16 +8684,19 @@
       <c r="AA87" s="0" t="n">
         <v>122</v>
       </c>
+      <c r="AB87" s="0" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -8512,13 +8770,16 @@
       <c r="AA88" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AB88" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -8590,15 +8851,18 @@
         <v>3</v>
       </c>
       <c r="AA89" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB89" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -8672,13 +8936,16 @@
       <c r="AA90" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AB90" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>64</v>
@@ -8752,13 +9019,16 @@
       <c r="AA91" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="AB91" s="0" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1346</v>
@@ -8832,13 +9102,16 @@
       <c r="AA92" s="0" t="n">
         <v>1962</v>
       </c>
+      <c r="AB92" s="0" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -8912,13 +9185,16 @@
       <c r="AA93" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="AB93" s="0" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>304</v>
@@ -8992,13 +9268,16 @@
       <c r="AA94" s="0" t="n">
         <v>642</v>
       </c>
+      <c r="AB94" s="0" t="n">
+        <v>656</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -9070,15 +9349,18 @@
         <v>6</v>
       </c>
       <c r="AA95" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB95" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -9152,13 +9434,16 @@
       <c r="AA96" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AB96" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>167</v>
@@ -9232,13 +9517,16 @@
       <c r="AA97" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="AB97" s="0" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -9312,13 +9600,16 @@
       <c r="AA98" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AB98" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -9390,15 +9681,18 @@
         <v>5</v>
       </c>
       <c r="AA99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -9472,13 +9766,16 @@
       <c r="AA100" s="0" t="n">
         <v>99</v>
       </c>
+      <c r="AB100" s="0" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>770</v>
@@ -9552,13 +9849,16 @@
       <c r="AA101" s="0" t="n">
         <v>912</v>
       </c>
+      <c r="AB101" s="0" t="n">
+        <v>913</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>63</v>
@@ -9632,13 +9932,16 @@
       <c r="AA102" s="0" t="n">
         <v>78</v>
       </c>
+      <c r="AB102" s="0" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -9710,15 +10013,18 @@
         <v>7</v>
       </c>
       <c r="AA103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>58</v>
@@ -9792,13 +10098,16 @@
       <c r="AA104" s="0" t="n">
         <v>86</v>
       </c>
+      <c r="AB104" s="0" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>15</v>
@@ -9872,13 +10181,16 @@
       <c r="AA105" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AB105" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>945</v>
@@ -9952,13 +10264,16 @@
       <c r="AA106" s="0" t="n">
         <v>1236</v>
       </c>
+      <c r="AB106" s="0" t="n">
+        <v>1242</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -10032,13 +10347,16 @@
       <c r="AA107" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AB107" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -10112,13 +10430,16 @@
       <c r="AA108" s="0" t="n">
         <v>54</v>
       </c>
+      <c r="AB108" s="0" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -10190,15 +10511,18 @@
         <v>5</v>
       </c>
       <c r="AA109" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB109" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>12</v>
@@ -10272,13 +10596,16 @@
       <c r="AA110" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="AB110" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -10352,13 +10679,16 @@
       <c r="AA111" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AB111" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -10432,13 +10762,16 @@
       <c r="AA112" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AB112" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>3</v>
@@ -10507,15 +10840,18 @@
         <v>5</v>
       </c>
       <c r="AA113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -10589,13 +10925,16 @@
       <c r="AA114" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="AB114" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>62</v>
@@ -10669,13 +11008,16 @@
       <c r="AA115" s="0" t="n">
         <v>115</v>
       </c>
+      <c r="AB115" s="0" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -10749,13 +11091,16 @@
       <c r="AA116" s="0" t="n">
         <v>111</v>
       </c>
+      <c r="AB116" s="0" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -10763,10 +11108,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -10786,10 +11131,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>5</v>
@@ -10861,15 +11206,18 @@
         <v>7</v>
       </c>
       <c r="AA119" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB119" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -10943,13 +11291,16 @@
       <c r="AA120" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="AB120" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -11023,13 +11374,16 @@
       <c r="AA121" s="0" t="n">
         <v>110</v>
       </c>
+      <c r="AB121" s="0" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>5</v>
@@ -11103,13 +11457,16 @@
       <c r="AA122" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AB122" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -11183,13 +11540,16 @@
       <c r="AA123" s="0" t="n">
         <v>68</v>
       </c>
+      <c r="AB123" s="0" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -11263,13 +11623,16 @@
       <c r="AA124" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AB124" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -11343,13 +11706,16 @@
       <c r="AA125" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AB125" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>14</v>
@@ -11423,13 +11789,16 @@
       <c r="AA126" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AB126" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>5</v>
@@ -11500,13 +11869,16 @@
       <c r="AA127" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="AB127" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>3</v>
@@ -11578,15 +11950,18 @@
         <v>7</v>
       </c>
       <c r="AA128" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB128" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>195</v>
@@ -11660,13 +12035,16 @@
       <c r="AA129" s="0" t="n">
         <v>352</v>
       </c>
+      <c r="AB129" s="0" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>218</v>
@@ -11740,13 +12118,16 @@
       <c r="AA130" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="AB130" s="0" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>15</v>
@@ -11820,13 +12201,16 @@
       <c r="AA131" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AB131" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>149</v>
@@ -11900,13 +12284,16 @@
       <c r="AA132" s="0" t="n">
         <v>197</v>
       </c>
+      <c r="AB132" s="0" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>8</v>
@@ -11980,13 +12367,16 @@
       <c r="AA133" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AB133" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>17</v>
@@ -12060,13 +12450,16 @@
       <c r="AA134" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="AB134" s="0" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>12</v>
@@ -12140,13 +12533,16 @@
       <c r="AA135" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AB135" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>30</v>
@@ -12220,13 +12616,16 @@
       <c r="AA136" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="AB136" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>536</v>
@@ -12300,13 +12699,16 @@
       <c r="AA137" s="0" t="n">
         <v>640</v>
       </c>
+      <c r="AB137" s="0" t="n">
+        <v>642</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>222</v>
@@ -12380,13 +12782,16 @@
       <c r="AA138" s="0" t="n">
         <v>296</v>
       </c>
+      <c r="AB138" s="0" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>18</v>
@@ -12460,13 +12865,16 @@
       <c r="AA139" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AB139" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>251</v>
@@ -12540,13 +12948,16 @@
       <c r="AA140" s="0" t="n">
         <v>326</v>
       </c>
+      <c r="AB140" s="0" t="n">
+        <v>326</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>7</v>
@@ -12618,15 +13029,18 @@
         <v>7</v>
       </c>
       <c r="AA141" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB141" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>3</v>
@@ -12698,15 +13112,18 @@
         <v>3</v>
       </c>
       <c r="AA142" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB142" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>14</v>
@@ -12780,13 +13197,16 @@
       <c r="AA143" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AB143" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>135</v>
@@ -12860,13 +13280,16 @@
       <c r="AA144" s="0" t="n">
         <v>158</v>
       </c>
+      <c r="AB144" s="0" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>3</v>
@@ -12938,15 +13361,18 @@
         <v>4</v>
       </c>
       <c r="AA145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB145" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>10</v>
@@ -13020,13 +13446,16 @@
       <c r="AA146" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="AB146" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>52</v>
@@ -13100,13 +13529,16 @@
       <c r="AA147" s="0" t="n">
         <v>61</v>
       </c>
+      <c r="AB147" s="0" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>22</v>
@@ -13180,13 +13612,16 @@
       <c r="AA148" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AB148" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>39</v>
@@ -13260,13 +13695,16 @@
       <c r="AA149" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="AB149" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>4</v>
@@ -13338,15 +13776,18 @@
         <v>8</v>
       </c>
       <c r="AA150" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB150" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>5</v>
@@ -13418,15 +13859,18 @@
         <v>6</v>
       </c>
       <c r="AA151" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB151" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>5</v>
@@ -13498,15 +13942,18 @@
         <v>6</v>
       </c>
       <c r="AA152" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB152" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>24</v>
@@ -13580,13 +14027,16 @@
       <c r="AA153" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="AB153" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>3</v>
@@ -13612,10 +14062,10 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>6</v>
@@ -13687,15 +14137,18 @@
         <v>6</v>
       </c>
       <c r="AA155" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB155" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>3</v>
@@ -13767,15 +14220,18 @@
         <v>6</v>
       </c>
       <c r="AA156" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB156" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>33</v>
@@ -13849,13 +14305,16 @@
       <c r="AA157" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="AB157" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1120</v>
@@ -13929,13 +14388,16 @@
       <c r="AA158" s="0" t="n">
         <v>1318</v>
       </c>
+      <c r="AB158" s="0" t="n">
+        <v>1326</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>6</v>
@@ -14009,13 +14471,16 @@
       <c r="AA159" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AB159" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>5</v>
@@ -14087,15 +14552,18 @@
         <v>4</v>
       </c>
       <c r="AA160" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB160" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>39</v>
@@ -14169,13 +14637,16 @@
       <c r="AA161" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="AB161" s="0" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>95</v>
@@ -14249,13 +14720,16 @@
       <c r="AA162" s="0" t="n">
         <v>145</v>
       </c>
+      <c r="AB162" s="0" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>6</v>
@@ -14327,15 +14801,18 @@
         <v>7</v>
       </c>
       <c r="AA163" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB163" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>62</v>
@@ -14409,13 +14886,16 @@
       <c r="AA164" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="AB164" s="0" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>3</v>
@@ -14487,15 +14967,18 @@
         <v>3</v>
       </c>
       <c r="AA165" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB165" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>14</v>
@@ -14569,13 +15052,16 @@
       <c r="AA166" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AB166" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>6</v>
@@ -14647,15 +15133,18 @@
         <v>7</v>
       </c>
       <c r="AA167" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB167" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>6</v>
@@ -14729,13 +15218,16 @@
       <c r="AA168" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AB168" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>9</v>
@@ -14809,13 +15301,16 @@
       <c r="AA169" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AB169" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>6</v>
@@ -14887,15 +15382,18 @@
         <v>5</v>
       </c>
       <c r="AA170" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB170" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>358</v>
@@ -14969,13 +15467,16 @@
       <c r="AA171" s="0" t="n">
         <v>450</v>
       </c>
+      <c r="AB171" s="0" t="n">
+        <v>454</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q172" s="0" t="n">
         <v>3</v>
@@ -15008,15 +15509,18 @@
         <v>3</v>
       </c>
       <c r="AA172" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB172" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>67</v>
@@ -15090,13 +15594,16 @@
       <c r="AA173" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="AB173" s="0" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>14</v>
@@ -15170,13 +15677,16 @@
       <c r="AA174" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AB174" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>284</v>
@@ -15250,13 +15760,16 @@
       <c r="AA175" s="0" t="n">
         <v>381</v>
       </c>
+      <c r="AB175" s="0" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y176" s="0" t="n">
         <v>3</v>
@@ -15265,15 +15778,18 @@
         <v>3</v>
       </c>
       <c r="AA176" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB176" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>55</v>
@@ -15347,13 +15863,16 @@
       <c r="AA177" s="0" t="n">
         <v>67</v>
       </c>
+      <c r="AB177" s="0" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>8</v>
@@ -15427,13 +15946,16 @@
       <c r="AA178" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AB178" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>3</v>
@@ -15505,15 +16027,18 @@
         <v>3</v>
       </c>
       <c r="AA179" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB179" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>7</v>
@@ -15585,15 +16110,18 @@
         <v>8</v>
       </c>
       <c r="AA180" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB180" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>8</v>
@@ -15667,13 +16195,16 @@
       <c r="AA181" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AB181" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>152</v>
@@ -15747,13 +16278,16 @@
       <c r="AA182" s="0" t="n">
         <v>262</v>
       </c>
+      <c r="AB182" s="0" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>4</v>
@@ -15813,15 +16347,18 @@
         <v>6</v>
       </c>
       <c r="AA183" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB183" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>18</v>
@@ -15895,13 +16432,16 @@
       <c r="AA184" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AB184" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>4</v>
@@ -15973,15 +16513,18 @@
         <v>4</v>
       </c>
       <c r="AA185" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB185" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>19</v>
@@ -16055,13 +16598,16 @@
       <c r="AA186" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="AB186" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>59</v>
@@ -16135,13 +16681,16 @@
       <c r="AA187" s="0" t="n">
         <v>77</v>
       </c>
+      <c r="AB187" s="0" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>29</v>
@@ -16215,13 +16764,16 @@
       <c r="AA188" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="AB188" s="0" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>21</v>
@@ -16295,13 +16847,16 @@
       <c r="AA189" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AB189" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>523</v>
@@ -16375,13 +16930,16 @@
       <c r="AA190" s="0" t="n">
         <v>899</v>
       </c>
+      <c r="AB190" s="0" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>19</v>
@@ -16455,13 +17013,16 @@
       <c r="AA191" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AB191" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>34</v>
@@ -16535,13 +17096,16 @@
       <c r="AA192" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="AB192" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>32</v>
@@ -16615,13 +17179,16 @@
       <c r="AA193" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="AB193" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>9</v>
@@ -16695,13 +17262,16 @@
       <c r="AA194" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="AB194" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>10</v>
@@ -16775,13 +17345,16 @@
       <c r="AA195" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AB195" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>13</v>
@@ -16855,13 +17428,16 @@
       <c r="AA196" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AB196" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>20</v>
@@ -16935,13 +17511,16 @@
       <c r="AA197" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AB197" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>11</v>
@@ -17015,13 +17594,16 @@
       <c r="AA198" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AB198" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>31</v>
@@ -17095,13 +17677,16 @@
       <c r="AA199" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="AB199" s="0" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>17</v>
@@ -17175,13 +17760,16 @@
       <c r="AA200" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AB200" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>115</v>
@@ -17255,13 +17843,16 @@
       <c r="AA201" s="0" t="n">
         <v>144</v>
       </c>
+      <c r="AB201" s="0" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>17</v>
@@ -17335,13 +17926,16 @@
       <c r="AA202" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="AB202" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>85</v>
@@ -17415,13 +18009,16 @@
       <c r="AA203" s="0" t="n">
         <v>153</v>
       </c>
+      <c r="AB203" s="0" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>7</v>
@@ -17495,13 +18092,16 @@
       <c r="AA204" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AB204" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>660</v>
@@ -17575,13 +18175,16 @@
       <c r="AA205" s="0" t="n">
         <v>740</v>
       </c>
+      <c r="AB205" s="0" t="n">
+        <v>746</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>5</v>
@@ -17653,15 +18256,18 @@
         <v>6</v>
       </c>
       <c r="AA206" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB206" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>6</v>
@@ -17733,15 +18339,18 @@
         <v>5</v>
       </c>
       <c r="AA207" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB207" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>7</v>
@@ -17813,15 +18422,18 @@
         <v>8</v>
       </c>
       <c r="AA208" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB208" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>133</v>
@@ -17895,13 +18507,16 @@
       <c r="AA209" s="0" t="n">
         <v>179</v>
       </c>
+      <c r="AB209" s="0" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>25</v>
@@ -17975,13 +18590,16 @@
       <c r="AA210" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="AB210" s="0" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>7</v>
@@ -18053,15 +18671,18 @@
         <v>7</v>
       </c>
       <c r="AA211" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB211" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>212</v>
@@ -18135,13 +18756,16 @@
       <c r="AA212" s="0" t="n">
         <v>286</v>
       </c>
+      <c r="AB212" s="0" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>5</v>
@@ -18213,15 +18837,18 @@
         <v>4</v>
       </c>
       <c r="AA213" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB213" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>150</v>
@@ -18295,13 +18922,16 @@
       <c r="AA214" s="0" t="n">
         <v>302</v>
       </c>
+      <c r="AB214" s="0" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>3</v>
@@ -18342,10 +18972,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>6</v>
@@ -18417,15 +19047,18 @@
         <v>6</v>
       </c>
       <c r="AA216" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB216" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>313</v>
@@ -18499,13 +19132,16 @@
       <c r="AA217" s="0" t="n">
         <v>391</v>
       </c>
+      <c r="AB217" s="0" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>79</v>
@@ -18579,13 +19215,16 @@
       <c r="AA218" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="AB218" s="0" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>1180</v>
@@ -18659,13 +19298,16 @@
       <c r="AA219" s="0" t="n">
         <v>1485</v>
       </c>
+      <c r="AB219" s="0" t="n">
+        <v>1510</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>4</v>
@@ -18737,15 +19379,18 @@
         <v>5</v>
       </c>
       <c r="AA220" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB220" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>3</v>
@@ -18817,15 +19462,18 @@
         <v>4</v>
       </c>
       <c r="AA221" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB221" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>145</v>
@@ -18899,13 +19547,16 @@
       <c r="AA222" s="0" t="n">
         <v>150</v>
       </c>
+      <c r="AB222" s="0" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>14</v>
@@ -18979,13 +19630,16 @@
       <c r="AA223" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AB223" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>140</v>
@@ -19059,13 +19713,16 @@
       <c r="AA224" s="0" t="n">
         <v>214</v>
       </c>
+      <c r="AB224" s="0" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>7</v>
@@ -19139,13 +19796,16 @@
       <c r="AA225" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AB225" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>24</v>
@@ -19219,13 +19879,16 @@
       <c r="AA226" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="AB226" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>81</v>
@@ -19299,13 +19962,16 @@
       <c r="AA227" s="0" t="n">
         <v>98</v>
       </c>
+      <c r="AB227" s="0" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>72</v>
@@ -19379,13 +20045,16 @@
       <c r="AA228" s="0" t="n">
         <v>108</v>
       </c>
+      <c r="AB228" s="0" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>6</v>
@@ -19457,6 +20126,9 @@
         <v>8</v>
       </c>
       <c r="AA229" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB229" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="486">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/05/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/05/20</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1602,14 +1605,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB229"/>
+  <dimension ref="A1:AC229"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1705,13 +1708,16 @@
       <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1786,15 +1792,18 @@
         <v>8</v>
       </c>
       <c r="AB2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>41</v>
@@ -1871,13 +1880,16 @@
       <c r="AB3" s="0" t="n">
         <v>62</v>
       </c>
+      <c r="AC3" s="0" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>62</v>
@@ -1954,13 +1966,16 @@
       <c r="AB4" s="0" t="n">
         <v>87</v>
       </c>
+      <c r="AC4" s="0" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2037,13 +2052,16 @@
       <c r="AB5" s="0" t="n">
         <v>74</v>
       </c>
+      <c r="AC5" s="0" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2119,14 +2137,17 @@
       </c>
       <c r="AB6" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2201,15 +2222,18 @@
         <v>8</v>
       </c>
       <c r="AB7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>25</v>
@@ -2286,13 +2310,16 @@
       <c r="AB8" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AC8" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2369,13 +2396,16 @@
       <c r="AB9" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="AC9" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -2452,13 +2482,16 @@
       <c r="AB10" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="AC10" s="0" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -2533,15 +2566,18 @@
         <v>6</v>
       </c>
       <c r="AB11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>3</v>
@@ -2613,15 +2649,18 @@
         <v>4</v>
       </c>
       <c r="AB12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>210</v>
@@ -2698,13 +2737,16 @@
       <c r="AB13" s="0" t="n">
         <v>313</v>
       </c>
+      <c r="AC13" s="0" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -2779,15 +2821,18 @@
         <v>4</v>
       </c>
       <c r="AB14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -2864,13 +2909,16 @@
       <c r="AB15" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="AC15" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -2947,13 +2995,16 @@
       <c r="AB16" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AC16" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3030,13 +3081,16 @@
       <c r="AB17" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AC17" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -3113,13 +3167,16 @@
       <c r="AB18" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AC18" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>261</v>
@@ -3196,13 +3253,16 @@
       <c r="AB19" s="0" t="n">
         <v>568</v>
       </c>
+      <c r="AC19" s="0" t="n">
+        <v>585</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>79</v>
@@ -3279,13 +3339,16 @@
       <c r="AB20" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="AC20" s="0" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>44</v>
@@ -3362,13 +3425,16 @@
       <c r="AB21" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="AC21" s="0" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>31</v>
@@ -3445,13 +3511,16 @@
       <c r="AB22" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="AC22" s="0" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -3526,15 +3595,18 @@
         <v>5</v>
       </c>
       <c r="AB23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -3611,13 +3683,16 @@
       <c r="AB24" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="AC24" s="0" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -3692,15 +3767,18 @@
         <v>8</v>
       </c>
       <c r="AB25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC25" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -3777,13 +3855,16 @@
       <c r="AB26" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AC26" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -3860,13 +3941,16 @@
       <c r="AB27" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AC27" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>250</v>
@@ -3943,13 +4027,16 @@
       <c r="AB28" s="0" t="n">
         <v>327</v>
       </c>
+      <c r="AC28" s="0" t="n">
+        <v>330</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -4026,13 +4113,16 @@
       <c r="AB29" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="AC29" s="0" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>10</v>
@@ -4109,13 +4199,16 @@
       <c r="AB30" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AC30" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>197</v>
@@ -4192,13 +4285,16 @@
       <c r="AB31" s="0" t="n">
         <v>295</v>
       </c>
+      <c r="AC31" s="0" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>87</v>
@@ -4275,13 +4371,16 @@
       <c r="AB32" s="0" t="n">
         <v>180</v>
       </c>
+      <c r="AC32" s="0" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -4356,15 +4455,18 @@
         <v>4</v>
       </c>
       <c r="AB33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -4441,13 +4543,16 @@
       <c r="AB34" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AC34" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -4524,13 +4629,16 @@
       <c r="AB35" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="AC35" s="0" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -4605,15 +4713,18 @@
         <v>4</v>
       </c>
       <c r="AB36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>974</v>
@@ -4690,13 +4801,16 @@
       <c r="AB37" s="0" t="n">
         <v>1173</v>
       </c>
+      <c r="AC37" s="0" t="n">
+        <v>1196</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -4773,13 +4887,16 @@
       <c r="AB38" s="0" t="n">
         <v>119</v>
       </c>
+      <c r="AC38" s="0" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>11</v>
@@ -4856,13 +4973,16 @@
       <c r="AB39" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="AC39" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -4939,13 +5059,16 @@
       <c r="AB40" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AC40" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>14</v>
@@ -5022,16 +5145,19 @@
       <c r="AB41" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="AC41" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>4</v>
@@ -5082,18 +5208,21 @@
         <v>4</v>
       </c>
       <c r="AB42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>3</v>
@@ -5125,10 +5254,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -5205,13 +5334,16 @@
       <c r="AB44" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="AC44" s="0" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -5288,13 +5420,16 @@
       <c r="AB45" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AC45" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -5371,13 +5506,16 @@
       <c r="AB46" s="0" t="n">
         <v>68</v>
       </c>
+      <c r="AC46" s="0" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>6</v>
@@ -5452,15 +5590,18 @@
         <v>6</v>
       </c>
       <c r="AB47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC47" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -5537,13 +5678,16 @@
       <c r="AB48" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AC48" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -5620,13 +5764,16 @@
       <c r="AB49" s="0" t="n">
         <v>51</v>
       </c>
+      <c r="AC49" s="0" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>302</v>
@@ -5703,13 +5850,16 @@
       <c r="AB50" s="0" t="n">
         <v>479</v>
       </c>
+      <c r="AC50" s="0" t="n">
+        <v>483</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -5784,15 +5934,18 @@
         <v>5</v>
       </c>
       <c r="AB51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC51" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>10</v>
@@ -5869,13 +6022,16 @@
       <c r="AB52" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AC52" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>99</v>
@@ -5952,13 +6108,16 @@
       <c r="AB53" s="0" t="n">
         <v>104</v>
       </c>
+      <c r="AC53" s="0" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -6033,15 +6192,18 @@
         <v>3</v>
       </c>
       <c r="AB54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -6118,13 +6280,16 @@
       <c r="AB55" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="AC55" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -6201,13 +6366,16 @@
       <c r="AB56" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AC56" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -6284,13 +6452,16 @@
       <c r="AB57" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AC57" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -6367,13 +6538,16 @@
       <c r="AB58" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="AC58" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>9</v>
@@ -6450,13 +6624,16 @@
       <c r="AB59" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AC59" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>371</v>
@@ -6533,13 +6710,16 @@
       <c r="AB60" s="0" t="n">
         <v>572</v>
       </c>
+      <c r="AC60" s="0" t="n">
+        <v>572</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>60</v>
@@ -6616,13 +6796,16 @@
       <c r="AB61" s="0" t="n">
         <v>154</v>
       </c>
+      <c r="AC61" s="0" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -6699,13 +6882,16 @@
       <c r="AB62" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AC62" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -6780,15 +6966,18 @@
         <v>7</v>
       </c>
       <c r="AB63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -6863,15 +7052,18 @@
         <v>4</v>
       </c>
       <c r="AB64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>7</v>
@@ -6947,14 +7139,17 @@
       </c>
       <c r="AB65" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AC65" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>3</v>
@@ -7026,15 +7221,18 @@
         <v>6</v>
       </c>
       <c r="AB66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC66" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>66</v>
@@ -7111,13 +7309,16 @@
       <c r="AB67" s="0" t="n">
         <v>82</v>
       </c>
+      <c r="AC67" s="0" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>40</v>
@@ -7194,13 +7395,16 @@
       <c r="AB68" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="AC68" s="0" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -7277,13 +7481,16 @@
       <c r="AB69" s="0" t="n">
         <v>95</v>
       </c>
+      <c r="AC69" s="0" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -7360,13 +7567,16 @@
       <c r="AB70" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AC70" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>72</v>
@@ -7443,13 +7653,16 @@
       <c r="AB71" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="AC71" s="0" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>58</v>
@@ -7526,13 +7739,16 @@
       <c r="AB72" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="AC72" s="0" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>286</v>
@@ -7609,13 +7825,16 @@
       <c r="AB73" s="0" t="n">
         <v>394</v>
       </c>
+      <c r="AC73" s="0" t="n">
+        <v>395</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>19</v>
@@ -7692,13 +7911,16 @@
       <c r="AB74" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="AC74" s="0" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -7730,10 +7952,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -7808,15 +8030,18 @@
         <v>4</v>
       </c>
       <c r="AB76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC76" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M77" s="0" t="n">
         <v>3</v>
@@ -7864,15 +8089,18 @@
         <v>3</v>
       </c>
       <c r="AB77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -7949,13 +8177,16 @@
       <c r="AB78" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="AC78" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>3</v>
@@ -8021,15 +8252,18 @@
         <v>4</v>
       </c>
       <c r="AB79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC79" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -8106,13 +8340,16 @@
       <c r="AB80" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AC80" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>897</v>
@@ -8189,13 +8426,16 @@
       <c r="AB81" s="0" t="n">
         <v>1058</v>
       </c>
+      <c r="AC81" s="0" t="n">
+        <v>1065</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -8272,13 +8512,16 @@
       <c r="AB82" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="AC82" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -8355,13 +8598,16 @@
       <c r="AB83" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AC83" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -8438,13 +8684,16 @@
       <c r="AB84" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AC84" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>486</v>
@@ -8521,13 +8770,16 @@
       <c r="AB85" s="0" t="n">
         <v>682</v>
       </c>
+      <c r="AC85" s="0" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -8602,15 +8854,18 @@
         <v>6</v>
       </c>
       <c r="AB86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -8687,16 +8942,19 @@
       <c r="AB87" s="0" t="n">
         <v>122</v>
       </c>
+      <c r="AC87" s="0" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -8773,13 +9031,16 @@
       <c r="AB88" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AC88" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -8855,14 +9116,17 @@
       </c>
       <c r="AB89" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="AC89" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -8939,13 +9203,16 @@
       <c r="AB90" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AC90" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>64</v>
@@ -9022,13 +9289,16 @@
       <c r="AB91" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="AC91" s="0" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1346</v>
@@ -9105,13 +9375,16 @@
       <c r="AB92" s="0" t="n">
         <v>2018</v>
       </c>
+      <c r="AC92" s="0" t="n">
+        <v>2046</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -9188,13 +9461,16 @@
       <c r="AB93" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="AC93" s="0" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>304</v>
@@ -9271,13 +9547,16 @@
       <c r="AB94" s="0" t="n">
         <v>656</v>
       </c>
+      <c r="AC94" s="0" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -9352,15 +9631,18 @@
         <v>6</v>
       </c>
       <c r="AB95" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC95" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -9437,13 +9719,16 @@
       <c r="AB96" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AC96" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>167</v>
@@ -9520,13 +9805,16 @@
       <c r="AB97" s="0" t="n">
         <v>300</v>
       </c>
+      <c r="AC97" s="0" t="n">
+        <v>309</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -9603,13 +9891,16 @@
       <c r="AB98" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AC98" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -9684,15 +9975,18 @@
         <v>5</v>
       </c>
       <c r="AB99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -9769,13 +10063,16 @@
       <c r="AB100" s="0" t="n">
         <v>101</v>
       </c>
+      <c r="AC100" s="0" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>770</v>
@@ -9852,13 +10149,16 @@
       <c r="AB101" s="0" t="n">
         <v>913</v>
       </c>
+      <c r="AC101" s="0" t="n">
+        <v>916</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>63</v>
@@ -9935,13 +10235,16 @@
       <c r="AB102" s="0" t="n">
         <v>78</v>
       </c>
+      <c r="AC102" s="0" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -10016,15 +10319,18 @@
         <v>7</v>
       </c>
       <c r="AB103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>58</v>
@@ -10101,13 +10407,16 @@
       <c r="AB104" s="0" t="n">
         <v>86</v>
       </c>
+      <c r="AC104" s="0" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>15</v>
@@ -10184,13 +10493,16 @@
       <c r="AB105" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AC105" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>945</v>
@@ -10267,13 +10579,16 @@
       <c r="AB106" s="0" t="n">
         <v>1242</v>
       </c>
+      <c r="AC106" s="0" t="n">
+        <v>1245</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -10350,13 +10665,16 @@
       <c r="AB107" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AC107" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -10433,13 +10751,16 @@
       <c r="AB108" s="0" t="n">
         <v>57</v>
       </c>
+      <c r="AC108" s="0" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -10514,15 +10835,18 @@
         <v>5</v>
       </c>
       <c r="AB109" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC109" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>12</v>
@@ -10599,13 +10923,16 @@
       <c r="AB110" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="AC110" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -10682,13 +11009,16 @@
       <c r="AB111" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AC111" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -10765,13 +11095,16 @@
       <c r="AB112" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AC112" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>3</v>
@@ -10843,15 +11176,18 @@
         <v>5</v>
       </c>
       <c r="AB113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -10928,13 +11264,16 @@
       <c r="AB114" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="AC114" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>62</v>
@@ -11011,13 +11350,16 @@
       <c r="AB115" s="0" t="n">
         <v>116</v>
       </c>
+      <c r="AC115" s="0" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -11094,13 +11436,16 @@
       <c r="AB116" s="0" t="n">
         <v>111</v>
       </c>
+      <c r="AC116" s="0" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -11108,10 +11453,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -11131,10 +11476,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>5</v>
@@ -11209,15 +11554,18 @@
         <v>7</v>
       </c>
       <c r="AB119" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC119" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -11294,13 +11642,16 @@
       <c r="AB120" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="AC120" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -11377,13 +11728,16 @@
       <c r="AB121" s="0" t="n">
         <v>111</v>
       </c>
+      <c r="AC121" s="0" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>5</v>
@@ -11460,13 +11814,16 @@
       <c r="AB122" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AC122" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -11543,13 +11900,16 @@
       <c r="AB123" s="0" t="n">
         <v>71</v>
       </c>
+      <c r="AC123" s="0" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -11626,13 +11986,16 @@
       <c r="AB124" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AC124" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -11709,13 +12072,16 @@
       <c r="AB125" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AC125" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>14</v>
@@ -11792,13 +12158,16 @@
       <c r="AB126" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AC126" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>5</v>
@@ -11872,13 +12241,16 @@
       <c r="AB127" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="AC127" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>3</v>
@@ -11953,15 +12325,18 @@
         <v>8</v>
       </c>
       <c r="AB128" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC128" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>195</v>
@@ -12038,13 +12413,16 @@
       <c r="AB129" s="0" t="n">
         <v>372</v>
       </c>
+      <c r="AC129" s="0" t="n">
+        <v>383</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>218</v>
@@ -12121,13 +12499,16 @@
       <c r="AB130" s="0" t="n">
         <v>328</v>
       </c>
+      <c r="AC130" s="0" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>15</v>
@@ -12204,13 +12585,16 @@
       <c r="AB131" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AC131" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>149</v>
@@ -12287,13 +12671,16 @@
       <c r="AB132" s="0" t="n">
         <v>198</v>
       </c>
+      <c r="AC132" s="0" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>8</v>
@@ -12370,13 +12757,16 @@
       <c r="AB133" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AC133" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>17</v>
@@ -12453,13 +12843,16 @@
       <c r="AB134" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="AC134" s="0" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>12</v>
@@ -12536,13 +12929,16 @@
       <c r="AB135" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AC135" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>30</v>
@@ -12619,13 +13015,16 @@
       <c r="AB136" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="AC136" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>536</v>
@@ -12702,13 +13101,16 @@
       <c r="AB137" s="0" t="n">
         <v>642</v>
       </c>
+      <c r="AC137" s="0" t="n">
+        <v>646</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>222</v>
@@ -12785,13 +13187,16 @@
       <c r="AB138" s="0" t="n">
         <v>298</v>
       </c>
+      <c r="AC138" s="0" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>18</v>
@@ -12868,13 +13273,16 @@
       <c r="AB139" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AC139" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>251</v>
@@ -12951,13 +13359,16 @@
       <c r="AB140" s="0" t="n">
         <v>326</v>
       </c>
+      <c r="AC140" s="0" t="n">
+        <v>330</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>7</v>
@@ -13032,15 +13443,18 @@
         <v>7</v>
       </c>
       <c r="AB141" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC141" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>3</v>
@@ -13115,15 +13529,18 @@
         <v>3</v>
       </c>
       <c r="AB142" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC142" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>14</v>
@@ -13200,13 +13617,16 @@
       <c r="AB143" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AC143" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>135</v>
@@ -13283,13 +13703,16 @@
       <c r="AB144" s="0" t="n">
         <v>158</v>
       </c>
+      <c r="AC144" s="0" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>3</v>
@@ -13364,15 +13787,18 @@
         <v>4</v>
       </c>
       <c r="AB145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC145" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>10</v>
@@ -13449,13 +13875,16 @@
       <c r="AB146" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="AC146" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>52</v>
@@ -13532,13 +13961,16 @@
       <c r="AB147" s="0" t="n">
         <v>61</v>
       </c>
+      <c r="AC147" s="0" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>22</v>
@@ -13615,13 +14047,16 @@
       <c r="AB148" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AC148" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>39</v>
@@ -13698,13 +14133,16 @@
       <c r="AB149" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="AC149" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>4</v>
@@ -13779,15 +14217,18 @@
         <v>8</v>
       </c>
       <c r="AB150" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC150" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>5</v>
@@ -13862,15 +14303,18 @@
         <v>6</v>
       </c>
       <c r="AB151" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC151" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>5</v>
@@ -13945,15 +14389,18 @@
         <v>6</v>
       </c>
       <c r="AB152" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC152" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>24</v>
@@ -14030,13 +14477,16 @@
       <c r="AB153" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="AC153" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>3</v>
@@ -14062,10 +14512,10 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>6</v>
@@ -14140,15 +14590,18 @@
         <v>6</v>
       </c>
       <c r="AB155" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC155" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>3</v>
@@ -14223,15 +14676,18 @@
         <v>6</v>
       </c>
       <c r="AB156" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC156" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>33</v>
@@ -14308,13 +14764,16 @@
       <c r="AB157" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AC157" s="0" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1120</v>
@@ -14391,13 +14850,16 @@
       <c r="AB158" s="0" t="n">
         <v>1326</v>
       </c>
+      <c r="AC158" s="0" t="n">
+        <v>1334</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>6</v>
@@ -14474,13 +14936,16 @@
       <c r="AB159" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AC159" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>5</v>
@@ -14555,15 +15020,18 @@
         <v>4</v>
       </c>
       <c r="AB160" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC160" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>39</v>
@@ -14640,13 +15108,16 @@
       <c r="AB161" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="AC161" s="0" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>95</v>
@@ -14723,13 +15194,16 @@
       <c r="AB162" s="0" t="n">
         <v>149</v>
       </c>
+      <c r="AC162" s="0" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>6</v>
@@ -14804,15 +15278,18 @@
         <v>7</v>
       </c>
       <c r="AB163" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC163" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>62</v>
@@ -14889,13 +15366,16 @@
       <c r="AB164" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="AC164" s="0" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>3</v>
@@ -14970,15 +15450,18 @@
         <v>3</v>
       </c>
       <c r="AB165" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC165" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>14</v>
@@ -15055,13 +15538,16 @@
       <c r="AB166" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AC166" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>6</v>
@@ -15136,15 +15622,18 @@
         <v>7</v>
       </c>
       <c r="AB167" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC167" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>6</v>
@@ -15221,13 +15710,16 @@
       <c r="AB168" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AC168" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>9</v>
@@ -15304,13 +15796,16 @@
       <c r="AB169" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AC169" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>6</v>
@@ -15385,15 +15880,18 @@
         <v>5</v>
       </c>
       <c r="AB170" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC170" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>358</v>
@@ -15470,13 +15968,16 @@
       <c r="AB171" s="0" t="n">
         <v>454</v>
       </c>
+      <c r="AC171" s="0" t="n">
+        <v>468</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q172" s="0" t="n">
         <v>3</v>
@@ -15512,15 +16013,18 @@
         <v>3</v>
       </c>
       <c r="AB172" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC172" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>67</v>
@@ -15597,13 +16101,16 @@
       <c r="AB173" s="0" t="n">
         <v>95</v>
       </c>
+      <c r="AC173" s="0" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>14</v>
@@ -15680,13 +16187,16 @@
       <c r="AB174" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AC174" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>284</v>
@@ -15763,13 +16273,16 @@
       <c r="AB175" s="0" t="n">
         <v>388</v>
       </c>
+      <c r="AC175" s="0" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y176" s="0" t="n">
         <v>3</v>
@@ -15781,15 +16294,18 @@
         <v>3</v>
       </c>
       <c r="AB176" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC176" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>55</v>
@@ -15866,13 +16382,16 @@
       <c r="AB177" s="0" t="n">
         <v>67</v>
       </c>
+      <c r="AC177" s="0" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>8</v>
@@ -15949,13 +16468,16 @@
       <c r="AB178" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AC178" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>3</v>
@@ -16030,15 +16552,18 @@
         <v>3</v>
       </c>
       <c r="AB179" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC179" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>7</v>
@@ -16113,15 +16638,18 @@
         <v>8</v>
       </c>
       <c r="AB180" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC180" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>8</v>
@@ -16198,13 +16726,16 @@
       <c r="AB181" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AC181" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>152</v>
@@ -16281,13 +16812,16 @@
       <c r="AB182" s="0" t="n">
         <v>267</v>
       </c>
+      <c r="AC182" s="0" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>4</v>
@@ -16350,15 +16884,18 @@
         <v>6</v>
       </c>
       <c r="AB183" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC183" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>18</v>
@@ -16435,13 +16972,16 @@
       <c r="AB184" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AC184" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>4</v>
@@ -16516,15 +17056,18 @@
         <v>4</v>
       </c>
       <c r="AB185" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC185" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>19</v>
@@ -16601,13 +17144,16 @@
       <c r="AB186" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="AC186" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>59</v>
@@ -16684,13 +17230,16 @@
       <c r="AB187" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="AC187" s="0" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>29</v>
@@ -16767,13 +17316,16 @@
       <c r="AB188" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="AC188" s="0" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>21</v>
@@ -16850,13 +17402,16 @@
       <c r="AB189" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AC189" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>523</v>
@@ -16933,13 +17488,16 @@
       <c r="AB190" s="0" t="n">
         <v>899</v>
       </c>
+      <c r="AC190" s="0" t="n">
+        <v>899</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>19</v>
@@ -17016,13 +17574,16 @@
       <c r="AB191" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AC191" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>34</v>
@@ -17099,13 +17660,16 @@
       <c r="AB192" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="AC192" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>32</v>
@@ -17182,13 +17746,16 @@
       <c r="AB193" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="AC193" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>9</v>
@@ -17265,13 +17832,16 @@
       <c r="AB194" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AC194" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>10</v>
@@ -17348,13 +17918,16 @@
       <c r="AB195" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AC195" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>13</v>
@@ -17431,13 +18004,16 @@
       <c r="AB196" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AC196" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>20</v>
@@ -17514,13 +18090,16 @@
       <c r="AB197" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AC197" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>11</v>
@@ -17597,13 +18176,16 @@
       <c r="AB198" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AC198" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>31</v>
@@ -17680,13 +18262,16 @@
       <c r="AB199" s="0" t="n">
         <v>37</v>
       </c>
+      <c r="AC199" s="0" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>17</v>
@@ -17763,13 +18348,16 @@
       <c r="AB200" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AC200" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>115</v>
@@ -17846,13 +18434,16 @@
       <c r="AB201" s="0" t="n">
         <v>145</v>
       </c>
+      <c r="AC201" s="0" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>17</v>
@@ -17929,13 +18520,16 @@
       <c r="AB202" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="AC202" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>85</v>
@@ -18012,13 +18606,16 @@
       <c r="AB203" s="0" t="n">
         <v>153</v>
       </c>
+      <c r="AC203" s="0" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>7</v>
@@ -18095,13 +18692,16 @@
       <c r="AB204" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AC204" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>660</v>
@@ -18178,13 +18778,16 @@
       <c r="AB205" s="0" t="n">
         <v>746</v>
       </c>
+      <c r="AC205" s="0" t="n">
+        <v>751</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>5</v>
@@ -18259,15 +18862,18 @@
         <v>6</v>
       </c>
       <c r="AB206" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC206" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>6</v>
@@ -18342,15 +18948,18 @@
         <v>5</v>
       </c>
       <c r="AB207" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC207" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>7</v>
@@ -18425,15 +19034,18 @@
         <v>8</v>
       </c>
       <c r="AB208" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC208" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>133</v>
@@ -18510,13 +19122,16 @@
       <c r="AB209" s="0" t="n">
         <v>179</v>
       </c>
+      <c r="AC209" s="0" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>25</v>
@@ -18593,13 +19208,16 @@
       <c r="AB210" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="AC210" s="0" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>7</v>
@@ -18674,15 +19292,18 @@
         <v>7</v>
       </c>
       <c r="AB211" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC211" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>212</v>
@@ -18759,13 +19380,16 @@
       <c r="AB212" s="0" t="n">
         <v>287</v>
       </c>
+      <c r="AC212" s="0" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>5</v>
@@ -18840,15 +19464,18 @@
         <v>4</v>
       </c>
       <c r="AB213" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC213" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>150</v>
@@ -18925,13 +19552,16 @@
       <c r="AB214" s="0" t="n">
         <v>310</v>
       </c>
+      <c r="AC214" s="0" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>3</v>
@@ -18972,10 +19602,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>6</v>
@@ -19050,15 +19680,18 @@
         <v>7</v>
       </c>
       <c r="AB216" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC216" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>313</v>
@@ -19135,13 +19768,16 @@
       <c r="AB217" s="0" t="n">
         <v>393</v>
       </c>
+      <c r="AC217" s="0" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>79</v>
@@ -19218,13 +19854,16 @@
       <c r="AB218" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="AC218" s="0" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>1180</v>
@@ -19301,13 +19940,16 @@
       <c r="AB219" s="0" t="n">
         <v>1510</v>
       </c>
+      <c r="AC219" s="0" t="n">
+        <v>1521</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>4</v>
@@ -19382,15 +20024,18 @@
         <v>5</v>
       </c>
       <c r="AB220" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC220" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>3</v>
@@ -19465,15 +20110,18 @@
         <v>4</v>
       </c>
       <c r="AB221" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC221" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>145</v>
@@ -19550,13 +20198,16 @@
       <c r="AB222" s="0" t="n">
         <v>151</v>
       </c>
+      <c r="AC222" s="0" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>14</v>
@@ -19633,13 +20284,16 @@
       <c r="AB223" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AC223" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>140</v>
@@ -19716,13 +20370,16 @@
       <c r="AB224" s="0" t="n">
         <v>228</v>
       </c>
+      <c r="AC224" s="0" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>7</v>
@@ -19799,13 +20456,16 @@
       <c r="AB225" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AC225" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>24</v>
@@ -19882,13 +20542,16 @@
       <c r="AB226" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="AC226" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>81</v>
@@ -19965,13 +20628,16 @@
       <c r="AB227" s="0" t="n">
         <v>98</v>
       </c>
+      <c r="AC227" s="0" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>72</v>
@@ -20048,13 +20714,16 @@
       <c r="AB228" s="0" t="n">
         <v>114</v>
       </c>
+      <c r="AC228" s="0" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>6</v>
@@ -20129,6 +20798,9 @@
         <v>8</v>
       </c>
       <c r="AB229" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC229" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="491">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/05/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/05/21</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1617,14 +1620,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE230"/>
+  <dimension ref="A1:AF230"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
-      <selection pane="bottomRight" activeCell="A105" activeCellId="0" sqref="A105"/>
+      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AG1" activeCellId="0" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1729,13 +1732,16 @@
       <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1820,14 +1826,17 @@
       </c>
       <c r="AE2" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -1913,13 +1922,16 @@
       <c r="AE3" s="0" t="n">
         <v>62</v>
       </c>
+      <c r="AF3" s="0" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2005,13 +2017,16 @@
       <c r="AE4" s="0" t="n">
         <v>87</v>
       </c>
+      <c r="AF4" s="0" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2097,13 +2112,16 @@
       <c r="AE5" s="0" t="n">
         <v>74</v>
       </c>
+      <c r="AF5" s="0" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2187,15 +2205,18 @@
         <v>6</v>
       </c>
       <c r="AE6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2279,15 +2300,18 @@
         <v>8</v>
       </c>
       <c r="AE7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2373,13 +2397,16 @@
       <c r="AE8" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AF8" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2465,13 +2492,16 @@
       <c r="AE9" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AF9" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -2557,13 +2587,16 @@
       <c r="AE10" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="AF10" s="0" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -2647,15 +2680,18 @@
         <v>6</v>
       </c>
       <c r="AE11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -2730,15 +2766,18 @@
         <v>4</v>
       </c>
       <c r="AE12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -2824,13 +2863,16 @@
       <c r="AE13" s="0" t="n">
         <v>320</v>
       </c>
+      <c r="AF13" s="0" t="n">
+        <v>326</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -2914,15 +2956,18 @@
         <v>4</v>
       </c>
       <c r="AE14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3008,13 +3053,16 @@
       <c r="AE15" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="AF15" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3100,13 +3148,16 @@
       <c r="AE16" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AF16" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3192,13 +3243,16 @@
       <c r="AE17" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AF17" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -3284,13 +3338,16 @@
       <c r="AE18" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AF18" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -3376,13 +3433,16 @@
       <c r="AE19" s="0" t="n">
         <v>585</v>
       </c>
+      <c r="AF19" s="0" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -3468,13 +3528,16 @@
       <c r="AE20" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="AF20" s="0" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -3560,13 +3623,16 @@
       <c r="AE21" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="AF21" s="0" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -3652,13 +3718,16 @@
       <c r="AE22" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="AF22" s="0" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -3742,15 +3811,18 @@
         <v>5</v>
       </c>
       <c r="AE23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -3836,13 +3908,16 @@
       <c r="AE24" s="0" t="n">
         <v>73</v>
       </c>
+      <c r="AF24" s="0" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -3926,15 +4001,18 @@
         <v>8</v>
       </c>
       <c r="AE25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF25" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -4020,13 +4098,16 @@
       <c r="AE26" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AF26" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -4112,13 +4193,16 @@
       <c r="AE27" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AF27" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>243</v>
@@ -4204,13 +4288,16 @@
       <c r="AE28" s="0" t="n">
         <v>330</v>
       </c>
+      <c r="AF28" s="0" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -4296,13 +4383,16 @@
       <c r="AE29" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="AF29" s="0" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>9</v>
@@ -4388,13 +4478,16 @@
       <c r="AE30" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AF30" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>190</v>
@@ -4480,13 +4573,16 @@
       <c r="AE31" s="0" t="n">
         <v>295</v>
       </c>
+      <c r="AF31" s="0" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>86</v>
@@ -4572,13 +4668,16 @@
       <c r="AE32" s="0" t="n">
         <v>188</v>
       </c>
+      <c r="AF32" s="0" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -4662,15 +4761,18 @@
         <v>4</v>
       </c>
       <c r="AE33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF33" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -4756,13 +4858,16 @@
       <c r="AE34" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AF34" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -4848,13 +4953,16 @@
       <c r="AE35" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="AF35" s="0" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -4938,15 +5046,18 @@
         <v>4</v>
       </c>
       <c r="AE36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>950</v>
@@ -5032,13 +5143,16 @@
       <c r="AE37" s="0" t="n">
         <v>1196</v>
       </c>
+      <c r="AF37" s="0" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -5124,13 +5238,16 @@
       <c r="AE38" s="0" t="n">
         <v>119</v>
       </c>
+      <c r="AF38" s="0" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>10</v>
@@ -5216,13 +5333,16 @@
       <c r="AE39" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="AF39" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -5308,13 +5428,16 @@
       <c r="AE40" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AF40" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>15</v>
@@ -5400,16 +5523,19 @@
       <c r="AE41" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="AF41" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -5469,18 +5595,21 @@
         <v>4</v>
       </c>
       <c r="AE42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>3</v>
@@ -5512,10 +5641,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -5601,13 +5730,16 @@
       <c r="AE44" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="AF44" s="0" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -5693,13 +5825,16 @@
       <c r="AE45" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AF45" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -5785,13 +5920,16 @@
       <c r="AE46" s="0" t="n">
         <v>68</v>
       </c>
+      <c r="AF46" s="0" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -5875,15 +6013,18 @@
         <v>6</v>
       </c>
       <c r="AE47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF47" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -5969,13 +6110,16 @@
       <c r="AE48" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AF48" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -6061,13 +6205,16 @@
       <c r="AE49" s="0" t="n">
         <v>52</v>
       </c>
+      <c r="AF49" s="0" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>298</v>
@@ -6153,13 +6300,16 @@
       <c r="AE50" s="0" t="n">
         <v>483</v>
       </c>
+      <c r="AF50" s="0" t="n">
+        <v>494</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -6243,15 +6393,18 @@
         <v>6</v>
       </c>
       <c r="AE51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF51" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>9</v>
@@ -6337,13 +6490,16 @@
       <c r="AE52" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AF52" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>100</v>
@@ -6429,13 +6585,16 @@
       <c r="AE53" s="0" t="n">
         <v>104</v>
       </c>
+      <c r="AF53" s="0" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -6519,15 +6678,18 @@
         <v>3</v>
       </c>
       <c r="AE54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -6613,13 +6775,16 @@
       <c r="AE55" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="AF55" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -6705,13 +6870,16 @@
       <c r="AE56" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AF56" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -6797,13 +6965,16 @@
       <c r="AE57" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AF57" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -6889,13 +7060,16 @@
       <c r="AE58" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="AF58" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>8</v>
@@ -6981,13 +7155,16 @@
       <c r="AE59" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AF59" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>367</v>
@@ -7073,13 +7250,16 @@
       <c r="AE60" s="0" t="n">
         <v>572</v>
       </c>
+      <c r="AF60" s="0" t="n">
+        <v>574</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>61</v>
@@ -7165,13 +7345,16 @@
       <c r="AE61" s="0" t="n">
         <v>154</v>
       </c>
+      <c r="AF61" s="0" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -7257,13 +7440,16 @@
       <c r="AE62" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AF62" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -7347,15 +7533,18 @@
         <v>7</v>
       </c>
       <c r="AE63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -7439,15 +7628,18 @@
         <v>4</v>
       </c>
       <c r="AE64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>8</v>
@@ -7533,13 +7725,16 @@
       <c r="AE65" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AF65" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>3</v>
@@ -7614,15 +7809,18 @@
         <v>6</v>
       </c>
       <c r="AE66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF66" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>63</v>
@@ -7708,13 +7906,16 @@
       <c r="AE67" s="0" t="n">
         <v>82</v>
       </c>
+      <c r="AF67" s="0" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>38</v>
@@ -7800,13 +8001,16 @@
       <c r="AE68" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="AF68" s="0" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -7892,13 +8096,16 @@
       <c r="AE69" s="0" t="n">
         <v>95</v>
       </c>
+      <c r="AF69" s="0" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -7984,13 +8191,16 @@
       <c r="AE70" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AF70" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>71</v>
@@ -8076,13 +8286,16 @@
       <c r="AE71" s="0" t="n">
         <v>115</v>
       </c>
+      <c r="AF71" s="0" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>56</v>
@@ -8168,13 +8381,16 @@
       <c r="AE72" s="0" t="n">
         <v>62</v>
       </c>
+      <c r="AF72" s="0" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>275</v>
@@ -8260,13 +8476,16 @@
       <c r="AE73" s="0" t="n">
         <v>395</v>
       </c>
+      <c r="AF73" s="0" t="n">
+        <v>396</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>17</v>
@@ -8352,13 +8571,16 @@
       <c r="AE74" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="AF74" s="0" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -8396,10 +8618,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -8483,15 +8705,18 @@
         <v>4</v>
       </c>
       <c r="AE76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF76" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>3</v>
@@ -8542,15 +8767,18 @@
         <v>3</v>
       </c>
       <c r="AE77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -8636,13 +8864,16 @@
       <c r="AE78" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="AF78" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>3</v>
@@ -8711,15 +8942,18 @@
         <v>4</v>
       </c>
       <c r="AE79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF79" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -8805,13 +9039,16 @@
       <c r="AE80" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AF80" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>894</v>
@@ -8897,13 +9134,16 @@
       <c r="AE81" s="0" t="n">
         <v>1065</v>
       </c>
+      <c r="AF81" s="0" t="n">
+        <v>1065</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -8989,13 +9229,16 @@
       <c r="AE82" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="AF82" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -9081,13 +9324,16 @@
       <c r="AE83" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AF83" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -9173,13 +9419,16 @@
       <c r="AE84" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AF84" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>458</v>
@@ -9265,13 +9514,16 @@
       <c r="AE85" s="0" t="n">
         <v>695</v>
       </c>
+      <c r="AF85" s="0" t="n">
+        <v>699</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -9355,15 +9607,18 @@
         <v>6</v>
       </c>
       <c r="AE86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -9449,16 +9704,19 @@
       <c r="AE87" s="0" t="n">
         <v>125</v>
       </c>
+      <c r="AF87" s="0" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -9544,13 +9802,16 @@
       <c r="AE88" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AF88" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -9634,15 +9895,18 @@
         <v>3</v>
       </c>
       <c r="AE89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF89" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -9728,13 +9992,16 @@
       <c r="AE90" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="AF90" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>61</v>
@@ -9820,13 +10087,16 @@
       <c r="AE91" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="AF91" s="0" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1266</v>
@@ -9912,13 +10182,16 @@
       <c r="AE92" s="0" t="n">
         <v>2046</v>
       </c>
+      <c r="AF92" s="0" t="n">
+        <v>2076</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -10004,13 +10277,16 @@
       <c r="AE93" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="AF93" s="0" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>301</v>
@@ -10096,13 +10372,16 @@
       <c r="AE94" s="0" t="n">
         <v>678</v>
       </c>
+      <c r="AF94" s="0" t="n">
+        <v>715</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -10186,15 +10465,18 @@
         <v>6</v>
       </c>
       <c r="AE95" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF95" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -10280,13 +10562,16 @@
       <c r="AE96" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AF96" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>162</v>
@@ -10372,13 +10657,16 @@
       <c r="AE97" s="0" t="n">
         <v>309</v>
       </c>
+      <c r="AF97" s="0" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -10464,13 +10752,16 @@
       <c r="AE98" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AF98" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -10554,15 +10845,18 @@
         <v>5</v>
       </c>
       <c r="AE99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -10648,13 +10942,16 @@
       <c r="AE100" s="0" t="n">
         <v>104</v>
       </c>
+      <c r="AF100" s="0" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>763</v>
@@ -10740,13 +11037,16 @@
       <c r="AE101" s="0" t="n">
         <v>916</v>
       </c>
+      <c r="AF101" s="0" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>62</v>
@@ -10832,13 +11132,16 @@
       <c r="AE102" s="0" t="n">
         <v>78</v>
       </c>
+      <c r="AF102" s="0" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -10922,15 +11225,18 @@
         <v>7</v>
       </c>
       <c r="AE103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>59</v>
@@ -11016,13 +11322,16 @@
       <c r="AE104" s="0" t="n">
         <v>86</v>
       </c>
+      <c r="AF104" s="0" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>14</v>
@@ -11108,13 +11417,16 @@
       <c r="AE105" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AF105" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>929</v>
@@ -11200,13 +11512,16 @@
       <c r="AE106" s="0" t="n">
         <v>1245</v>
       </c>
+      <c r="AF106" s="0" t="n">
+        <v>1250</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -11292,13 +11607,16 @@
       <c r="AE107" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AF107" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -11384,13 +11702,16 @@
       <c r="AE108" s="0" t="n">
         <v>61</v>
       </c>
+      <c r="AF108" s="0" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -11474,15 +11795,18 @@
         <v>5</v>
       </c>
       <c r="AE109" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF109" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>13</v>
@@ -11568,13 +11892,16 @@
       <c r="AE110" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="AF110" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -11660,13 +11987,16 @@
       <c r="AE111" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AF111" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -11752,13 +12082,16 @@
       <c r="AE112" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AF112" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>3</v>
@@ -11833,15 +12166,18 @@
         <v>5</v>
       </c>
       <c r="AE113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -11927,13 +12263,16 @@
       <c r="AE114" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="AF114" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>61</v>
@@ -12019,13 +12358,16 @@
       <c r="AE115" s="0" t="n">
         <v>120</v>
       </c>
+      <c r="AF115" s="0" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -12111,13 +12453,16 @@
       <c r="AE116" s="0" t="n">
         <v>111</v>
       </c>
+      <c r="AF116" s="0" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -12131,10 +12476,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -12160,10 +12505,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>4</v>
@@ -12247,15 +12592,18 @@
         <v>7</v>
       </c>
       <c r="AE119" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF119" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -12341,13 +12689,16 @@
       <c r="AE120" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="AF120" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -12433,13 +12784,16 @@
       <c r="AE121" s="0" t="n">
         <v>112</v>
       </c>
+      <c r="AF121" s="0" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>4</v>
@@ -12525,13 +12879,16 @@
       <c r="AE122" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AF122" s="0" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -12617,13 +12974,16 @@
       <c r="AE123" s="0" t="n">
         <v>71</v>
       </c>
+      <c r="AF123" s="0" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -12709,13 +13069,16 @@
       <c r="AE124" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="AF124" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -12801,13 +13164,16 @@
       <c r="AE125" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AF125" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>14</v>
@@ -12893,13 +13259,16 @@
       <c r="AE126" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AF126" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>5</v>
@@ -12979,13 +13348,16 @@
       <c r="AE127" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="AF127" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>3</v>
@@ -12993,10 +13365,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>3</v>
@@ -13077,15 +13449,18 @@
         <v>8</v>
       </c>
       <c r="AE129" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF129" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>187</v>
@@ -13171,13 +13546,16 @@
       <c r="AE130" s="0" t="n">
         <v>383</v>
       </c>
+      <c r="AF130" s="0" t="n">
+        <v>404</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>218</v>
@@ -13263,13 +13641,16 @@
       <c r="AE131" s="0" t="n">
         <v>339</v>
       </c>
+      <c r="AF131" s="0" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>15</v>
@@ -13355,13 +13736,16 @@
       <c r="AE132" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AF132" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>149</v>
@@ -13447,13 +13831,16 @@
       <c r="AE133" s="0" t="n">
         <v>203</v>
       </c>
+      <c r="AF133" s="0" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>8</v>
@@ -13539,13 +13926,16 @@
       <c r="AE134" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AF134" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>17</v>
@@ -13631,13 +14021,16 @@
       <c r="AE135" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="AF135" s="0" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>12</v>
@@ -13723,13 +14116,16 @@
       <c r="AE136" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="AF136" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>29</v>
@@ -13815,13 +14211,16 @@
       <c r="AE137" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="AF137" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>532</v>
@@ -13907,13 +14306,16 @@
       <c r="AE138" s="0" t="n">
         <v>646</v>
       </c>
+      <c r="AF138" s="0" t="n">
+        <v>651</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>219</v>
@@ -13999,13 +14401,16 @@
       <c r="AE139" s="0" t="n">
         <v>298</v>
       </c>
+      <c r="AF139" s="0" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>18</v>
@@ -14091,13 +14496,16 @@
       <c r="AE140" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AF140" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>250</v>
@@ -14183,13 +14591,16 @@
       <c r="AE141" s="0" t="n">
         <v>330</v>
       </c>
+      <c r="AF141" s="0" t="n">
+        <v>330</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>7</v>
@@ -14273,15 +14684,18 @@
         <v>7</v>
       </c>
       <c r="AE142" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF142" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>3</v>
@@ -14365,15 +14779,18 @@
         <v>3</v>
       </c>
       <c r="AE143" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF143" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>13</v>
@@ -14459,13 +14876,16 @@
       <c r="AE144" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="AF144" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>134</v>
@@ -14551,13 +14971,16 @@
       <c r="AE145" s="0" t="n">
         <v>160</v>
       </c>
+      <c r="AF145" s="0" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>3</v>
@@ -14642,14 +15065,17 @@
       </c>
       <c r="AE146" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AF146" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>10</v>
@@ -14735,13 +15161,16 @@
       <c r="AE147" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="AF147" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>52</v>
@@ -14827,13 +15256,16 @@
       <c r="AE148" s="0" t="n">
         <v>61</v>
       </c>
+      <c r="AF148" s="0" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>22</v>
@@ -14919,13 +15351,16 @@
       <c r="AE149" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AF149" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>38</v>
@@ -15011,13 +15446,16 @@
       <c r="AE150" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="AF150" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>4</v>
@@ -15101,15 +15539,18 @@
         <v>8</v>
       </c>
       <c r="AE151" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF151" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>5</v>
@@ -15193,15 +15634,18 @@
         <v>6</v>
       </c>
       <c r="AE152" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF152" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>5</v>
@@ -15285,15 +15729,18 @@
         <v>6</v>
       </c>
       <c r="AE153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF153" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>24</v>
@@ -15379,13 +15826,16 @@
       <c r="AE154" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="AF154" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>3</v>
@@ -15411,10 +15861,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>6</v>
@@ -15498,15 +15948,18 @@
         <v>6</v>
       </c>
       <c r="AE156" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF156" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>3</v>
@@ -15590,15 +16043,18 @@
         <v>6</v>
       </c>
       <c r="AE157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF157" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>33</v>
@@ -15684,13 +16140,16 @@
       <c r="AE158" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="AF158" s="0" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1099</v>
@@ -15776,13 +16235,16 @@
       <c r="AE159" s="0" t="n">
         <v>1334</v>
       </c>
+      <c r="AF159" s="0" t="n">
+        <v>1336</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>6</v>
@@ -15868,13 +16330,16 @@
       <c r="AE160" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AF160" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>5</v>
@@ -15958,15 +16423,18 @@
         <v>4</v>
       </c>
       <c r="AE161" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF161" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>35</v>
@@ -16052,13 +16520,16 @@
       <c r="AE162" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="AF162" s="0" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>95</v>
@@ -16144,13 +16615,16 @@
       <c r="AE163" s="0" t="n">
         <v>150</v>
       </c>
+      <c r="AF163" s="0" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>6</v>
@@ -16234,15 +16708,18 @@
         <v>7</v>
       </c>
       <c r="AE164" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF164" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>61</v>
@@ -16328,13 +16805,16 @@
       <c r="AE165" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="AF165" s="0" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>3</v>
@@ -16418,15 +16898,18 @@
         <v>3</v>
       </c>
       <c r="AE166" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF166" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>14</v>
@@ -16512,13 +16995,16 @@
       <c r="AE167" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="AF167" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>4</v>
@@ -16602,15 +17088,18 @@
         <v>7</v>
       </c>
       <c r="AE168" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF168" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>6</v>
@@ -16696,13 +17185,16 @@
       <c r="AE169" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AF169" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>9</v>
@@ -16788,13 +17280,16 @@
       <c r="AE170" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AF170" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>6</v>
@@ -16878,15 +17373,18 @@
         <v>5</v>
       </c>
       <c r="AE171" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF171" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>356</v>
@@ -16972,13 +17470,16 @@
       <c r="AE172" s="0" t="n">
         <v>468</v>
       </c>
+      <c r="AF172" s="0" t="n">
+        <v>469</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S173" s="0" t="n">
         <v>3</v>
@@ -17017,15 +17518,18 @@
         <v>3</v>
       </c>
       <c r="AE173" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF173" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>65</v>
@@ -17111,13 +17615,16 @@
       <c r="AE174" s="0" t="n">
         <v>98</v>
       </c>
+      <c r="AF174" s="0" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>13</v>
@@ -17203,13 +17710,16 @@
       <c r="AE175" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="AF175" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>280</v>
@@ -17295,13 +17805,16 @@
       <c r="AE176" s="0" t="n">
         <v>388</v>
       </c>
+      <c r="AF176" s="0" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA177" s="0" t="n">
         <v>3</v>
@@ -17316,15 +17829,18 @@
         <v>3</v>
       </c>
       <c r="AE177" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF177" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>55</v>
@@ -17410,13 +17926,16 @@
       <c r="AE178" s="0" t="n">
         <v>67</v>
       </c>
+      <c r="AF178" s="0" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>8</v>
@@ -17502,13 +18021,16 @@
       <c r="AE179" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AF179" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>3</v>
@@ -17592,15 +18114,18 @@
         <v>3</v>
       </c>
       <c r="AE180" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF180" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>7</v>
@@ -17684,15 +18209,18 @@
         <v>8</v>
       </c>
       <c r="AE181" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF181" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>8</v>
@@ -17778,13 +18306,16 @@
       <c r="AE182" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AF182" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>147</v>
@@ -17870,13 +18401,16 @@
       <c r="AE183" s="0" t="n">
         <v>275</v>
       </c>
+      <c r="AF183" s="0" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J184" s="0" t="n">
         <v>4</v>
@@ -17942,15 +18476,18 @@
         <v>6</v>
       </c>
       <c r="AE184" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF184" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>18</v>
@@ -18036,13 +18573,16 @@
       <c r="AE185" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AF185" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>4</v>
@@ -18126,15 +18666,18 @@
         <v>4</v>
       </c>
       <c r="AE186" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF186" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>19</v>
@@ -18220,13 +18763,16 @@
       <c r="AE187" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="AF187" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>59</v>
@@ -18312,13 +18858,16 @@
       <c r="AE188" s="0" t="n">
         <v>83</v>
       </c>
+      <c r="AF188" s="0" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>29</v>
@@ -18404,13 +18953,16 @@
       <c r="AE189" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="AF189" s="0" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>21</v>
@@ -18496,13 +19048,16 @@
       <c r="AE190" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AF190" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>514</v>
@@ -18588,13 +19143,16 @@
       <c r="AE191" s="0" t="n">
         <v>899</v>
       </c>
+      <c r="AF191" s="0" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>19</v>
@@ -18680,13 +19238,16 @@
       <c r="AE192" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="AF192" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>34</v>
@@ -18772,13 +19333,16 @@
       <c r="AE193" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="AF193" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>32</v>
@@ -18864,13 +19428,16 @@
       <c r="AE194" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="AF194" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>9</v>
@@ -18956,13 +19523,16 @@
       <c r="AE195" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AF195" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>10</v>
@@ -19048,13 +19618,16 @@
       <c r="AE196" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AF196" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>12</v>
@@ -19140,13 +19713,16 @@
       <c r="AE197" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AF197" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>21</v>
@@ -19232,13 +19808,16 @@
       <c r="AE198" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="AF198" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>11</v>
@@ -19324,13 +19903,16 @@
       <c r="AE199" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="AF199" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>28</v>
@@ -19416,13 +19998,16 @@
       <c r="AE200" s="0" t="n">
         <v>37</v>
       </c>
+      <c r="AF200" s="0" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>17</v>
@@ -19508,13 +20093,16 @@
       <c r="AE201" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AF201" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>114</v>
@@ -19600,13 +20188,16 @@
       <c r="AE202" s="0" t="n">
         <v>145</v>
       </c>
+      <c r="AF202" s="0" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>17</v>
@@ -19692,13 +20283,16 @@
       <c r="AE203" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="AF203" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>85</v>
@@ -19784,13 +20378,16 @@
       <c r="AE204" s="0" t="n">
         <v>154</v>
       </c>
+      <c r="AF204" s="0" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>7</v>
@@ -19876,13 +20473,16 @@
       <c r="AE205" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AF205" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>655</v>
@@ -19968,13 +20568,16 @@
       <c r="AE206" s="0" t="n">
         <v>751</v>
       </c>
+      <c r="AF206" s="0" t="n">
+        <v>753</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>5</v>
@@ -20058,15 +20661,18 @@
         <v>6</v>
       </c>
       <c r="AE207" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF207" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>6</v>
@@ -20150,15 +20756,18 @@
         <v>5</v>
       </c>
       <c r="AE208" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF208" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>7</v>
@@ -20242,15 +20851,18 @@
         <v>8</v>
       </c>
       <c r="AE209" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF209" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>132</v>
@@ -20336,13 +20948,16 @@
       <c r="AE210" s="0" t="n">
         <v>182</v>
       </c>
+      <c r="AF210" s="0" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>24</v>
@@ -20428,13 +21043,16 @@
       <c r="AE211" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="AF211" s="0" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>7</v>
@@ -20518,15 +21136,18 @@
         <v>7</v>
       </c>
       <c r="AE212" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF212" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>212</v>
@@ -20612,13 +21233,16 @@
       <c r="AE213" s="0" t="n">
         <v>288</v>
       </c>
+      <c r="AF213" s="0" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>5</v>
@@ -20702,15 +21326,18 @@
         <v>4</v>
       </c>
       <c r="AE214" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF214" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>147</v>
@@ -20796,13 +21423,16 @@
       <c r="AE215" s="0" t="n">
         <v>318</v>
       </c>
+      <c r="AF215" s="0" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>3</v>
@@ -20849,10 +21479,10 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>6</v>
@@ -20936,15 +21566,18 @@
         <v>7</v>
       </c>
       <c r="AE217" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF217" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>305</v>
@@ -21030,13 +21663,16 @@
       <c r="AE218" s="0" t="n">
         <v>394</v>
       </c>
+      <c r="AF218" s="0" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>79</v>
@@ -21122,13 +21758,16 @@
       <c r="AE219" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="AF219" s="0" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>1161</v>
@@ -21214,13 +21853,16 @@
       <c r="AE220" s="0" t="n">
         <v>1521</v>
       </c>
+      <c r="AF220" s="0" t="n">
+        <v>1529</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>4</v>
@@ -21304,15 +21946,18 @@
         <v>5</v>
       </c>
       <c r="AE221" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF221" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>3</v>
@@ -21396,15 +22041,18 @@
         <v>4</v>
       </c>
       <c r="AE222" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF222" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>145</v>
@@ -21490,13 +22138,16 @@
       <c r="AE223" s="0" t="n">
         <v>151</v>
       </c>
+      <c r="AF223" s="0" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>14</v>
@@ -21582,13 +22233,16 @@
       <c r="AE224" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="AF224" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>135</v>
@@ -21674,13 +22328,16 @@
       <c r="AE225" s="0" t="n">
         <v>228</v>
       </c>
+      <c r="AF225" s="0" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>7</v>
@@ -21766,13 +22423,16 @@
       <c r="AE226" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AF226" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>24</v>
@@ -21858,13 +22518,16 @@
       <c r="AE227" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="AF227" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>81</v>
@@ -21950,13 +22613,16 @@
       <c r="AE228" s="0" t="n">
         <v>98</v>
       </c>
+      <c r="AF228" s="0" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>68</v>
@@ -22042,13 +22708,16 @@
       <c r="AE229" s="0" t="n">
         <v>124</v>
       </c>
+      <c r="AF229" s="0" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>6</v>
@@ -22132,6 +22801,9 @@
         <v>8</v>
       </c>
       <c r="AE230" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF230" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$T$230</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$T$231</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="494">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -121,6 +121,9 @@
     <t xml:space="preserve">2020/05/21</t>
   </si>
   <si>
+    <t xml:space="preserve">2020/05/22</t>
+  </si>
+  <si>
     <t xml:space="preserve">1401</t>
   </si>
   <si>
@@ -1262,6 +1265,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sintra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobral de Monte Agraço</t>
   </si>
   <si>
     <t xml:space="preserve">0615</t>
@@ -1620,14 +1629,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF230"/>
+  <dimension ref="A1:AG231"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="topRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG1" activeCellId="0" sqref="AG1"/>
+      <selection pane="bottomRight" activeCell="AH1" activeCellId="0" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1735,13 +1744,16 @@
       <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1828,15 +1840,18 @@
         <v>8</v>
       </c>
       <c r="AF2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -1923,15 +1938,18 @@
         <v>62</v>
       </c>
       <c r="AF3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG3" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2018,15 +2036,18 @@
         <v>87</v>
       </c>
       <c r="AF4" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="AG4" s="0" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2113,15 +2134,18 @@
         <v>74</v>
       </c>
       <c r="AF5" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG5" s="0" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2208,15 +2232,18 @@
         <v>7</v>
       </c>
       <c r="AF6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2303,15 +2330,18 @@
         <v>8</v>
       </c>
       <c r="AF7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2398,15 +2428,18 @@
         <v>39</v>
       </c>
       <c r="AF8" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG8" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2493,15 +2526,18 @@
         <v>23</v>
       </c>
       <c r="AF9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG9" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -2589,14 +2625,17 @@
       </c>
       <c r="AF10" s="0" t="n">
         <v>65</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -2683,15 +2722,18 @@
         <v>6</v>
       </c>
       <c r="AF11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -2769,15 +2811,18 @@
         <v>4</v>
       </c>
       <c r="AF12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -2865,14 +2910,17 @@
       </c>
       <c r="AF13" s="0" t="n">
         <v>326</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -2959,15 +3007,18 @@
         <v>4</v>
       </c>
       <c r="AF14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3054,15 +3105,18 @@
         <v>16</v>
       </c>
       <c r="AF15" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG15" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3149,15 +3203,18 @@
         <v>9</v>
       </c>
       <c r="AF16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG16" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3245,14 +3302,17 @@
       </c>
       <c r="AF17" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -3339,15 +3399,18 @@
         <v>24</v>
       </c>
       <c r="AF18" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG18" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -3435,14 +3498,17 @@
       </c>
       <c r="AF19" s="0" t="n">
         <v>600</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>617</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -3529,15 +3595,18 @@
         <v>93</v>
       </c>
       <c r="AF20" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="AG20" s="0" t="n">
         <v>93</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -3624,15 +3693,18 @@
         <v>72</v>
       </c>
       <c r="AF21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AG21" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -3719,15 +3791,18 @@
         <v>43</v>
       </c>
       <c r="AF22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG22" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -3814,15 +3889,18 @@
         <v>5</v>
       </c>
       <c r="AF23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -3909,15 +3987,18 @@
         <v>73</v>
       </c>
       <c r="AF24" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AG24" s="0" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -4004,15 +4085,18 @@
         <v>8</v>
       </c>
       <c r="AF25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG25" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -4099,15 +4183,18 @@
         <v>39</v>
       </c>
       <c r="AF26" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG26" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -4194,15 +4281,18 @@
         <v>12</v>
       </c>
       <c r="AF27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG27" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>243</v>
@@ -4290,14 +4380,17 @@
       </c>
       <c r="AF28" s="0" t="n">
         <v>331</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -4385,14 +4478,17 @@
       </c>
       <c r="AF29" s="0" t="n">
         <v>56</v>
+      </c>
+      <c r="AG29" s="0" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>9</v>
@@ -4480,14 +4576,17 @@
       </c>
       <c r="AF30" s="0" t="n">
         <v>25</v>
+      </c>
+      <c r="AG30" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>190</v>
@@ -4574,15 +4673,18 @@
         <v>295</v>
       </c>
       <c r="AF31" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="AG31" s="0" t="n">
         <v>295</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>86</v>
@@ -4669,15 +4771,18 @@
         <v>188</v>
       </c>
       <c r="AF32" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="AG32" s="0" t="n">
         <v>188</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -4764,15 +4869,18 @@
         <v>4</v>
       </c>
       <c r="AF33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG33" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -4859,15 +4967,18 @@
         <v>14</v>
       </c>
       <c r="AF34" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG34" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -4954,15 +5065,18 @@
         <v>32</v>
       </c>
       <c r="AF35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG35" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -5049,15 +5163,18 @@
         <v>4</v>
       </c>
       <c r="AF36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>950</v>
@@ -5144,15 +5261,18 @@
         <v>1196</v>
       </c>
       <c r="AF37" s="0" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AG37" s="0" t="n">
         <v>1199</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -5239,15 +5359,18 @@
         <v>119</v>
       </c>
       <c r="AF38" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="AG38" s="0" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>10</v>
@@ -5334,15 +5457,18 @@
         <v>16</v>
       </c>
       <c r="AF39" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG39" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -5429,15 +5555,18 @@
         <v>9</v>
       </c>
       <c r="AF40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG40" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>15</v>
@@ -5524,18 +5653,21 @@
         <v>25</v>
       </c>
       <c r="AF41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG41" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -5598,18 +5730,21 @@
         <v>4</v>
       </c>
       <c r="AF42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>3</v>
@@ -5641,10 +5776,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -5731,15 +5866,18 @@
         <v>38</v>
       </c>
       <c r="AF44" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG44" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -5827,14 +5965,17 @@
       </c>
       <c r="AF45" s="0" t="n">
         <v>18</v>
+      </c>
+      <c r="AG45" s="0" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -5921,15 +6062,18 @@
         <v>68</v>
       </c>
       <c r="AF46" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AG46" s="0" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -6016,15 +6160,18 @@
         <v>6</v>
       </c>
       <c r="AF47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG47" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -6111,15 +6258,18 @@
         <v>11</v>
       </c>
       <c r="AF48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG48" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -6207,14 +6357,17 @@
       </c>
       <c r="AF49" s="0" t="n">
         <v>52</v>
+      </c>
+      <c r="AG49" s="0" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>298</v>
@@ -6302,14 +6455,17 @@
       </c>
       <c r="AF50" s="0" t="n">
         <v>494</v>
+      </c>
+      <c r="AG50" s="0" t="n">
+        <v>498</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -6396,15 +6552,18 @@
         <v>6</v>
       </c>
       <c r="AF51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG51" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>9</v>
@@ -6491,15 +6650,18 @@
         <v>20</v>
       </c>
       <c r="AF52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG52" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>100</v>
@@ -6586,15 +6748,18 @@
         <v>104</v>
       </c>
       <c r="AF53" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="AG53" s="0" t="n">
         <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -6681,15 +6846,18 @@
         <v>3</v>
       </c>
       <c r="AF54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -6776,15 +6944,18 @@
         <v>6</v>
       </c>
       <c r="AF55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG55" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -6871,15 +7042,18 @@
         <v>23</v>
       </c>
       <c r="AF56" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG56" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -6966,15 +7140,18 @@
         <v>9</v>
       </c>
       <c r="AF57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG57" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -7061,15 +7238,18 @@
         <v>26</v>
       </c>
       <c r="AF58" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG58" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>8</v>
@@ -7156,15 +7336,18 @@
         <v>21</v>
       </c>
       <c r="AF59" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG59" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>367</v>
@@ -7251,15 +7434,18 @@
         <v>572</v>
       </c>
       <c r="AF60" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="AG60" s="0" t="n">
         <v>574</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>61</v>
@@ -7346,15 +7532,18 @@
         <v>154</v>
       </c>
       <c r="AF61" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="AG61" s="0" t="n">
         <v>154</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -7441,15 +7630,18 @@
         <v>39</v>
       </c>
       <c r="AF62" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG62" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -7536,15 +7728,18 @@
         <v>7</v>
       </c>
       <c r="AF63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -7631,15 +7826,18 @@
         <v>4</v>
       </c>
       <c r="AF64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>8</v>
@@ -7726,15 +7924,18 @@
         <v>9</v>
       </c>
       <c r="AF65" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG65" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>3</v>
@@ -7812,15 +8013,18 @@
         <v>6</v>
       </c>
       <c r="AF66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG66" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>63</v>
@@ -7907,15 +8111,18 @@
         <v>82</v>
       </c>
       <c r="AF67" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="AG67" s="0" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>38</v>
@@ -8002,15 +8209,18 @@
         <v>44</v>
       </c>
       <c r="AF68" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG68" s="0" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -8097,15 +8307,18 @@
         <v>95</v>
       </c>
       <c r="AF69" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG69" s="0" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -8193,14 +8406,17 @@
       </c>
       <c r="AF70" s="0" t="n">
         <v>23</v>
+      </c>
+      <c r="AG70" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>71</v>
@@ -8288,14 +8504,17 @@
       </c>
       <c r="AF71" s="0" t="n">
         <v>119</v>
+      </c>
+      <c r="AG71" s="0" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>56</v>
@@ -8383,14 +8602,17 @@
       </c>
       <c r="AF72" s="0" t="n">
         <v>62</v>
+      </c>
+      <c r="AG72" s="0" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>275</v>
@@ -8478,14 +8700,17 @@
       </c>
       <c r="AF73" s="0" t="n">
         <v>396</v>
+      </c>
+      <c r="AG73" s="0" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>17</v>
@@ -8572,15 +8797,18 @@
         <v>32</v>
       </c>
       <c r="AF74" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG74" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -8618,10 +8846,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -8708,15 +8936,18 @@
         <v>4</v>
       </c>
       <c r="AF76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG76" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>3</v>
@@ -8770,15 +9001,18 @@
         <v>3</v>
       </c>
       <c r="AF77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -8865,15 +9099,18 @@
         <v>26</v>
       </c>
       <c r="AF78" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG78" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>3</v>
@@ -8945,15 +9182,18 @@
         <v>4</v>
       </c>
       <c r="AF79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG79" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -9040,15 +9280,18 @@
         <v>10</v>
       </c>
       <c r="AF80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG80" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>894</v>
@@ -9135,15 +9378,18 @@
         <v>1065</v>
       </c>
       <c r="AF81" s="0" t="n">
+        <v>1065</v>
+      </c>
+      <c r="AG81" s="0" t="n">
         <v>1065</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -9230,15 +9476,18 @@
         <v>22</v>
       </c>
       <c r="AF82" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG82" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -9325,15 +9574,18 @@
         <v>11</v>
       </c>
       <c r="AF83" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG83" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -9420,15 +9672,18 @@
         <v>24</v>
       </c>
       <c r="AF84" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG84" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>458</v>
@@ -9516,14 +9771,17 @@
       </c>
       <c r="AF85" s="0" t="n">
         <v>699</v>
+      </c>
+      <c r="AG85" s="0" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -9610,15 +9868,18 @@
         <v>6</v>
       </c>
       <c r="AF86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -9705,18 +9966,21 @@
         <v>125</v>
       </c>
       <c r="AF87" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="AG87" s="0" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -9803,15 +10067,18 @@
         <v>9</v>
       </c>
       <c r="AF88" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG88" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -9898,15 +10165,18 @@
         <v>4</v>
       </c>
       <c r="AF89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG89" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -9993,15 +10263,18 @@
         <v>39</v>
       </c>
       <c r="AF90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG90" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>61</v>
@@ -10088,15 +10361,18 @@
         <v>80</v>
       </c>
       <c r="AF91" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG91" s="0" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1266</v>
@@ -10184,14 +10460,17 @@
       </c>
       <c r="AF92" s="0" t="n">
         <v>2076</v>
+      </c>
+      <c r="AG92" s="0" t="n">
+        <v>2107</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -10278,15 +10557,18 @@
         <v>63</v>
       </c>
       <c r="AF93" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG93" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>301</v>
@@ -10374,14 +10656,17 @@
       </c>
       <c r="AF94" s="0" t="n">
         <v>715</v>
+      </c>
+      <c r="AG94" s="0" t="n">
+        <v>771</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -10468,15 +10753,18 @@
         <v>6</v>
       </c>
       <c r="AF95" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG95" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -10564,14 +10852,17 @@
       </c>
       <c r="AF96" s="0" t="n">
         <v>19</v>
+      </c>
+      <c r="AG96" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>162</v>
@@ -10658,15 +10949,18 @@
         <v>309</v>
       </c>
       <c r="AF97" s="0" t="n">
+        <v>315</v>
+      </c>
+      <c r="AG97" s="0" t="n">
         <v>315</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -10754,14 +11048,17 @@
       </c>
       <c r="AF98" s="0" t="n">
         <v>21</v>
+      </c>
+      <c r="AG98" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -10848,15 +11145,18 @@
         <v>5</v>
       </c>
       <c r="AF99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -10943,15 +11243,18 @@
         <v>104</v>
       </c>
       <c r="AF100" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="AG100" s="0" t="n">
         <v>106</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>763</v>
@@ -11038,15 +11341,18 @@
         <v>916</v>
       </c>
       <c r="AF101" s="0" t="n">
+        <v>926</v>
+      </c>
+      <c r="AG101" s="0" t="n">
         <v>926</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>62</v>
@@ -11133,15 +11439,18 @@
         <v>78</v>
       </c>
       <c r="AF102" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AG102" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -11228,15 +11537,18 @@
         <v>7</v>
       </c>
       <c r="AF103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>59</v>
@@ -11323,15 +11635,18 @@
         <v>86</v>
       </c>
       <c r="AF104" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="AG104" s="0" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>14</v>
@@ -11418,15 +11733,18 @@
         <v>18</v>
       </c>
       <c r="AF105" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG105" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>929</v>
@@ -11514,14 +11832,17 @@
       </c>
       <c r="AF106" s="0" t="n">
         <v>1250</v>
+      </c>
+      <c r="AG106" s="0" t="n">
+        <v>1257</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -11608,15 +11929,18 @@
         <v>17</v>
       </c>
       <c r="AF107" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG107" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -11703,15 +12027,18 @@
         <v>61</v>
       </c>
       <c r="AF108" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG108" s="0" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -11798,15 +12125,18 @@
         <v>5</v>
       </c>
       <c r="AF109" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG109" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>13</v>
@@ -11893,15 +12223,18 @@
         <v>16</v>
       </c>
       <c r="AF110" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG110" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -11988,15 +12321,18 @@
         <v>10</v>
       </c>
       <c r="AF111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG111" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -12083,15 +12419,18 @@
         <v>19</v>
       </c>
       <c r="AF112" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG112" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>3</v>
@@ -12169,15 +12508,18 @@
         <v>5</v>
       </c>
       <c r="AF113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -12264,15 +12606,18 @@
         <v>15</v>
       </c>
       <c r="AF114" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG114" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>61</v>
@@ -12360,14 +12705,17 @@
       </c>
       <c r="AF115" s="0" t="n">
         <v>126</v>
+      </c>
+      <c r="AG115" s="0" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -12454,15 +12802,18 @@
         <v>111</v>
       </c>
       <c r="AF116" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="AG116" s="0" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -12476,10 +12827,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -12505,10 +12856,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>4</v>
@@ -12595,15 +12946,18 @@
         <v>7</v>
       </c>
       <c r="AF119" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG119" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -12690,15 +13044,18 @@
         <v>28</v>
       </c>
       <c r="AF120" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG120" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -12786,14 +13143,17 @@
       </c>
       <c r="AF121" s="0" t="n">
         <v>115</v>
+      </c>
+      <c r="AG121" s="0" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>4</v>
@@ -12880,15 +13240,18 @@
         <v>11</v>
       </c>
       <c r="AF122" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG122" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -12975,15 +13338,18 @@
         <v>71</v>
       </c>
       <c r="AF123" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AG123" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -13070,15 +13436,18 @@
         <v>20</v>
       </c>
       <c r="AF124" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG124" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -13165,15 +13534,18 @@
         <v>17</v>
       </c>
       <c r="AF125" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG125" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>14</v>
@@ -13260,15 +13632,18 @@
         <v>19</v>
       </c>
       <c r="AF126" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG126" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>5</v>
@@ -13349,15 +13724,18 @@
         <v>28</v>
       </c>
       <c r="AF127" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG127" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>3</v>
@@ -13365,10 +13743,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>3</v>
@@ -13452,15 +13830,18 @@
         <v>8</v>
       </c>
       <c r="AF129" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG129" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>187</v>
@@ -13548,14 +13929,17 @@
       </c>
       <c r="AF130" s="0" t="n">
         <v>404</v>
+      </c>
+      <c r="AG130" s="0" t="n">
+        <v>428</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>218</v>
@@ -13643,14 +14027,17 @@
       </c>
       <c r="AF131" s="0" t="n">
         <v>343</v>
+      </c>
+      <c r="AG131" s="0" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>15</v>
@@ -13737,15 +14124,18 @@
         <v>12</v>
       </c>
       <c r="AF132" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG132" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>149</v>
@@ -13832,15 +14222,18 @@
         <v>203</v>
       </c>
       <c r="AF133" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="AG133" s="0" t="n">
         <v>207</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>8</v>
@@ -13927,15 +14320,18 @@
         <v>12</v>
       </c>
       <c r="AF134" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG134" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>17</v>
@@ -14022,15 +14418,18 @@
         <v>36</v>
       </c>
       <c r="AF135" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG135" s="0" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>12</v>
@@ -14117,15 +14516,18 @@
         <v>22</v>
       </c>
       <c r="AF136" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG136" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>29</v>
@@ -14212,15 +14614,18 @@
         <v>28</v>
       </c>
       <c r="AF137" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG137" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>532</v>
@@ -14307,15 +14712,18 @@
         <v>646</v>
       </c>
       <c r="AF138" s="0" t="n">
+        <v>651</v>
+      </c>
+      <c r="AG138" s="0" t="n">
         <v>651</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>219</v>
@@ -14403,14 +14811,17 @@
       </c>
       <c r="AF139" s="0" t="n">
         <v>299</v>
+      </c>
+      <c r="AG139" s="0" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>18</v>
@@ -14497,15 +14908,18 @@
         <v>24</v>
       </c>
       <c r="AF140" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG140" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>250</v>
@@ -14593,14 +15007,17 @@
       </c>
       <c r="AF141" s="0" t="n">
         <v>330</v>
+      </c>
+      <c r="AG141" s="0" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>7</v>
@@ -14687,15 +15104,18 @@
         <v>7</v>
       </c>
       <c r="AF142" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG142" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>3</v>
@@ -14782,15 +15202,18 @@
         <v>3</v>
       </c>
       <c r="AF143" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG143" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>13</v>
@@ -14877,15 +15300,18 @@
         <v>21</v>
       </c>
       <c r="AF144" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG144" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>134</v>
@@ -14973,14 +15399,17 @@
       </c>
       <c r="AF145" s="0" t="n">
         <v>165</v>
+      </c>
+      <c r="AG145" s="0" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>3</v>
@@ -15067,15 +15496,18 @@
         <v>4</v>
       </c>
       <c r="AF146" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG146" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>10</v>
@@ -15162,15 +15594,18 @@
         <v>8</v>
       </c>
       <c r="AF147" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG147" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>52</v>
@@ -15258,14 +15693,17 @@
       </c>
       <c r="AF148" s="0" t="n">
         <v>61</v>
+      </c>
+      <c r="AG148" s="0" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>22</v>
@@ -15352,15 +15790,18 @@
         <v>23</v>
       </c>
       <c r="AF149" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG149" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>38</v>
@@ -15447,15 +15888,18 @@
         <v>60</v>
       </c>
       <c r="AF150" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG150" s="0" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>4</v>
@@ -15542,15 +15986,18 @@
         <v>8</v>
       </c>
       <c r="AF151" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG151" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>5</v>
@@ -15637,15 +16084,18 @@
         <v>6</v>
       </c>
       <c r="AF152" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG152" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>5</v>
@@ -15732,15 +16182,18 @@
         <v>6</v>
       </c>
       <c r="AF153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG153" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>24</v>
@@ -15828,14 +16281,17 @@
       </c>
       <c r="AF154" s="0" t="n">
         <v>27</v>
+      </c>
+      <c r="AG154" s="0" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>3</v>
@@ -15861,10 +16317,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>6</v>
@@ -15951,15 +16407,18 @@
         <v>6</v>
       </c>
       <c r="AF156" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG156" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>3</v>
@@ -16046,15 +16505,18 @@
         <v>6</v>
       </c>
       <c r="AF157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG157" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>33</v>
@@ -16141,15 +16603,18 @@
         <v>38</v>
       </c>
       <c r="AF158" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG158" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1099</v>
@@ -16237,14 +16702,17 @@
       </c>
       <c r="AF159" s="0" t="n">
         <v>1336</v>
+      </c>
+      <c r="AG159" s="0" t="n">
+        <v>1337</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>6</v>
@@ -16331,15 +16799,18 @@
         <v>9</v>
       </c>
       <c r="AF160" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG160" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>5</v>
@@ -16426,15 +16897,18 @@
         <v>4</v>
       </c>
       <c r="AF161" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG161" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>35</v>
@@ -16521,15 +16995,18 @@
         <v>58</v>
       </c>
       <c r="AF162" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG162" s="0" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>95</v>
@@ -16616,15 +17093,18 @@
         <v>150</v>
       </c>
       <c r="AF163" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="AG163" s="0" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>6</v>
@@ -16711,15 +17191,18 @@
         <v>7</v>
       </c>
       <c r="AF164" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG164" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>61</v>
@@ -16806,15 +17289,18 @@
         <v>64</v>
       </c>
       <c r="AF165" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG165" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>3</v>
@@ -16901,15 +17387,18 @@
         <v>3</v>
       </c>
       <c r="AF166" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG166" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>14</v>
@@ -16996,15 +17485,18 @@
         <v>19</v>
       </c>
       <c r="AF167" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG167" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>4</v>
@@ -17091,15 +17583,18 @@
         <v>7</v>
       </c>
       <c r="AF168" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG168" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>6</v>
@@ -17186,15 +17681,18 @@
         <v>10</v>
       </c>
       <c r="AF169" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG169" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>9</v>
@@ -17281,15 +17779,18 @@
         <v>9</v>
       </c>
       <c r="AF170" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG170" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>6</v>
@@ -17376,15 +17877,18 @@
         <v>5</v>
       </c>
       <c r="AF171" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG171" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>356</v>
@@ -17472,14 +17976,17 @@
       </c>
       <c r="AF172" s="0" t="n">
         <v>469</v>
+      </c>
+      <c r="AG172" s="0" t="n">
+        <v>470</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S173" s="0" t="n">
         <v>3</v>
@@ -17521,15 +18028,18 @@
         <v>3</v>
       </c>
       <c r="AF173" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG173" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>65</v>
@@ -17616,15 +18126,18 @@
         <v>98</v>
       </c>
       <c r="AF174" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="AG174" s="0" t="n">
         <v>102</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>13</v>
@@ -17711,15 +18224,18 @@
         <v>17</v>
       </c>
       <c r="AF175" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG175" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>280</v>
@@ -17806,15 +18322,18 @@
         <v>388</v>
       </c>
       <c r="AF176" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="AG176" s="0" t="n">
         <v>388</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA177" s="0" t="n">
         <v>3</v>
@@ -17832,15 +18351,18 @@
         <v>3</v>
       </c>
       <c r="AF177" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG177" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>55</v>
@@ -17927,15 +18449,18 @@
         <v>67</v>
       </c>
       <c r="AF178" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AG178" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>8</v>
@@ -18022,15 +18547,18 @@
         <v>9</v>
       </c>
       <c r="AF179" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG179" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>3</v>
@@ -18117,15 +18645,18 @@
         <v>3</v>
       </c>
       <c r="AF180" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG180" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>7</v>
@@ -18212,15 +18743,18 @@
         <v>8</v>
       </c>
       <c r="AF181" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG181" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>8</v>
@@ -18307,15 +18841,18 @@
         <v>13</v>
       </c>
       <c r="AF182" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG182" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>147</v>
@@ -18403,14 +18940,17 @@
       </c>
       <c r="AF183" s="0" t="n">
         <v>283</v>
+      </c>
+      <c r="AG183" s="0" t="n">
+        <v>291</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J184" s="0" t="n">
         <v>4</v>
@@ -18479,15 +19019,18 @@
         <v>6</v>
       </c>
       <c r="AF184" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG184" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>18</v>
@@ -18574,15 +19117,18 @@
         <v>14</v>
       </c>
       <c r="AF185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG185" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>4</v>
@@ -18669,15 +19215,18 @@
         <v>4</v>
       </c>
       <c r="AF186" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG186" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>19</v>
@@ -18764,15 +19313,18 @@
         <v>26</v>
       </c>
       <c r="AF187" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG187" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>59</v>
@@ -18859,15 +19411,18 @@
         <v>83</v>
       </c>
       <c r="AF188" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="AG188" s="0" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>29</v>
@@ -18954,15 +19509,18 @@
         <v>43</v>
       </c>
       <c r="AF189" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG189" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>21</v>
@@ -19049,15 +19607,18 @@
         <v>24</v>
       </c>
       <c r="AF190" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG190" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>514</v>
@@ -19145,228 +19706,150 @@
       </c>
       <c r="AF191" s="0" t="n">
         <v>957</v>
+      </c>
+      <c r="AG191" s="0" t="n">
+        <v>1006</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="D192" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E192" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="F192" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="H192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="I192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="J192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="K192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="L192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="M192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="N192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="O192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q192" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="R192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="S192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="T192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="U192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="V192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="W192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="X192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB192" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC192" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD192" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE192" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF192" s="0" t="n">
-        <v>24</v>
+        <v>415</v>
+      </c>
+      <c r="AG192" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J193" s="0" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K193" s="0" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L193" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M193" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N193" s="0" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="O193" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="P193" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="Q193" s="0" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="R193" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="S193" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="T193" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="U193" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="V193" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="W193" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="X193" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="Y193" s="0" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="Z193" s="0" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AA193" s="0" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AB193" s="0" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AC193" s="0" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AD193" s="0" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AE193" s="0" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AF193" s="0" t="n">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="AG193" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J194" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K194" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L194" s="0" t="n">
         <v>30</v>
@@ -19375,1313 +19858,1355 @@
         <v>30</v>
       </c>
       <c r="N194" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y194" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z194" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AA194" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AB194" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC194" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD194" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AE194" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AF194" s="0" t="n">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="AG194" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J195" s="0" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="O195" s="0" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="P195" s="0" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Q195" s="0" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="R195" s="0" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="S195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="T195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="U195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="V195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="W195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="X195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Y195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Z195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AA195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AB195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AC195" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AD195" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AE195" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AF195" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="AG195" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D196" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J196" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O196" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P196" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q196" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R196" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="U196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="W196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC196" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD196" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E196" s="0" t="n">
+      <c r="AE196" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F196" s="0" t="n">
+      <c r="AF196" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="I196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="L196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="N196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="O196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="P196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="R196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="S196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="T196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="U196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="V196" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="W196" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="X196" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y196" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z196" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA196" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB196" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC196" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD196" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE196" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF196" s="0" t="n">
-        <v>12</v>
+      <c r="AG196" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D197" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="O197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="P197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="R197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="S197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="U197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="V197" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="W197" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="I197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="J197" s="0" t="n">
+      <c r="X197" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K197" s="0" t="n">
+      <c r="Y197" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="L197" s="0" t="n">
+      <c r="Z197" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="M197" s="0" t="n">
+      <c r="AA197" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="N197" s="0" t="n">
+      <c r="AB197" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="O197" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="P197" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q197" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="R197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="S197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="T197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="U197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="V197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="W197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="X197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA197" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB197" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="AC197" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD197" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE197" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF197" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="AG197" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J198" s="0" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K198" s="0" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L198" s="0" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M198" s="0" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N198" s="0" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="O198" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P198" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q198" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="R198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="S198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="T198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="U198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="V198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="W198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="X198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AC198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AD198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AF198" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="AG198" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J199" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K199" s="0" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L199" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M199" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N199" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="O199" s="0" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P199" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q199" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="R199" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S199" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="T199" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="U199" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="V199" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="W199" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="X199" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Y199" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Z199" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AA199" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AB199" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AC199" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AD199" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AE199" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AF199" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="AG199" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J200" s="0" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K200" s="0" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="L200" s="0" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M200" s="0" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="N200" s="0" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="O200" s="0" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P200" s="0" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Q200" s="0" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="R200" s="0" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="S200" s="0" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="T200" s="0" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="U200" s="0" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="V200" s="0" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="W200" s="0" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="X200" s="0" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="Y200" s="0" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="Z200" s="0" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="AA200" s="0" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AB200" s="0" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AC200" s="0" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AD200" s="0" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="AE200" s="0" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="AF200" s="0" t="n">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="AG200" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J201" s="0" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K201" s="0" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L201" s="0" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M201" s="0" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N201" s="0" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="O201" s="0" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P201" s="0" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q201" s="0" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="R201" s="0" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="S201" s="0" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="T201" s="0" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="U201" s="0" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="V201" s="0" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="W201" s="0" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="X201" s="0" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="Y201" s="0" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="Z201" s="0" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="AA201" s="0" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="AB201" s="0" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AC201" s="0" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AD201" s="0" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="AE201" s="0" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="AF201" s="0" t="n">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="AG201" s="0" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="J202" s="0" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="K202" s="0" t="n">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="L202" s="0" t="n">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="M202" s="0" t="n">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="N202" s="0" t="n">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="O202" s="0" t="n">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="P202" s="0" t="n">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="Q202" s="0" t="n">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="R202" s="0" t="n">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="S202" s="0" t="n">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="T202" s="0" t="n">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="U202" s="0" t="n">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="V202" s="0" t="n">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="W202" s="0" t="n">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="X202" s="0" t="n">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="Y202" s="0" t="n">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="Z202" s="0" t="n">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="AA202" s="0" t="n">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="AB202" s="0" t="n">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="AC202" s="0" t="n">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="AD202" s="0" t="n">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="AE202" s="0" t="n">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="AF202" s="0" t="n">
-        <v>145</v>
+        <v>18</v>
+      </c>
+      <c r="AG202" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="J203" s="0" t="n">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="K203" s="0" t="n">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="L203" s="0" t="n">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="M203" s="0" t="n">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="N203" s="0" t="n">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="O203" s="0" t="n">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="P203" s="0" t="n">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="Q203" s="0" t="n">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="R203" s="0" t="n">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="S203" s="0" t="n">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="T203" s="0" t="n">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="U203" s="0" t="n">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="V203" s="0" t="n">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="W203" s="0" t="n">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="X203" s="0" t="n">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="Y203" s="0" t="n">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="Z203" s="0" t="n">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="AA203" s="0" t="n">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="AB203" s="0" t="n">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="AC203" s="0" t="n">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="AD203" s="0" t="n">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="AE203" s="0" t="n">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="AF203" s="0" t="n">
-        <v>22</v>
+        <v>145</v>
+      </c>
+      <c r="AG203" s="0" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="J204" s="0" t="n">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="K204" s="0" t="n">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="L204" s="0" t="n">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="M204" s="0" t="n">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="N204" s="0" t="n">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O204" s="0" t="n">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="P204" s="0" t="n">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="Q204" s="0" t="n">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="R204" s="0" t="n">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="S204" s="0" t="n">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="T204" s="0" t="n">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="U204" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="V204" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="W204" s="0" t="n">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="X204" s="0" t="n">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="Y204" s="0" t="n">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="Z204" s="0" t="n">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="AA204" s="0" t="n">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="AB204" s="0" t="n">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="AC204" s="0" t="n">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="AD204" s="0" t="n">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="AE204" s="0" t="n">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="AF204" s="0" t="n">
-        <v>154</v>
+        <v>22</v>
+      </c>
+      <c r="AG204" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="J205" s="0" t="n">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="K205" s="0" t="n">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="L205" s="0" t="n">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="M205" s="0" t="n">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="N205" s="0" t="n">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="O205" s="0" t="n">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="P205" s="0" t="n">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="Q205" s="0" t="n">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="R205" s="0" t="n">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="S205" s="0" t="n">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="T205" s="0" t="n">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="U205" s="0" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="V205" s="0" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="W205" s="0" t="n">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="X205" s="0" t="n">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="Y205" s="0" t="n">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="Z205" s="0" t="n">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="AA205" s="0" t="n">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="AB205" s="0" t="n">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="AC205" s="0" t="n">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="AD205" s="0" t="n">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="AE205" s="0" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="AF205" s="0" t="n">
-        <v>12</v>
+        <v>154</v>
+      </c>
+      <c r="AG205" s="0" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>655</v>
+        <v>7</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>655</v>
+        <v>7</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>660</v>
+        <v>7</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="J206" s="0" t="n">
-        <v>699</v>
+        <v>7</v>
       </c>
       <c r="K206" s="0" t="n">
-        <v>724</v>
+        <v>7</v>
       </c>
       <c r="L206" s="0" t="n">
-        <v>729</v>
+        <v>7</v>
       </c>
       <c r="M206" s="0" t="n">
-        <v>729</v>
+        <v>7</v>
       </c>
       <c r="N206" s="0" t="n">
-        <v>729</v>
+        <v>7</v>
       </c>
       <c r="O206" s="0" t="n">
-        <v>729</v>
+        <v>6</v>
       </c>
       <c r="P206" s="0" t="n">
-        <v>729</v>
+        <v>6</v>
       </c>
       <c r="Q206" s="0" t="n">
-        <v>729</v>
+        <v>7</v>
       </c>
       <c r="R206" s="0" t="n">
-        <v>729</v>
+        <v>12</v>
       </c>
       <c r="S206" s="0" t="n">
-        <v>734</v>
+        <v>12</v>
       </c>
       <c r="T206" s="0" t="n">
-        <v>737</v>
+        <v>12</v>
       </c>
       <c r="U206" s="0" t="n">
-        <v>737</v>
+        <v>12</v>
       </c>
       <c r="V206" s="0" t="n">
-        <v>737</v>
+        <v>12</v>
       </c>
       <c r="W206" s="0" t="n">
-        <v>737</v>
+        <v>12</v>
       </c>
       <c r="X206" s="0" t="n">
-        <v>737</v>
+        <v>12</v>
       </c>
       <c r="Y206" s="0" t="n">
-        <v>737</v>
+        <v>12</v>
       </c>
       <c r="Z206" s="0" t="n">
-        <v>738</v>
+        <v>12</v>
       </c>
       <c r="AA206" s="0" t="n">
-        <v>739</v>
+        <v>12</v>
       </c>
       <c r="AB206" s="0" t="n">
-        <v>740</v>
+        <v>12</v>
       </c>
       <c r="AC206" s="0" t="n">
-        <v>740</v>
+        <v>12</v>
       </c>
       <c r="AD206" s="0" t="n">
-        <v>746</v>
+        <v>12</v>
       </c>
       <c r="AE206" s="0" t="n">
-        <v>751</v>
+        <v>12</v>
       </c>
       <c r="AF206" s="0" t="n">
-        <v>753</v>
+        <v>12</v>
+      </c>
+      <c r="AG206" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>5</v>
+        <v>655</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>5</v>
+        <v>655</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>5</v>
+        <v>660</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="J207" s="0" t="n">
-        <v>6</v>
+        <v>699</v>
       </c>
       <c r="K207" s="0" t="n">
-        <v>6</v>
+        <v>724</v>
       </c>
       <c r="L207" s="0" t="n">
-        <v>6</v>
+        <v>729</v>
       </c>
       <c r="M207" s="0" t="n">
-        <v>6</v>
+        <v>729</v>
       </c>
       <c r="N207" s="0" t="n">
-        <v>6</v>
+        <v>729</v>
       </c>
       <c r="O207" s="0" t="n">
-        <v>6</v>
+        <v>729</v>
       </c>
       <c r="P207" s="0" t="n">
-        <v>6</v>
+        <v>729</v>
       </c>
       <c r="Q207" s="0" t="n">
-        <v>6</v>
+        <v>729</v>
       </c>
       <c r="R207" s="0" t="n">
-        <v>6</v>
+        <v>729</v>
       </c>
       <c r="S207" s="0" t="n">
-        <v>6</v>
+        <v>734</v>
       </c>
       <c r="T207" s="0" t="n">
-        <v>6</v>
+        <v>737</v>
       </c>
       <c r="U207" s="0" t="n">
-        <v>6</v>
+        <v>737</v>
       </c>
       <c r="V207" s="0" t="n">
-        <v>6</v>
+        <v>737</v>
       </c>
       <c r="W207" s="0" t="n">
-        <v>6</v>
+        <v>737</v>
       </c>
       <c r="X207" s="0" t="n">
-        <v>6</v>
+        <v>737</v>
       </c>
       <c r="Y207" s="0" t="n">
-        <v>6</v>
+        <v>737</v>
       </c>
       <c r="Z207" s="0" t="n">
-        <v>6</v>
+        <v>738</v>
       </c>
       <c r="AA207" s="0" t="n">
-        <v>6</v>
+        <v>739</v>
       </c>
       <c r="AB207" s="0" t="n">
-        <v>6</v>
+        <v>740</v>
       </c>
       <c r="AC207" s="0" t="n">
-        <v>6</v>
+        <v>740</v>
       </c>
       <c r="AD207" s="0" t="n">
-        <v>6</v>
+        <v>746</v>
       </c>
       <c r="AE207" s="0" t="n">
-        <v>6</v>
+        <v>751</v>
       </c>
       <c r="AF207" s="0" t="n">
-        <v>6</v>
+        <v>753</v>
+      </c>
+      <c r="AG207" s="0" t="n">
+        <v>753</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>6</v>
@@ -20693,1310 +21218,1349 @@
         <v>6</v>
       </c>
       <c r="J208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF208" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="AG208" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J209" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K209" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L209" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M209" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N209" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O209" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P209" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q209" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R209" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S209" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T209" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U209" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF209" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="AG209" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="J210" s="0" t="n">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="K210" s="0" t="n">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="L210" s="0" t="n">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="M210" s="0" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="N210" s="0" t="n">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="O210" s="0" t="n">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="P210" s="0" t="n">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="Q210" s="0" t="n">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="R210" s="0" t="n">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="S210" s="0" t="n">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="T210" s="0" t="n">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="U210" s="0" t="n">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="V210" s="0" t="n">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="W210" s="0" t="n">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="X210" s="0" t="n">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="Y210" s="0" t="n">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="Z210" s="0" t="n">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="AA210" s="0" t="n">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="AB210" s="0" t="n">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="AC210" s="0" t="n">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="AD210" s="0" t="n">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="AE210" s="0" t="n">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="AF210" s="0" t="n">
-        <v>183</v>
+        <v>8</v>
+      </c>
+      <c r="AG210" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="J211" s="0" t="n">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="K211" s="0" t="n">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="L211" s="0" t="n">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="M211" s="0" t="n">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="N211" s="0" t="n">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="O211" s="0" t="n">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="P211" s="0" t="n">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="Q211" s="0" t="n">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="R211" s="0" t="n">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="S211" s="0" t="n">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="T211" s="0" t="n">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="U211" s="0" t="n">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="V211" s="0" t="n">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="W211" s="0" t="n">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="X211" s="0" t="n">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="Y211" s="0" t="n">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="Z211" s="0" t="n">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="AA211" s="0" t="n">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="AB211" s="0" t="n">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="AC211" s="0" t="n">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="AD211" s="0" t="n">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="AE211" s="0" t="n">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="AF211" s="0" t="n">
-        <v>36</v>
+        <v>183</v>
+      </c>
+      <c r="AG211" s="0" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J212" s="0" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K212" s="0" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="L212" s="0" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M212" s="0" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N212" s="0" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="O212" s="0" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="P212" s="0" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="Q212" s="0" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="R212" s="0" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="S212" s="0" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="T212" s="0" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="U212" s="0" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="V212" s="0" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="W212" s="0" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="X212" s="0" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Y212" s="0" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Z212" s="0" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AA212" s="0" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AB212" s="0" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AC212" s="0" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AD212" s="0" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AE212" s="0" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AF212" s="0" t="n">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="AG212" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="J213" s="0" t="n">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="K213" s="0" t="n">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="L213" s="0" t="n">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="M213" s="0" t="n">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="N213" s="0" t="n">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="O213" s="0" t="n">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="P213" s="0" t="n">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="Q213" s="0" t="n">
-        <v>266</v>
+        <v>7</v>
       </c>
       <c r="R213" s="0" t="n">
-        <v>268</v>
+        <v>7</v>
       </c>
       <c r="S213" s="0" t="n">
-        <v>274</v>
+        <v>7</v>
       </c>
       <c r="T213" s="0" t="n">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="U213" s="0" t="n">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="V213" s="0" t="n">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="W213" s="0" t="n">
-        <v>281</v>
+        <v>7</v>
       </c>
       <c r="X213" s="0" t="n">
-        <v>281</v>
+        <v>7</v>
       </c>
       <c r="Y213" s="0" t="n">
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="Z213" s="0" t="n">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="AA213" s="0" t="n">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="AB213" s="0" t="n">
-        <v>286</v>
+        <v>7</v>
       </c>
       <c r="AC213" s="0" t="n">
-        <v>286</v>
+        <v>7</v>
       </c>
       <c r="AD213" s="0" t="n">
-        <v>287</v>
+        <v>7</v>
       </c>
       <c r="AE213" s="0" t="n">
-        <v>288</v>
+        <v>7</v>
       </c>
       <c r="AF213" s="0" t="n">
-        <v>290</v>
+        <v>7</v>
+      </c>
+      <c r="AG213" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="J214" s="0" t="n">
-        <v>5</v>
+        <v>241</v>
       </c>
       <c r="K214" s="0" t="n">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="L214" s="0" t="n">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="M214" s="0" t="n">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="N214" s="0" t="n">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="O214" s="0" t="n">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="P214" s="0" t="n">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="Q214" s="0" t="n">
-        <v>3</v>
+        <v>266</v>
       </c>
       <c r="R214" s="0" t="n">
-        <v>3</v>
+        <v>268</v>
       </c>
       <c r="S214" s="0" t="n">
-        <v>3</v>
+        <v>274</v>
       </c>
       <c r="T214" s="0" t="n">
-        <v>3</v>
+        <v>276</v>
       </c>
       <c r="U214" s="0" t="n">
-        <v>3</v>
+        <v>279</v>
       </c>
       <c r="V214" s="0" t="n">
-        <v>3</v>
+        <v>279</v>
       </c>
       <c r="W214" s="0" t="n">
-        <v>3</v>
+        <v>281</v>
       </c>
       <c r="X214" s="0" t="n">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="Y214" s="0" t="n">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="Z214" s="0" t="n">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="AA214" s="0" t="n">
-        <v>4</v>
+        <v>285</v>
       </c>
       <c r="AB214" s="0" t="n">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="AC214" s="0" t="n">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="AD214" s="0" t="n">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="AE214" s="0" t="n">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="AF214" s="0" t="n">
-        <v>4</v>
+        <v>290</v>
+      </c>
+      <c r="AG214" s="0" t="n">
+        <v>290</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="J215" s="0" t="n">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="K215" s="0" t="n">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="L215" s="0" t="n">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="M215" s="0" t="n">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="N215" s="0" t="n">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="O215" s="0" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="P215" s="0" t="n">
-        <v>216</v>
+        <v>3</v>
       </c>
       <c r="Q215" s="0" t="n">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="R215" s="0" t="n">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="S215" s="0" t="n">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="T215" s="0" t="n">
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="U215" s="0" t="n">
-        <v>257</v>
+        <v>3</v>
       </c>
       <c r="V215" s="0" t="n">
-        <v>258</v>
+        <v>3</v>
       </c>
       <c r="W215" s="0" t="n">
-        <v>264</v>
+        <v>3</v>
       </c>
       <c r="X215" s="0" t="n">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="Y215" s="0" t="n">
-        <v>286</v>
+        <v>4</v>
       </c>
       <c r="Z215" s="0" t="n">
-        <v>292</v>
+        <v>4</v>
       </c>
       <c r="AA215" s="0" t="n">
-        <v>294</v>
+        <v>4</v>
       </c>
       <c r="AB215" s="0" t="n">
-        <v>298</v>
+        <v>4</v>
       </c>
       <c r="AC215" s="0" t="n">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="AD215" s="0" t="n">
-        <v>310</v>
+        <v>4</v>
       </c>
       <c r="AE215" s="0" t="n">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="AF215" s="0" t="n">
-        <v>327</v>
+        <v>4</v>
+      </c>
+      <c r="AG215" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D216" s="0" t="n">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="E216" s="0" t="n">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="J216" s="0" t="n">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="K216" s="0" t="n">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="L216" s="0" t="n">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="M216" s="0" t="n">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="N216" s="0" t="n">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="O216" s="0" t="n">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="P216" s="0" t="n">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="Q216" s="0" t="n">
-        <v>3</v>
+        <v>229</v>
+      </c>
+      <c r="R216" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="S216" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="T216" s="0" t="n">
+        <v>249</v>
+      </c>
+      <c r="U216" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="V216" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="W216" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="X216" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="Y216" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="Z216" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="AA216" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="AB216" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="AC216" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="AD216" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="AE216" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="AF216" s="0" t="n">
+        <v>327</v>
+      </c>
+      <c r="AG216" s="0" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J217" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K217" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L217" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M217" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N217" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O217" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P217" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="R217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="S217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="T217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="U217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="V217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="W217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="X217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA217" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB217" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE217" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF217" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>313</v>
+        <v>6</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>339</v>
+        <v>6</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>339</v>
+        <v>6</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>339</v>
+        <v>6</v>
       </c>
       <c r="J218" s="0" t="n">
-        <v>332</v>
+        <v>7</v>
       </c>
       <c r="K218" s="0" t="n">
-        <v>345</v>
+        <v>7</v>
       </c>
       <c r="L218" s="0" t="n">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="M218" s="0" t="n">
-        <v>359</v>
+        <v>7</v>
       </c>
       <c r="N218" s="0" t="n">
-        <v>359</v>
+        <v>7</v>
       </c>
       <c r="O218" s="0" t="n">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="P218" s="0" t="n">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="Q218" s="0" t="n">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="R218" s="0" t="n">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="S218" s="0" t="n">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="T218" s="0" t="n">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="U218" s="0" t="n">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="V218" s="0" t="n">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="W218" s="0" t="n">
-        <v>386</v>
+        <v>7</v>
       </c>
       <c r="X218" s="0" t="n">
-        <v>386</v>
+        <v>7</v>
       </c>
       <c r="Y218" s="0" t="n">
-        <v>386</v>
+        <v>7</v>
       </c>
       <c r="Z218" s="0" t="n">
-        <v>386</v>
+        <v>7</v>
       </c>
       <c r="AA218" s="0" t="n">
-        <v>387</v>
+        <v>6</v>
       </c>
       <c r="AB218" s="0" t="n">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="AC218" s="0" t="n">
-        <v>391</v>
+        <v>7</v>
       </c>
       <c r="AD218" s="0" t="n">
-        <v>393</v>
+        <v>7</v>
       </c>
       <c r="AE218" s="0" t="n">
-        <v>394</v>
+        <v>7</v>
       </c>
       <c r="AF218" s="0" t="n">
-        <v>394</v>
+        <v>7</v>
+      </c>
+      <c r="AG218" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="J219" s="0" t="n">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="K219" s="0" t="n">
-        <v>72</v>
+        <v>345</v>
       </c>
       <c r="L219" s="0" t="n">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="M219" s="0" t="n">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="N219" s="0" t="n">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="O219" s="0" t="n">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="P219" s="0" t="n">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="Q219" s="0" t="n">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="R219" s="0" t="n">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="S219" s="0" t="n">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="T219" s="0" t="n">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="U219" s="0" t="n">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="V219" s="0" t="n">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="W219" s="0" t="n">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="X219" s="0" t="n">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="Y219" s="0" t="n">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="Z219" s="0" t="n">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="AA219" s="0" t="n">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AB219" s="0" t="n">
-        <v>72</v>
+        <v>390</v>
       </c>
       <c r="AC219" s="0" t="n">
-        <v>72</v>
+        <v>391</v>
       </c>
       <c r="AD219" s="0" t="n">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="AE219" s="0" t="n">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="AF219" s="0" t="n">
-        <v>72</v>
+        <v>394</v>
+      </c>
+      <c r="AG219" s="0" t="n">
+        <v>394</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D220" s="0" t="n">
-        <v>1161</v>
+        <v>79</v>
       </c>
       <c r="E220" s="0" t="n">
-        <v>1163</v>
+        <v>79</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>1180</v>
+        <v>79</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>1263</v>
+        <v>80</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>1263</v>
+        <v>80</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>1263</v>
+        <v>80</v>
       </c>
       <c r="J220" s="0" t="n">
-        <v>1322</v>
+        <v>72</v>
       </c>
       <c r="K220" s="0" t="n">
-        <v>1374</v>
+        <v>72</v>
       </c>
       <c r="L220" s="0" t="n">
-        <v>1404</v>
+        <v>72</v>
       </c>
       <c r="M220" s="0" t="n">
-        <v>1413</v>
+        <v>72</v>
       </c>
       <c r="N220" s="0" t="n">
-        <v>1413</v>
+        <v>72</v>
       </c>
       <c r="O220" s="0" t="n">
-        <v>1418</v>
+        <v>72</v>
       </c>
       <c r="P220" s="0" t="n">
-        <v>1425</v>
+        <v>72</v>
       </c>
       <c r="Q220" s="0" t="n">
-        <v>1425</v>
+        <v>72</v>
       </c>
       <c r="R220" s="0" t="n">
-        <v>1432</v>
+        <v>72</v>
       </c>
       <c r="S220" s="0" t="n">
-        <v>1445</v>
+        <v>72</v>
       </c>
       <c r="T220" s="0" t="n">
-        <v>1448</v>
+        <v>72</v>
       </c>
       <c r="U220" s="0" t="n">
-        <v>1453</v>
+        <v>72</v>
       </c>
       <c r="V220" s="0" t="n">
-        <v>1455</v>
+        <v>72</v>
       </c>
       <c r="W220" s="0" t="n">
-        <v>1458</v>
+        <v>72</v>
       </c>
       <c r="X220" s="0" t="n">
-        <v>1461</v>
+        <v>72</v>
       </c>
       <c r="Y220" s="0" t="n">
-        <v>1463</v>
+        <v>72</v>
       </c>
       <c r="Z220" s="0" t="n">
-        <v>1463</v>
+        <v>72</v>
       </c>
       <c r="AA220" s="0" t="n">
-        <v>1475</v>
+        <v>72</v>
       </c>
       <c r="AB220" s="0" t="n">
-        <v>1479</v>
+        <v>72</v>
       </c>
       <c r="AC220" s="0" t="n">
-        <v>1485</v>
+        <v>72</v>
       </c>
       <c r="AD220" s="0" t="n">
-        <v>1510</v>
+        <v>72</v>
       </c>
       <c r="AE220" s="0" t="n">
-        <v>1521</v>
+        <v>72</v>
       </c>
       <c r="AF220" s="0" t="n">
-        <v>1529</v>
+        <v>72</v>
+      </c>
+      <c r="AG220" s="0" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D221" s="0" t="n">
-        <v>4</v>
+        <v>1161</v>
       </c>
       <c r="E221" s="0" t="n">
-        <v>4</v>
+        <v>1163</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>4</v>
+        <v>1180</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>4</v>
+        <v>1263</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>4</v>
+        <v>1263</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>4</v>
+        <v>1263</v>
       </c>
       <c r="J221" s="0" t="n">
-        <v>4</v>
+        <v>1322</v>
       </c>
       <c r="K221" s="0" t="n">
-        <v>4</v>
+        <v>1374</v>
       </c>
       <c r="L221" s="0" t="n">
-        <v>4</v>
+        <v>1404</v>
       </c>
       <c r="M221" s="0" t="n">
-        <v>4</v>
+        <v>1413</v>
       </c>
       <c r="N221" s="0" t="n">
-        <v>4</v>
+        <v>1413</v>
       </c>
       <c r="O221" s="0" t="n">
-        <v>4</v>
+        <v>1418</v>
       </c>
       <c r="P221" s="0" t="n">
-        <v>4</v>
+        <v>1425</v>
       </c>
       <c r="Q221" s="0" t="n">
-        <v>4</v>
+        <v>1425</v>
       </c>
       <c r="R221" s="0" t="n">
-        <v>4</v>
+        <v>1432</v>
       </c>
       <c r="S221" s="0" t="n">
-        <v>4</v>
+        <v>1445</v>
       </c>
       <c r="T221" s="0" t="n">
-        <v>5</v>
+        <v>1448</v>
       </c>
       <c r="U221" s="0" t="n">
-        <v>5</v>
+        <v>1453</v>
       </c>
       <c r="V221" s="0" t="n">
-        <v>5</v>
+        <v>1455</v>
       </c>
       <c r="W221" s="0" t="n">
-        <v>5</v>
+        <v>1458</v>
       </c>
       <c r="X221" s="0" t="n">
-        <v>5</v>
+        <v>1461</v>
       </c>
       <c r="Y221" s="0" t="n">
-        <v>5</v>
+        <v>1463</v>
       </c>
       <c r="Z221" s="0" t="n">
-        <v>5</v>
+        <v>1463</v>
       </c>
       <c r="AA221" s="0" t="n">
-        <v>5</v>
+        <v>1475</v>
       </c>
       <c r="AB221" s="0" t="n">
-        <v>5</v>
+        <v>1479</v>
       </c>
       <c r="AC221" s="0" t="n">
-        <v>5</v>
+        <v>1485</v>
       </c>
       <c r="AD221" s="0" t="n">
-        <v>5</v>
+        <v>1510</v>
       </c>
       <c r="AE221" s="0" t="n">
-        <v>5</v>
+        <v>1521</v>
       </c>
       <c r="AF221" s="0" t="n">
-        <v>5</v>
+        <v>1529</v>
+      </c>
+      <c r="AG221" s="0" t="n">
+        <v>1535</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P222" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q222" s="0" t="n">
         <v>4</v>
@@ -22008,807 +22572,932 @@
         <v>4</v>
       </c>
       <c r="T222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="AG222" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D223" s="0" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="G223" s="0" t="n">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="J223" s="0" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="K223" s="0" t="n">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="L223" s="0" t="n">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="M223" s="0" t="n">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="N223" s="0" t="n">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="O223" s="0" t="n">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="P223" s="0" t="n">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="Q223" s="0" t="n">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="R223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="S223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="T223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="U223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="V223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="W223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="X223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="Y223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="Z223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="AA223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="AB223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="AC223" s="0" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="AD223" s="0" t="n">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="AE223" s="0" t="n">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="AF223" s="0" t="n">
-        <v>151</v>
+        <v>4</v>
+      </c>
+      <c r="AG223" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D224" s="0" t="n">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="E224" s="0" t="n">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="J224" s="0" t="n">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="K224" s="0" t="n">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="L224" s="0" t="n">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="M224" s="0" t="n">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="N224" s="0" t="n">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="O224" s="0" t="n">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="P224" s="0" t="n">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="Q224" s="0" t="n">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="R224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="S224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="T224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="U224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="V224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="W224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="X224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="Y224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="Z224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="AA224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="AB224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="AC224" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="AD224" s="0" t="n">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="AE224" s="0" t="n">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="AF224" s="0" t="n">
-        <v>13</v>
+        <v>151</v>
+      </c>
+      <c r="AG224" s="0" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="G225" s="0" t="n">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="J225" s="0" t="n">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="K225" s="0" t="n">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="L225" s="0" t="n">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="M225" s="0" t="n">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="N225" s="0" t="n">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="O225" s="0" t="n">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="P225" s="0" t="n">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="Q225" s="0" t="n">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="R225" s="0" t="n">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="S225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="T225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="U225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="V225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="W225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="X225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="Y225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="Z225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="AA225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="AB225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="AC225" s="0" t="n">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="AD225" s="0" t="n">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="AE225" s="0" t="n">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="AF225" s="0" t="n">
-        <v>228</v>
+        <v>13</v>
+      </c>
+      <c r="AG225" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="J226" s="0" t="n">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="K226" s="0" t="n">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="L226" s="0" t="n">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="M226" s="0" t="n">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="N226" s="0" t="n">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="O226" s="0" t="n">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="P226" s="0" t="n">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="Q226" s="0" t="n">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="R226" s="0" t="n">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="S226" s="0" t="n">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="T226" s="0" t="n">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="U226" s="0" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="V226" s="0" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="W226" s="0" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="X226" s="0" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="Y226" s="0" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="Z226" s="0" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="AA226" s="0" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="AB226" s="0" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="AC226" s="0" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="AD226" s="0" t="n">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="AE226" s="0" t="n">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="AF226" s="0" t="n">
-        <v>10</v>
+        <v>228</v>
+      </c>
+      <c r="AG226" s="0" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G227" s="0" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J227" s="0" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K227" s="0" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="L227" s="0" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="M227" s="0" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="N227" s="0" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="O227" s="0" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="P227" s="0" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="Q227" s="0" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="R227" s="0" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S227" s="0" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T227" s="0" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U227" s="0" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="V227" s="0" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="W227" s="0" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="X227" s="0" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Y227" s="0" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Z227" s="0" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AA227" s="0" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AB227" s="0" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AC227" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AD227" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AE227" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AF227" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="AG227" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D228" s="0" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E228" s="0" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="G228" s="0" t="n">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="J228" s="0" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K228" s="0" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="L228" s="0" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M228" s="0" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="N228" s="0" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="O228" s="0" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="P228" s="0" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="Q228" s="0" t="n">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="R228" s="0" t="n">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="S228" s="0" t="n">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="T228" s="0" t="n">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="U228" s="0" t="n">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="V228" s="0" t="n">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="W228" s="0" t="n">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="X228" s="0" t="n">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="Y228" s="0" t="n">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="Z228" s="0" t="n">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="AA228" s="0" t="n">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="AB228" s="0" t="n">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="AC228" s="0" t="n">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="AD228" s="0" t="n">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="AE228" s="0" t="n">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="AF228" s="0" t="n">
-        <v>99</v>
+        <v>30</v>
+      </c>
+      <c r="AG228" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D229" s="0" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E229" s="0" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G229" s="0" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J229" s="0" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K229" s="0" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="L229" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M229" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="N229" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="O229" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="P229" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q229" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="R229" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="M229" s="0" t="n">
+      <c r="S229" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="T229" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="N229" s="0" t="n">
+      <c r="U229" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="V229" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="W229" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="X229" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="O229" s="0" t="n">
+      <c r="Y229" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="Z229" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AA229" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AB229" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AC229" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AD229" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AE229" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AF229" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="P229" s="0" t="n">
+      <c r="AG229" s="0" t="n">
         <v>99</v>
-      </c>
-      <c r="Q229" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="R229" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="S229" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="T229" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="U229" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="V229" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="W229" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="X229" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="Y229" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="Z229" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="AA229" s="0" t="n">
-        <v>107</v>
-      </c>
-      <c r="AB229" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="AC229" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="AD229" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="AE229" s="0" t="n">
-        <v>124</v>
-      </c>
-      <c r="AF229" s="0" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D230" s="0" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="G230" s="0" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="J230" s="0" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="K230" s="0" t="n">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="L230" s="0" t="n">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="M230" s="0" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="N230" s="0" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="O230" s="0" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P230" s="0" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Q230" s="0" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="R230" s="0" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="S230" s="0" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="T230" s="0" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="U230" s="0" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="V230" s="0" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="W230" s="0" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="X230" s="0" t="n">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="Y230" s="0" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="Z230" s="0" t="n">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="AA230" s="0" t="n">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="AB230" s="0" t="n">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="AC230" s="0" t="n">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="AD230" s="0" t="n">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="AE230" s="0" t="n">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="AF230" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="AG230" s="0" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F231" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G231" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H231" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I231" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J231" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="U231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="V231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="W231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="X231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG231" s="0" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T230"/>
+  <autoFilter ref="A1:T231"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="497">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/05/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/05/25</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1593,7 +1596,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1603,10 +1606,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1639,14 +1638,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI231"/>
+  <dimension ref="A1:AJ231"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AF1" activeCellId="0" sqref="AF1"/>
+      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1654,7 +1653,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1020" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="4" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,19 +1757,22 @@
       <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1865,15 +1868,18 @@
         <v>9</v>
       </c>
       <c r="AI2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -1970,14 +1976,17 @@
       </c>
       <c r="AI3" s="0" t="n">
         <v>64</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2074,14 +2083,17 @@
       </c>
       <c r="AI4" s="0" t="n">
         <v>87</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2177,15 +2189,18 @@
         <v>75</v>
       </c>
       <c r="AI5" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2281,15 +2296,18 @@
         <v>7</v>
       </c>
       <c r="AI6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2385,15 +2403,18 @@
         <v>8</v>
       </c>
       <c r="AI7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2489,15 +2510,18 @@
         <v>39</v>
       </c>
       <c r="AI8" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2593,15 +2617,18 @@
         <v>23</v>
       </c>
       <c r="AI9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -2698,14 +2725,17 @@
       </c>
       <c r="AI10" s="0" t="n">
         <v>68</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -2801,15 +2831,18 @@
         <v>6</v>
       </c>
       <c r="AI11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -2896,15 +2929,18 @@
         <v>4</v>
       </c>
       <c r="AI12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -3001,14 +3037,17 @@
       </c>
       <c r="AI13" s="0" t="n">
         <v>343</v>
+      </c>
+      <c r="AJ13" s="0" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -3104,15 +3143,18 @@
         <v>4</v>
       </c>
       <c r="AI14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3208,15 +3250,18 @@
         <v>18</v>
       </c>
       <c r="AI15" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ15" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3312,15 +3357,18 @@
         <v>9</v>
       </c>
       <c r="AI16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3416,15 +3464,18 @@
         <v>11</v>
       </c>
       <c r="AI17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -3520,15 +3571,18 @@
         <v>24</v>
       </c>
       <c r="AI18" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -3625,14 +3679,17 @@
       </c>
       <c r="AI19" s="0" t="n">
         <v>656</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <v>663</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -3728,15 +3785,18 @@
         <v>94</v>
       </c>
       <c r="AI20" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ20" s="0" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -3832,15 +3892,18 @@
         <v>78</v>
       </c>
       <c r="AI21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AJ21" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -3936,15 +3999,18 @@
         <v>43</v>
       </c>
       <c r="AI22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AJ22" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -4040,15 +4106,18 @@
         <v>5</v>
       </c>
       <c r="AI23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -4144,15 +4213,18 @@
         <v>73</v>
       </c>
       <c r="AI24" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AJ24" s="0" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -4248,15 +4320,18 @@
         <v>8</v>
       </c>
       <c r="AI25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ25" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -4353,14 +4428,17 @@
       </c>
       <c r="AI26" s="0" t="n">
         <v>40</v>
+      </c>
+      <c r="AJ26" s="0" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -4456,15 +4534,18 @@
         <v>12</v>
       </c>
       <c r="AI27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ27" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>243</v>
@@ -4560,15 +4641,18 @@
         <v>334</v>
       </c>
       <c r="AI28" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AJ28" s="0" t="n">
         <v>334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -4665,14 +4749,17 @@
       </c>
       <c r="AI29" s="0" t="n">
         <v>60</v>
+      </c>
+      <c r="AJ29" s="0" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>9</v>
@@ -4769,14 +4856,17 @@
       </c>
       <c r="AI30" s="0" t="n">
         <v>26</v>
+      </c>
+      <c r="AJ30" s="0" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>190</v>
@@ -4872,15 +4962,18 @@
         <v>296</v>
       </c>
       <c r="AI31" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="AJ31" s="0" t="n">
         <v>298</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>86</v>
@@ -4977,14 +5070,17 @@
       </c>
       <c r="AI32" s="0" t="n">
         <v>198</v>
+      </c>
+      <c r="AJ32" s="0" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -5080,15 +5176,18 @@
         <v>4</v>
       </c>
       <c r="AI33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ33" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -5184,15 +5283,18 @@
         <v>14</v>
       </c>
       <c r="AI34" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ34" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -5288,15 +5390,18 @@
         <v>34</v>
       </c>
       <c r="AI35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ35" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -5392,15 +5497,18 @@
         <v>4</v>
       </c>
       <c r="AI36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>950</v>
@@ -5496,15 +5604,18 @@
         <v>1206</v>
       </c>
       <c r="AI37" s="0" t="n">
+        <v>1209</v>
+      </c>
+      <c r="AJ37" s="0" t="n">
         <v>1209</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -5600,15 +5711,18 @@
         <v>119</v>
       </c>
       <c r="AI38" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="AJ38" s="0" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>10</v>
@@ -5704,15 +5818,18 @@
         <v>17</v>
       </c>
       <c r="AI39" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ39" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -5808,15 +5925,18 @@
         <v>9</v>
       </c>
       <c r="AI40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ40" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>15</v>
@@ -5912,18 +6032,21 @@
         <v>25</v>
       </c>
       <c r="AI41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ41" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -5995,18 +6118,21 @@
         <v>4</v>
       </c>
       <c r="AI42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>3</v>
@@ -6038,10 +6164,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -6137,15 +6263,18 @@
         <v>38</v>
       </c>
       <c r="AI44" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ44" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -6241,15 +6370,18 @@
         <v>19</v>
       </c>
       <c r="AI45" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ45" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -6345,15 +6477,18 @@
         <v>68</v>
       </c>
       <c r="AI46" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AJ46" s="0" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -6450,14 +6585,17 @@
       </c>
       <c r="AI47" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AJ47" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -6553,15 +6691,18 @@
         <v>11</v>
       </c>
       <c r="AI48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ48" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -6657,15 +6798,18 @@
         <v>54</v>
       </c>
       <c r="AI49" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="AJ49" s="0" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>298</v>
@@ -6762,14 +6906,17 @@
       </c>
       <c r="AI50" s="0" t="n">
         <v>515</v>
+      </c>
+      <c r="AJ50" s="0" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -6865,15 +7012,18 @@
         <v>7</v>
       </c>
       <c r="AI51" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ51" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>9</v>
@@ -6969,15 +7119,18 @@
         <v>20</v>
       </c>
       <c r="AI52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ52" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>100</v>
@@ -7073,15 +7226,18 @@
         <v>104</v>
       </c>
       <c r="AI53" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="AJ53" s="0" t="n">
         <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -7177,15 +7333,18 @@
         <v>3</v>
       </c>
       <c r="AI54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -7281,15 +7440,18 @@
         <v>6</v>
       </c>
       <c r="AI55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ55" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -7386,14 +7548,17 @@
       </c>
       <c r="AI56" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="AJ56" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -7489,15 +7654,18 @@
         <v>9</v>
       </c>
       <c r="AI57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ57" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -7593,15 +7761,18 @@
         <v>26</v>
       </c>
       <c r="AI58" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ58" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>8</v>
@@ -7698,14 +7869,17 @@
       </c>
       <c r="AI59" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="AJ59" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>367</v>
@@ -7802,14 +7976,17 @@
       </c>
       <c r="AI60" s="0" t="n">
         <v>574</v>
+      </c>
+      <c r="AJ60" s="0" t="n">
+        <v>575</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>61</v>
@@ -7905,15 +8082,18 @@
         <v>154</v>
       </c>
       <c r="AI61" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="AJ61" s="0" t="n">
         <v>154</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -8009,15 +8189,18 @@
         <v>41</v>
       </c>
       <c r="AI62" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ62" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -8113,15 +8296,18 @@
         <v>7</v>
       </c>
       <c r="AI63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -8217,15 +8403,18 @@
         <v>4</v>
       </c>
       <c r="AI64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>8</v>
@@ -8321,15 +8510,18 @@
         <v>9</v>
       </c>
       <c r="AI65" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ65" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>3</v>
@@ -8416,15 +8608,18 @@
         <v>6</v>
       </c>
       <c r="AI66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ66" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>63</v>
@@ -8521,14 +8716,17 @@
       </c>
       <c r="AI67" s="0" t="n">
         <v>88</v>
+      </c>
+      <c r="AJ67" s="0" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>38</v>
@@ -8624,15 +8822,18 @@
         <v>45</v>
       </c>
       <c r="AI68" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ68" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -8728,15 +8929,18 @@
         <v>95</v>
       </c>
       <c r="AI69" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ69" s="0" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -8833,14 +9037,17 @@
       </c>
       <c r="AI70" s="0" t="n">
         <v>25</v>
+      </c>
+      <c r="AJ70" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>71</v>
@@ -8936,15 +9143,18 @@
         <v>120</v>
       </c>
       <c r="AI71" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="AJ71" s="0" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>56</v>
@@ -9040,15 +9250,18 @@
         <v>66</v>
       </c>
       <c r="AI72" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AJ72" s="0" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>275</v>
@@ -9145,14 +9358,17 @@
       </c>
       <c r="AI73" s="0" t="n">
         <v>402</v>
+      </c>
+      <c r="AJ73" s="0" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>17</v>
@@ -9248,15 +9464,18 @@
         <v>33</v>
       </c>
       <c r="AI74" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ74" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -9294,10 +9513,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -9393,15 +9612,18 @@
         <v>4</v>
       </c>
       <c r="AI76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ76" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>3</v>
@@ -9464,15 +9686,18 @@
         <v>3</v>
       </c>
       <c r="AI77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -9568,15 +9793,18 @@
         <v>26</v>
       </c>
       <c r="AI78" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ78" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>3</v>
@@ -9657,15 +9885,18 @@
         <v>4</v>
       </c>
       <c r="AI79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ79" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -9761,15 +9992,18 @@
         <v>10</v>
       </c>
       <c r="AI80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ80" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>894</v>
@@ -9865,15 +10099,18 @@
         <v>1073</v>
       </c>
       <c r="AI81" s="0" t="n">
+        <v>1077</v>
+      </c>
+      <c r="AJ81" s="0" t="n">
         <v>1077</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -9969,15 +10206,18 @@
         <v>22</v>
       </c>
       <c r="AI82" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ82" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -10073,15 +10313,18 @@
         <v>11</v>
       </c>
       <c r="AI83" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ83" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -10177,15 +10420,18 @@
         <v>24</v>
       </c>
       <c r="AI84" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ84" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>458</v>
@@ -10281,15 +10527,18 @@
         <v>701</v>
       </c>
       <c r="AI85" s="0" t="n">
+        <v>707</v>
+      </c>
+      <c r="AJ85" s="0" t="n">
         <v>707</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -10385,15 +10634,18 @@
         <v>6</v>
       </c>
       <c r="AI86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -10490,17 +10742,20 @@
       </c>
       <c r="AI87" s="0" t="n">
         <v>128</v>
+      </c>
+      <c r="AJ87" s="0" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -10596,15 +10851,18 @@
         <v>9</v>
       </c>
       <c r="AI88" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ88" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -10700,15 +10958,18 @@
         <v>4</v>
       </c>
       <c r="AI89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ89" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -10804,15 +11065,18 @@
         <v>39</v>
       </c>
       <c r="AI90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ90" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>61</v>
@@ -10909,14 +11173,17 @@
       </c>
       <c r="AI91" s="0" t="n">
         <v>81</v>
+      </c>
+      <c r="AJ91" s="0" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1266</v>
@@ -11013,14 +11280,17 @@
       </c>
       <c r="AI92" s="0" t="n">
         <v>2177</v>
+      </c>
+      <c r="AJ92" s="0" t="n">
+        <v>2182</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -11116,15 +11386,18 @@
         <v>64</v>
       </c>
       <c r="AI93" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AJ93" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>301</v>
@@ -11221,14 +11494,17 @@
       </c>
       <c r="AI94" s="0" t="n">
         <v>819</v>
+      </c>
+      <c r="AJ94" s="0" t="n">
+        <v>828</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -11324,15 +11600,18 @@
         <v>6</v>
       </c>
       <c r="AI95" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ95" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -11428,15 +11707,18 @@
         <v>20</v>
       </c>
       <c r="AI96" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ96" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>162</v>
@@ -11533,14 +11815,17 @@
       </c>
       <c r="AI97" s="0" t="n">
         <v>315</v>
+      </c>
+      <c r="AJ97" s="0" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -11636,15 +11921,18 @@
         <v>22</v>
       </c>
       <c r="AI98" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ98" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -11740,15 +12028,18 @@
         <v>5</v>
       </c>
       <c r="AI99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -11845,14 +12136,17 @@
       </c>
       <c r="AI100" s="0" t="n">
         <v>108</v>
+      </c>
+      <c r="AJ100" s="0" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>763</v>
@@ -11949,14 +12243,17 @@
       </c>
       <c r="AI101" s="0" t="n">
         <v>939</v>
+      </c>
+      <c r="AJ101" s="0" t="n">
+        <v>940</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>62</v>
@@ -12052,15 +12349,18 @@
         <v>78</v>
       </c>
       <c r="AI102" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AJ102" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -12156,15 +12456,18 @@
         <v>7</v>
       </c>
       <c r="AI103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>59</v>
@@ -12261,14 +12564,17 @@
       </c>
       <c r="AI104" s="0" t="n">
         <v>86</v>
+      </c>
+      <c r="AJ104" s="0" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>14</v>
@@ -12364,15 +12670,18 @@
         <v>18</v>
       </c>
       <c r="AI105" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ105" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>929</v>
@@ -12468,15 +12777,18 @@
         <v>1264</v>
       </c>
       <c r="AI106" s="0" t="n">
+        <v>1269</v>
+      </c>
+      <c r="AJ106" s="0" t="n">
         <v>1269</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -12572,15 +12884,18 @@
         <v>17</v>
       </c>
       <c r="AI107" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ107" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -12676,15 +12991,18 @@
         <v>62</v>
       </c>
       <c r="AI108" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AJ108" s="0" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -12780,15 +13098,18 @@
         <v>5</v>
       </c>
       <c r="AI109" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ109" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>13</v>
@@ -12884,15 +13205,18 @@
         <v>17</v>
       </c>
       <c r="AI110" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ110" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -12988,15 +13312,18 @@
         <v>10</v>
       </c>
       <c r="AI111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ111" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -13092,15 +13419,18 @@
         <v>20</v>
       </c>
       <c r="AI112" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ112" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>3</v>
@@ -13187,15 +13517,18 @@
         <v>5</v>
       </c>
       <c r="AI113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -13291,15 +13624,18 @@
         <v>15</v>
       </c>
       <c r="AI114" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ114" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>61</v>
@@ -13396,14 +13732,17 @@
       </c>
       <c r="AI115" s="0" t="n">
         <v>131</v>
+      </c>
+      <c r="AJ115" s="0" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -13500,14 +13839,17 @@
       </c>
       <c r="AI116" s="0" t="n">
         <v>114</v>
+      </c>
+      <c r="AJ116" s="0" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -13521,10 +13863,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -13550,10 +13892,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>4</v>
@@ -13649,15 +13991,18 @@
         <v>7</v>
       </c>
       <c r="AI119" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ119" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -13753,15 +14098,18 @@
         <v>29</v>
       </c>
       <c r="AI120" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ120" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -13857,15 +14205,18 @@
         <v>116</v>
       </c>
       <c r="AI121" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AJ121" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>4</v>
@@ -13961,15 +14312,18 @@
         <v>11</v>
       </c>
       <c r="AI122" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ122" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -14065,15 +14419,18 @@
         <v>71</v>
       </c>
       <c r="AI123" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AJ123" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -14169,15 +14526,18 @@
         <v>20</v>
       </c>
       <c r="AI124" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ124" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -14273,15 +14633,18 @@
         <v>17</v>
       </c>
       <c r="AI125" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ125" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>14</v>
@@ -14377,15 +14740,18 @@
         <v>19</v>
       </c>
       <c r="AI126" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ126" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>5</v>
@@ -14477,13 +14843,16 @@
       <c r="AI127" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="AJ127" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5" t="s">
-        <v>288</v>
+      <c r="A128" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>3</v>
@@ -14491,10 +14860,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>3</v>
@@ -14587,15 +14956,18 @@
         <v>8</v>
       </c>
       <c r="AI129" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ129" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>187</v>
@@ -14692,14 +15064,17 @@
       </c>
       <c r="AI130" s="0" t="n">
         <v>445</v>
+      </c>
+      <c r="AJ130" s="0" t="n">
+        <v>453</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>218</v>
@@ -14796,14 +15171,17 @@
       </c>
       <c r="AI131" s="0" t="n">
         <v>358</v>
+      </c>
+      <c r="AJ131" s="0" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>15</v>
@@ -14899,15 +15277,18 @@
         <v>12</v>
       </c>
       <c r="AI132" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ132" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>149</v>
@@ -15004,14 +15385,17 @@
       </c>
       <c r="AI133" s="0" t="n">
         <v>207</v>
+      </c>
+      <c r="AJ133" s="0" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>8</v>
@@ -15107,15 +15491,18 @@
         <v>12</v>
       </c>
       <c r="AI134" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ134" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>17</v>
@@ -15212,14 +15599,17 @@
       </c>
       <c r="AI135" s="0" t="n">
         <v>37</v>
+      </c>
+      <c r="AJ135" s="0" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>12</v>
@@ -15315,15 +15705,18 @@
         <v>22</v>
       </c>
       <c r="AI136" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ136" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>29</v>
@@ -15419,15 +15812,18 @@
         <v>28</v>
       </c>
       <c r="AI137" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ137" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>532</v>
@@ -15523,15 +15919,18 @@
         <v>652</v>
       </c>
       <c r="AI138" s="0" t="n">
+        <v>652</v>
+      </c>
+      <c r="AJ138" s="0" t="n">
         <v>652</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>219</v>
@@ -15627,15 +16026,18 @@
         <v>305</v>
       </c>
       <c r="AI139" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="AJ139" s="0" t="n">
         <v>306</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>18</v>
@@ -15731,15 +16133,18 @@
         <v>24</v>
       </c>
       <c r="AI140" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ140" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>250</v>
@@ -15835,15 +16240,18 @@
         <v>333</v>
       </c>
       <c r="AI141" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AJ141" s="0" t="n">
         <v>334</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>7</v>
@@ -15939,15 +16347,18 @@
         <v>7</v>
       </c>
       <c r="AI142" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ142" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>3</v>
@@ -16043,15 +16454,18 @@
         <v>3</v>
       </c>
       <c r="AI143" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ143" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>13</v>
@@ -16147,15 +16561,18 @@
         <v>21</v>
       </c>
       <c r="AI144" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ144" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>134</v>
@@ -16252,14 +16669,17 @@
       </c>
       <c r="AI145" s="0" t="n">
         <v>166</v>
+      </c>
+      <c r="AJ145" s="0" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>3</v>
@@ -16355,15 +16775,18 @@
         <v>5</v>
       </c>
       <c r="AI146" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ146" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>10</v>
@@ -16459,15 +16882,18 @@
         <v>8</v>
       </c>
       <c r="AI147" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ147" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>52</v>
@@ -16564,14 +16990,17 @@
       </c>
       <c r="AI148" s="0" t="n">
         <v>64</v>
+      </c>
+      <c r="AJ148" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>22</v>
@@ -16667,15 +17096,18 @@
         <v>23</v>
       </c>
       <c r="AI149" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ149" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>38</v>
@@ -16771,15 +17203,18 @@
         <v>60</v>
       </c>
       <c r="AI150" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ150" s="0" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>4</v>
@@ -16875,15 +17310,18 @@
         <v>8</v>
       </c>
       <c r="AI151" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ151" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>5</v>
@@ -16979,15 +17417,18 @@
         <v>6</v>
       </c>
       <c r="AI152" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ152" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>5</v>
@@ -17083,15 +17524,18 @@
         <v>6</v>
       </c>
       <c r="AI153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ153" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>24</v>
@@ -17187,15 +17631,18 @@
         <v>28</v>
       </c>
       <c r="AI154" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ154" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C155" s="5" t="s">
         <v>343</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>3</v>
@@ -17221,10 +17668,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>6</v>
@@ -17320,15 +17767,18 @@
         <v>6</v>
       </c>
       <c r="AI156" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ156" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>3</v>
@@ -17424,15 +17874,18 @@
         <v>6</v>
       </c>
       <c r="AI157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ157" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>33</v>
@@ -17528,15 +17981,18 @@
         <v>38</v>
       </c>
       <c r="AI158" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ158" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1099</v>
@@ -17632,15 +18088,18 @@
         <v>1347</v>
       </c>
       <c r="AI159" s="0" t="n">
+        <v>1347</v>
+      </c>
+      <c r="AJ159" s="0" t="n">
         <v>1347</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>6</v>
@@ -17736,15 +18195,18 @@
         <v>9</v>
       </c>
       <c r="AI160" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ160" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>5</v>
@@ -17840,15 +18302,18 @@
         <v>4</v>
       </c>
       <c r="AI161" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ161" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>35</v>
@@ -17945,14 +18410,17 @@
       </c>
       <c r="AI162" s="0" t="n">
         <v>58</v>
+      </c>
+      <c r="AJ162" s="0" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>95</v>
@@ -18048,15 +18516,18 @@
         <v>155</v>
       </c>
       <c r="AI163" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="AJ163" s="0" t="n">
         <v>156</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>6</v>
@@ -18152,15 +18623,18 @@
         <v>7</v>
       </c>
       <c r="AI164" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ164" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>61</v>
@@ -18256,15 +18730,18 @@
         <v>64</v>
       </c>
       <c r="AI165" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AJ165" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>3</v>
@@ -18360,15 +18837,18 @@
         <v>3</v>
       </c>
       <c r="AI166" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ166" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>14</v>
@@ -18464,15 +18944,18 @@
         <v>19</v>
       </c>
       <c r="AI167" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ167" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>4</v>
@@ -18568,15 +19051,18 @@
         <v>7</v>
       </c>
       <c r="AI168" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ168" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>6</v>
@@ -18672,15 +19158,18 @@
         <v>10</v>
       </c>
       <c r="AI169" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ169" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>9</v>
@@ -18776,15 +19265,18 @@
         <v>9</v>
       </c>
       <c r="AI170" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ170" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>6</v>
@@ -18880,15 +19372,18 @@
         <v>5</v>
       </c>
       <c r="AI171" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ171" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>356</v>
@@ -18984,15 +19479,18 @@
         <v>474</v>
       </c>
       <c r="AI172" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="AJ172" s="0" t="n">
         <v>476</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S173" s="0" t="n">
         <v>3</v>
@@ -19043,15 +19541,18 @@
         <v>3</v>
       </c>
       <c r="AI173" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ173" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>65</v>
@@ -19148,14 +19649,17 @@
       </c>
       <c r="AI174" s="0" t="n">
         <v>105</v>
+      </c>
+      <c r="AJ174" s="0" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>13</v>
@@ -19251,15 +19755,18 @@
         <v>17</v>
       </c>
       <c r="AI175" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ175" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>280</v>
@@ -19355,15 +19862,18 @@
         <v>389</v>
       </c>
       <c r="AI176" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="AJ176" s="0" t="n">
         <v>391</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA177" s="0" t="n">
         <v>3</v>
@@ -19390,15 +19900,18 @@
         <v>3</v>
       </c>
       <c r="AI177" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ177" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>55</v>
@@ -19495,14 +20008,17 @@
       </c>
       <c r="AI178" s="0" t="n">
         <v>70</v>
+      </c>
+      <c r="AJ178" s="0" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>8</v>
@@ -19598,15 +20114,18 @@
         <v>9</v>
       </c>
       <c r="AI179" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ179" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>3</v>
@@ -19702,15 +20221,18 @@
         <v>3</v>
       </c>
       <c r="AI180" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ180" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>7</v>
@@ -19806,15 +20328,18 @@
         <v>8</v>
       </c>
       <c r="AI181" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ181" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>8</v>
@@ -19910,15 +20435,18 @@
         <v>13</v>
       </c>
       <c r="AI182" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ182" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>147</v>
@@ -20015,14 +20543,17 @@
       </c>
       <c r="AI183" s="0" t="n">
         <v>307</v>
+      </c>
+      <c r="AJ183" s="0" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J184" s="0" t="n">
         <v>4</v>
@@ -20100,15 +20631,18 @@
         <v>6</v>
       </c>
       <c r="AI184" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ184" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>18</v>
@@ -20204,15 +20738,18 @@
         <v>14</v>
       </c>
       <c r="AI185" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ185" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>4</v>
@@ -20308,15 +20845,18 @@
         <v>4</v>
       </c>
       <c r="AI186" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ186" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>19</v>
@@ -20412,15 +20952,18 @@
         <v>31</v>
       </c>
       <c r="AI187" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ187" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>59</v>
@@ -20517,14 +21060,17 @@
       </c>
       <c r="AI188" s="0" t="n">
         <v>83</v>
+      </c>
+      <c r="AJ188" s="0" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>29</v>
@@ -20620,15 +21166,18 @@
         <v>43</v>
       </c>
       <c r="AI189" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AJ189" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>21</v>
@@ -20724,15 +21273,18 @@
         <v>24</v>
       </c>
       <c r="AI190" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ190" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>514</v>
@@ -20829,14 +21381,17 @@
       </c>
       <c r="AI191" s="0" t="n">
         <v>1006</v>
+      </c>
+      <c r="AJ191" s="0" t="n">
+        <v>1078</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG192" s="0" t="n">
         <v>4</v>
@@ -20845,15 +21400,18 @@
         <v>4</v>
       </c>
       <c r="AI192" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ192" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>19</v>
@@ -20949,15 +21507,18 @@
         <v>24</v>
       </c>
       <c r="AI193" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ193" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>34</v>
@@ -21053,15 +21614,18 @@
         <v>35</v>
       </c>
       <c r="AI194" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ194" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>32</v>
@@ -21157,15 +21721,18 @@
         <v>30</v>
       </c>
       <c r="AI195" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ195" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>9</v>
@@ -21261,15 +21828,18 @@
         <v>10</v>
       </c>
       <c r="AI196" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ196" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>10</v>
@@ -21365,15 +21935,18 @@
         <v>12</v>
       </c>
       <c r="AI197" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ197" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>12</v>
@@ -21469,15 +22042,18 @@
         <v>13</v>
       </c>
       <c r="AI198" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ198" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>21</v>
@@ -21573,15 +22149,18 @@
         <v>23</v>
       </c>
       <c r="AI199" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ199" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>11</v>
@@ -21677,15 +22256,18 @@
         <v>14</v>
       </c>
       <c r="AI200" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ200" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>28</v>
@@ -21781,15 +22363,18 @@
         <v>39</v>
       </c>
       <c r="AI201" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ201" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>17</v>
@@ -21885,15 +22470,18 @@
         <v>18</v>
       </c>
       <c r="AI202" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ202" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>114</v>
@@ -21989,15 +22577,18 @@
         <v>146</v>
       </c>
       <c r="AI203" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="AJ203" s="0" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>17</v>
@@ -22093,15 +22684,18 @@
         <v>22</v>
       </c>
       <c r="AI204" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ204" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>85</v>
@@ -22197,15 +22791,18 @@
         <v>155</v>
       </c>
       <c r="AI205" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AJ205" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>7</v>
@@ -22301,15 +22898,18 @@
         <v>12</v>
       </c>
       <c r="AI206" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ206" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>655</v>
@@ -22405,15 +23005,18 @@
         <v>754</v>
       </c>
       <c r="AI207" s="0" t="n">
+        <v>755</v>
+      </c>
+      <c r="AJ207" s="0" t="n">
         <v>755</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>5</v>
@@ -22509,15 +23112,18 @@
         <v>6</v>
       </c>
       <c r="AI208" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ208" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>6</v>
@@ -22613,15 +23219,18 @@
         <v>5</v>
       </c>
       <c r="AI209" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ209" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>7</v>
@@ -22717,15 +23326,18 @@
         <v>8</v>
       </c>
       <c r="AI210" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ210" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>132</v>
@@ -22821,15 +23433,18 @@
         <v>183</v>
       </c>
       <c r="AI211" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="AJ211" s="0" t="n">
         <v>184</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>24</v>
@@ -22925,15 +23540,18 @@
         <v>36</v>
       </c>
       <c r="AI212" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ212" s="0" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>7</v>
@@ -23029,15 +23647,18 @@
         <v>7</v>
       </c>
       <c r="AI213" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ213" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>212</v>
@@ -23133,15 +23754,18 @@
         <v>290</v>
       </c>
       <c r="AI214" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="AJ214" s="0" t="n">
         <v>291</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>5</v>
@@ -23237,15 +23861,18 @@
         <v>4</v>
       </c>
       <c r="AI215" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ215" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>147</v>
@@ -23342,14 +23969,17 @@
       </c>
       <c r="AI216" s="0" t="n">
         <v>349</v>
+      </c>
+      <c r="AJ216" s="0" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>3</v>
@@ -23396,10 +24026,10 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>6</v>
@@ -23495,15 +24125,18 @@
         <v>8</v>
       </c>
       <c r="AI218" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ218" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>305</v>
@@ -23599,15 +24232,18 @@
         <v>396</v>
       </c>
       <c r="AI219" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="AJ219" s="0" t="n">
         <v>398</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>79</v>
@@ -23703,15 +24339,18 @@
         <v>72</v>
       </c>
       <c r="AI220" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AJ220" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>1161</v>
@@ -23807,15 +24446,18 @@
         <v>1551</v>
       </c>
       <c r="AI221" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="AJ221" s="0" t="n">
         <v>1552</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>4</v>
@@ -23911,15 +24553,18 @@
         <v>6</v>
       </c>
       <c r="AI222" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ222" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>3</v>
@@ -24015,15 +24660,18 @@
         <v>6</v>
       </c>
       <c r="AI223" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ223" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>145</v>
@@ -24119,15 +24767,18 @@
         <v>152</v>
       </c>
       <c r="AI224" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="AJ224" s="0" t="n">
         <v>152</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>14</v>
@@ -24223,15 +24874,18 @@
         <v>13</v>
       </c>
       <c r="AI225" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ225" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>135</v>
@@ -24328,14 +24982,17 @@
       </c>
       <c r="AI226" s="0" t="n">
         <v>228</v>
+      </c>
+      <c r="AJ226" s="0" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>7</v>
@@ -24431,15 +25088,18 @@
         <v>11</v>
       </c>
       <c r="AI227" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ227" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>24</v>
@@ -24535,15 +25195,18 @@
         <v>30</v>
       </c>
       <c r="AI228" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ228" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>81</v>
@@ -24640,14 +25303,17 @@
       </c>
       <c r="AI229" s="0" t="n">
         <v>99</v>
+      </c>
+      <c r="AJ229" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>68</v>
@@ -24743,15 +25409,18 @@
         <v>131</v>
       </c>
       <c r="AI230" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="AJ230" s="0" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>6</v>
@@ -24847,6 +25516,9 @@
         <v>8</v>
       </c>
       <c r="AI231" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ231" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="501">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/05/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/05/27</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1647,14 +1650,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK232"/>
+  <dimension ref="A1:AL232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AG107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AG1" activeCellId="0" sqref="AG1"/>
-      <selection pane="bottomLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
-      <selection pane="bottomRight" activeCell="B126" activeCellId="0" sqref="B126"/>
+      <selection pane="topRight" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AM2" activeCellId="0" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1662,8 +1665,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="4" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="4" style="0" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="39" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,13 +1782,16 @@
       <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1887,14 +1894,17 @@
       </c>
       <c r="AK2" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -1996,15 +2006,18 @@
         <v>65</v>
       </c>
       <c r="AK3" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL3" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2106,15 +2119,18 @@
         <v>88</v>
       </c>
       <c r="AK4" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="AL4" s="0" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2216,15 +2232,18 @@
         <v>75</v>
       </c>
       <c r="AK5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AL5" s="0" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2326,15 +2345,18 @@
         <v>7</v>
       </c>
       <c r="AK6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2436,15 +2458,18 @@
         <v>8</v>
       </c>
       <c r="AK7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2546,15 +2571,18 @@
         <v>39</v>
       </c>
       <c r="AK8" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL8" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2656,15 +2684,18 @@
         <v>23</v>
       </c>
       <c r="AK9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -2767,14 +2798,17 @@
       </c>
       <c r="AK10" s="0" t="n">
         <v>76</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -2876,15 +2910,18 @@
         <v>6</v>
       </c>
       <c r="AK11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -2977,15 +3014,18 @@
         <v>4</v>
       </c>
       <c r="AK12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -3088,14 +3128,17 @@
       </c>
       <c r="AK13" s="0" t="n">
         <v>352</v>
+      </c>
+      <c r="AL13" s="0" t="n">
+        <v>361</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -3197,15 +3240,18 @@
         <v>4</v>
       </c>
       <c r="AK14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3308,14 +3354,17 @@
       </c>
       <c r="AK15" s="0" t="n">
         <v>18</v>
+      </c>
+      <c r="AL15" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3418,14 +3467,17 @@
       </c>
       <c r="AK16" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AL16" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3528,14 +3580,17 @@
       </c>
       <c r="AK17" s="0" t="n">
         <v>11</v>
+      </c>
+      <c r="AL17" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -3637,15 +3692,18 @@
         <v>24</v>
       </c>
       <c r="AK18" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL18" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -3748,14 +3806,17 @@
       </c>
       <c r="AK19" s="0" t="n">
         <v>689</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <v>728</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -3857,15 +3918,18 @@
         <v>95</v>
       </c>
       <c r="AK20" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL20" s="0" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -3967,15 +4031,18 @@
         <v>78</v>
       </c>
       <c r="AK21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AL21" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -4077,15 +4144,18 @@
         <v>43</v>
       </c>
       <c r="AK22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AL22" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -4187,15 +4257,18 @@
         <v>5</v>
       </c>
       <c r="AK23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL23" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -4297,15 +4370,18 @@
         <v>73</v>
       </c>
       <c r="AK24" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AL24" s="0" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -4407,15 +4483,18 @@
         <v>8</v>
       </c>
       <c r="AK25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL25" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -4517,15 +4596,18 @@
         <v>41</v>
       </c>
       <c r="AK26" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -4627,15 +4709,18 @@
         <v>12</v>
       </c>
       <c r="AK27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL27" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>243</v>
@@ -4737,15 +4822,18 @@
         <v>334</v>
       </c>
       <c r="AK28" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AL28" s="0" t="n">
         <v>334</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -4848,14 +4936,17 @@
       </c>
       <c r="AK29" s="0" t="n">
         <v>66</v>
+      </c>
+      <c r="AL29" s="0" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>9</v>
@@ -4957,15 +5048,18 @@
         <v>29</v>
       </c>
       <c r="AK30" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AL30" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>190</v>
@@ -5068,14 +5162,17 @@
       </c>
       <c r="AK31" s="0" t="n">
         <v>298</v>
+      </c>
+      <c r="AL31" s="0" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>86</v>
@@ -5178,14 +5275,17 @@
       </c>
       <c r="AK32" s="0" t="n">
         <v>207</v>
+      </c>
+      <c r="AL32" s="0" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -5287,15 +5387,18 @@
         <v>4</v>
       </c>
       <c r="AK33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL33" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -5397,15 +5500,18 @@
         <v>14</v>
       </c>
       <c r="AK34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL34" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -5507,15 +5613,18 @@
         <v>35</v>
       </c>
       <c r="AK35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL35" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -5617,15 +5726,18 @@
         <v>4</v>
       </c>
       <c r="AK36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>950</v>
@@ -5727,15 +5839,18 @@
         <v>1209</v>
       </c>
       <c r="AK37" s="0" t="n">
+        <v>1213</v>
+      </c>
+      <c r="AL37" s="0" t="n">
         <v>1213</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -5837,15 +5952,18 @@
         <v>119</v>
       </c>
       <c r="AK38" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="AL38" s="0" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>10</v>
@@ -5947,15 +6065,18 @@
         <v>17</v>
       </c>
       <c r="AK39" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL39" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -6057,15 +6178,18 @@
         <v>9</v>
       </c>
       <c r="AK40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL40" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>15</v>
@@ -6167,18 +6291,21 @@
         <v>25</v>
       </c>
       <c r="AK41" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL41" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -6256,18 +6383,21 @@
         <v>4</v>
       </c>
       <c r="AK42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>3</v>
@@ -6299,10 +6429,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -6405,14 +6535,17 @@
       </c>
       <c r="AK44" s="0" t="n">
         <v>38</v>
+      </c>
+      <c r="AL44" s="0" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -6514,15 +6647,18 @@
         <v>19</v>
       </c>
       <c r="AK45" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL45" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -6624,15 +6760,18 @@
         <v>69</v>
       </c>
       <c r="AK46" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AL46" s="0" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -6734,15 +6873,18 @@
         <v>6</v>
       </c>
       <c r="AK47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL47" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -6844,15 +6986,18 @@
         <v>11</v>
       </c>
       <c r="AK48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL48" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -6955,14 +7100,17 @@
       </c>
       <c r="AK49" s="0" t="n">
         <v>56</v>
+      </c>
+      <c r="AL49" s="0" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>298</v>
@@ -7065,14 +7213,17 @@
       </c>
       <c r="AK50" s="0" t="n">
         <v>524</v>
+      </c>
+      <c r="AL50" s="0" t="n">
+        <v>534</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -7174,15 +7325,18 @@
         <v>7</v>
       </c>
       <c r="AK51" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL51" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>9</v>
@@ -7284,15 +7438,18 @@
         <v>20</v>
       </c>
       <c r="AK52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL52" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>100</v>
@@ -7394,15 +7551,18 @@
         <v>104</v>
       </c>
       <c r="AK53" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="AL53" s="0" t="n">
         <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -7504,15 +7664,18 @@
         <v>3</v>
       </c>
       <c r="AK54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -7614,15 +7777,18 @@
         <v>6</v>
       </c>
       <c r="AK55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL55" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -7724,15 +7890,18 @@
         <v>23</v>
       </c>
       <c r="AK56" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL56" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -7834,15 +8003,18 @@
         <v>9</v>
       </c>
       <c r="AK57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL57" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -7944,15 +8116,18 @@
         <v>26</v>
       </c>
       <c r="AK58" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL58" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>8</v>
@@ -8054,15 +8229,18 @@
         <v>24</v>
       </c>
       <c r="AK59" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL59" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>367</v>
@@ -8165,14 +8343,17 @@
       </c>
       <c r="AK60" s="0" t="n">
         <v>575</v>
+      </c>
+      <c r="AL60" s="0" t="n">
+        <v>577</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>61</v>
@@ -8275,14 +8456,17 @@
       </c>
       <c r="AK61" s="0" t="n">
         <v>154</v>
+      </c>
+      <c r="AL61" s="0" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -8385,14 +8569,17 @@
       </c>
       <c r="AK62" s="0" t="n">
         <v>45</v>
+      </c>
+      <c r="AL62" s="0" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -8494,15 +8681,18 @@
         <v>7</v>
       </c>
       <c r="AK63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -8604,15 +8794,18 @@
         <v>4</v>
       </c>
       <c r="AK64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>8</v>
@@ -8714,15 +8907,18 @@
         <v>9</v>
       </c>
       <c r="AK65" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL65" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>3</v>
@@ -8816,14 +9012,17 @@
       </c>
       <c r="AK66" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AL66" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>63</v>
@@ -8925,15 +9124,18 @@
         <v>89</v>
       </c>
       <c r="AK67" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="AL67" s="0" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>38</v>
@@ -9035,15 +9237,18 @@
         <v>46</v>
       </c>
       <c r="AK68" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL68" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -9145,15 +9350,18 @@
         <v>95</v>
       </c>
       <c r="AK69" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL69" s="0" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -9255,15 +9463,18 @@
         <v>26</v>
       </c>
       <c r="AK70" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL70" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>71</v>
@@ -9365,15 +9576,18 @@
         <v>121</v>
       </c>
       <c r="AK71" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="AL71" s="0" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>56</v>
@@ -9475,15 +9689,18 @@
         <v>66</v>
       </c>
       <c r="AK72" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AL72" s="0" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>275</v>
@@ -9585,15 +9802,18 @@
         <v>403</v>
       </c>
       <c r="AK73" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="AL73" s="0" t="n">
         <v>403</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>17</v>
@@ -9695,15 +9915,18 @@
         <v>33</v>
       </c>
       <c r="AK74" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL74" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -9741,10 +9964,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -9846,15 +10069,18 @@
         <v>4</v>
       </c>
       <c r="AK76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL76" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>3</v>
@@ -9923,15 +10149,18 @@
         <v>3</v>
       </c>
       <c r="AK77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -10033,15 +10262,18 @@
         <v>26</v>
       </c>
       <c r="AK78" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL78" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>3</v>
@@ -10128,15 +10360,18 @@
         <v>4</v>
       </c>
       <c r="AK79" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL79" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -10238,15 +10473,18 @@
         <v>10</v>
       </c>
       <c r="AK80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL80" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>894</v>
@@ -10348,15 +10586,18 @@
         <v>1077</v>
       </c>
       <c r="AK81" s="0" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AL81" s="0" t="n">
         <v>1079</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -10458,15 +10699,18 @@
         <v>22</v>
       </c>
       <c r="AK82" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL82" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -10568,15 +10812,18 @@
         <v>11</v>
       </c>
       <c r="AK83" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL83" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -10679,14 +10926,17 @@
       </c>
       <c r="AK84" s="0" t="n">
         <v>24</v>
+      </c>
+      <c r="AL84" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>458</v>
@@ -10788,15 +11038,18 @@
         <v>707</v>
       </c>
       <c r="AK85" s="0" t="n">
+        <v>710</v>
+      </c>
+      <c r="AL85" s="0" t="n">
         <v>710</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -10898,15 +11151,18 @@
         <v>6</v>
       </c>
       <c r="AK86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -11009,17 +11265,20 @@
       </c>
       <c r="AK87" s="0" t="n">
         <v>129</v>
+      </c>
+      <c r="AL87" s="0" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -11121,15 +11380,18 @@
         <v>9</v>
       </c>
       <c r="AK88" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL88" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -11231,15 +11493,18 @@
         <v>4</v>
       </c>
       <c r="AK89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL89" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -11341,15 +11606,18 @@
         <v>39</v>
       </c>
       <c r="AK90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL90" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>61</v>
@@ -11452,14 +11720,17 @@
       </c>
       <c r="AK91" s="0" t="n">
         <v>82</v>
+      </c>
+      <c r="AL91" s="0" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1266</v>
@@ -11562,14 +11833,17 @@
       </c>
       <c r="AK92" s="0" t="n">
         <v>2206</v>
+      </c>
+      <c r="AL92" s="0" t="n">
+        <v>2254</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -11671,15 +11945,18 @@
         <v>64</v>
       </c>
       <c r="AK93" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AL93" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>301</v>
@@ -11782,14 +12059,17 @@
       </c>
       <c r="AK94" s="0" t="n">
         <v>863</v>
+      </c>
+      <c r="AL94" s="0" t="n">
+        <v>894</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -11891,15 +12171,18 @@
         <v>7</v>
       </c>
       <c r="AK95" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL95" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -12001,15 +12284,18 @@
         <v>20</v>
       </c>
       <c r="AK96" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL96" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>162</v>
@@ -12112,14 +12398,17 @@
       </c>
       <c r="AK97" s="0" t="n">
         <v>331</v>
+      </c>
+      <c r="AL97" s="0" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -12221,15 +12510,18 @@
         <v>22</v>
       </c>
       <c r="AK98" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL98" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -12331,15 +12623,18 @@
         <v>5</v>
       </c>
       <c r="AK99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -12442,14 +12737,17 @@
       </c>
       <c r="AK100" s="0" t="n">
         <v>112</v>
+      </c>
+      <c r="AL100" s="0" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>763</v>
@@ -12552,14 +12850,17 @@
       </c>
       <c r="AK101" s="0" t="n">
         <v>940</v>
+      </c>
+      <c r="AL101" s="0" t="n">
+        <v>944</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>62</v>
@@ -12661,15 +12962,18 @@
         <v>78</v>
       </c>
       <c r="AK102" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AL102" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -12771,15 +13075,18 @@
         <v>7</v>
       </c>
       <c r="AK103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>59</v>
@@ -12882,14 +13189,17 @@
       </c>
       <c r="AK104" s="0" t="n">
         <v>88</v>
+      </c>
+      <c r="AL104" s="0" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>14</v>
@@ -12991,15 +13301,18 @@
         <v>18</v>
       </c>
       <c r="AK105" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL105" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>929</v>
@@ -13102,14 +13415,17 @@
       </c>
       <c r="AK106" s="0" t="n">
         <v>1272</v>
+      </c>
+      <c r="AL106" s="0" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -13211,15 +13527,18 @@
         <v>17</v>
       </c>
       <c r="AK107" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL107" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -13321,15 +13640,18 @@
         <v>62</v>
       </c>
       <c r="AK108" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AL108" s="0" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -13432,14 +13754,17 @@
       </c>
       <c r="AK109" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AL109" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>13</v>
@@ -13541,15 +13866,18 @@
         <v>17</v>
       </c>
       <c r="AK110" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL110" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -13651,15 +13979,18 @@
         <v>10</v>
       </c>
       <c r="AK111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL111" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -13761,15 +14092,18 @@
         <v>21</v>
       </c>
       <c r="AK112" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL112" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>3</v>
@@ -13862,15 +14196,18 @@
         <v>5</v>
       </c>
       <c r="AK113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -13972,15 +14309,18 @@
         <v>15</v>
       </c>
       <c r="AK114" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL114" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>61</v>
@@ -14083,14 +14423,17 @@
       </c>
       <c r="AK115" s="0" t="n">
         <v>142</v>
+      </c>
+      <c r="AL115" s="0" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -14192,15 +14535,18 @@
         <v>116</v>
       </c>
       <c r="AK116" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AL116" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -14214,10 +14560,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -14243,10 +14589,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>4</v>
@@ -14348,15 +14694,18 @@
         <v>7</v>
       </c>
       <c r="AK119" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL119" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -14458,15 +14807,18 @@
         <v>30</v>
       </c>
       <c r="AK120" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL120" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -14568,15 +14920,18 @@
         <v>116</v>
       </c>
       <c r="AK121" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AL121" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>4</v>
@@ -14678,15 +15033,18 @@
         <v>11</v>
       </c>
       <c r="AK122" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL122" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -14788,15 +15146,18 @@
         <v>71</v>
       </c>
       <c r="AK123" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AL123" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -14898,15 +15259,18 @@
         <v>20</v>
       </c>
       <c r="AK124" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL124" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -15008,26 +15372,32 @@
         <v>17</v>
       </c>
       <c r="AK125" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL125" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK126" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL126" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>14</v>
@@ -15129,15 +15499,18 @@
         <v>19</v>
       </c>
       <c r="AK127" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL127" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>5</v>
@@ -15233,15 +15606,18 @@
         <v>29</v>
       </c>
       <c r="AK128" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL128" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>3</v>
@@ -15249,10 +15625,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>3</v>
@@ -15352,14 +15728,17 @@
       </c>
       <c r="AK130" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AL130" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>187</v>
@@ -15462,14 +15841,17 @@
       </c>
       <c r="AK131" s="0" t="n">
         <v>463</v>
+      </c>
+      <c r="AL131" s="0" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>218</v>
@@ -15572,14 +15954,17 @@
       </c>
       <c r="AK132" s="0" t="n">
         <v>374</v>
+      </c>
+      <c r="AL132" s="0" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>15</v>
@@ -15681,15 +16066,18 @@
         <v>12</v>
       </c>
       <c r="AK133" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL133" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>149</v>
@@ -15791,15 +16179,18 @@
         <v>210</v>
       </c>
       <c r="AK134" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL134" s="0" t="n">
         <v>210</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>8</v>
@@ -15901,15 +16292,18 @@
         <v>12</v>
       </c>
       <c r="AK135" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL135" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>17</v>
@@ -16012,14 +16406,17 @@
       </c>
       <c r="AK136" s="0" t="n">
         <v>38</v>
+      </c>
+      <c r="AL136" s="0" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>12</v>
@@ -16122,14 +16519,17 @@
       </c>
       <c r="AK137" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="AL137" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>29</v>
@@ -16231,15 +16631,18 @@
         <v>28</v>
       </c>
       <c r="AK138" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL138" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>532</v>
@@ -16341,15 +16744,18 @@
         <v>652</v>
       </c>
       <c r="AK139" s="0" t="n">
+        <v>652</v>
+      </c>
+      <c r="AL139" s="0" t="n">
         <v>652</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>219</v>
@@ -16452,14 +16858,17 @@
       </c>
       <c r="AK140" s="0" t="n">
         <v>307</v>
+      </c>
+      <c r="AL140" s="0" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>18</v>
@@ -16561,15 +16970,18 @@
         <v>27</v>
       </c>
       <c r="AK141" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL141" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>250</v>
@@ -16671,15 +17083,18 @@
         <v>334</v>
       </c>
       <c r="AK142" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AL142" s="0" t="n">
         <v>334</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>7</v>
@@ -16781,15 +17196,18 @@
         <v>7</v>
       </c>
       <c r="AK143" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL143" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>3</v>
@@ -16891,15 +17309,18 @@
         <v>3</v>
       </c>
       <c r="AK144" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL144" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>13</v>
@@ -17001,15 +17422,18 @@
         <v>21</v>
       </c>
       <c r="AK145" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL145" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>134</v>
@@ -17112,14 +17536,17 @@
       </c>
       <c r="AK146" s="0" t="n">
         <v>168</v>
+      </c>
+      <c r="AL146" s="0" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>3</v>
@@ -17221,15 +17648,18 @@
         <v>5</v>
       </c>
       <c r="AK147" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL147" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>10</v>
@@ -17331,15 +17761,18 @@
         <v>10</v>
       </c>
       <c r="AK148" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL148" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>52</v>
@@ -17441,15 +17874,18 @@
         <v>65</v>
       </c>
       <c r="AK149" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL149" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>22</v>
@@ -17551,15 +17987,18 @@
         <v>23</v>
       </c>
       <c r="AK150" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL150" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>38</v>
@@ -17661,15 +18100,18 @@
         <v>60</v>
       </c>
       <c r="AK151" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL151" s="0" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>4</v>
@@ -17771,15 +18213,18 @@
         <v>8</v>
       </c>
       <c r="AK152" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL152" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>5</v>
@@ -17881,15 +18326,18 @@
         <v>6</v>
       </c>
       <c r="AK153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL153" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>5</v>
@@ -17991,15 +18439,18 @@
         <v>6</v>
       </c>
       <c r="AK154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL154" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>24</v>
@@ -18101,15 +18552,18 @@
         <v>28</v>
       </c>
       <c r="AK155" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL155" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>3</v>
@@ -18135,10 +18589,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>6</v>
@@ -18240,15 +18694,18 @@
         <v>6</v>
       </c>
       <c r="AK157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL157" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>3</v>
@@ -18350,15 +18807,18 @@
         <v>6</v>
       </c>
       <c r="AK158" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL158" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>33</v>
@@ -18461,14 +18921,17 @@
       </c>
       <c r="AK159" s="0" t="n">
         <v>39</v>
+      </c>
+      <c r="AL159" s="0" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1099</v>
@@ -18571,14 +19034,17 @@
       </c>
       <c r="AK160" s="0" t="n">
         <v>1347</v>
+      </c>
+      <c r="AL160" s="0" t="n">
+        <v>1349</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>6</v>
@@ -18680,15 +19146,18 @@
         <v>9</v>
       </c>
       <c r="AK161" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL161" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>5</v>
@@ -18790,15 +19259,18 @@
         <v>4</v>
       </c>
       <c r="AK162" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL162" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>35</v>
@@ -18900,15 +19372,18 @@
         <v>61</v>
       </c>
       <c r="AK163" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AL163" s="0" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>95</v>
@@ -19010,15 +19485,18 @@
         <v>156</v>
       </c>
       <c r="AK164" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="AL164" s="0" t="n">
         <v>157</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>6</v>
@@ -19120,15 +19598,18 @@
         <v>7</v>
       </c>
       <c r="AK165" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL165" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>61</v>
@@ -19230,15 +19711,18 @@
         <v>64</v>
       </c>
       <c r="AK166" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AL166" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>3</v>
@@ -19340,15 +19824,18 @@
         <v>3</v>
       </c>
       <c r="AK167" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL167" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>14</v>
@@ -19450,15 +19937,18 @@
         <v>19</v>
       </c>
       <c r="AK168" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL168" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>4</v>
@@ -19560,15 +20050,18 @@
         <v>7</v>
       </c>
       <c r="AK169" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL169" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>6</v>
@@ -19671,14 +20164,17 @@
       </c>
       <c r="AK170" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AL170" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>9</v>
@@ -19780,15 +20276,18 @@
         <v>9</v>
       </c>
       <c r="AK171" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL171" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>6</v>
@@ -19890,15 +20389,18 @@
         <v>5</v>
       </c>
       <c r="AK172" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL172" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>356</v>
@@ -20001,14 +20503,17 @@
       </c>
       <c r="AK173" s="0" t="n">
         <v>477</v>
+      </c>
+      <c r="AL173" s="0" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S174" s="0" t="n">
         <v>3</v>
@@ -20065,15 +20570,18 @@
         <v>3</v>
       </c>
       <c r="AK174" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL174" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>65</v>
@@ -20176,14 +20684,17 @@
       </c>
       <c r="AK175" s="0" t="n">
         <v>109</v>
+      </c>
+      <c r="AL175" s="0" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>13</v>
@@ -20285,15 +20796,18 @@
         <v>17</v>
       </c>
       <c r="AK176" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL176" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>280</v>
@@ -20395,15 +20909,18 @@
         <v>391</v>
       </c>
       <c r="AK177" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="AL177" s="0" t="n">
         <v>391</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA178" s="0" t="n">
         <v>3</v>
@@ -20436,15 +20953,18 @@
         <v>3</v>
       </c>
       <c r="AK178" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL178" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>55</v>
@@ -20547,14 +21067,17 @@
       </c>
       <c r="AK179" s="0" t="n">
         <v>74</v>
+      </c>
+      <c r="AL179" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>8</v>
@@ -20656,15 +21179,18 @@
         <v>9</v>
       </c>
       <c r="AK180" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL180" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>3</v>
@@ -20766,15 +21292,18 @@
         <v>3</v>
       </c>
       <c r="AK181" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL181" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>7</v>
@@ -20876,15 +21405,18 @@
         <v>8</v>
       </c>
       <c r="AK182" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL182" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>8</v>
@@ -20986,15 +21518,18 @@
         <v>13</v>
       </c>
       <c r="AK183" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL183" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>147</v>
@@ -21097,14 +21632,17 @@
       </c>
       <c r="AK184" s="0" t="n">
         <v>322</v>
+      </c>
+      <c r="AL184" s="0" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J185" s="0" t="n">
         <v>4</v>
@@ -21188,15 +21726,18 @@
         <v>6</v>
       </c>
       <c r="AK185" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL185" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>18</v>
@@ -21298,15 +21839,18 @@
         <v>14</v>
       </c>
       <c r="AK186" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL186" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>4</v>
@@ -21408,15 +21952,18 @@
         <v>4</v>
       </c>
       <c r="AK187" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL187" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>19</v>
@@ -21519,14 +22066,17 @@
       </c>
       <c r="AK188" s="0" t="n">
         <v>32</v>
+      </c>
+      <c r="AL188" s="0" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>59</v>
@@ -21629,14 +22179,17 @@
       </c>
       <c r="AK189" s="0" t="n">
         <v>90</v>
+      </c>
+      <c r="AL189" s="0" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>29</v>
@@ -21738,15 +22291,18 @@
         <v>43</v>
       </c>
       <c r="AK190" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AL190" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>21</v>
@@ -21848,15 +22404,18 @@
         <v>24</v>
       </c>
       <c r="AK191" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL191" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>514</v>
@@ -21959,14 +22518,17 @@
       </c>
       <c r="AK192" s="0" t="n">
         <v>1107</v>
+      </c>
+      <c r="AL192" s="0" t="n">
+        <v>1140</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG193" s="0" t="n">
         <v>4</v>
@@ -21981,15 +22543,18 @@
         <v>4</v>
       </c>
       <c r="AK193" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL193" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>19</v>
@@ -22091,15 +22656,18 @@
         <v>24</v>
       </c>
       <c r="AK194" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL194" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>34</v>
@@ -22201,15 +22769,18 @@
         <v>35</v>
       </c>
       <c r="AK195" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL195" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>32</v>
@@ -22311,15 +22882,18 @@
         <v>30</v>
       </c>
       <c r="AK196" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL196" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>9</v>
@@ -22421,15 +22995,18 @@
         <v>10</v>
       </c>
       <c r="AK197" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL197" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>10</v>
@@ -22531,15 +23108,18 @@
         <v>12</v>
       </c>
       <c r="AK198" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL198" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>12</v>
@@ -22641,15 +23221,18 @@
         <v>13</v>
       </c>
       <c r="AK199" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL199" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>21</v>
@@ -22751,15 +23334,18 @@
         <v>23</v>
       </c>
       <c r="AK200" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL200" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>11</v>
@@ -22862,14 +23448,17 @@
       </c>
       <c r="AK201" s="0" t="n">
         <v>16</v>
+      </c>
+      <c r="AL201" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>28</v>
@@ -22972,14 +23561,17 @@
       </c>
       <c r="AK202" s="0" t="n">
         <v>41</v>
+      </c>
+      <c r="AL202" s="0" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>17</v>
@@ -23081,15 +23673,18 @@
         <v>18</v>
       </c>
       <c r="AK203" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL203" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>114</v>
@@ -23191,15 +23786,18 @@
         <v>146</v>
       </c>
       <c r="AK204" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="AL204" s="0" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>17</v>
@@ -23301,15 +23899,18 @@
         <v>22</v>
       </c>
       <c r="AK205" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL205" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>85</v>
@@ -23411,15 +24012,18 @@
         <v>155</v>
       </c>
       <c r="AK206" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AL206" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>7</v>
@@ -23521,15 +24125,18 @@
         <v>12</v>
       </c>
       <c r="AK207" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL207" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>655</v>
@@ -23631,15 +24238,18 @@
         <v>755</v>
       </c>
       <c r="AK208" s="0" t="n">
+        <v>757</v>
+      </c>
+      <c r="AL208" s="0" t="n">
         <v>757</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>5</v>
@@ -23741,15 +24351,18 @@
         <v>6</v>
       </c>
       <c r="AK209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL209" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>6</v>
@@ -23851,15 +24464,18 @@
         <v>5</v>
       </c>
       <c r="AK210" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL210" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>7</v>
@@ -23961,15 +24577,18 @@
         <v>8</v>
       </c>
       <c r="AK211" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL211" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>132</v>
@@ -24072,14 +24691,17 @@
       </c>
       <c r="AK212" s="0" t="n">
         <v>185</v>
+      </c>
+      <c r="AL212" s="0" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>24</v>
@@ -24182,14 +24804,17 @@
       </c>
       <c r="AK213" s="0" t="n">
         <v>36</v>
+      </c>
+      <c r="AL213" s="0" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>7</v>
@@ -24291,15 +24916,18 @@
         <v>7</v>
       </c>
       <c r="AK214" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL214" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>212</v>
@@ -24401,15 +25029,18 @@
         <v>291</v>
       </c>
       <c r="AK215" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="AL215" s="0" t="n">
         <v>292</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>5</v>
@@ -24511,15 +25142,18 @@
         <v>4</v>
       </c>
       <c r="AK216" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL216" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>147</v>
@@ -24622,14 +25256,17 @@
       </c>
       <c r="AK217" s="0" t="n">
         <v>355</v>
+      </c>
+      <c r="AL217" s="0" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>3</v>
@@ -24676,10 +25313,10 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>6</v>
@@ -24781,15 +25418,18 @@
         <v>8</v>
       </c>
       <c r="AK219" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL219" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>305</v>
@@ -24892,14 +25532,17 @@
       </c>
       <c r="AK220" s="0" t="n">
         <v>398</v>
+      </c>
+      <c r="AL220" s="0" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>79</v>
@@ -25001,15 +25644,18 @@
         <v>72</v>
       </c>
       <c r="AK221" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AL221" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>1161</v>
@@ -25112,14 +25758,17 @@
       </c>
       <c r="AK222" s="0" t="n">
         <v>1552</v>
+      </c>
+      <c r="AL222" s="0" t="n">
+        <v>1553</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>4</v>
@@ -25221,15 +25870,18 @@
         <v>6</v>
       </c>
       <c r="AK223" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL223" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>3</v>
@@ -25331,15 +25983,18 @@
         <v>6</v>
       </c>
       <c r="AK224" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL224" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>145</v>
@@ -25442,14 +26097,17 @@
       </c>
       <c r="AK225" s="0" t="n">
         <v>152</v>
+      </c>
+      <c r="AL225" s="0" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>14</v>
@@ -25551,15 +26209,18 @@
         <v>13</v>
       </c>
       <c r="AK226" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL226" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>135</v>
@@ -25662,14 +26323,17 @@
       </c>
       <c r="AK227" s="0" t="n">
         <v>231</v>
+      </c>
+      <c r="AL227" s="0" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>7</v>
@@ -25771,15 +26435,18 @@
         <v>11</v>
       </c>
       <c r="AK228" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL228" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>24</v>
@@ -25881,15 +26548,18 @@
         <v>30</v>
       </c>
       <c r="AK229" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL229" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>81</v>
@@ -25991,15 +26661,18 @@
         <v>100</v>
       </c>
       <c r="AK230" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL230" s="0" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>68</v>
@@ -26101,15 +26774,18 @@
         <v>135</v>
       </c>
       <c r="AK231" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="AL231" s="0" t="n">
         <v>137</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>6</v>
@@ -26211,6 +26887,9 @@
         <v>8</v>
       </c>
       <c r="AK232" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL232" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="502">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/05/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/05/28</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1650,14 +1653,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL232"/>
+  <dimension ref="A1:AM232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM2" activeCellId="0" sqref="AM2"/>
+      <selection pane="bottomRight" activeCell="AM14" activeCellId="0" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1666,8 +1669,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="4" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="39" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="39" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1013" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,13 +1788,16 @@
       <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1897,14 +1903,17 @@
       </c>
       <c r="AL2" s="0" t="n">
         <v>16</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -2009,15 +2018,18 @@
         <v>65</v>
       </c>
       <c r="AL3" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM3" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2123,14 +2135,17 @@
       </c>
       <c r="AL4" s="0" t="n">
         <v>88</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2235,15 +2250,18 @@
         <v>76</v>
       </c>
       <c r="AL5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AM5" s="0" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2348,15 +2366,18 @@
         <v>7</v>
       </c>
       <c r="AL6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2461,15 +2482,18 @@
         <v>8</v>
       </c>
       <c r="AL7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2574,15 +2598,18 @@
         <v>39</v>
       </c>
       <c r="AL8" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AM8" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2687,15 +2714,18 @@
         <v>23</v>
       </c>
       <c r="AL9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -2801,14 +2831,17 @@
       </c>
       <c r="AL10" s="0" t="n">
         <v>78</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -2913,15 +2946,18 @@
         <v>6</v>
       </c>
       <c r="AL11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -3017,15 +3053,18 @@
         <v>4</v>
       </c>
       <c r="AL12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -3131,14 +3170,17 @@
       </c>
       <c r="AL13" s="0" t="n">
         <v>361</v>
+      </c>
+      <c r="AM13" s="0" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -3243,15 +3285,18 @@
         <v>4</v>
       </c>
       <c r="AL14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3356,15 +3401,18 @@
         <v>18</v>
       </c>
       <c r="AL15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3469,15 +3517,18 @@
         <v>9</v>
       </c>
       <c r="AL16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM16" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3582,15 +3633,18 @@
         <v>11</v>
       </c>
       <c r="AL17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM17" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -3695,15 +3749,18 @@
         <v>24</v>
       </c>
       <c r="AL18" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM18" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -3809,14 +3866,17 @@
       </c>
       <c r="AL19" s="0" t="n">
         <v>728</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <v>753</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -3922,14 +3982,17 @@
       </c>
       <c r="AL20" s="0" t="n">
         <v>95</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -4034,15 +4097,18 @@
         <v>78</v>
       </c>
       <c r="AL21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AM21" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -4147,15 +4213,18 @@
         <v>43</v>
       </c>
       <c r="AL22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AM22" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -4261,14 +4330,17 @@
       </c>
       <c r="AL23" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AM23" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -4373,15 +4445,18 @@
         <v>73</v>
       </c>
       <c r="AL24" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AM24" s="0" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -4486,15 +4561,18 @@
         <v>8</v>
       </c>
       <c r="AL25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM25" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -4599,15 +4677,18 @@
         <v>41</v>
       </c>
       <c r="AL26" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM26" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -4712,15 +4793,18 @@
         <v>12</v>
       </c>
       <c r="AL27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM27" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>243</v>
@@ -4826,14 +4910,17 @@
       </c>
       <c r="AL28" s="0" t="n">
         <v>334</v>
+      </c>
+      <c r="AM28" s="0" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -4939,14 +5026,17 @@
       </c>
       <c r="AL29" s="0" t="n">
         <v>71</v>
+      </c>
+      <c r="AM29" s="0" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>9</v>
@@ -5051,15 +5141,18 @@
         <v>31</v>
       </c>
       <c r="AL30" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AM30" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>190</v>
@@ -5164,15 +5257,18 @@
         <v>298</v>
       </c>
       <c r="AL31" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="AM31" s="0" t="n">
         <v>299</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>86</v>
@@ -5278,14 +5374,17 @@
       </c>
       <c r="AL32" s="0" t="n">
         <v>217</v>
+      </c>
+      <c r="AM32" s="0" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -5391,14 +5490,17 @@
       </c>
       <c r="AL33" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AM33" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -5503,15 +5605,18 @@
         <v>15</v>
       </c>
       <c r="AL34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM34" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -5616,15 +5721,18 @@
         <v>35</v>
       </c>
       <c r="AL35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM35" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -5729,15 +5837,18 @@
         <v>4</v>
       </c>
       <c r="AL36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>950</v>
@@ -5843,14 +5954,17 @@
       </c>
       <c r="AL37" s="0" t="n">
         <v>1213</v>
+      </c>
+      <c r="AM37" s="0" t="n">
+        <v>1218</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -5955,15 +6069,18 @@
         <v>119</v>
       </c>
       <c r="AL38" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="AM38" s="0" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>10</v>
@@ -6068,15 +6185,18 @@
         <v>18</v>
       </c>
       <c r="AL39" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM39" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -6181,15 +6301,18 @@
         <v>9</v>
       </c>
       <c r="AL40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM40" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>15</v>
@@ -6294,18 +6417,21 @@
         <v>26</v>
       </c>
       <c r="AL41" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM41" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -6386,18 +6512,21 @@
         <v>4</v>
       </c>
       <c r="AL42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>3</v>
@@ -6429,10 +6558,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -6538,14 +6667,17 @@
       </c>
       <c r="AL44" s="0" t="n">
         <v>39</v>
+      </c>
+      <c r="AM44" s="0" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -6650,15 +6782,18 @@
         <v>19</v>
       </c>
       <c r="AL45" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM45" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -6764,14 +6899,17 @@
       </c>
       <c r="AL46" s="0" t="n">
         <v>69</v>
+      </c>
+      <c r="AM46" s="0" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -6876,15 +7014,18 @@
         <v>6</v>
       </c>
       <c r="AL47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM47" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -6989,15 +7130,18 @@
         <v>11</v>
       </c>
       <c r="AL48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM48" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -7103,14 +7247,17 @@
       </c>
       <c r="AL49" s="0" t="n">
         <v>57</v>
+      </c>
+      <c r="AM49" s="0" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>298</v>
@@ -7216,14 +7363,17 @@
       </c>
       <c r="AL50" s="0" t="n">
         <v>534</v>
+      </c>
+      <c r="AM50" s="0" t="n">
+        <v>542</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -7329,14 +7479,17 @@
       </c>
       <c r="AL51" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AM51" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>9</v>
@@ -7441,15 +7594,18 @@
         <v>20</v>
       </c>
       <c r="AL52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM52" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>100</v>
@@ -7554,15 +7710,18 @@
         <v>104</v>
       </c>
       <c r="AL53" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="AM53" s="0" t="n">
         <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -7667,15 +7826,18 @@
         <v>3</v>
       </c>
       <c r="AL54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -7780,15 +7942,18 @@
         <v>6</v>
       </c>
       <c r="AL55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM55" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -7893,15 +8058,18 @@
         <v>23</v>
       </c>
       <c r="AL56" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM56" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -8006,15 +8174,18 @@
         <v>9</v>
       </c>
       <c r="AL57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM57" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -8119,15 +8290,18 @@
         <v>26</v>
       </c>
       <c r="AL58" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM58" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>8</v>
@@ -8232,15 +8406,18 @@
         <v>24</v>
       </c>
       <c r="AL59" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM59" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>367</v>
@@ -8346,14 +8523,17 @@
       </c>
       <c r="AL60" s="0" t="n">
         <v>577</v>
+      </c>
+      <c r="AM60" s="0" t="n">
+        <v>579</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>61</v>
@@ -8458,15 +8638,18 @@
         <v>154</v>
       </c>
       <c r="AL61" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AM61" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -8571,15 +8754,18 @@
         <v>45</v>
       </c>
       <c r="AL62" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AM62" s="0" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -8684,15 +8870,18 @@
         <v>7</v>
       </c>
       <c r="AL63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -8797,15 +8986,18 @@
         <v>4</v>
       </c>
       <c r="AL64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>8</v>
@@ -8910,15 +9102,18 @@
         <v>9</v>
       </c>
       <c r="AL65" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM65" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>3</v>
@@ -9014,15 +9209,18 @@
         <v>6</v>
       </c>
       <c r="AL66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM66" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>63</v>
@@ -9128,14 +9326,17 @@
       </c>
       <c r="AL67" s="0" t="n">
         <v>89</v>
+      </c>
+      <c r="AM67" s="0" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>38</v>
@@ -9240,15 +9441,18 @@
         <v>46</v>
       </c>
       <c r="AL68" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM68" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -9354,14 +9558,17 @@
       </c>
       <c r="AL69" s="0" t="n">
         <v>95</v>
+      </c>
+      <c r="AM69" s="0" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -9466,15 +9673,18 @@
         <v>26</v>
       </c>
       <c r="AL70" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM70" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>71</v>
@@ -9579,15 +9789,18 @@
         <v>121</v>
       </c>
       <c r="AL71" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="AM71" s="0" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>56</v>
@@ -9693,14 +9906,17 @@
       </c>
       <c r="AL72" s="0" t="n">
         <v>66</v>
+      </c>
+      <c r="AM72" s="0" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>275</v>
@@ -9806,14 +10022,17 @@
       </c>
       <c r="AL73" s="0" t="n">
         <v>403</v>
+      </c>
+      <c r="AM73" s="0" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>17</v>
@@ -9918,15 +10137,18 @@
         <v>34</v>
       </c>
       <c r="AL74" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM74" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -9964,10 +10186,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -10072,15 +10294,18 @@
         <v>4</v>
       </c>
       <c r="AL76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM76" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>3</v>
@@ -10152,15 +10377,18 @@
         <v>3</v>
       </c>
       <c r="AL77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -10265,15 +10493,18 @@
         <v>26</v>
       </c>
       <c r="AL78" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM78" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>3</v>
@@ -10364,14 +10595,17 @@
       </c>
       <c r="AL79" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AM79" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -10476,15 +10710,18 @@
         <v>10</v>
       </c>
       <c r="AL80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM80" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>894</v>
@@ -10590,14 +10827,17 @@
       </c>
       <c r="AL81" s="0" t="n">
         <v>1079</v>
+      </c>
+      <c r="AM81" s="0" t="n">
+        <v>1083</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -10702,15 +10942,18 @@
         <v>22</v>
       </c>
       <c r="AL82" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM82" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -10815,15 +11058,18 @@
         <v>11</v>
       </c>
       <c r="AL83" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM83" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -10928,15 +11174,18 @@
         <v>24</v>
       </c>
       <c r="AL84" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM84" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>458</v>
@@ -11042,14 +11291,17 @@
       </c>
       <c r="AL85" s="0" t="n">
         <v>710</v>
+      </c>
+      <c r="AM85" s="0" t="n">
+        <v>713</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -11154,15 +11406,18 @@
         <v>6</v>
       </c>
       <c r="AL86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -11268,17 +11523,20 @@
       </c>
       <c r="AL87" s="0" t="n">
         <v>131</v>
+      </c>
+      <c r="AM87" s="0" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -11383,15 +11641,18 @@
         <v>9</v>
       </c>
       <c r="AL88" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM88" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -11496,15 +11757,18 @@
         <v>4</v>
       </c>
       <c r="AL89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM89" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -11609,15 +11873,18 @@
         <v>39</v>
       </c>
       <c r="AL90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AM90" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>61</v>
@@ -11723,14 +11990,17 @@
       </c>
       <c r="AL91" s="0" t="n">
         <v>83</v>
+      </c>
+      <c r="AM91" s="0" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1266</v>
@@ -11836,14 +12106,17 @@
       </c>
       <c r="AL92" s="0" t="n">
         <v>2254</v>
+      </c>
+      <c r="AM92" s="0" t="n">
+        <v>2290</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -11948,15 +12221,18 @@
         <v>64</v>
       </c>
       <c r="AL93" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AM93" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>301</v>
@@ -12062,14 +12338,17 @@
       </c>
       <c r="AL94" s="0" t="n">
         <v>894</v>
+      </c>
+      <c r="AM94" s="0" t="n">
+        <v>934</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -12174,15 +12453,18 @@
         <v>7</v>
       </c>
       <c r="AL95" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM95" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -12287,15 +12569,18 @@
         <v>20</v>
       </c>
       <c r="AL96" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM96" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>162</v>
@@ -12401,14 +12686,17 @@
       </c>
       <c r="AL97" s="0" t="n">
         <v>332</v>
+      </c>
+      <c r="AM97" s="0" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -12513,15 +12801,18 @@
         <v>22</v>
       </c>
       <c r="AL98" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM98" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -12626,15 +12917,18 @@
         <v>5</v>
       </c>
       <c r="AL99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -12740,14 +13034,17 @@
       </c>
       <c r="AL100" s="0" t="n">
         <v>115</v>
+      </c>
+      <c r="AM100" s="0" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>763</v>
@@ -12852,15 +13149,18 @@
         <v>940</v>
       </c>
       <c r="AL101" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="AM101" s="0" t="n">
         <v>944</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>62</v>
@@ -12965,15 +13265,18 @@
         <v>78</v>
       </c>
       <c r="AL102" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AM102" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -13078,15 +13381,18 @@
         <v>7</v>
       </c>
       <c r="AL103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>59</v>
@@ -13191,15 +13497,18 @@
         <v>88</v>
       </c>
       <c r="AL104" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM104" s="0" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>14</v>
@@ -13304,15 +13613,18 @@
         <v>18</v>
       </c>
       <c r="AL105" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM105" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>929</v>
@@ -13418,14 +13730,17 @@
       </c>
       <c r="AL106" s="0" t="n">
         <v>1275</v>
+      </c>
+      <c r="AM106" s="0" t="n">
+        <v>1277</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -13530,15 +13845,18 @@
         <v>18</v>
       </c>
       <c r="AL107" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM107" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -13643,15 +13961,18 @@
         <v>63</v>
       </c>
       <c r="AL108" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AM108" s="0" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -13756,15 +14077,18 @@
         <v>5</v>
       </c>
       <c r="AL109" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM109" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>13</v>
@@ -13869,15 +14193,18 @@
         <v>17</v>
       </c>
       <c r="AL110" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM110" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -13982,15 +14309,18 @@
         <v>10</v>
       </c>
       <c r="AL111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM111" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -14095,15 +14425,18 @@
         <v>21</v>
       </c>
       <c r="AL112" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM112" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>3</v>
@@ -14199,15 +14532,18 @@
         <v>5</v>
       </c>
       <c r="AL113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -14312,15 +14648,18 @@
         <v>15</v>
       </c>
       <c r="AL114" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM114" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>61</v>
@@ -14426,14 +14765,17 @@
       </c>
       <c r="AL115" s="0" t="n">
         <v>146</v>
+      </c>
+      <c r="AM115" s="0" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -14538,15 +14880,18 @@
         <v>116</v>
       </c>
       <c r="AL116" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AM116" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -14560,10 +14905,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -14589,10 +14934,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>4</v>
@@ -14697,15 +15042,18 @@
         <v>7</v>
       </c>
       <c r="AL119" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM119" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -14810,15 +15158,18 @@
         <v>30</v>
       </c>
       <c r="AL120" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM120" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -14924,14 +15275,17 @@
       </c>
       <c r="AL121" s="0" t="n">
         <v>116</v>
+      </c>
+      <c r="AM121" s="0" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>4</v>
@@ -15036,15 +15390,18 @@
         <v>11</v>
       </c>
       <c r="AL122" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM122" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -15149,15 +15506,18 @@
         <v>71</v>
       </c>
       <c r="AL123" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AM123" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -15262,15 +15622,18 @@
         <v>20</v>
       </c>
       <c r="AL124" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM124" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -15375,29 +15738,35 @@
         <v>17</v>
       </c>
       <c r="AL125" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM125" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK126" s="0" t="n">
         <v>3</v>
       </c>
       <c r="AL126" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM126" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>14</v>
@@ -15502,15 +15871,18 @@
         <v>19</v>
       </c>
       <c r="AL127" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM127" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>5</v>
@@ -15609,15 +15981,18 @@
         <v>29</v>
       </c>
       <c r="AL128" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM128" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>3</v>
@@ -15625,10 +16000,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>3</v>
@@ -15730,15 +16105,18 @@
         <v>8</v>
       </c>
       <c r="AL130" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM130" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>187</v>
@@ -15844,14 +16222,17 @@
       </c>
       <c r="AL131" s="0" t="n">
         <v>477</v>
+      </c>
+      <c r="AM131" s="0" t="n">
+        <v>506</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>218</v>
@@ -15957,14 +16338,17 @@
       </c>
       <c r="AL132" s="0" t="n">
         <v>390</v>
+      </c>
+      <c r="AM132" s="0" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>15</v>
@@ -16069,15 +16453,18 @@
         <v>13</v>
       </c>
       <c r="AL133" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM133" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>149</v>
@@ -16182,15 +16569,18 @@
         <v>210</v>
       </c>
       <c r="AL134" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="AM134" s="0" t="n">
         <v>210</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>8</v>
@@ -16295,15 +16685,18 @@
         <v>12</v>
       </c>
       <c r="AL135" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM135" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>17</v>
@@ -16408,15 +16801,18 @@
         <v>38</v>
       </c>
       <c r="AL136" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AM136" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>12</v>
@@ -16521,15 +16917,18 @@
         <v>22</v>
       </c>
       <c r="AL137" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM137" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>29</v>
@@ -16634,15 +17033,18 @@
         <v>28</v>
       </c>
       <c r="AL138" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM138" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>532</v>
@@ -16748,14 +17150,17 @@
       </c>
       <c r="AL139" s="0" t="n">
         <v>652</v>
+      </c>
+      <c r="AM139" s="0" t="n">
+        <v>661</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>219</v>
@@ -16860,15 +17265,18 @@
         <v>307</v>
       </c>
       <c r="AL140" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="AM140" s="0" t="n">
         <v>308</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>18</v>
@@ -16974,14 +17382,17 @@
       </c>
       <c r="AL141" s="0" t="n">
         <v>27</v>
+      </c>
+      <c r="AM141" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>250</v>
@@ -17086,15 +17497,18 @@
         <v>334</v>
       </c>
       <c r="AL142" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="AM142" s="0" t="n">
         <v>334</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>7</v>
@@ -17199,15 +17613,18 @@
         <v>7</v>
       </c>
       <c r="AL143" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM143" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>3</v>
@@ -17313,14 +17730,17 @@
       </c>
       <c r="AL144" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="AM144" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>13</v>
@@ -17426,14 +17846,17 @@
       </c>
       <c r="AL145" s="0" t="n">
         <v>21</v>
+      </c>
+      <c r="AM145" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>134</v>
@@ -17538,15 +17961,18 @@
         <v>168</v>
       </c>
       <c r="AL146" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM146" s="0" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>3</v>
@@ -17651,15 +18077,18 @@
         <v>5</v>
       </c>
       <c r="AL147" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM147" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>10</v>
@@ -17764,15 +18193,18 @@
         <v>10</v>
       </c>
       <c r="AL148" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM148" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>52</v>
@@ -17877,15 +18309,18 @@
         <v>65</v>
       </c>
       <c r="AL149" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM149" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>22</v>
@@ -17990,15 +18425,18 @@
         <v>23</v>
       </c>
       <c r="AL150" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM150" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>38</v>
@@ -18103,15 +18541,18 @@
         <v>60</v>
       </c>
       <c r="AL151" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM151" s="0" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>4</v>
@@ -18216,15 +18657,18 @@
         <v>8</v>
       </c>
       <c r="AL152" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM152" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>5</v>
@@ -18329,15 +18773,18 @@
         <v>6</v>
       </c>
       <c r="AL153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM153" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>5</v>
@@ -18442,15 +18889,18 @@
         <v>6</v>
       </c>
       <c r="AL154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM154" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>24</v>
@@ -18555,15 +19005,18 @@
         <v>28</v>
       </c>
       <c r="AL155" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM155" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>3</v>
@@ -18589,10 +19042,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>6</v>
@@ -18697,15 +19150,18 @@
         <v>6</v>
       </c>
       <c r="AL157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM157" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>3</v>
@@ -18810,15 +19266,18 @@
         <v>6</v>
       </c>
       <c r="AL158" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM158" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>33</v>
@@ -18923,15 +19382,18 @@
         <v>39</v>
       </c>
       <c r="AL159" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM159" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1099</v>
@@ -19037,14 +19499,17 @@
       </c>
       <c r="AL160" s="0" t="n">
         <v>1349</v>
+      </c>
+      <c r="AM160" s="0" t="n">
+        <v>1351</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>6</v>
@@ -19149,15 +19614,18 @@
         <v>9</v>
       </c>
       <c r="AL161" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM161" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>5</v>
@@ -19262,15 +19730,18 @@
         <v>4</v>
       </c>
       <c r="AL162" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM162" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>35</v>
@@ -19375,15 +19846,18 @@
         <v>61</v>
       </c>
       <c r="AL163" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AM163" s="0" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>95</v>
@@ -19488,15 +19962,18 @@
         <v>157</v>
       </c>
       <c r="AL164" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="AM164" s="0" t="n">
         <v>157</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>6</v>
@@ -19601,15 +20078,18 @@
         <v>7</v>
       </c>
       <c r="AL165" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM165" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>61</v>
@@ -19714,15 +20194,18 @@
         <v>64</v>
       </c>
       <c r="AL166" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AM166" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>3</v>
@@ -19827,15 +20310,18 @@
         <v>3</v>
       </c>
       <c r="AL167" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM167" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>14</v>
@@ -19940,15 +20426,18 @@
         <v>19</v>
       </c>
       <c r="AL168" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM168" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>4</v>
@@ -20053,15 +20542,18 @@
         <v>7</v>
       </c>
       <c r="AL169" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM169" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>6</v>
@@ -20166,15 +20658,18 @@
         <v>10</v>
       </c>
       <c r="AL170" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM170" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>9</v>
@@ -20279,15 +20774,18 @@
         <v>9</v>
       </c>
       <c r="AL171" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM171" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>6</v>
@@ -20392,15 +20890,18 @@
         <v>5</v>
       </c>
       <c r="AL172" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM172" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>356</v>
@@ -20506,14 +21007,17 @@
       </c>
       <c r="AL173" s="0" t="n">
         <v>480</v>
+      </c>
+      <c r="AM173" s="0" t="n">
+        <v>481</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="S174" s="0" t="n">
         <v>3</v>
@@ -20573,15 +21077,18 @@
         <v>3</v>
       </c>
       <c r="AL174" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM174" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>65</v>
@@ -20687,14 +21194,17 @@
       </c>
       <c r="AL175" s="0" t="n">
         <v>111</v>
+      </c>
+      <c r="AM175" s="0" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>13</v>
@@ -20799,15 +21309,18 @@
         <v>17</v>
       </c>
       <c r="AL176" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM176" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>280</v>
@@ -20912,15 +21425,18 @@
         <v>391</v>
       </c>
       <c r="AL177" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="AM177" s="0" t="n">
         <v>391</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA178" s="0" t="n">
         <v>3</v>
@@ -20956,15 +21472,18 @@
         <v>3</v>
       </c>
       <c r="AL178" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM178" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>55</v>
@@ -21069,15 +21588,18 @@
         <v>74</v>
       </c>
       <c r="AL179" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM179" s="0" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>8</v>
@@ -21182,15 +21704,18 @@
         <v>9</v>
       </c>
       <c r="AL180" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM180" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>3</v>
@@ -21295,15 +21820,18 @@
         <v>3</v>
       </c>
       <c r="AL181" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM181" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>7</v>
@@ -21408,15 +21936,18 @@
         <v>8</v>
       </c>
       <c r="AL182" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM182" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>8</v>
@@ -21521,15 +22052,18 @@
         <v>13</v>
       </c>
       <c r="AL183" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM183" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>147</v>
@@ -21635,14 +22169,17 @@
       </c>
       <c r="AL184" s="0" t="n">
         <v>335</v>
+      </c>
+      <c r="AM184" s="0" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J185" s="0" t="n">
         <v>4</v>
@@ -21729,15 +22266,18 @@
         <v>6</v>
       </c>
       <c r="AL185" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM185" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>18</v>
@@ -21842,15 +22382,18 @@
         <v>14</v>
       </c>
       <c r="AL186" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM186" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>4</v>
@@ -21955,15 +22498,18 @@
         <v>4</v>
       </c>
       <c r="AL187" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM187" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>19</v>
@@ -22069,14 +22615,17 @@
       </c>
       <c r="AL188" s="0" t="n">
         <v>33</v>
+      </c>
+      <c r="AM188" s="0" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>59</v>
@@ -22182,14 +22731,17 @@
       </c>
       <c r="AL189" s="0" t="n">
         <v>97</v>
+      </c>
+      <c r="AM189" s="0" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>29</v>
@@ -22294,15 +22846,18 @@
         <v>43</v>
       </c>
       <c r="AL190" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AM190" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>21</v>
@@ -22407,15 +22962,18 @@
         <v>24</v>
       </c>
       <c r="AL191" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM191" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>514</v>
@@ -22521,14 +23079,17 @@
       </c>
       <c r="AL192" s="0" t="n">
         <v>1140</v>
+      </c>
+      <c r="AM192" s="0" t="n">
+        <v>1173</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG193" s="0" t="n">
         <v>4</v>
@@ -22547,14 +23108,17 @@
       </c>
       <c r="AL193" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AM193" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>19</v>
@@ -22659,15 +23223,18 @@
         <v>25</v>
       </c>
       <c r="AL194" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM194" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>34</v>
@@ -22772,15 +23339,18 @@
         <v>35</v>
       </c>
       <c r="AL195" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM195" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>32</v>
@@ -22885,15 +23455,18 @@
         <v>30</v>
       </c>
       <c r="AL196" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM196" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>9</v>
@@ -22998,15 +23571,18 @@
         <v>10</v>
       </c>
       <c r="AL197" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM197" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>10</v>
@@ -23111,15 +23687,18 @@
         <v>12</v>
       </c>
       <c r="AL198" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM198" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>12</v>
@@ -23224,15 +23803,18 @@
         <v>13</v>
       </c>
       <c r="AL199" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM199" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>21</v>
@@ -23337,15 +23919,18 @@
         <v>23</v>
       </c>
       <c r="AL200" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM200" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>11</v>
@@ -23450,15 +24035,18 @@
         <v>16</v>
       </c>
       <c r="AL201" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM201" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>28</v>
@@ -23564,14 +24152,17 @@
       </c>
       <c r="AL202" s="0" t="n">
         <v>42</v>
+      </c>
+      <c r="AM202" s="0" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>17</v>
@@ -23677,14 +24268,17 @@
       </c>
       <c r="AL203" s="0" t="n">
         <v>18</v>
+      </c>
+      <c r="AM203" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>114</v>
@@ -23789,15 +24383,18 @@
         <v>146</v>
       </c>
       <c r="AL204" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="AM204" s="0" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>17</v>
@@ -23902,15 +24499,18 @@
         <v>22</v>
       </c>
       <c r="AL205" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM205" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>85</v>
@@ -24015,15 +24615,18 @@
         <v>155</v>
       </c>
       <c r="AL206" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AM206" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>7</v>
@@ -24128,15 +24731,18 @@
         <v>12</v>
       </c>
       <c r="AL207" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM207" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>655</v>
@@ -24241,15 +24847,18 @@
         <v>757</v>
       </c>
       <c r="AL208" s="0" t="n">
+        <v>757</v>
+      </c>
+      <c r="AM208" s="0" t="n">
         <v>757</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>5</v>
@@ -24354,15 +24963,18 @@
         <v>6</v>
       </c>
       <c r="AL209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM209" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>6</v>
@@ -24467,15 +25079,18 @@
         <v>5</v>
       </c>
       <c r="AL210" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM210" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>7</v>
@@ -24580,15 +25195,18 @@
         <v>8</v>
       </c>
       <c r="AL211" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM211" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>132</v>
@@ -24693,15 +25311,18 @@
         <v>185</v>
       </c>
       <c r="AL212" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="AM212" s="0" t="n">
         <v>186</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>24</v>
@@ -24806,15 +25427,18 @@
         <v>36</v>
       </c>
       <c r="AL213" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM213" s="0" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>7</v>
@@ -24919,15 +25543,18 @@
         <v>7</v>
       </c>
       <c r="AL214" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM214" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>212</v>
@@ -25033,14 +25660,17 @@
       </c>
       <c r="AL215" s="0" t="n">
         <v>292</v>
+      </c>
+      <c r="AM215" s="0" t="n">
+        <v>294</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>5</v>
@@ -25145,15 +25775,18 @@
         <v>4</v>
       </c>
       <c r="AL216" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM216" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>147</v>
@@ -25259,14 +25892,17 @@
       </c>
       <c r="AL217" s="0" t="n">
         <v>377</v>
+      </c>
+      <c r="AM217" s="0" t="n">
+        <v>387</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>3</v>
@@ -25313,10 +25949,10 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>6</v>
@@ -25421,15 +26057,18 @@
         <v>8</v>
       </c>
       <c r="AL219" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM219" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>305</v>
@@ -25535,14 +26174,17 @@
       </c>
       <c r="AL220" s="0" t="n">
         <v>399</v>
+      </c>
+      <c r="AM220" s="0" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>79</v>
@@ -25647,15 +26289,18 @@
         <v>72</v>
       </c>
       <c r="AL221" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AM221" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>1161</v>
@@ -25760,15 +26405,18 @@
         <v>1552</v>
       </c>
       <c r="AL222" s="0" t="n">
+        <v>1553</v>
+      </c>
+      <c r="AM222" s="0" t="n">
         <v>1553</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>4</v>
@@ -25873,15 +26521,18 @@
         <v>6</v>
       </c>
       <c r="AL223" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM223" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>3</v>
@@ -25986,15 +26637,18 @@
         <v>6</v>
       </c>
       <c r="AL224" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM224" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>145</v>
@@ -26099,15 +26753,18 @@
         <v>152</v>
       </c>
       <c r="AL225" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="AM225" s="0" t="n">
         <v>153</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>14</v>
@@ -26212,15 +26869,18 @@
         <v>13</v>
       </c>
       <c r="AL226" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM226" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>135</v>
@@ -26325,15 +26985,18 @@
         <v>231</v>
       </c>
       <c r="AL227" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="AM227" s="0" t="n">
         <v>233</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>7</v>
@@ -26438,15 +27101,18 @@
         <v>11</v>
       </c>
       <c r="AL228" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM228" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>24</v>
@@ -26551,15 +27217,18 @@
         <v>30</v>
       </c>
       <c r="AL229" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM229" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>81</v>
@@ -26664,15 +27333,18 @@
         <v>101</v>
       </c>
       <c r="AL230" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM230" s="0" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>68</v>
@@ -26777,15 +27449,18 @@
         <v>137</v>
       </c>
       <c r="AL231" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="AM231" s="0" t="n">
         <v>137</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>6</v>
@@ -26890,6 +27565,9 @@
         <v>8</v>
       </c>
       <c r="AL232" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM232" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="503">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/05/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/05/29</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1653,14 +1656,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM232"/>
+  <dimension ref="A1:AN232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM14" activeCellId="0" sqref="AM14"/>
+      <selection pane="bottomRight" activeCell="AN1" activeCellId="0" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1669,8 +1672,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="4" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="39" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1013" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1007" min="39" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1008" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,13 +1794,16 @@
       <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1905,15 +1911,18 @@
         <v>16</v>
       </c>
       <c r="AM2" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN2" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -2021,15 +2030,18 @@
         <v>65</v>
       </c>
       <c r="AM3" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN3" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2137,15 +2149,18 @@
         <v>88</v>
       </c>
       <c r="AM4" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="AN4" s="0" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2253,15 +2268,18 @@
         <v>76</v>
       </c>
       <c r="AM5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AN5" s="0" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2369,15 +2387,18 @@
         <v>7</v>
       </c>
       <c r="AM6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2485,15 +2506,18 @@
         <v>8</v>
       </c>
       <c r="AM7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2602,14 +2626,17 @@
       </c>
       <c r="AM8" s="0" t="n">
         <v>39</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2717,15 +2744,18 @@
         <v>23</v>
       </c>
       <c r="AM9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN9" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -2834,14 +2864,17 @@
       </c>
       <c r="AM10" s="0" t="n">
         <v>79</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -2949,15 +2982,18 @@
         <v>6</v>
       </c>
       <c r="AM11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -3056,15 +3092,18 @@
         <v>4</v>
       </c>
       <c r="AM12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -3173,14 +3212,17 @@
       </c>
       <c r="AM13" s="0" t="n">
         <v>365</v>
+      </c>
+      <c r="AN13" s="0" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -3288,15 +3330,18 @@
         <v>4</v>
       </c>
       <c r="AM14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3404,15 +3449,18 @@
         <v>20</v>
       </c>
       <c r="AM15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN15" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3520,15 +3568,18 @@
         <v>8</v>
       </c>
       <c r="AM16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN16" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3636,15 +3687,18 @@
         <v>12</v>
       </c>
       <c r="AM17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN17" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -3752,15 +3806,18 @@
         <v>24</v>
       </c>
       <c r="AM18" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN18" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -3869,14 +3926,17 @@
       </c>
       <c r="AM19" s="0" t="n">
         <v>753</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <v>782</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -3984,15 +4044,18 @@
         <v>95</v>
       </c>
       <c r="AM20" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="AN20" s="0" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -4100,15 +4163,18 @@
         <v>78</v>
       </c>
       <c r="AM21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AN21" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -4216,15 +4282,18 @@
         <v>43</v>
       </c>
       <c r="AM22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AN22" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -4332,15 +4401,18 @@
         <v>5</v>
       </c>
       <c r="AM23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN23" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -4448,15 +4520,18 @@
         <v>73</v>
       </c>
       <c r="AM24" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AN24" s="0" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -4564,15 +4639,18 @@
         <v>8</v>
       </c>
       <c r="AM25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN25" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -4680,15 +4758,18 @@
         <v>41</v>
       </c>
       <c r="AM26" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -4796,15 +4877,18 @@
         <v>12</v>
       </c>
       <c r="AM27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN27" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>243</v>
@@ -4912,15 +4996,18 @@
         <v>334</v>
       </c>
       <c r="AM28" s="0" t="n">
+        <v>335</v>
+      </c>
+      <c r="AN28" s="0" t="n">
         <v>335</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -5029,14 +5116,17 @@
       </c>
       <c r="AM29" s="0" t="n">
         <v>72</v>
+      </c>
+      <c r="AN29" s="0" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>9</v>
@@ -5144,15 +5234,18 @@
         <v>31</v>
       </c>
       <c r="AM30" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AN30" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>190</v>
@@ -5261,14 +5354,17 @@
       </c>
       <c r="AM31" s="0" t="n">
         <v>299</v>
+      </c>
+      <c r="AN31" s="0" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>86</v>
@@ -5377,14 +5473,17 @@
       </c>
       <c r="AM32" s="0" t="n">
         <v>221</v>
+      </c>
+      <c r="AN32" s="0" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -5492,15 +5591,18 @@
         <v>5</v>
       </c>
       <c r="AM33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN33" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -5608,15 +5710,18 @@
         <v>15</v>
       </c>
       <c r="AM34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN34" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -5725,14 +5830,17 @@
       </c>
       <c r="AM35" s="0" t="n">
         <v>35</v>
+      </c>
+      <c r="AN35" s="0" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -5840,15 +5948,18 @@
         <v>4</v>
       </c>
       <c r="AM36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>950</v>
@@ -5957,14 +6068,17 @@
       </c>
       <c r="AM37" s="0" t="n">
         <v>1218</v>
+      </c>
+      <c r="AN37" s="0" t="n">
+        <v>1224</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -6072,15 +6186,18 @@
         <v>119</v>
       </c>
       <c r="AM38" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="AN38" s="0" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>10</v>
@@ -6188,15 +6305,18 @@
         <v>18</v>
       </c>
       <c r="AM39" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN39" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -6304,15 +6424,18 @@
         <v>9</v>
       </c>
       <c r="AM40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN40" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>15</v>
@@ -6420,18 +6543,21 @@
         <v>26</v>
       </c>
       <c r="AM41" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN41" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -6515,18 +6641,21 @@
         <v>4</v>
       </c>
       <c r="AM42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>3</v>
@@ -6558,10 +6687,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -6669,15 +6798,18 @@
         <v>39</v>
       </c>
       <c r="AM44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN44" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -6785,15 +6917,18 @@
         <v>19</v>
       </c>
       <c r="AM45" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN45" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -6901,15 +7036,18 @@
         <v>69</v>
       </c>
       <c r="AM46" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AN46" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -7017,15 +7155,18 @@
         <v>6</v>
       </c>
       <c r="AM47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN47" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -7133,15 +7274,18 @@
         <v>11</v>
       </c>
       <c r="AM48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN48" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -7250,14 +7394,17 @@
       </c>
       <c r="AM49" s="0" t="n">
         <v>59</v>
+      </c>
+      <c r="AN49" s="0" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>298</v>
@@ -7366,14 +7513,17 @@
       </c>
       <c r="AM50" s="0" t="n">
         <v>542</v>
+      </c>
+      <c r="AN50" s="0" t="n">
+        <v>546</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -7481,15 +7631,18 @@
         <v>7</v>
       </c>
       <c r="AM51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN51" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>9</v>
@@ -7597,15 +7750,18 @@
         <v>20</v>
       </c>
       <c r="AM52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN52" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>100</v>
@@ -7713,15 +7869,18 @@
         <v>104</v>
       </c>
       <c r="AM53" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="AN53" s="0" t="n">
         <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -7829,15 +7988,18 @@
         <v>3</v>
       </c>
       <c r="AM54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -7945,15 +8107,18 @@
         <v>6</v>
       </c>
       <c r="AM55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN55" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -8061,15 +8226,18 @@
         <v>23</v>
       </c>
       <c r="AM56" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN56" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -8177,15 +8345,18 @@
         <v>9</v>
       </c>
       <c r="AM57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN57" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -8293,15 +8464,18 @@
         <v>26</v>
       </c>
       <c r="AM58" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN58" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>8</v>
@@ -8409,15 +8583,18 @@
         <v>24</v>
       </c>
       <c r="AM59" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN59" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>367</v>
@@ -8526,14 +8703,17 @@
       </c>
       <c r="AM60" s="0" t="n">
         <v>579</v>
+      </c>
+      <c r="AN60" s="0" t="n">
+        <v>580</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>61</v>
@@ -8641,15 +8821,18 @@
         <v>155</v>
       </c>
       <c r="AM61" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AN61" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -8758,14 +8941,17 @@
       </c>
       <c r="AM62" s="0" t="n">
         <v>47</v>
+      </c>
+      <c r="AN62" s="0" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -8873,15 +9059,18 @@
         <v>7</v>
       </c>
       <c r="AM63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -8989,15 +9178,18 @@
         <v>4</v>
       </c>
       <c r="AM64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>8</v>
@@ -9105,15 +9297,18 @@
         <v>9</v>
       </c>
       <c r="AM65" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN65" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>3</v>
@@ -9212,15 +9407,18 @@
         <v>8</v>
       </c>
       <c r="AM66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN66" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>63</v>
@@ -9328,15 +9526,18 @@
         <v>89</v>
       </c>
       <c r="AM67" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="AN67" s="0" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>38</v>
@@ -9444,15 +9645,18 @@
         <v>46</v>
       </c>
       <c r="AM68" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AN68" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -9560,15 +9764,18 @@
         <v>95</v>
       </c>
       <c r="AM69" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="AN69" s="0" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -9677,14 +9884,17 @@
       </c>
       <c r="AM70" s="0" t="n">
         <v>26</v>
+      </c>
+      <c r="AN70" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>71</v>
@@ -9792,15 +10002,18 @@
         <v>121</v>
       </c>
       <c r="AM71" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="AN71" s="0" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>56</v>
@@ -9909,14 +10122,17 @@
       </c>
       <c r="AM72" s="0" t="n">
         <v>67</v>
+      </c>
+      <c r="AN72" s="0" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>275</v>
@@ -10024,15 +10240,18 @@
         <v>403</v>
       </c>
       <c r="AM73" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="AN73" s="0" t="n">
         <v>405</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>17</v>
@@ -10140,15 +10359,18 @@
         <v>34</v>
       </c>
       <c r="AM74" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN74" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -10186,10 +10408,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -10297,15 +10519,18 @@
         <v>4</v>
       </c>
       <c r="AM76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN76" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>3</v>
@@ -10380,15 +10605,18 @@
         <v>3</v>
       </c>
       <c r="AM77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -10496,15 +10724,18 @@
         <v>26</v>
       </c>
       <c r="AM78" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN78" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>3</v>
@@ -10597,15 +10828,18 @@
         <v>4</v>
       </c>
       <c r="AM79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN79" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -10713,15 +10947,18 @@
         <v>10</v>
       </c>
       <c r="AM80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN80" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>894</v>
@@ -10829,15 +11066,18 @@
         <v>1079</v>
       </c>
       <c r="AM81" s="0" t="n">
+        <v>1083</v>
+      </c>
+      <c r="AN81" s="0" t="n">
         <v>1083</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -10945,15 +11185,18 @@
         <v>22</v>
       </c>
       <c r="AM82" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN82" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -11061,15 +11304,18 @@
         <v>11</v>
       </c>
       <c r="AM83" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN83" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -11177,15 +11423,18 @@
         <v>25</v>
       </c>
       <c r="AM84" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN84" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>458</v>
@@ -11293,15 +11542,18 @@
         <v>710</v>
       </c>
       <c r="AM85" s="0" t="n">
+        <v>713</v>
+      </c>
+      <c r="AN85" s="0" t="n">
         <v>713</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -11409,15 +11661,18 @@
         <v>6</v>
       </c>
       <c r="AM86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -11525,18 +11780,21 @@
         <v>131</v>
       </c>
       <c r="AM87" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="AN87" s="0" t="n">
         <v>133</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -11644,15 +11902,18 @@
         <v>9</v>
       </c>
       <c r="AM88" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN88" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -11760,15 +12021,18 @@
         <v>4</v>
       </c>
       <c r="AM89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN89" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -11876,15 +12140,18 @@
         <v>39</v>
       </c>
       <c r="AM90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN90" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>61</v>
@@ -11992,15 +12259,18 @@
         <v>83</v>
       </c>
       <c r="AM91" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="AN91" s="0" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1266</v>
@@ -12109,14 +12379,17 @@
       </c>
       <c r="AM92" s="0" t="n">
         <v>2290</v>
+      </c>
+      <c r="AN92" s="0" t="n">
+        <v>2324</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -12225,14 +12498,17 @@
       </c>
       <c r="AM93" s="0" t="n">
         <v>64</v>
+      </c>
+      <c r="AN93" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>301</v>
@@ -12341,14 +12617,17 @@
       </c>
       <c r="AM94" s="0" t="n">
         <v>934</v>
+      </c>
+      <c r="AN94" s="0" t="n">
+        <v>982</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -12457,14 +12736,17 @@
       </c>
       <c r="AM95" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AN95" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -12572,15 +12854,18 @@
         <v>20</v>
       </c>
       <c r="AM96" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN96" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>162</v>
@@ -12688,15 +12973,18 @@
         <v>332</v>
       </c>
       <c r="AM97" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="AN97" s="0" t="n">
         <v>336</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -12804,15 +13092,18 @@
         <v>22</v>
       </c>
       <c r="AM98" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN98" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -12920,15 +13211,18 @@
         <v>5</v>
       </c>
       <c r="AM99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -13037,14 +13331,17 @@
       </c>
       <c r="AM100" s="0" t="n">
         <v>116</v>
+      </c>
+      <c r="AN100" s="0" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>763</v>
@@ -13152,15 +13449,18 @@
         <v>944</v>
       </c>
       <c r="AM101" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="AN101" s="0" t="n">
         <v>944</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>62</v>
@@ -13268,15 +13568,18 @@
         <v>78</v>
       </c>
       <c r="AM102" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AN102" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -13384,15 +13687,18 @@
         <v>7</v>
       </c>
       <c r="AM103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>59</v>
@@ -13500,15 +13806,18 @@
         <v>90</v>
       </c>
       <c r="AM104" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN104" s="0" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>14</v>
@@ -13616,15 +13925,18 @@
         <v>18</v>
       </c>
       <c r="AM105" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN105" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>929</v>
@@ -13732,15 +14044,18 @@
         <v>1275</v>
       </c>
       <c r="AM106" s="0" t="n">
+        <v>1277</v>
+      </c>
+      <c r="AN106" s="0" t="n">
         <v>1277</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -13848,15 +14163,18 @@
         <v>18</v>
       </c>
       <c r="AM107" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN107" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -13964,15 +14282,18 @@
         <v>63</v>
       </c>
       <c r="AM108" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AN108" s="0" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -14080,15 +14401,18 @@
         <v>6</v>
       </c>
       <c r="AM109" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN109" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>13</v>
@@ -14196,15 +14520,18 @@
         <v>17</v>
       </c>
       <c r="AM110" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN110" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -14312,15 +14639,18 @@
         <v>10</v>
       </c>
       <c r="AM111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN111" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -14428,15 +14758,18 @@
         <v>21</v>
       </c>
       <c r="AM112" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN112" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>3</v>
@@ -14535,15 +14868,18 @@
         <v>5</v>
       </c>
       <c r="AM113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -14651,15 +14987,18 @@
         <v>15</v>
       </c>
       <c r="AM114" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN114" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>61</v>
@@ -14768,14 +15107,17 @@
       </c>
       <c r="AM115" s="0" t="n">
         <v>147</v>
+      </c>
+      <c r="AN115" s="0" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -14883,15 +15225,18 @@
         <v>116</v>
       </c>
       <c r="AM116" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AN116" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -14905,10 +15250,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -14934,10 +15279,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>4</v>
@@ -15046,14 +15391,17 @@
       </c>
       <c r="AM119" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AN119" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -15161,15 +15509,18 @@
         <v>30</v>
       </c>
       <c r="AM120" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN120" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -15277,15 +15628,18 @@
         <v>116</v>
       </c>
       <c r="AM121" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="AN121" s="0" t="n">
         <v>118</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>4</v>
@@ -15393,15 +15747,18 @@
         <v>11</v>
       </c>
       <c r="AM122" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN122" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -15509,15 +15866,18 @@
         <v>71</v>
       </c>
       <c r="AM123" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AN123" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -15625,15 +15985,18 @@
         <v>20</v>
       </c>
       <c r="AM124" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN124" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -15741,15 +16104,18 @@
         <v>17</v>
       </c>
       <c r="AM125" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN125" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK126" s="0" t="n">
         <v>3</v>
@@ -15758,15 +16124,18 @@
         <v>3</v>
       </c>
       <c r="AM126" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN126" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>14</v>
@@ -15874,15 +16243,18 @@
         <v>19</v>
       </c>
       <c r="AM127" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN127" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>5</v>
@@ -15984,15 +16356,18 @@
         <v>29</v>
       </c>
       <c r="AM128" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN128" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>3</v>
@@ -16000,10 +16375,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>3</v>
@@ -16109,14 +16484,17 @@
       </c>
       <c r="AM130" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AN130" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>187</v>
@@ -16225,14 +16603,17 @@
       </c>
       <c r="AM131" s="0" t="n">
         <v>506</v>
+      </c>
+      <c r="AN131" s="0" t="n">
+        <v>522</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>218</v>
@@ -16341,14 +16722,17 @@
       </c>
       <c r="AM132" s="0" t="n">
         <v>400</v>
+      </c>
+      <c r="AN132" s="0" t="n">
+        <v>412</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>15</v>
@@ -16456,15 +16840,18 @@
         <v>13</v>
       </c>
       <c r="AM133" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN133" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>149</v>
@@ -16573,14 +16960,17 @@
       </c>
       <c r="AM134" s="0" t="n">
         <v>210</v>
+      </c>
+      <c r="AN134" s="0" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>8</v>
@@ -16688,15 +17078,18 @@
         <v>12</v>
       </c>
       <c r="AM135" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN135" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>17</v>
@@ -16804,15 +17197,18 @@
         <v>39</v>
       </c>
       <c r="AM136" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN136" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>12</v>
@@ -16921,14 +17317,17 @@
       </c>
       <c r="AM137" s="0" t="n">
         <v>26</v>
+      </c>
+      <c r="AN137" s="0" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>29</v>
@@ -17036,15 +17435,18 @@
         <v>28</v>
       </c>
       <c r="AM138" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN138" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>532</v>
@@ -17152,15 +17554,18 @@
         <v>652</v>
       </c>
       <c r="AM139" s="0" t="n">
+        <v>661</v>
+      </c>
+      <c r="AN139" s="0" t="n">
         <v>661</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>219</v>
@@ -17268,15 +17673,18 @@
         <v>308</v>
       </c>
       <c r="AM140" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="AN140" s="0" t="n">
         <v>308</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>18</v>
@@ -17384,15 +17792,18 @@
         <v>27</v>
       </c>
       <c r="AM141" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN141" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>250</v>
@@ -17501,14 +17912,17 @@
       </c>
       <c r="AM142" s="0" t="n">
         <v>334</v>
+      </c>
+      <c r="AN142" s="0" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>7</v>
@@ -17616,15 +18030,18 @@
         <v>7</v>
       </c>
       <c r="AM143" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN143" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>3</v>
@@ -17732,15 +18149,18 @@
         <v>3</v>
       </c>
       <c r="AM144" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN144" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>13</v>
@@ -17848,15 +18268,18 @@
         <v>21</v>
       </c>
       <c r="AM145" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN145" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>134</v>
@@ -17964,15 +18387,18 @@
         <v>170</v>
       </c>
       <c r="AM146" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN146" s="0" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>3</v>
@@ -18080,15 +18506,18 @@
         <v>5</v>
       </c>
       <c r="AM147" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN147" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>10</v>
@@ -18196,15 +18625,18 @@
         <v>10</v>
       </c>
       <c r="AM148" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN148" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>52</v>
@@ -18312,15 +18744,18 @@
         <v>65</v>
       </c>
       <c r="AM149" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN149" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>22</v>
@@ -18428,15 +18863,18 @@
         <v>23</v>
       </c>
       <c r="AM150" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN150" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>38</v>
@@ -18544,15 +18982,18 @@
         <v>60</v>
       </c>
       <c r="AM151" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN151" s="0" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>4</v>
@@ -18660,15 +19101,18 @@
         <v>8</v>
       </c>
       <c r="AM152" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN152" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>5</v>
@@ -18776,15 +19220,18 @@
         <v>6</v>
       </c>
       <c r="AM153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN153" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>5</v>
@@ -18892,15 +19339,18 @@
         <v>6</v>
       </c>
       <c r="AM154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN154" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>24</v>
@@ -19008,15 +19458,18 @@
         <v>28</v>
       </c>
       <c r="AM155" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN155" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>3</v>
@@ -19042,10 +19495,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>6</v>
@@ -19153,15 +19606,18 @@
         <v>6</v>
       </c>
       <c r="AM157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN157" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>3</v>
@@ -19269,15 +19725,18 @@
         <v>6</v>
       </c>
       <c r="AM158" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN158" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>33</v>
@@ -19385,15 +19844,18 @@
         <v>38</v>
       </c>
       <c r="AM159" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN159" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1099</v>
@@ -19501,15 +19963,18 @@
         <v>1349</v>
       </c>
       <c r="AM160" s="0" t="n">
+        <v>1351</v>
+      </c>
+      <c r="AN160" s="0" t="n">
         <v>1351</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>6</v>
@@ -19617,15 +20082,18 @@
         <v>9</v>
       </c>
       <c r="AM161" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN161" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>5</v>
@@ -19733,15 +20201,18 @@
         <v>4</v>
       </c>
       <c r="AM162" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN162" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>35</v>
@@ -19849,15 +20320,18 @@
         <v>61</v>
       </c>
       <c r="AM163" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AN163" s="0" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>95</v>
@@ -19965,15 +20439,18 @@
         <v>157</v>
       </c>
       <c r="AM164" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="AN164" s="0" t="n">
         <v>157</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>6</v>
@@ -20081,15 +20558,18 @@
         <v>7</v>
       </c>
       <c r="AM165" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN165" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>61</v>
@@ -20197,15 +20677,18 @@
         <v>64</v>
       </c>
       <c r="AM166" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AN166" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>3</v>
@@ -20313,15 +20796,18 @@
         <v>3</v>
       </c>
       <c r="AM167" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN167" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>14</v>
@@ -20429,15 +20915,18 @@
         <v>19</v>
       </c>
       <c r="AM168" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN168" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>4</v>
@@ -20545,15 +21034,18 @@
         <v>7</v>
       </c>
       <c r="AM169" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN169" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>6</v>
@@ -20661,15 +21153,18 @@
         <v>11</v>
       </c>
       <c r="AM170" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN170" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>9</v>
@@ -20777,15 +21272,18 @@
         <v>9</v>
       </c>
       <c r="AM171" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN171" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>6</v>
@@ -20893,15 +21391,18 @@
         <v>5</v>
       </c>
       <c r="AM172" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN172" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>356</v>
@@ -21009,15 +21510,18 @@
         <v>480</v>
       </c>
       <c r="AM173" s="0" t="n">
+        <v>481</v>
+      </c>
+      <c r="AN173" s="0" t="n">
         <v>481</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S174" s="0" t="n">
         <v>3</v>
@@ -21080,15 +21584,18 @@
         <v>3</v>
       </c>
       <c r="AM174" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN174" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>65</v>
@@ -21197,14 +21704,17 @@
       </c>
       <c r="AM175" s="0" t="n">
         <v>113</v>
+      </c>
+      <c r="AN175" s="0" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>13</v>
@@ -21312,15 +21822,18 @@
         <v>17</v>
       </c>
       <c r="AM176" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN176" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>280</v>
@@ -21428,15 +21941,18 @@
         <v>391</v>
       </c>
       <c r="AM177" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="AN177" s="0" t="n">
         <v>391</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA178" s="0" t="n">
         <v>3</v>
@@ -21475,15 +21991,18 @@
         <v>3</v>
       </c>
       <c r="AM178" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN178" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>55</v>
@@ -21591,15 +22110,18 @@
         <v>75</v>
       </c>
       <c r="AM179" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN179" s="0" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>8</v>
@@ -21707,15 +22229,18 @@
         <v>9</v>
       </c>
       <c r="AM180" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN180" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>3</v>
@@ -21823,15 +22348,18 @@
         <v>3</v>
       </c>
       <c r="AM181" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN181" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>7</v>
@@ -21939,15 +22467,18 @@
         <v>8</v>
       </c>
       <c r="AM182" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN182" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>8</v>
@@ -22055,15 +22586,18 @@
         <v>13</v>
       </c>
       <c r="AM183" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN183" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>147</v>
@@ -22172,14 +22706,17 @@
       </c>
       <c r="AM184" s="0" t="n">
         <v>343</v>
+      </c>
+      <c r="AN184" s="0" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J185" s="0" t="n">
         <v>4</v>
@@ -22269,15 +22806,18 @@
         <v>6</v>
       </c>
       <c r="AM185" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN185" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>18</v>
@@ -22385,15 +22925,18 @@
         <v>14</v>
       </c>
       <c r="AM186" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN186" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>4</v>
@@ -22501,15 +23044,18 @@
         <v>4</v>
       </c>
       <c r="AM187" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN187" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>19</v>
@@ -22618,14 +23164,17 @@
       </c>
       <c r="AM188" s="0" t="n">
         <v>34</v>
+      </c>
+      <c r="AN188" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>59</v>
@@ -22734,14 +23283,17 @@
       </c>
       <c r="AM189" s="0" t="n">
         <v>98</v>
+      </c>
+      <c r="AN189" s="0" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>29</v>
@@ -22849,15 +23401,18 @@
         <v>43</v>
       </c>
       <c r="AM190" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AN190" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>21</v>
@@ -22966,14 +23521,17 @@
       </c>
       <c r="AM191" s="0" t="n">
         <v>24</v>
+      </c>
+      <c r="AN191" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>514</v>
@@ -23081,15 +23639,18 @@
         <v>1140</v>
       </c>
       <c r="AM192" s="0" t="n">
+        <v>1173</v>
+      </c>
+      <c r="AN192" s="0" t="n">
         <v>1173</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG193" s="0" t="n">
         <v>4</v>
@@ -23110,15 +23671,18 @@
         <v>4</v>
       </c>
       <c r="AM193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN193" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>19</v>
@@ -23226,15 +23790,18 @@
         <v>25</v>
       </c>
       <c r="AM194" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN194" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>34</v>
@@ -23342,15 +23909,18 @@
         <v>35</v>
       </c>
       <c r="AM195" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN195" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>32</v>
@@ -23458,15 +24028,18 @@
         <v>30</v>
       </c>
       <c r="AM196" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN196" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>9</v>
@@ -23574,15 +24147,18 @@
         <v>10</v>
       </c>
       <c r="AM197" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN197" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>10</v>
@@ -23690,15 +24266,18 @@
         <v>12</v>
       </c>
       <c r="AM198" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN198" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>12</v>
@@ -23806,15 +24385,18 @@
         <v>13</v>
       </c>
       <c r="AM199" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN199" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>21</v>
@@ -23922,15 +24504,18 @@
         <v>23</v>
       </c>
       <c r="AM200" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN200" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>11</v>
@@ -24039,14 +24624,17 @@
       </c>
       <c r="AM201" s="0" t="n">
         <v>18</v>
+      </c>
+      <c r="AN201" s="0" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>28</v>
@@ -24155,14 +24743,17 @@
       </c>
       <c r="AM202" s="0" t="n">
         <v>44</v>
+      </c>
+      <c r="AN202" s="0" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>17</v>
@@ -24270,15 +24861,18 @@
         <v>18</v>
       </c>
       <c r="AM203" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN203" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>114</v>
@@ -24386,15 +24980,18 @@
         <v>146</v>
       </c>
       <c r="AM204" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="AN204" s="0" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>17</v>
@@ -24502,15 +25099,18 @@
         <v>22</v>
       </c>
       <c r="AM205" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN205" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>85</v>
@@ -24618,15 +25218,18 @@
         <v>155</v>
       </c>
       <c r="AM206" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AN206" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>7</v>
@@ -24734,15 +25337,18 @@
         <v>12</v>
       </c>
       <c r="AM207" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN207" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>655</v>
@@ -24850,15 +25456,18 @@
         <v>757</v>
       </c>
       <c r="AM208" s="0" t="n">
+        <v>757</v>
+      </c>
+      <c r="AN208" s="0" t="n">
         <v>757</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>5</v>
@@ -24966,15 +25575,18 @@
         <v>6</v>
       </c>
       <c r="AM209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN209" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>6</v>
@@ -25082,15 +25694,18 @@
         <v>5</v>
       </c>
       <c r="AM210" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN210" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>7</v>
@@ -25198,15 +25813,18 @@
         <v>8</v>
       </c>
       <c r="AM211" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN211" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>132</v>
@@ -25314,15 +25932,18 @@
         <v>186</v>
       </c>
       <c r="AM212" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="AN212" s="0" t="n">
         <v>186</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>24</v>
@@ -25430,15 +26051,18 @@
         <v>37</v>
       </c>
       <c r="AM213" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN213" s="0" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>7</v>
@@ -25546,15 +26170,18 @@
         <v>7</v>
       </c>
       <c r="AM214" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN214" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>212</v>
@@ -25662,15 +26289,18 @@
         <v>292</v>
       </c>
       <c r="AM215" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="AN215" s="0" t="n">
         <v>294</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>5</v>
@@ -25778,15 +26408,18 @@
         <v>4</v>
       </c>
       <c r="AM216" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN216" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>147</v>
@@ -25895,14 +26528,17 @@
       </c>
       <c r="AM217" s="0" t="n">
         <v>387</v>
+      </c>
+      <c r="AN217" s="0" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>3</v>
@@ -25949,10 +26585,10 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>6</v>
@@ -26061,14 +26697,17 @@
       </c>
       <c r="AM219" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AN219" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>305</v>
@@ -26176,15 +26815,18 @@
         <v>399</v>
       </c>
       <c r="AM220" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN220" s="0" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>79</v>
@@ -26292,15 +26934,18 @@
         <v>72</v>
       </c>
       <c r="AM221" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AN221" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>1161</v>
@@ -26409,14 +27054,17 @@
       </c>
       <c r="AM222" s="0" t="n">
         <v>1553</v>
+      </c>
+      <c r="AN222" s="0" t="n">
+        <v>1558</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>4</v>
@@ -26524,15 +27172,18 @@
         <v>6</v>
       </c>
       <c r="AM223" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN223" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>3</v>
@@ -26640,15 +27291,18 @@
         <v>6</v>
       </c>
       <c r="AM224" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN224" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>145</v>
@@ -26756,15 +27410,18 @@
         <v>153</v>
       </c>
       <c r="AM225" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="AN225" s="0" t="n">
         <v>153</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>14</v>
@@ -26872,15 +27529,18 @@
         <v>13</v>
       </c>
       <c r="AM226" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN226" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>135</v>
@@ -26988,15 +27648,18 @@
         <v>233</v>
       </c>
       <c r="AM227" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="AN227" s="0" t="n">
         <v>233</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>7</v>
@@ -27104,15 +27767,18 @@
         <v>11</v>
       </c>
       <c r="AM228" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN228" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>24</v>
@@ -27220,15 +27886,18 @@
         <v>30</v>
       </c>
       <c r="AM229" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN229" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>81</v>
@@ -27336,15 +28005,18 @@
         <v>101</v>
       </c>
       <c r="AM230" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN230" s="0" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>68</v>
@@ -27452,15 +28124,18 @@
         <v>137</v>
       </c>
       <c r="AM231" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="AN231" s="0" t="n">
         <v>137</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>6</v>
@@ -27568,6 +28243,9 @@
         <v>8</v>
       </c>
       <c r="AM232" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN232" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="505">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t xml:space="preserve">2020/05/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/05/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/05/31</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1656,14 +1662,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN232"/>
+  <dimension ref="A1:AP232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" activeCellId="0" sqref="AN1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1672,8 +1678,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="4" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1007" min="39" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1008" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="39" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1001" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,13 +1803,19 @@
       <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1914,15 +1926,21 @@
         <v>17</v>
       </c>
       <c r="AN2" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO2" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -2033,15 +2051,21 @@
         <v>65</v>
       </c>
       <c r="AN3" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO3" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP3" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2152,15 +2176,21 @@
         <v>89</v>
       </c>
       <c r="AN4" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="AO4" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="AP4" s="0" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2271,15 +2301,21 @@
         <v>76</v>
       </c>
       <c r="AN5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AO5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AP5" s="0" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2390,15 +2426,21 @@
         <v>7</v>
       </c>
       <c r="AN6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2509,15 +2551,21 @@
         <v>8</v>
       </c>
       <c r="AN7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2628,15 +2676,21 @@
         <v>39</v>
       </c>
       <c r="AN8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP8" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2747,15 +2801,21 @@
         <v>23</v>
       </c>
       <c r="AN9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP9" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -2867,14 +2927,20 @@
       </c>
       <c r="AN10" s="0" t="n">
         <v>83</v>
+      </c>
+      <c r="AO10" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="AP10" s="0" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -2985,15 +3051,21 @@
         <v>6</v>
       </c>
       <c r="AN11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -3095,15 +3167,21 @@
         <v>4</v>
       </c>
       <c r="AN12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -3215,14 +3293,20 @@
       </c>
       <c r="AN13" s="0" t="n">
         <v>375</v>
+      </c>
+      <c r="AO13" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="AP13" s="0" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -3333,15 +3417,21 @@
         <v>4</v>
       </c>
       <c r="AN14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3452,15 +3542,21 @@
         <v>20</v>
       </c>
       <c r="AN15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP15" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3571,15 +3667,21 @@
         <v>8</v>
       </c>
       <c r="AN16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3690,15 +3792,21 @@
         <v>12</v>
       </c>
       <c r="AN17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -3809,15 +3917,21 @@
         <v>24</v>
       </c>
       <c r="AN18" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO18" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP18" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -3929,14 +4043,20 @@
       </c>
       <c r="AN19" s="0" t="n">
         <v>782</v>
+      </c>
+      <c r="AO19" s="0" t="n">
+        <v>821</v>
+      </c>
+      <c r="AP19" s="0" t="n">
+        <v>840</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -4047,15 +4167,21 @@
         <v>97</v>
       </c>
       <c r="AN20" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="AO20" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="AP20" s="0" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -4166,15 +4292,21 @@
         <v>78</v>
       </c>
       <c r="AN21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AO21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AP21" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -4285,15 +4417,21 @@
         <v>43</v>
       </c>
       <c r="AN22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AO22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AP22" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -4404,15 +4542,21 @@
         <v>6</v>
       </c>
       <c r="AN23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP23" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -4523,15 +4667,21 @@
         <v>73</v>
       </c>
       <c r="AN24" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AO24" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AP24" s="0" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -4642,15 +4792,21 @@
         <v>8</v>
       </c>
       <c r="AN25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP25" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -4761,15 +4917,21 @@
         <v>41</v>
       </c>
       <c r="AN26" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO26" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP26" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -4881,14 +5043,20 @@
       </c>
       <c r="AN27" s="0" t="n">
         <v>12</v>
+      </c>
+      <c r="AO27" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP27" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>243</v>
@@ -5000,14 +5168,20 @@
       </c>
       <c r="AN28" s="0" t="n">
         <v>335</v>
+      </c>
+      <c r="AO28" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="AP28" s="0" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -5119,14 +5293,20 @@
       </c>
       <c r="AN29" s="0" t="n">
         <v>73</v>
+      </c>
+      <c r="AO29" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AP29" s="0" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>9</v>
@@ -5237,15 +5417,21 @@
         <v>31</v>
       </c>
       <c r="AN30" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AO30" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP30" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>190</v>
@@ -5357,14 +5543,20 @@
       </c>
       <c r="AN31" s="0" t="n">
         <v>300</v>
+      </c>
+      <c r="AO31" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="AP31" s="0" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>86</v>
@@ -5476,14 +5668,20 @@
       </c>
       <c r="AN32" s="0" t="n">
         <v>224</v>
+      </c>
+      <c r="AO32" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="AP32" s="0" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -5594,15 +5792,21 @@
         <v>6</v>
       </c>
       <c r="AN33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP33" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -5713,15 +5917,21 @@
         <v>15</v>
       </c>
       <c r="AN34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP34" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -5833,14 +6043,20 @@
       </c>
       <c r="AN35" s="0" t="n">
         <v>38</v>
+      </c>
+      <c r="AO35" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP35" s="0" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -5951,15 +6167,21 @@
         <v>4</v>
       </c>
       <c r="AN36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>950</v>
@@ -6071,14 +6293,20 @@
       </c>
       <c r="AN37" s="0" t="n">
         <v>1224</v>
+      </c>
+      <c r="AO37" s="0" t="n">
+        <v>1225</v>
+      </c>
+      <c r="AP37" s="0" t="n">
+        <v>1225</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -6190,14 +6418,20 @@
       </c>
       <c r="AN38" s="0" t="n">
         <v>119</v>
+      </c>
+      <c r="AO38" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="AP38" s="0" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>10</v>
@@ -6308,15 +6542,21 @@
         <v>18</v>
       </c>
       <c r="AN39" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO39" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP39" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -6427,15 +6667,21 @@
         <v>9</v>
       </c>
       <c r="AN40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO40" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP40" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>15</v>
@@ -6547,17 +6793,23 @@
       </c>
       <c r="AN41" s="0" t="n">
         <v>26</v>
+      </c>
+      <c r="AO41" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP41" s="0" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -6644,18 +6896,24 @@
         <v>4</v>
       </c>
       <c r="AN42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>3</v>
@@ -6687,10 +6945,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -6801,15 +7059,21 @@
         <v>41</v>
       </c>
       <c r="AN44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP44" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -6920,15 +7184,21 @@
         <v>19</v>
       </c>
       <c r="AN45" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO45" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP45" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -7039,15 +7309,21 @@
         <v>71</v>
       </c>
       <c r="AN46" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AO46" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AP46" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -7158,15 +7434,21 @@
         <v>6</v>
       </c>
       <c r="AN47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP47" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -7277,15 +7559,21 @@
         <v>11</v>
       </c>
       <c r="AN48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP48" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -7396,15 +7684,21 @@
         <v>59</v>
       </c>
       <c r="AN49" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AO49" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP49" s="0" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>298</v>
@@ -7516,14 +7810,20 @@
       </c>
       <c r="AN50" s="0" t="n">
         <v>546</v>
+      </c>
+      <c r="AO50" s="0" t="n">
+        <v>551</v>
+      </c>
+      <c r="AP50" s="0" t="n">
+        <v>562</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -7635,14 +7935,20 @@
       </c>
       <c r="AN51" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AO51" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP51" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>9</v>
@@ -7753,15 +8059,21 @@
         <v>20</v>
       </c>
       <c r="AN52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP52" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>100</v>
@@ -7872,15 +8184,21 @@
         <v>104</v>
       </c>
       <c r="AN53" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="AO53" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="AP53" s="0" t="n">
         <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -7991,15 +8309,21 @@
         <v>3</v>
       </c>
       <c r="AN54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -8110,15 +8434,21 @@
         <v>6</v>
       </c>
       <c r="AN55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP55" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -8229,15 +8559,21 @@
         <v>23</v>
       </c>
       <c r="AN56" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO56" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP56" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -8348,15 +8684,21 @@
         <v>9</v>
       </c>
       <c r="AN57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP57" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -8467,15 +8809,21 @@
         <v>26</v>
       </c>
       <c r="AN58" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO58" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP58" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>8</v>
@@ -8586,15 +8934,21 @@
         <v>24</v>
       </c>
       <c r="AN59" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO59" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP59" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>367</v>
@@ -8706,14 +9060,20 @@
       </c>
       <c r="AN60" s="0" t="n">
         <v>580</v>
+      </c>
+      <c r="AO60" s="0" t="n">
+        <v>584</v>
+      </c>
+      <c r="AP60" s="0" t="n">
+        <v>584</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>61</v>
@@ -8824,15 +9184,21 @@
         <v>155</v>
       </c>
       <c r="AN61" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AO61" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AP61" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -8943,15 +9309,21 @@
         <v>47</v>
       </c>
       <c r="AN62" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AO62" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AP62" s="0" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -9062,15 +9434,21 @@
         <v>7</v>
       </c>
       <c r="AN63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -9181,15 +9559,21 @@
         <v>4</v>
       </c>
       <c r="AN64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>8</v>
@@ -9301,14 +9685,20 @@
       </c>
       <c r="AN65" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AO65" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP65" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>3</v>
@@ -9410,15 +9800,21 @@
         <v>8</v>
       </c>
       <c r="AN66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO66" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP66" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>63</v>
@@ -9529,15 +9925,21 @@
         <v>91</v>
       </c>
       <c r="AN67" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="AO67" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="AP67" s="0" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>38</v>
@@ -9649,14 +10051,20 @@
       </c>
       <c r="AN68" s="0" t="n">
         <v>46</v>
+      </c>
+      <c r="AO68" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP68" s="0" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -9768,14 +10176,20 @@
       </c>
       <c r="AN69" s="0" t="n">
         <v>97</v>
+      </c>
+      <c r="AO69" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="AP69" s="0" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -9886,15 +10300,21 @@
         <v>26</v>
       </c>
       <c r="AN70" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO70" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP70" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>71</v>
@@ -10005,15 +10425,21 @@
         <v>121</v>
       </c>
       <c r="AN71" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="AO71" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="AP71" s="0" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>56</v>
@@ -10124,15 +10550,21 @@
         <v>67</v>
       </c>
       <c r="AN72" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AO72" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AP72" s="0" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>275</v>
@@ -10243,15 +10675,21 @@
         <v>405</v>
       </c>
       <c r="AN73" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="AO73" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="AP73" s="0" t="n">
         <v>405</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>17</v>
@@ -10362,15 +10800,21 @@
         <v>34</v>
       </c>
       <c r="AN74" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO74" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP74" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -10408,10 +10852,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -10523,14 +10967,20 @@
       </c>
       <c r="AN76" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AO76" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP76" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>3</v>
@@ -10608,15 +11058,21 @@
         <v>3</v>
       </c>
       <c r="AN77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -10727,15 +11183,21 @@
         <v>26</v>
       </c>
       <c r="AN78" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO78" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP78" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>3</v>
@@ -10831,15 +11293,21 @@
         <v>5</v>
       </c>
       <c r="AN79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP79" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -10950,15 +11418,21 @@
         <v>10</v>
       </c>
       <c r="AN80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP80" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>894</v>
@@ -11069,15 +11543,21 @@
         <v>1083</v>
       </c>
       <c r="AN81" s="0" t="n">
+        <v>1083</v>
+      </c>
+      <c r="AO81" s="0" t="n">
+        <v>1083</v>
+      </c>
+      <c r="AP81" s="0" t="n">
         <v>1083</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -11188,15 +11668,21 @@
         <v>22</v>
       </c>
       <c r="AN82" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO82" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP82" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -11307,15 +11793,21 @@
         <v>11</v>
       </c>
       <c r="AN83" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO83" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP83" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -11426,15 +11918,21 @@
         <v>25</v>
       </c>
       <c r="AN84" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO84" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP84" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>458</v>
@@ -11546,14 +12044,20 @@
       </c>
       <c r="AN85" s="0" t="n">
         <v>713</v>
+      </c>
+      <c r="AO85" s="0" t="n">
+        <v>714</v>
+      </c>
+      <c r="AP85" s="0" t="n">
+        <v>714</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -11664,15 +12168,21 @@
         <v>6</v>
       </c>
       <c r="AN86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -11783,18 +12293,24 @@
         <v>133</v>
       </c>
       <c r="AN87" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="AO87" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="AP87" s="0" t="n">
         <v>133</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -11905,15 +12421,21 @@
         <v>9</v>
       </c>
       <c r="AN88" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO88" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP88" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -12024,15 +12546,21 @@
         <v>4</v>
       </c>
       <c r="AN89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP89" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -12143,15 +12671,21 @@
         <v>39</v>
       </c>
       <c r="AN90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP90" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>61</v>
@@ -12262,15 +12796,21 @@
         <v>84</v>
       </c>
       <c r="AN91" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="AO91" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="AP91" s="0" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1266</v>
@@ -12382,14 +12922,20 @@
       </c>
       <c r="AN92" s="0" t="n">
         <v>2324</v>
+      </c>
+      <c r="AO92" s="0" t="n">
+        <v>2365</v>
+      </c>
+      <c r="AP92" s="0" t="n">
+        <v>2400</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -12501,14 +13047,20 @@
       </c>
       <c r="AN93" s="0" t="n">
         <v>65</v>
+      </c>
+      <c r="AO93" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AP93" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>301</v>
@@ -12620,14 +13172,20 @@
       </c>
       <c r="AN94" s="0" t="n">
         <v>982</v>
+      </c>
+      <c r="AO94" s="0" t="n">
+        <v>1009</v>
+      </c>
+      <c r="AP94" s="0" t="n">
+        <v>1043</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -12738,15 +13296,21 @@
         <v>7</v>
       </c>
       <c r="AN95" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO95" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP95" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -12857,15 +13421,21 @@
         <v>20</v>
       </c>
       <c r="AN96" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO96" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP96" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>162</v>
@@ -12977,14 +13547,20 @@
       </c>
       <c r="AN97" s="0" t="n">
         <v>336</v>
+      </c>
+      <c r="AO97" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="AP97" s="0" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -13095,15 +13671,21 @@
         <v>22</v>
       </c>
       <c r="AN98" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO98" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP98" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -13214,15 +13796,21 @@
         <v>5</v>
       </c>
       <c r="AN99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -13334,14 +13922,20 @@
       </c>
       <c r="AN100" s="0" t="n">
         <v>121</v>
+      </c>
+      <c r="AO100" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="AP100" s="0" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>763</v>
@@ -13452,15 +14046,21 @@
         <v>944</v>
       </c>
       <c r="AN101" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="AO101" s="0" t="n">
+        <v>944</v>
+      </c>
+      <c r="AP101" s="0" t="n">
         <v>944</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>62</v>
@@ -13571,15 +14171,21 @@
         <v>78</v>
       </c>
       <c r="AN102" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AO102" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AP102" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -13690,15 +14296,21 @@
         <v>7</v>
       </c>
       <c r="AN103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>59</v>
@@ -13809,15 +14421,21 @@
         <v>90</v>
       </c>
       <c r="AN104" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO104" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AP104" s="0" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>14</v>
@@ -13928,15 +14546,21 @@
         <v>18</v>
       </c>
       <c r="AN105" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO105" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP105" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>929</v>
@@ -14048,14 +14672,20 @@
       </c>
       <c r="AN106" s="0" t="n">
         <v>1277</v>
+      </c>
+      <c r="AO106" s="0" t="n">
+        <v>1277</v>
+      </c>
+      <c r="AP106" s="0" t="n">
+        <v>1280</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -14166,15 +14796,21 @@
         <v>18</v>
       </c>
       <c r="AN107" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO107" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP107" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -14285,15 +14921,21 @@
         <v>63</v>
       </c>
       <c r="AN108" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AO108" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AP108" s="0" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -14404,15 +15046,21 @@
         <v>6</v>
       </c>
       <c r="AN109" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO109" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP109" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>13</v>
@@ -14523,15 +15171,21 @@
         <v>17</v>
       </c>
       <c r="AN110" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO110" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP110" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -14642,15 +15296,21 @@
         <v>10</v>
       </c>
       <c r="AN111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP111" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -14761,15 +15421,21 @@
         <v>21</v>
       </c>
       <c r="AN112" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO112" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP112" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>3</v>
@@ -14871,15 +15537,21 @@
         <v>5</v>
       </c>
       <c r="AN113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -14990,15 +15662,21 @@
         <v>15</v>
       </c>
       <c r="AN114" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO114" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP114" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>61</v>
@@ -15110,14 +15788,20 @@
       </c>
       <c r="AN115" s="0" t="n">
         <v>149</v>
+      </c>
+      <c r="AO115" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="AP115" s="0" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -15228,15 +15912,21 @@
         <v>116</v>
       </c>
       <c r="AN116" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AO116" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AP116" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -15250,10 +15940,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -15279,10 +15969,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>4</v>
@@ -15393,15 +16083,21 @@
         <v>7</v>
       </c>
       <c r="AN119" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO119" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP119" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -15512,15 +16208,21 @@
         <v>30</v>
       </c>
       <c r="AN120" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO120" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP120" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -15632,14 +16334,20 @@
       </c>
       <c r="AN121" s="0" t="n">
         <v>118</v>
+      </c>
+      <c r="AO121" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="AP121" s="0" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>4</v>
@@ -15750,15 +16458,21 @@
         <v>11</v>
       </c>
       <c r="AN122" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO122" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP122" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -15869,15 +16583,21 @@
         <v>71</v>
       </c>
       <c r="AN123" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AO123" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AP123" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -15988,15 +16708,21 @@
         <v>20</v>
       </c>
       <c r="AN124" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO124" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP124" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -16107,15 +16833,21 @@
         <v>17</v>
       </c>
       <c r="AN125" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO125" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP125" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AK126" s="0" t="n">
         <v>3</v>
@@ -16127,15 +16859,21 @@
         <v>3</v>
       </c>
       <c r="AN126" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO126" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP126" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>14</v>
@@ -16246,15 +16984,21 @@
         <v>19</v>
       </c>
       <c r="AN127" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO127" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP127" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>5</v>
@@ -16360,14 +17104,20 @@
       </c>
       <c r="AN128" s="0" t="n">
         <v>29</v>
+      </c>
+      <c r="AO128" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP128" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>3</v>
@@ -16375,10 +17125,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>3</v>
@@ -16486,15 +17236,21 @@
         <v>9</v>
       </c>
       <c r="AN130" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO130" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP130" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>187</v>
@@ -16606,14 +17362,20 @@
       </c>
       <c r="AN131" s="0" t="n">
         <v>522</v>
+      </c>
+      <c r="AO131" s="0" t="n">
+        <v>534</v>
+      </c>
+      <c r="AP131" s="0" t="n">
+        <v>556</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>218</v>
@@ -16725,14 +17487,20 @@
       </c>
       <c r="AN132" s="0" t="n">
         <v>412</v>
+      </c>
+      <c r="AO132" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="AP132" s="0" t="n">
+        <v>432</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>15</v>
@@ -16843,15 +17611,21 @@
         <v>13</v>
       </c>
       <c r="AN133" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO133" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP133" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>149</v>
@@ -16962,15 +17736,21 @@
         <v>210</v>
       </c>
       <c r="AN134" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="AO134" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="AP134" s="0" t="n">
         <v>209</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>8</v>
@@ -17081,15 +17861,21 @@
         <v>12</v>
       </c>
       <c r="AN135" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO135" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP135" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>17</v>
@@ -17200,15 +17986,21 @@
         <v>39</v>
       </c>
       <c r="AN136" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO136" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP136" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>12</v>
@@ -17319,15 +18111,21 @@
         <v>26</v>
       </c>
       <c r="AN137" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO137" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP137" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>29</v>
@@ -17439,14 +18237,20 @@
       </c>
       <c r="AN138" s="0" t="n">
         <v>28</v>
+      </c>
+      <c r="AO138" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AP138" s="0" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>532</v>
@@ -17558,14 +18362,20 @@
       </c>
       <c r="AN139" s="0" t="n">
         <v>661</v>
+      </c>
+      <c r="AO139" s="0" t="n">
+        <v>661</v>
+      </c>
+      <c r="AP139" s="0" t="n">
+        <v>662</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>219</v>
@@ -17677,14 +18487,20 @@
       </c>
       <c r="AN140" s="0" t="n">
         <v>308</v>
+      </c>
+      <c r="AO140" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="AP140" s="0" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>18</v>
@@ -17796,14 +18612,20 @@
       </c>
       <c r="AN141" s="0" t="n">
         <v>35</v>
+      </c>
+      <c r="AO141" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP141" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>250</v>
@@ -17915,14 +18737,20 @@
       </c>
       <c r="AN142" s="0" t="n">
         <v>335</v>
+      </c>
+      <c r="AO142" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="AP142" s="0" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>7</v>
@@ -18033,15 +18861,21 @@
         <v>7</v>
       </c>
       <c r="AN143" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO143" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP143" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>3</v>
@@ -18152,15 +18986,21 @@
         <v>4</v>
       </c>
       <c r="AN144" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO144" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP144" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>13</v>
@@ -18271,15 +19111,21 @@
         <v>22</v>
       </c>
       <c r="AN145" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO145" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP145" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>134</v>
@@ -18391,14 +19237,20 @@
       </c>
       <c r="AN146" s="0" t="n">
         <v>170</v>
+      </c>
+      <c r="AO146" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="AP146" s="0" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>3</v>
@@ -18509,15 +19361,21 @@
         <v>5</v>
       </c>
       <c r="AN147" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO147" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP147" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>10</v>
@@ -18628,15 +19486,21 @@
         <v>10</v>
       </c>
       <c r="AN148" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO148" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP148" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>52</v>
@@ -18747,15 +19611,21 @@
         <v>65</v>
       </c>
       <c r="AN149" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO149" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP149" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>22</v>
@@ -18866,15 +19736,21 @@
         <v>23</v>
       </c>
       <c r="AN150" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO150" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP150" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>38</v>
@@ -18985,15 +19861,21 @@
         <v>60</v>
       </c>
       <c r="AN151" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO151" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP151" s="0" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>4</v>
@@ -19104,15 +19986,21 @@
         <v>8</v>
       </c>
       <c r="AN152" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO152" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP152" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>5</v>
@@ -19223,15 +20111,21 @@
         <v>6</v>
       </c>
       <c r="AN153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP153" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>5</v>
@@ -19342,15 +20236,21 @@
         <v>6</v>
       </c>
       <c r="AN154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP154" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>24</v>
@@ -19462,14 +20362,20 @@
       </c>
       <c r="AN155" s="0" t="n">
         <v>28</v>
+      </c>
+      <c r="AO155" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP155" s="0" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>3</v>
@@ -19495,10 +20401,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>6</v>
@@ -19609,15 +20515,21 @@
         <v>6</v>
       </c>
       <c r="AN157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP157" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>3</v>
@@ -19728,15 +20640,21 @@
         <v>6</v>
       </c>
       <c r="AN158" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO158" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP158" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>33</v>
@@ -19848,14 +20766,20 @@
       </c>
       <c r="AN159" s="0" t="n">
         <v>38</v>
+      </c>
+      <c r="AO159" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP159" s="0" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1099</v>
@@ -19967,14 +20891,20 @@
       </c>
       <c r="AN160" s="0" t="n">
         <v>1351</v>
+      </c>
+      <c r="AO160" s="0" t="n">
+        <v>1354</v>
+      </c>
+      <c r="AP160" s="0" t="n">
+        <v>1357</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>6</v>
@@ -20085,15 +21015,21 @@
         <v>9</v>
       </c>
       <c r="AN161" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO161" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP161" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>5</v>
@@ -20204,15 +21140,21 @@
         <v>4</v>
       </c>
       <c r="AN162" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO162" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP162" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>35</v>
@@ -20323,15 +21265,21 @@
         <v>61</v>
       </c>
       <c r="AN163" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AO163" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP163" s="0" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>95</v>
@@ -20443,14 +21391,20 @@
       </c>
       <c r="AN164" s="0" t="n">
         <v>157</v>
+      </c>
+      <c r="AO164" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="AP164" s="0" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>6</v>
@@ -20561,15 +21515,21 @@
         <v>7</v>
       </c>
       <c r="AN165" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO165" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP165" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>61</v>
@@ -20680,15 +21640,21 @@
         <v>64</v>
       </c>
       <c r="AN166" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AO166" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AP166" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>3</v>
@@ -20799,15 +21765,21 @@
         <v>3</v>
       </c>
       <c r="AN167" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO167" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP167" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>14</v>
@@ -20919,14 +21891,20 @@
       </c>
       <c r="AN168" s="0" t="n">
         <v>19</v>
+      </c>
+      <c r="AO168" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP168" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>4</v>
@@ -21037,15 +22015,21 @@
         <v>7</v>
       </c>
       <c r="AN169" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO169" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP169" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>6</v>
@@ -21157,14 +22141,20 @@
       </c>
       <c r="AN170" s="0" t="n">
         <v>11</v>
+      </c>
+      <c r="AO170" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP170" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>9</v>
@@ -21275,15 +22265,21 @@
         <v>9</v>
       </c>
       <c r="AN171" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO171" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP171" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>6</v>
@@ -21394,15 +22390,21 @@
         <v>5</v>
       </c>
       <c r="AN172" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO172" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP172" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>356</v>
@@ -21513,15 +22515,21 @@
         <v>481</v>
       </c>
       <c r="AN173" s="0" t="n">
+        <v>481</v>
+      </c>
+      <c r="AO173" s="0" t="n">
+        <v>481</v>
+      </c>
+      <c r="AP173" s="0" t="n">
         <v>481</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="S174" s="0" t="n">
         <v>3</v>
@@ -21587,15 +22595,21 @@
         <v>3</v>
       </c>
       <c r="AN174" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO174" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP174" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>65</v>
@@ -21707,14 +22721,20 @@
       </c>
       <c r="AN175" s="0" t="n">
         <v>115</v>
+      </c>
+      <c r="AO175" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="AP175" s="0" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>13</v>
@@ -21826,14 +22846,20 @@
       </c>
       <c r="AN176" s="0" t="n">
         <v>17</v>
+      </c>
+      <c r="AO176" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP176" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>280</v>
@@ -21945,14 +22971,20 @@
       </c>
       <c r="AN177" s="0" t="n">
         <v>391</v>
+      </c>
+      <c r="AO177" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="AP177" s="0" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AA178" s="0" t="n">
         <v>3</v>
@@ -21994,15 +23026,21 @@
         <v>3</v>
       </c>
       <c r="AN178" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO178" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP178" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>55</v>
@@ -22114,14 +23152,20 @@
       </c>
       <c r="AN179" s="0" t="n">
         <v>75</v>
+      </c>
+      <c r="AO179" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP179" s="0" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>8</v>
@@ -22232,15 +23276,21 @@
         <v>9</v>
       </c>
       <c r="AN180" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO180" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP180" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>3</v>
@@ -22351,15 +23401,21 @@
         <v>3</v>
       </c>
       <c r="AN181" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO181" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP181" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>7</v>
@@ -22470,15 +23526,21 @@
         <v>8</v>
       </c>
       <c r="AN182" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO182" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP182" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>8</v>
@@ -22589,15 +23651,21 @@
         <v>13</v>
       </c>
       <c r="AN183" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO183" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP183" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>147</v>
@@ -22709,14 +23777,20 @@
       </c>
       <c r="AN184" s="0" t="n">
         <v>359</v>
+      </c>
+      <c r="AO184" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="AP184" s="0" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J185" s="0" t="n">
         <v>4</v>
@@ -22809,15 +23883,21 @@
         <v>6</v>
       </c>
       <c r="AN185" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO185" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP185" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>18</v>
@@ -22928,15 +24008,21 @@
         <v>14</v>
       </c>
       <c r="AN186" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO186" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP186" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>4</v>
@@ -23047,15 +24133,21 @@
         <v>4</v>
       </c>
       <c r="AN187" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO187" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP187" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>19</v>
@@ -23167,14 +24259,20 @@
       </c>
       <c r="AN188" s="0" t="n">
         <v>35</v>
+      </c>
+      <c r="AO188" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP188" s="0" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>59</v>
@@ -23286,14 +24384,20 @@
       </c>
       <c r="AN189" s="0" t="n">
         <v>101</v>
+      </c>
+      <c r="AO189" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP189" s="0" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>29</v>
@@ -23404,15 +24508,21 @@
         <v>43</v>
       </c>
       <c r="AN190" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AO190" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AP190" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>21</v>
@@ -23523,15 +24633,21 @@
         <v>24</v>
       </c>
       <c r="AN191" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO191" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP191" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>514</v>
@@ -23642,15 +24758,21 @@
         <v>1173</v>
       </c>
       <c r="AN192" s="0" t="n">
+        <v>1173</v>
+      </c>
+      <c r="AO192" s="0" t="n">
+        <v>1173</v>
+      </c>
+      <c r="AP192" s="0" t="n">
         <v>1173</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AG193" s="0" t="n">
         <v>4</v>
@@ -23675,14 +24797,20 @@
       </c>
       <c r="AN193" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AO193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP193" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>19</v>
@@ -23793,15 +24921,21 @@
         <v>25</v>
       </c>
       <c r="AN194" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO194" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP194" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>34</v>
@@ -23912,15 +25046,21 @@
         <v>35</v>
       </c>
       <c r="AN195" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AO195" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP195" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>32</v>
@@ -24031,15 +25171,21 @@
         <v>30</v>
       </c>
       <c r="AN196" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO196" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP196" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>9</v>
@@ -24150,15 +25296,21 @@
         <v>10</v>
       </c>
       <c r="AN197" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO197" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP197" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>10</v>
@@ -24269,15 +25421,21 @@
         <v>12</v>
       </c>
       <c r="AN198" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO198" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP198" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>12</v>
@@ -24388,15 +25546,21 @@
         <v>13</v>
       </c>
       <c r="AN199" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO199" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP199" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>21</v>
@@ -24507,15 +25671,21 @@
         <v>23</v>
       </c>
       <c r="AN200" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO200" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP200" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>11</v>
@@ -24626,15 +25796,21 @@
         <v>18</v>
       </c>
       <c r="AN201" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO201" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP201" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>28</v>
@@ -24746,14 +25922,20 @@
       </c>
       <c r="AN202" s="0" t="n">
         <v>46</v>
+      </c>
+      <c r="AO202" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AP202" s="0" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>17</v>
@@ -24864,15 +26046,21 @@
         <v>20</v>
       </c>
       <c r="AN203" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO203" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP203" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>114</v>
@@ -24983,15 +26171,21 @@
         <v>146</v>
       </c>
       <c r="AN204" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="AO204" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="AP204" s="0" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>17</v>
@@ -25102,15 +26296,21 @@
         <v>22</v>
       </c>
       <c r="AN205" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO205" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP205" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>85</v>
@@ -25221,15 +26421,21 @@
         <v>155</v>
       </c>
       <c r="AN206" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AO206" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AP206" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>7</v>
@@ -25340,15 +26546,21 @@
         <v>12</v>
       </c>
       <c r="AN207" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO207" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP207" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>655</v>
@@ -25459,15 +26671,21 @@
         <v>757</v>
       </c>
       <c r="AN208" s="0" t="n">
+        <v>757</v>
+      </c>
+      <c r="AO208" s="0" t="n">
+        <v>757</v>
+      </c>
+      <c r="AP208" s="0" t="n">
         <v>757</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>5</v>
@@ -25578,15 +26796,21 @@
         <v>6</v>
       </c>
       <c r="AN209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO209" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP209" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>6</v>
@@ -25697,15 +26921,21 @@
         <v>5</v>
       </c>
       <c r="AN210" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO210" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP210" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>7</v>
@@ -25816,15 +27046,21 @@
         <v>8</v>
       </c>
       <c r="AN211" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO211" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP211" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>132</v>
@@ -25935,15 +27171,21 @@
         <v>186</v>
       </c>
       <c r="AN212" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="AO212" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="AP212" s="0" t="n">
         <v>186</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>24</v>
@@ -26055,14 +27297,20 @@
       </c>
       <c r="AN213" s="0" t="n">
         <v>37</v>
+      </c>
+      <c r="AO213" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP213" s="0" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>7</v>
@@ -26173,15 +27421,21 @@
         <v>7</v>
       </c>
       <c r="AN214" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO214" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP214" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>212</v>
@@ -26292,15 +27546,21 @@
         <v>294</v>
       </c>
       <c r="AN215" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="AO215" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="AP215" s="0" t="n">
         <v>294</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>5</v>
@@ -26411,15 +27671,21 @@
         <v>4</v>
       </c>
       <c r="AN216" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO216" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP216" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>147</v>
@@ -26531,14 +27797,20 @@
       </c>
       <c r="AN217" s="0" t="n">
         <v>392</v>
+      </c>
+      <c r="AO217" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="AP217" s="0" t="n">
+        <v>410</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>3</v>
@@ -26585,10 +27857,10 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>6</v>
@@ -26699,15 +27971,21 @@
         <v>8</v>
       </c>
       <c r="AN219" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO219" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP219" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>305</v>
@@ -26818,15 +28096,21 @@
         <v>400</v>
       </c>
       <c r="AN220" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AO220" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP220" s="0" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>79</v>
@@ -26937,15 +28221,21 @@
         <v>72</v>
       </c>
       <c r="AN221" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AO221" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AP221" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>1161</v>
@@ -27057,14 +28347,20 @@
       </c>
       <c r="AN222" s="0" t="n">
         <v>1558</v>
+      </c>
+      <c r="AO222" s="0" t="n">
+        <v>1558</v>
+      </c>
+      <c r="AP222" s="0" t="n">
+        <v>1568</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>4</v>
@@ -27176,14 +28472,20 @@
       </c>
       <c r="AN223" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AO223" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP223" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>3</v>
@@ -27294,15 +28596,21 @@
         <v>6</v>
       </c>
       <c r="AN224" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO224" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP224" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>145</v>
@@ -27414,14 +28722,20 @@
       </c>
       <c r="AN225" s="0" t="n">
         <v>153</v>
+      </c>
+      <c r="AO225" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="AP225" s="0" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>14</v>
@@ -27532,15 +28846,21 @@
         <v>13</v>
       </c>
       <c r="AN226" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO226" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP226" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>135</v>
@@ -27651,15 +28971,21 @@
         <v>233</v>
       </c>
       <c r="AN227" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="AO227" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="AP227" s="0" t="n">
         <v>233</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>7</v>
@@ -27770,15 +29096,21 @@
         <v>11</v>
       </c>
       <c r="AN228" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO228" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP228" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>24</v>
@@ -27889,15 +29221,21 @@
         <v>30</v>
       </c>
       <c r="AN229" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO229" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP229" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>81</v>
@@ -28008,15 +29346,21 @@
         <v>101</v>
       </c>
       <c r="AN230" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AO230" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP230" s="0" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>68</v>
@@ -28128,14 +29472,20 @@
       </c>
       <c r="AN231" s="0" t="n">
         <v>137</v>
+      </c>
+      <c r="AO231" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="AP231" s="0" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>6</v>
@@ -28246,6 +29596,12 @@
         <v>8</v>
       </c>
       <c r="AN232" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO232" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP232" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="512">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/06/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/06/03</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1680,14 +1683,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR234"/>
+  <dimension ref="A1:AS234"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AN1" activeCellId="0" sqref="AN1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="AS1" activeCellId="0" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1696,8 +1699,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="4" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="994" min="39" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="995" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="991" min="39" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="992" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,13 +1836,16 @@
       <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1963,14 +1969,17 @@
       </c>
       <c r="AR2" s="0" t="n">
         <v>19</v>
+      </c>
+      <c r="AS2" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -2093,15 +2102,18 @@
         <v>65</v>
       </c>
       <c r="AR3" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS3" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2224,15 +2236,18 @@
         <v>91</v>
       </c>
       <c r="AR4" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="AS4" s="0" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2355,15 +2370,18 @@
         <v>76</v>
       </c>
       <c r="AR5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AS5" s="0" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2486,15 +2504,18 @@
         <v>7</v>
       </c>
       <c r="AR6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS6" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2617,15 +2638,18 @@
         <v>9</v>
       </c>
       <c r="AR7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2748,15 +2772,18 @@
         <v>40</v>
       </c>
       <c r="AR8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS8" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2879,15 +2906,18 @@
         <v>23</v>
       </c>
       <c r="AR9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS9" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -3011,14 +3041,17 @@
       </c>
       <c r="AR10" s="0" t="n">
         <v>93</v>
+      </c>
+      <c r="AS10" s="0" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -3141,15 +3174,18 @@
         <v>6</v>
       </c>
       <c r="AR11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -3263,15 +3299,18 @@
         <v>4</v>
       </c>
       <c r="AR12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -3395,14 +3434,17 @@
       </c>
       <c r="AR13" s="0" t="n">
         <v>402</v>
+      </c>
+      <c r="AS13" s="0" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -3525,15 +3567,18 @@
         <v>4</v>
       </c>
       <c r="AR14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3656,15 +3701,18 @@
         <v>20</v>
       </c>
       <c r="AR15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS15" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3787,15 +3835,18 @@
         <v>8</v>
       </c>
       <c r="AR16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS16" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -3918,15 +3969,18 @@
         <v>12</v>
       </c>
       <c r="AR17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS17" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -4049,15 +4103,18 @@
         <v>24</v>
       </c>
       <c r="AR18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS18" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -4181,14 +4238,17 @@
       </c>
       <c r="AR19" s="0" t="n">
         <v>890</v>
+      </c>
+      <c r="AS19" s="0" t="n">
+        <v>915</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -4311,15 +4371,18 @@
         <v>97</v>
       </c>
       <c r="AR20" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AS20" s="0" t="n">
         <v>98</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -4442,15 +4505,18 @@
         <v>78</v>
       </c>
       <c r="AR21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AS21" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -4573,15 +4639,18 @@
         <v>43</v>
       </c>
       <c r="AR22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS22" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>5</v>
@@ -4705,14 +4774,17 @@
       </c>
       <c r="AR23" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AS23" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>50</v>
@@ -4835,15 +4907,18 @@
         <v>73</v>
       </c>
       <c r="AR24" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AS24" s="0" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>7</v>
@@ -4966,15 +5041,18 @@
         <v>8</v>
       </c>
       <c r="AR25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS25" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>30</v>
@@ -5097,15 +5175,18 @@
         <v>41</v>
       </c>
       <c r="AR26" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS26" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>5</v>
@@ -5228,15 +5309,18 @@
         <v>14</v>
       </c>
       <c r="AR27" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS27" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>243</v>
@@ -5360,14 +5444,17 @@
       </c>
       <c r="AR28" s="0" t="n">
         <v>341</v>
+      </c>
+      <c r="AS28" s="0" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>7</v>
@@ -5491,14 +5578,17 @@
       </c>
       <c r="AR29" s="0" t="n">
         <v>82</v>
+      </c>
+      <c r="AS29" s="0" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>9</v>
@@ -5621,15 +5711,18 @@
         <v>31</v>
       </c>
       <c r="AR30" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS30" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>190</v>
@@ -5753,14 +5846,17 @@
       </c>
       <c r="AR31" s="0" t="n">
         <v>302</v>
+      </c>
+      <c r="AS31" s="0" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>86</v>
@@ -5884,14 +5980,17 @@
       </c>
       <c r="AR32" s="0" t="n">
         <v>231</v>
+      </c>
+      <c r="AS32" s="0" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -6014,15 +6113,18 @@
         <v>6</v>
       </c>
       <c r="AR33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS33" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9</v>
@@ -6145,15 +6247,18 @@
         <v>15</v>
       </c>
       <c r="AR34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS34" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>27</v>
@@ -6276,15 +6381,18 @@
         <v>40</v>
       </c>
       <c r="AR35" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS35" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -6408,14 +6516,17 @@
       </c>
       <c r="AR36" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AS36" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>950</v>
@@ -6539,14 +6650,17 @@
       </c>
       <c r="AR37" s="0" t="n">
         <v>1225</v>
+      </c>
+      <c r="AS37" s="0" t="n">
+        <v>1228</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>99</v>
@@ -6669,15 +6783,18 @@
         <v>121</v>
       </c>
       <c r="AR38" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="AS38" s="0" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>10</v>
@@ -6800,15 +6917,18 @@
         <v>18</v>
       </c>
       <c r="AR39" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS39" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -6932,14 +7052,17 @@
       </c>
       <c r="AR40" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AS40" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>15</v>
@@ -7063,17 +7186,20 @@
       </c>
       <c r="AR41" s="0" t="n">
         <v>29</v>
+      </c>
+      <c r="AS41" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -7172,18 +7298,21 @@
         <v>4</v>
       </c>
       <c r="AR42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS42" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>3</v>
@@ -7215,10 +7344,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>34</v>
@@ -7341,15 +7470,18 @@
         <v>41</v>
       </c>
       <c r="AR44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS44" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>14</v>
@@ -7472,15 +7604,18 @@
         <v>19</v>
       </c>
       <c r="AR45" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS45" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>43</v>
@@ -7603,15 +7738,18 @@
         <v>71</v>
       </c>
       <c r="AR46" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AS46" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -7734,15 +7872,18 @@
         <v>6</v>
       </c>
       <c r="AR47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS47" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>12</v>
@@ -7865,15 +8006,18 @@
         <v>11</v>
       </c>
       <c r="AR48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS48" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>22</v>
@@ -7997,14 +8141,17 @@
       </c>
       <c r="AR49" s="0" t="n">
         <v>63</v>
+      </c>
+      <c r="AS49" s="0" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>298</v>
@@ -8128,14 +8275,17 @@
       </c>
       <c r="AR50" s="0" t="n">
         <v>579</v>
+      </c>
+      <c r="AS50" s="0" t="n">
+        <v>593</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>5</v>
@@ -8258,15 +8408,18 @@
         <v>17</v>
       </c>
       <c r="AR51" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS51" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>9</v>
@@ -8389,15 +8542,18 @@
         <v>20</v>
       </c>
       <c r="AR52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS52" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>100</v>
@@ -8521,14 +8677,17 @@
       </c>
       <c r="AR53" s="0" t="n">
         <v>104</v>
+      </c>
+      <c r="AS53" s="0" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3</v>
@@ -8651,15 +8810,18 @@
         <v>3</v>
       </c>
       <c r="AR54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS54" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9</v>
@@ -8782,15 +8944,18 @@
         <v>6</v>
       </c>
       <c r="AR55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS55" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>16</v>
@@ -8913,15 +9078,18 @@
         <v>23</v>
       </c>
       <c r="AR56" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS56" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>8</v>
@@ -9044,15 +9212,18 @@
         <v>9</v>
       </c>
       <c r="AR57" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS57" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>23</v>
@@ -9175,15 +9346,18 @@
         <v>26</v>
       </c>
       <c r="AR58" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS58" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>8</v>
@@ -9306,15 +9480,18 @@
         <v>24</v>
       </c>
       <c r="AR59" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS59" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>367</v>
@@ -9438,14 +9615,17 @@
       </c>
       <c r="AR60" s="0" t="n">
         <v>592</v>
+      </c>
+      <c r="AS60" s="0" t="n">
+        <v>595</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>61</v>
@@ -9568,15 +9748,18 @@
         <v>155</v>
       </c>
       <c r="AR61" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AS61" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>33</v>
@@ -9699,15 +9882,18 @@
         <v>49</v>
       </c>
       <c r="AR62" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AS62" s="0" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>7</v>
@@ -9830,15 +10016,18 @@
         <v>7</v>
       </c>
       <c r="AR63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS63" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>3</v>
@@ -9961,15 +10150,18 @@
         <v>4</v>
       </c>
       <c r="AR64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>8</v>
@@ -10092,15 +10284,18 @@
         <v>10</v>
       </c>
       <c r="AR65" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS65" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>3</v>
@@ -10214,15 +10409,18 @@
         <v>8</v>
       </c>
       <c r="AR66" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS66" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>63</v>
@@ -10345,15 +10543,18 @@
         <v>91</v>
       </c>
       <c r="AR67" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="AS67" s="0" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>38</v>
@@ -10476,15 +10677,18 @@
         <v>47</v>
       </c>
       <c r="AR68" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AS68" s="0" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>52</v>
@@ -10607,15 +10811,18 @@
         <v>99</v>
       </c>
       <c r="AR69" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS69" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
@@ -10738,15 +10945,18 @@
         <v>25</v>
       </c>
       <c r="AR70" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS70" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>71</v>
@@ -10869,15 +11079,18 @@
         <v>122</v>
       </c>
       <c r="AR71" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="AS71" s="0" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>56</v>
@@ -11000,15 +11213,18 @@
         <v>66</v>
       </c>
       <c r="AR72" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AS72" s="0" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>275</v>
@@ -11131,15 +11347,18 @@
         <v>406</v>
       </c>
       <c r="AR73" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="AS73" s="0" t="n">
         <v>407</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>17</v>
@@ -11262,15 +11481,18 @@
         <v>34</v>
       </c>
       <c r="AR74" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS74" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -11308,10 +11530,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
@@ -11434,15 +11656,18 @@
         <v>7</v>
       </c>
       <c r="AR76" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS76" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O77" s="0" t="n">
         <v>3</v>
@@ -11532,15 +11757,18 @@
         <v>3</v>
       </c>
       <c r="AR77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS77" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>30</v>
@@ -11663,15 +11891,18 @@
         <v>26</v>
       </c>
       <c r="AR78" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS78" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>3</v>
@@ -11779,15 +12010,18 @@
         <v>5</v>
       </c>
       <c r="AR79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS79" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>9</v>
@@ -11910,15 +12144,18 @@
         <v>10</v>
       </c>
       <c r="AR80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS80" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>894</v>
@@ -12042,14 +12279,17 @@
       </c>
       <c r="AR81" s="0" t="n">
         <v>1083</v>
+      </c>
+      <c r="AS81" s="0" t="n">
+        <v>1086</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>15</v>
@@ -12172,15 +12412,18 @@
         <v>22</v>
       </c>
       <c r="AR82" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS82" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>7</v>
@@ -12303,15 +12546,18 @@
         <v>11</v>
       </c>
       <c r="AR83" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS83" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>20</v>
@@ -12434,15 +12680,18 @@
         <v>25</v>
       </c>
       <c r="AR84" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS84" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>458</v>
@@ -12565,15 +12814,18 @@
         <v>716</v>
       </c>
       <c r="AR85" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AS85" s="0" t="n">
         <v>720</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>6</v>
@@ -12696,15 +12948,18 @@
         <v>6</v>
       </c>
       <c r="AR86" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS86" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>95</v>
@@ -12827,18 +13082,21 @@
         <v>133</v>
       </c>
       <c r="AR87" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="AS87" s="0" t="n">
         <v>133</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>7</v>
@@ -12961,15 +13219,18 @@
         <v>9</v>
       </c>
       <c r="AR88" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS88" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>4</v>
@@ -13092,15 +13353,18 @@
         <v>4</v>
       </c>
       <c r="AR89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS89" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>33</v>
@@ -13223,15 +13487,18 @@
         <v>39</v>
       </c>
       <c r="AR90" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AS90" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>61</v>
@@ -13354,15 +13621,18 @@
         <v>84</v>
       </c>
       <c r="AR91" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="AS91" s="0" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>1266</v>
@@ -13486,14 +13756,17 @@
       </c>
       <c r="AR92" s="0" t="n">
         <v>2447</v>
+      </c>
+      <c r="AS92" s="0" t="n">
+        <v>2486</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>60</v>
@@ -13616,15 +13889,18 @@
         <v>70</v>
       </c>
       <c r="AR93" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS93" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>301</v>
@@ -13748,14 +14024,17 @@
       </c>
       <c r="AR94" s="0" t="n">
         <v>1089</v>
+      </c>
+      <c r="AS94" s="0" t="n">
+        <v>1114</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>5</v>
@@ -13879,14 +14158,17 @@
       </c>
       <c r="AR95" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AS95" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>12</v>
@@ -14009,15 +14291,18 @@
         <v>20</v>
       </c>
       <c r="AR96" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS96" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>162</v>
@@ -14141,14 +14426,17 @@
       </c>
       <c r="AR97" s="0" t="n">
         <v>341</v>
+      </c>
+      <c r="AS97" s="0" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
@@ -14271,15 +14559,18 @@
         <v>22</v>
       </c>
       <c r="AR98" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS98" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>5</v>
@@ -14402,15 +14693,18 @@
         <v>5</v>
       </c>
       <c r="AR99" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS99" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>63</v>
@@ -14534,14 +14828,17 @@
       </c>
       <c r="AR100" s="0" t="n">
         <v>131</v>
+      </c>
+      <c r="AS100" s="0" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>763</v>
@@ -14665,14 +14962,17 @@
       </c>
       <c r="AR101" s="0" t="n">
         <v>944</v>
+      </c>
+      <c r="AS101" s="0" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>62</v>
@@ -14795,15 +15095,18 @@
         <v>78</v>
       </c>
       <c r="AR102" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AS102" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>3</v>
@@ -14926,15 +15229,18 @@
         <v>7</v>
       </c>
       <c r="AR103" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS103" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>59</v>
@@ -15057,15 +15363,18 @@
         <v>90</v>
       </c>
       <c r="AR104" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="AS104" s="0" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>14</v>
@@ -15188,15 +15497,18 @@
         <v>18</v>
       </c>
       <c r="AR105" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS105" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>929</v>
@@ -15320,14 +15632,17 @@
       </c>
       <c r="AR106" s="0" t="n">
         <v>1281</v>
+      </c>
+      <c r="AS106" s="0" t="n">
+        <v>1285</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>14</v>
@@ -15450,15 +15765,18 @@
         <v>18</v>
       </c>
       <c r="AR107" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS107" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>32</v>
@@ -15581,15 +15899,18 @@
         <v>63</v>
       </c>
       <c r="AR108" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AS108" s="0" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>4</v>
@@ -15712,15 +16033,18 @@
         <v>6</v>
       </c>
       <c r="AR109" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS109" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>13</v>
@@ -15843,15 +16167,18 @@
         <v>17</v>
       </c>
       <c r="AR110" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS110" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>7</v>
@@ -15974,15 +16301,18 @@
         <v>10</v>
       </c>
       <c r="AR111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS111" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>17</v>
@@ -16105,15 +16435,18 @@
         <v>21</v>
       </c>
       <c r="AR112" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS112" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>3</v>
@@ -16227,15 +16560,18 @@
         <v>5</v>
       </c>
       <c r="AR113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS113" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>11</v>
@@ -16358,15 +16694,18 @@
         <v>15</v>
       </c>
       <c r="AR114" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS114" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>61</v>
@@ -16490,14 +16829,17 @@
       </c>
       <c r="AR115" s="0" t="n">
         <v>162</v>
+      </c>
+      <c r="AS115" s="0" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>66</v>
@@ -16620,15 +16962,18 @@
         <v>116</v>
       </c>
       <c r="AR116" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AS116" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -16642,10 +16987,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -16666,15 +17011,18 @@
         <v>3</v>
       </c>
       <c r="J118" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS118" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>4</v>
@@ -16797,15 +17145,18 @@
         <v>8</v>
       </c>
       <c r="AR119" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS119" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>16</v>
@@ -16928,15 +17279,18 @@
         <v>30</v>
       </c>
       <c r="AR120" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS120" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>40</v>
@@ -17060,14 +17414,17 @@
       </c>
       <c r="AR121" s="0" t="n">
         <v>120</v>
+      </c>
+      <c r="AS121" s="0" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>4</v>
@@ -17190,15 +17547,18 @@
         <v>11</v>
       </c>
       <c r="AR122" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS122" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>29</v>
@@ -17321,15 +17681,18 @@
         <v>71</v>
       </c>
       <c r="AR123" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AS123" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>10</v>
@@ -17452,15 +17815,18 @@
         <v>20</v>
       </c>
       <c r="AR124" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS124" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -17583,15 +17949,18 @@
         <v>17</v>
       </c>
       <c r="AR125" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS125" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK126" s="0" t="n">
         <v>3</v>
@@ -17615,15 +17984,18 @@
         <v>3</v>
       </c>
       <c r="AR126" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS126" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>14</v>
@@ -17746,15 +18118,18 @@
         <v>19</v>
       </c>
       <c r="AR127" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS127" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>5</v>
@@ -17871,15 +18246,18 @@
         <v>32</v>
       </c>
       <c r="AR128" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS128" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>3</v>
@@ -17887,10 +18265,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>3</v>
@@ -18010,15 +18388,18 @@
         <v>11</v>
       </c>
       <c r="AR130" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS130" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>187</v>
@@ -18142,14 +18523,17 @@
       </c>
       <c r="AR131" s="0" t="n">
         <v>581</v>
+      </c>
+      <c r="AS131" s="0" t="n">
+        <v>602</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>218</v>
@@ -18273,14 +18657,17 @@
       </c>
       <c r="AR132" s="0" t="n">
         <v>446</v>
+      </c>
+      <c r="AS132" s="0" t="n">
+        <v>456</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>15</v>
@@ -18403,15 +18790,18 @@
         <v>14</v>
       </c>
       <c r="AR133" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS133" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>149</v>
@@ -18534,15 +18924,18 @@
         <v>210</v>
       </c>
       <c r="AR134" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="AS134" s="0" t="n">
         <v>212</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>8</v>
@@ -18665,15 +19058,18 @@
         <v>12</v>
       </c>
       <c r="AR135" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS135" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>17</v>
@@ -18796,15 +19192,18 @@
         <v>39</v>
       </c>
       <c r="AR136" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS136" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>12</v>
@@ -18927,15 +19326,18 @@
         <v>27</v>
       </c>
       <c r="AR137" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS137" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>29</v>
@@ -19059,14 +19461,17 @@
       </c>
       <c r="AR138" s="0" t="n">
         <v>35</v>
+      </c>
+      <c r="AS138" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>532</v>
@@ -19189,15 +19594,18 @@
         <v>662</v>
       </c>
       <c r="AR139" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="AS139" s="0" t="n">
         <v>662</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>219</v>
@@ -19320,15 +19728,18 @@
         <v>310</v>
       </c>
       <c r="AR140" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="AS140" s="0" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>18</v>
@@ -19451,15 +19862,18 @@
         <v>37</v>
       </c>
       <c r="AR141" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS141" s="0" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>250</v>
@@ -19583,14 +19997,17 @@
       </c>
       <c r="AR142" s="0" t="n">
         <v>337</v>
+      </c>
+      <c r="AS142" s="0" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>7</v>
@@ -19713,15 +20130,18 @@
         <v>7</v>
       </c>
       <c r="AR143" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS143" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>3</v>
@@ -19844,15 +20264,18 @@
         <v>4</v>
       </c>
       <c r="AR144" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS144" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>13</v>
@@ -19975,15 +20398,18 @@
         <v>22</v>
       </c>
       <c r="AR145" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS145" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>134</v>
@@ -20106,15 +20532,18 @@
         <v>171</v>
       </c>
       <c r="AR146" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="AS146" s="0" t="n">
         <v>174</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>3</v>
@@ -20237,15 +20666,18 @@
         <v>5</v>
       </c>
       <c r="AR147" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS147" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>10</v>
@@ -20368,15 +20800,18 @@
         <v>11</v>
       </c>
       <c r="AR148" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS148" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>52</v>
@@ -20499,15 +20934,18 @@
         <v>65</v>
       </c>
       <c r="AR149" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS149" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>22</v>
@@ -20630,15 +21068,18 @@
         <v>23</v>
       </c>
       <c r="AR150" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS150" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>38</v>
@@ -20761,15 +21202,18 @@
         <v>60</v>
       </c>
       <c r="AR151" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS151" s="0" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>4</v>
@@ -20892,15 +21336,18 @@
         <v>8</v>
       </c>
       <c r="AR152" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS152" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>5</v>
@@ -21023,15 +21470,18 @@
         <v>6</v>
       </c>
       <c r="AR153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS153" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>5</v>
@@ -21154,15 +21604,18 @@
         <v>6</v>
       </c>
       <c r="AR154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS154" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>24</v>
@@ -21285,15 +21738,18 @@
         <v>29</v>
       </c>
       <c r="AR155" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS155" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>3</v>
@@ -21319,10 +21775,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>6</v>
@@ -21445,15 +21901,18 @@
         <v>6</v>
       </c>
       <c r="AR157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS157" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>3</v>
@@ -21576,15 +22035,18 @@
         <v>6</v>
       </c>
       <c r="AR158" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS158" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>33</v>
@@ -21708,14 +22170,17 @@
       </c>
       <c r="AR159" s="0" t="n">
         <v>39</v>
+      </c>
+      <c r="AS159" s="0" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1099</v>
@@ -21839,14 +22304,17 @@
       </c>
       <c r="AR160" s="0" t="n">
         <v>1358</v>
+      </c>
+      <c r="AS160" s="0" t="n">
+        <v>1361</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>6</v>
@@ -21969,15 +22437,18 @@
         <v>9</v>
       </c>
       <c r="AR161" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS161" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>5</v>
@@ -22100,15 +22571,18 @@
         <v>4</v>
       </c>
       <c r="AR162" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS162" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>35</v>
@@ -22231,15 +22705,18 @@
         <v>61</v>
       </c>
       <c r="AR163" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS163" s="0" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>95</v>
@@ -22362,15 +22839,18 @@
         <v>158</v>
       </c>
       <c r="AR164" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="AS164" s="0" t="n">
         <v>158</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>6</v>
@@ -22493,15 +22973,18 @@
         <v>7</v>
       </c>
       <c r="AR165" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS165" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>61</v>
@@ -22624,15 +23107,18 @@
         <v>64</v>
       </c>
       <c r="AR166" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AS166" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>3</v>
@@ -22755,15 +23241,18 @@
         <v>3</v>
       </c>
       <c r="AR167" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS167" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>14</v>
@@ -22886,15 +23375,18 @@
         <v>20</v>
       </c>
       <c r="AR168" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS168" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>4</v>
@@ -23017,15 +23509,18 @@
         <v>7</v>
       </c>
       <c r="AR169" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS169" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>6</v>
@@ -23148,15 +23643,18 @@
         <v>12</v>
       </c>
       <c r="AR170" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS170" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>9</v>
@@ -23279,15 +23777,18 @@
         <v>9</v>
       </c>
       <c r="AR171" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS171" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>6</v>
@@ -23410,29 +23911,35 @@
         <v>5</v>
       </c>
       <c r="AR172" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS172" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AQ173" s="0" t="n">
         <v>4</v>
       </c>
       <c r="AR173" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS173" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>356</v>
@@ -23556,14 +24063,17 @@
       </c>
       <c r="AR174" s="0" t="n">
         <v>483</v>
+      </c>
+      <c r="AS174" s="0" t="n">
+        <v>485</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S175" s="0" t="n">
         <v>3</v>
@@ -23641,15 +24151,18 @@
         <v>3</v>
       </c>
       <c r="AR175" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS175" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>65</v>
@@ -23773,14 +24286,17 @@
       </c>
       <c r="AR176" s="0" t="n">
         <v>124</v>
+      </c>
+      <c r="AS176" s="0" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>13</v>
@@ -23903,15 +24419,18 @@
         <v>18</v>
       </c>
       <c r="AR177" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS177" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>280</v>
@@ -24035,14 +24554,17 @@
       </c>
       <c r="AR178" s="0" t="n">
         <v>394</v>
+      </c>
+      <c r="AS178" s="0" t="n">
+        <v>395</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA179" s="0" t="n">
         <v>3</v>
@@ -24096,15 +24618,18 @@
         <v>3</v>
       </c>
       <c r="AR179" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS179" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>55</v>
@@ -24228,14 +24753,17 @@
       </c>
       <c r="AR180" s="0" t="n">
         <v>77</v>
+      </c>
+      <c r="AS180" s="0" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>8</v>
@@ -24358,15 +24886,18 @@
         <v>9</v>
       </c>
       <c r="AR181" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS181" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>3</v>
@@ -24490,14 +25021,17 @@
       </c>
       <c r="AR182" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="AS182" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>7</v>
@@ -24620,15 +25154,18 @@
         <v>8</v>
       </c>
       <c r="AR183" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS183" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>8</v>
@@ -24751,15 +25288,18 @@
         <v>13</v>
       </c>
       <c r="AR184" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS184" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>147</v>
@@ -24883,14 +25423,17 @@
       </c>
       <c r="AR185" s="0" t="n">
         <v>397</v>
+      </c>
+      <c r="AS185" s="0" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J186" s="0" t="n">
         <v>4</v>
@@ -24995,15 +25538,18 @@
         <v>6</v>
       </c>
       <c r="AR186" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS186" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>18</v>
@@ -25126,15 +25672,18 @@
         <v>14</v>
       </c>
       <c r="AR187" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS187" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>4</v>
@@ -25257,15 +25806,18 @@
         <v>4</v>
       </c>
       <c r="AR188" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS188" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>19</v>
@@ -25389,14 +25941,17 @@
       </c>
       <c r="AR189" s="0" t="n">
         <v>37</v>
+      </c>
+      <c r="AS189" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>59</v>
@@ -25520,14 +26075,17 @@
       </c>
       <c r="AR190" s="0" t="n">
         <v>106</v>
+      </c>
+      <c r="AS190" s="0" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>29</v>
@@ -25650,15 +26208,18 @@
         <v>43</v>
       </c>
       <c r="AR191" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS191" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>21</v>
@@ -25781,26 +26342,32 @@
         <v>22</v>
       </c>
       <c r="AR192" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS192" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AR193" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS193" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>514</v>
@@ -25924,14 +26491,17 @@
       </c>
       <c r="AR194" s="0" t="n">
         <v>1355</v>
+      </c>
+      <c r="AS194" s="0" t="n">
+        <v>1400</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG195" s="0" t="n">
         <v>4</v>
@@ -25967,15 +26537,18 @@
         <v>7</v>
       </c>
       <c r="AR195" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS195" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>19</v>
@@ -26098,15 +26671,18 @@
         <v>25</v>
       </c>
       <c r="AR196" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS196" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>34</v>
@@ -26229,15 +26805,18 @@
         <v>35</v>
       </c>
       <c r="AR197" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS197" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>32</v>
@@ -26360,15 +26939,18 @@
         <v>30</v>
       </c>
       <c r="AR198" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS198" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>9</v>
@@ -26491,15 +27073,18 @@
         <v>10</v>
       </c>
       <c r="AR199" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS199" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>10</v>
@@ -26623,14 +27208,17 @@
       </c>
       <c r="AR200" s="0" t="n">
         <v>12</v>
+      </c>
+      <c r="AS200" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>12</v>
@@ -26753,15 +27341,18 @@
         <v>13</v>
       </c>
       <c r="AR201" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS201" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>21</v>
@@ -26884,15 +27475,18 @@
         <v>23</v>
       </c>
       <c r="AR202" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS202" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>11</v>
@@ -27015,15 +27609,18 @@
         <v>20</v>
       </c>
       <c r="AR203" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS203" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>28</v>
@@ -27147,14 +27744,17 @@
       </c>
       <c r="AR204" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="AS204" s="0" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>17</v>
@@ -27277,15 +27877,18 @@
         <v>20</v>
       </c>
       <c r="AR205" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS205" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>114</v>
@@ -27408,15 +28011,18 @@
         <v>146</v>
       </c>
       <c r="AR206" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="AS206" s="0" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>17</v>
@@ -27540,14 +28146,17 @@
       </c>
       <c r="AR207" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="AS207" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>85</v>
@@ -27670,15 +28279,18 @@
         <v>155</v>
       </c>
       <c r="AR208" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AS208" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>7</v>
@@ -27801,15 +28413,18 @@
         <v>12</v>
       </c>
       <c r="AR209" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS209" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>655</v>
@@ -27933,14 +28548,17 @@
       </c>
       <c r="AR210" s="0" t="n">
         <v>757</v>
+      </c>
+      <c r="AS210" s="0" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>5</v>
@@ -28063,15 +28681,18 @@
         <v>6</v>
       </c>
       <c r="AR211" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS211" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>6</v>
@@ -28194,15 +28815,18 @@
         <v>5</v>
       </c>
       <c r="AR212" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS212" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>7</v>
@@ -28325,15 +28949,18 @@
         <v>8</v>
       </c>
       <c r="AR213" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS213" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>132</v>
@@ -28457,14 +29084,17 @@
       </c>
       <c r="AR214" s="0" t="n">
         <v>186</v>
+      </c>
+      <c r="AS214" s="0" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>24</v>
@@ -28587,15 +29217,18 @@
         <v>42</v>
       </c>
       <c r="AR215" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS215" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>7</v>
@@ -28718,15 +29351,18 @@
         <v>7</v>
       </c>
       <c r="AR216" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS216" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>212</v>
@@ -28850,14 +29486,17 @@
       </c>
       <c r="AR217" s="0" t="n">
         <v>294</v>
+      </c>
+      <c r="AS217" s="0" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>5</v>
@@ -28980,15 +29619,18 @@
         <v>4</v>
       </c>
       <c r="AR218" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS218" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>147</v>
@@ -29112,14 +29754,17 @@
       </c>
       <c r="AR219" s="0" t="n">
         <v>427</v>
+      </c>
+      <c r="AS219" s="0" t="n">
+        <v>441</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>3</v>
@@ -29166,10 +29811,10 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>6</v>
@@ -29292,15 +29937,18 @@
         <v>9</v>
       </c>
       <c r="AR221" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS221" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>305</v>
@@ -29423,15 +30071,18 @@
         <v>400</v>
       </c>
       <c r="AR222" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AS222" s="0" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>79</v>
@@ -29554,15 +30205,18 @@
         <v>72</v>
       </c>
       <c r="AR223" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AS223" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>1161</v>
@@ -29686,14 +30340,17 @@
       </c>
       <c r="AR224" s="0" t="n">
         <v>1578</v>
+      </c>
+      <c r="AS224" s="0" t="n">
+        <v>1580</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>4</v>
@@ -29816,15 +30473,18 @@
         <v>7</v>
       </c>
       <c r="AR225" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS225" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>3</v>
@@ -29947,15 +30607,18 @@
         <v>6</v>
       </c>
       <c r="AR226" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS226" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>145</v>
@@ -30078,15 +30741,18 @@
         <v>154</v>
       </c>
       <c r="AR227" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AS227" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>14</v>
@@ -30209,15 +30875,18 @@
         <v>13</v>
       </c>
       <c r="AR228" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS228" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>135</v>
@@ -30340,15 +31009,18 @@
         <v>233</v>
       </c>
       <c r="AR229" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="AS229" s="0" t="n">
         <v>233</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>7</v>
@@ -30471,15 +31143,18 @@
         <v>11</v>
       </c>
       <c r="AR230" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS230" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>24</v>
@@ -30602,15 +31277,18 @@
         <v>30</v>
       </c>
       <c r="AR231" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS231" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>81</v>
@@ -30733,15 +31411,18 @@
         <v>101</v>
       </c>
       <c r="AR232" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS232" s="0" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>68</v>
@@ -30865,14 +31546,17 @@
       </c>
       <c r="AR233" s="0" t="n">
         <v>146</v>
+      </c>
+      <c r="AS233" s="0" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>6</v>
@@ -30995,6 +31679,9 @@
         <v>8</v>
       </c>
       <c r="AR234" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS234" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="516">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/06/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/06/05</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1692,14 +1695,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT235"/>
+  <dimension ref="A1:AU235"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AP1" activeCellId="0" sqref="AP1"/>
+      <selection pane="topRight" activeCell="AS1" activeCellId="0" sqref="AS1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT1" activeCellId="0" sqref="AT1"/>
+      <selection pane="bottomRight" activeCell="AU1" activeCellId="0" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1708,8 +1711,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="4" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="988" min="39" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="989" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="985" min="39" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="986" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,13 +1854,16 @@
       <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="AU1" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1986,15 +1992,18 @@
         <v>20</v>
       </c>
       <c r="AT2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU2" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -2123,15 +2132,18 @@
         <v>65</v>
       </c>
       <c r="AT3" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AU3" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2260,15 +2272,18 @@
         <v>91</v>
       </c>
       <c r="AT4" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="AU4" s="0" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2397,15 +2412,18 @@
         <v>76</v>
       </c>
       <c r="AT5" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AU5" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2535,14 +2553,17 @@
       </c>
       <c r="AT6" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AU6" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2672,14 +2693,17 @@
       </c>
       <c r="AT7" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AU7" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2808,15 +2832,18 @@
         <v>40</v>
       </c>
       <c r="AT8" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AU8" s="0" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2945,15 +2972,18 @@
         <v>23</v>
       </c>
       <c r="AT9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU9" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -3082,15 +3112,18 @@
         <v>95</v>
       </c>
       <c r="AT10" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AU10" s="0" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -3219,15 +3252,18 @@
         <v>6</v>
       </c>
       <c r="AT11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -3347,15 +3383,18 @@
         <v>4</v>
       </c>
       <c r="AT12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -3485,14 +3524,17 @@
       </c>
       <c r="AT13" s="0" t="n">
         <v>424</v>
+      </c>
+      <c r="AU13" s="0" t="n">
+        <v>433</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -3621,15 +3663,18 @@
         <v>4</v>
       </c>
       <c r="AT14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3758,15 +3803,18 @@
         <v>21</v>
       </c>
       <c r="AT15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU15" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3895,15 +3943,18 @@
         <v>8</v>
       </c>
       <c r="AT16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU16" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -4032,15 +4083,18 @@
         <v>12</v>
       </c>
       <c r="AT17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU17" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -4169,15 +4223,18 @@
         <v>25</v>
       </c>
       <c r="AT18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU18" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -4307,14 +4364,17 @@
       </c>
       <c r="AT19" s="0" t="n">
         <v>956</v>
+      </c>
+      <c r="AU19" s="0" t="n">
+        <v>992</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -4443,15 +4503,18 @@
         <v>98</v>
       </c>
       <c r="AT20" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="AU20" s="0" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -4580,15 +4643,18 @@
         <v>78</v>
       </c>
       <c r="AT21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AU21" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -4717,26 +4783,32 @@
         <v>43</v>
       </c>
       <c r="AT22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AU22" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AT23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU23" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>5</v>
@@ -4865,15 +4937,18 @@
         <v>8</v>
       </c>
       <c r="AT24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU24" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>50</v>
@@ -5002,15 +5077,18 @@
         <v>73</v>
       </c>
       <c r="AT25" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AU25" s="0" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>7</v>
@@ -5139,15 +5217,18 @@
         <v>9</v>
       </c>
       <c r="AT26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU26" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>30</v>
@@ -5276,15 +5357,18 @@
         <v>41</v>
       </c>
       <c r="AT27" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AU27" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>5</v>
@@ -5413,15 +5497,18 @@
         <v>14</v>
       </c>
       <c r="AT28" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU28" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>243</v>
@@ -5551,14 +5638,17 @@
       </c>
       <c r="AT29" s="0" t="n">
         <v>342</v>
+      </c>
+      <c r="AU29" s="0" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>7</v>
@@ -5687,15 +5777,18 @@
         <v>83</v>
       </c>
       <c r="AT30" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="AU30" s="0" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>9</v>
@@ -5824,15 +5917,18 @@
         <v>31</v>
       </c>
       <c r="AT31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AU31" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>190</v>
@@ -5961,15 +6057,18 @@
         <v>304</v>
       </c>
       <c r="AT32" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="AU32" s="0" t="n">
         <v>304</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>86</v>
@@ -6099,14 +6198,17 @@
       </c>
       <c r="AT33" s="0" t="n">
         <v>237</v>
+      </c>
+      <c r="AU33" s="0" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>4</v>
@@ -6235,15 +6337,18 @@
         <v>6</v>
       </c>
       <c r="AT34" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU34" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>9</v>
@@ -6372,15 +6477,18 @@
         <v>15</v>
       </c>
       <c r="AT35" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU35" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>27</v>
@@ -6509,15 +6617,18 @@
         <v>40</v>
       </c>
       <c r="AT36" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AU36" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>3</v>
@@ -6646,15 +6757,18 @@
         <v>5</v>
       </c>
       <c r="AT37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU37" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>950</v>
@@ -6784,14 +6898,17 @@
       </c>
       <c r="AT38" s="0" t="n">
         <v>1230</v>
+      </c>
+      <c r="AU38" s="0" t="n">
+        <v>1233</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>99</v>
@@ -6921,14 +7038,17 @@
       </c>
       <c r="AT39" s="0" t="n">
         <v>121</v>
+      </c>
+      <c r="AU39" s="0" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>10</v>
@@ -7057,15 +7177,18 @@
         <v>18</v>
       </c>
       <c r="AT40" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU40" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>5</v>
@@ -7195,14 +7318,17 @@
       </c>
       <c r="AT41" s="0" t="n">
         <v>12</v>
+      </c>
+      <c r="AU41" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>15</v>
@@ -7331,18 +7457,21 @@
         <v>30</v>
       </c>
       <c r="AT42" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AU42" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>5</v>
@@ -7447,18 +7576,21 @@
         <v>4</v>
       </c>
       <c r="AT43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>3</v>
@@ -7490,10 +7622,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>34</v>
@@ -7622,15 +7754,18 @@
         <v>41</v>
       </c>
       <c r="AT45" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AU45" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>14</v>
@@ -7759,15 +7894,18 @@
         <v>19</v>
       </c>
       <c r="AT46" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU46" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>43</v>
@@ -7896,15 +8034,18 @@
         <v>71</v>
       </c>
       <c r="AT47" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AU47" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>5</v>
@@ -8033,15 +8174,18 @@
         <v>6</v>
       </c>
       <c r="AT48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU48" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>12</v>
@@ -8171,14 +8315,17 @@
       </c>
       <c r="AT49" s="0" t="n">
         <v>11</v>
+      </c>
+      <c r="AU49" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>22</v>
@@ -8308,14 +8455,17 @@
       </c>
       <c r="AT50" s="0" t="n">
         <v>66</v>
+      </c>
+      <c r="AU50" s="0" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>298</v>
@@ -8445,14 +8595,17 @@
       </c>
       <c r="AT51" s="0" t="n">
         <v>609</v>
+      </c>
+      <c r="AU51" s="0" t="n">
+        <v>625</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>5</v>
@@ -8581,15 +8734,18 @@
         <v>16</v>
       </c>
       <c r="AT52" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU52" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>9</v>
@@ -8718,15 +8874,18 @@
         <v>20</v>
       </c>
       <c r="AT53" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU53" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>100</v>
@@ -8855,15 +9014,18 @@
         <v>105</v>
       </c>
       <c r="AT54" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="AU54" s="0" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>3</v>
@@ -8992,15 +9154,18 @@
         <v>3</v>
       </c>
       <c r="AT55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU55" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>9</v>
@@ -9129,15 +9294,18 @@
         <v>6</v>
       </c>
       <c r="AT56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU56" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>16</v>
@@ -9266,15 +9434,18 @@
         <v>23</v>
       </c>
       <c r="AT57" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU57" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>8</v>
@@ -9403,15 +9574,18 @@
         <v>9</v>
       </c>
       <c r="AT58" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU58" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>23</v>
@@ -9540,15 +9714,18 @@
         <v>26</v>
       </c>
       <c r="AT59" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU59" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>8</v>
@@ -9677,15 +9854,18 @@
         <v>24</v>
       </c>
       <c r="AT60" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU60" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>367</v>
@@ -9815,14 +9995,17 @@
       </c>
       <c r="AT61" s="0" t="n">
         <v>599</v>
+      </c>
+      <c r="AU61" s="0" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>61</v>
@@ -9951,15 +10134,18 @@
         <v>155</v>
       </c>
       <c r="AT62" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AU62" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>33</v>
@@ -10088,15 +10274,18 @@
         <v>49</v>
       </c>
       <c r="AT63" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AU63" s="0" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>7</v>
@@ -10225,15 +10414,18 @@
         <v>7</v>
       </c>
       <c r="AT64" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU64" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>3</v>
@@ -10362,15 +10554,18 @@
         <v>4</v>
       </c>
       <c r="AT65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU65" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>8</v>
@@ -10499,15 +10694,18 @@
         <v>10</v>
       </c>
       <c r="AT66" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU66" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>3</v>
@@ -10627,15 +10825,18 @@
         <v>9</v>
       </c>
       <c r="AT67" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU67" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>63</v>
@@ -10764,15 +10965,18 @@
         <v>92</v>
       </c>
       <c r="AT68" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="AU68" s="0" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>38</v>
@@ -10901,15 +11105,18 @@
         <v>47</v>
       </c>
       <c r="AT69" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AU69" s="0" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>52</v>
@@ -11039,14 +11246,17 @@
       </c>
       <c r="AT70" s="0" t="n">
         <v>101</v>
+      </c>
+      <c r="AU70" s="0" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>19</v>
@@ -11175,15 +11385,18 @@
         <v>25</v>
       </c>
       <c r="AT71" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU71" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>71</v>
@@ -11312,15 +11525,18 @@
         <v>124</v>
       </c>
       <c r="AT72" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="AU72" s="0" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>56</v>
@@ -11449,15 +11665,18 @@
         <v>66</v>
       </c>
       <c r="AT73" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AU73" s="0" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>275</v>
@@ -11586,15 +11805,18 @@
         <v>407</v>
       </c>
       <c r="AT74" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="AU74" s="0" t="n">
         <v>408</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>17</v>
@@ -11723,15 +11945,18 @@
         <v>34</v>
       </c>
       <c r="AT75" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AU75" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>3</v>
@@ -11769,10 +11994,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>4</v>
@@ -11901,15 +12126,18 @@
         <v>9</v>
       </c>
       <c r="AT77" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU77" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O78" s="0" t="n">
         <v>3</v>
@@ -12005,15 +12233,18 @@
         <v>3</v>
       </c>
       <c r="AT78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU78" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>30</v>
@@ -12142,15 +12373,18 @@
         <v>26</v>
       </c>
       <c r="AT79" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU79" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>3</v>
@@ -12264,15 +12498,18 @@
         <v>5</v>
       </c>
       <c r="AT80" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU80" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>9</v>
@@ -12401,15 +12638,18 @@
         <v>10</v>
       </c>
       <c r="AT81" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU81" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>894</v>
@@ -12539,14 +12779,17 @@
       </c>
       <c r="AT82" s="0" t="n">
         <v>1087</v>
+      </c>
+      <c r="AU82" s="0" t="n">
+        <v>1088</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>15</v>
@@ -12675,15 +12918,18 @@
         <v>22</v>
       </c>
       <c r="AT83" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU83" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>7</v>
@@ -12812,15 +13058,18 @@
         <v>11</v>
       </c>
       <c r="AT84" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>20</v>
@@ -12949,15 +13198,18 @@
         <v>25</v>
       </c>
       <c r="AT85" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU85" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>458</v>
@@ -13086,15 +13338,18 @@
         <v>720</v>
       </c>
       <c r="AT86" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AU86" s="0" t="n">
         <v>720</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>6</v>
@@ -13223,15 +13478,18 @@
         <v>6</v>
       </c>
       <c r="AT87" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU87" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>95</v>
@@ -13361,17 +13619,20 @@
       </c>
       <c r="AT88" s="0" t="n">
         <v>137</v>
+      </c>
+      <c r="AU88" s="0" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>7</v>
@@ -13500,15 +13761,18 @@
         <v>9</v>
       </c>
       <c r="AT89" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU89" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>4</v>
@@ -13637,15 +13901,18 @@
         <v>4</v>
       </c>
       <c r="AT90" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU90" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>33</v>
@@ -13774,15 +14041,18 @@
         <v>39</v>
       </c>
       <c r="AT91" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AU91" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>61</v>
@@ -13911,15 +14181,18 @@
         <v>84</v>
       </c>
       <c r="AT92" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="AU92" s="0" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>1266</v>
@@ -14049,14 +14322,17 @@
       </c>
       <c r="AT93" s="0" t="n">
         <v>2536</v>
+      </c>
+      <c r="AU93" s="0" t="n">
+        <v>2555</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>60</v>
@@ -14185,15 +14461,18 @@
         <v>70</v>
       </c>
       <c r="AT94" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AU94" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>301</v>
@@ -14323,14 +14602,17 @@
       </c>
       <c r="AT95" s="0" t="n">
         <v>1147</v>
+      </c>
+      <c r="AU95" s="0" t="n">
+        <v>1172</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>5</v>
@@ -14459,15 +14741,18 @@
         <v>11</v>
       </c>
       <c r="AT96" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU96" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>12</v>
@@ -14596,15 +14881,18 @@
         <v>20</v>
       </c>
       <c r="AT97" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU97" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>162</v>
@@ -14734,14 +15022,17 @@
       </c>
       <c r="AT98" s="0" t="n">
         <v>342</v>
+      </c>
+      <c r="AU98" s="0" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>19</v>
@@ -14870,15 +15161,18 @@
         <v>22</v>
       </c>
       <c r="AT99" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU99" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>5</v>
@@ -15007,15 +15301,18 @@
         <v>5</v>
       </c>
       <c r="AT100" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU100" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>63</v>
@@ -15145,14 +15442,17 @@
       </c>
       <c r="AT101" s="0" t="n">
         <v>135</v>
+      </c>
+      <c r="AU101" s="0" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>763</v>
@@ -15281,15 +15581,18 @@
         <v>946</v>
       </c>
       <c r="AT102" s="0" t="n">
+        <v>946</v>
+      </c>
+      <c r="AU102" s="0" t="n">
         <v>946</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>62</v>
@@ -15418,15 +15721,18 @@
         <v>78</v>
       </c>
       <c r="AT103" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AU103" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>3</v>
@@ -15555,15 +15861,18 @@
         <v>7</v>
       </c>
       <c r="AT104" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU104" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>59</v>
@@ -15692,15 +16001,18 @@
         <v>92</v>
       </c>
       <c r="AT105" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="AU105" s="0" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>14</v>
@@ -15829,15 +16141,18 @@
         <v>18</v>
       </c>
       <c r="AT106" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU106" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>929</v>
@@ -15966,15 +16281,18 @@
         <v>1285</v>
       </c>
       <c r="AT107" s="0" t="n">
+        <v>1285</v>
+      </c>
+      <c r="AU107" s="0" t="n">
         <v>1285</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>14</v>
@@ -16103,15 +16421,18 @@
         <v>18</v>
       </c>
       <c r="AT108" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU108" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>32</v>
@@ -16240,15 +16561,18 @@
         <v>63</v>
       </c>
       <c r="AT109" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AU109" s="0" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>4</v>
@@ -16377,15 +16701,18 @@
         <v>6</v>
       </c>
       <c r="AT110" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU110" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>13</v>
@@ -16514,15 +16841,18 @@
         <v>17</v>
       </c>
       <c r="AT111" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU111" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>7</v>
@@ -16651,15 +16981,18 @@
         <v>10</v>
       </c>
       <c r="AT112" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU112" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>17</v>
@@ -16788,15 +17121,18 @@
         <v>21</v>
       </c>
       <c r="AT113" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU113" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>3</v>
@@ -16916,15 +17252,18 @@
         <v>5</v>
       </c>
       <c r="AT114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU114" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>11</v>
@@ -17053,15 +17392,18 @@
         <v>15</v>
       </c>
       <c r="AT115" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU115" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>61</v>
@@ -17191,14 +17533,17 @@
       </c>
       <c r="AT116" s="0" t="n">
         <v>173</v>
+      </c>
+      <c r="AU116" s="0" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>66</v>
@@ -17327,15 +17672,18 @@
         <v>116</v>
       </c>
       <c r="AT117" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="AU117" s="0" t="n">
         <v>116</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -17349,10 +17697,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>3</v>
@@ -17379,15 +17727,18 @@
         <v>3</v>
       </c>
       <c r="AT119" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU119" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>4</v>
@@ -17516,15 +17867,18 @@
         <v>8</v>
       </c>
       <c r="AT120" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU120" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>16</v>
@@ -17653,15 +18007,18 @@
         <v>30</v>
       </c>
       <c r="AT121" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU121" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>40</v>
@@ -17791,14 +18148,17 @@
       </c>
       <c r="AT122" s="0" t="n">
         <v>126</v>
+      </c>
+      <c r="AU122" s="0" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>4</v>
@@ -17927,15 +18287,18 @@
         <v>11</v>
       </c>
       <c r="AT123" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU123" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>29</v>
@@ -18064,15 +18427,18 @@
         <v>71</v>
       </c>
       <c r="AT124" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AU124" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>10</v>
@@ -18201,15 +18567,18 @@
         <v>20</v>
       </c>
       <c r="AT125" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU125" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>8</v>
@@ -18338,15 +18707,18 @@
         <v>17</v>
       </c>
       <c r="AT126" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU126" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK127" s="0" t="n">
         <v>3</v>
@@ -18376,15 +18748,18 @@
         <v>3</v>
       </c>
       <c r="AT127" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU127" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>14</v>
@@ -18514,14 +18889,17 @@
       </c>
       <c r="AT128" s="0" t="n">
         <v>19</v>
+      </c>
+      <c r="AU128" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>5</v>
@@ -18644,15 +19022,18 @@
         <v>32</v>
       </c>
       <c r="AT129" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AU129" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>3</v>
@@ -18660,10 +19041,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>3</v>
@@ -18789,15 +19170,18 @@
         <v>11</v>
       </c>
       <c r="AT131" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU131" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>187</v>
@@ -18927,14 +19311,17 @@
       </c>
       <c r="AT132" s="0" t="n">
         <v>627</v>
+      </c>
+      <c r="AU132" s="0" t="n">
+        <v>642</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>218</v>
@@ -19064,14 +19451,17 @@
       </c>
       <c r="AT133" s="0" t="n">
         <v>465</v>
+      </c>
+      <c r="AU133" s="0" t="n">
+        <v>478</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>15</v>
@@ -19200,15 +19590,18 @@
         <v>14</v>
       </c>
       <c r="AT134" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU134" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>149</v>
@@ -19337,15 +19730,18 @@
         <v>212</v>
       </c>
       <c r="AT135" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="AU135" s="0" t="n">
         <v>212</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>8</v>
@@ -19474,15 +19870,18 @@
         <v>12</v>
       </c>
       <c r="AT136" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU136" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>17</v>
@@ -19611,15 +20010,18 @@
         <v>40</v>
       </c>
       <c r="AT137" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AU137" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>12</v>
@@ -19748,15 +20150,18 @@
         <v>27</v>
       </c>
       <c r="AT138" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU138" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>29</v>
@@ -19886,14 +20291,17 @@
       </c>
       <c r="AT139" s="0" t="n">
         <v>37</v>
+      </c>
+      <c r="AU139" s="0" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>532</v>
@@ -20023,14 +20431,17 @@
       </c>
       <c r="AT140" s="0" t="n">
         <v>667</v>
+      </c>
+      <c r="AU140" s="0" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>219</v>
@@ -20159,15 +20570,18 @@
         <v>312</v>
       </c>
       <c r="AT141" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="AU141" s="0" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>18</v>
@@ -20296,15 +20710,18 @@
         <v>37</v>
       </c>
       <c r="AT142" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AU142" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>250</v>
@@ -20434,14 +20851,17 @@
       </c>
       <c r="AT143" s="0" t="n">
         <v>342</v>
+      </c>
+      <c r="AU143" s="0" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>7</v>
@@ -20570,15 +20990,18 @@
         <v>7</v>
       </c>
       <c r="AT144" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU144" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>3</v>
@@ -20707,15 +21130,18 @@
         <v>4</v>
       </c>
       <c r="AT145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU145" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>13</v>
@@ -20844,15 +21270,18 @@
         <v>22</v>
       </c>
       <c r="AT146" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU146" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>134</v>
@@ -20982,14 +21411,17 @@
       </c>
       <c r="AT147" s="0" t="n">
         <v>175</v>
+      </c>
+      <c r="AU147" s="0" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>3</v>
@@ -21118,15 +21550,18 @@
         <v>5</v>
       </c>
       <c r="AT148" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU148" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>10</v>
@@ -21255,15 +21690,18 @@
         <v>11</v>
       </c>
       <c r="AT149" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU149" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>52</v>
@@ -21392,15 +21830,18 @@
         <v>65</v>
       </c>
       <c r="AT150" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AU150" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>22</v>
@@ -21529,15 +21970,18 @@
         <v>23</v>
       </c>
       <c r="AT151" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU151" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>38</v>
@@ -21667,14 +22111,17 @@
       </c>
       <c r="AT152" s="0" t="n">
         <v>62</v>
+      </c>
+      <c r="AU152" s="0" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>4</v>
@@ -21803,15 +22250,18 @@
         <v>8</v>
       </c>
       <c r="AT153" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU153" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>5</v>
@@ -21940,15 +22390,18 @@
         <v>6</v>
       </c>
       <c r="AT154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU154" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>5</v>
@@ -22077,15 +22530,18 @@
         <v>6</v>
       </c>
       <c r="AT155" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU155" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>24</v>
@@ -22214,15 +22670,18 @@
         <v>30</v>
       </c>
       <c r="AT156" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AU156" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>3</v>
@@ -22248,10 +22707,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>6</v>
@@ -22380,15 +22839,18 @@
         <v>6</v>
       </c>
       <c r="AT158" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU158" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>3</v>
@@ -22517,15 +22979,18 @@
         <v>6</v>
       </c>
       <c r="AT159" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU159" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>33</v>
@@ -22654,15 +23119,18 @@
         <v>41</v>
       </c>
       <c r="AT160" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AU160" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>1099</v>
@@ -22791,15 +23259,18 @@
         <v>1361</v>
       </c>
       <c r="AT161" s="0" t="n">
+        <v>1401</v>
+      </c>
+      <c r="AU161" s="0" t="n">
         <v>1401</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>6</v>
@@ -22929,14 +23400,17 @@
       </c>
       <c r="AT162" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AU162" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>5</v>
@@ -23065,15 +23539,18 @@
         <v>4</v>
       </c>
       <c r="AT163" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU163" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>35</v>
@@ -23202,15 +23679,18 @@
         <v>61</v>
       </c>
       <c r="AT164" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AU164" s="0" t="n">
         <v>61</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>95</v>
@@ -23339,15 +23819,18 @@
         <v>158</v>
       </c>
       <c r="AT165" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="AU165" s="0" t="n">
         <v>158</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>6</v>
@@ -23476,15 +23959,18 @@
         <v>7</v>
       </c>
       <c r="AT166" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU166" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>61</v>
@@ -23613,15 +24099,18 @@
         <v>64</v>
       </c>
       <c r="AT167" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AU167" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>3</v>
@@ -23750,15 +24239,18 @@
         <v>3</v>
       </c>
       <c r="AT168" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU168" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>14</v>
@@ -23887,15 +24379,18 @@
         <v>22</v>
       </c>
       <c r="AT169" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU169" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>4</v>
@@ -24024,15 +24519,18 @@
         <v>7</v>
       </c>
       <c r="AT170" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU170" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>6</v>
@@ -24161,15 +24659,18 @@
         <v>13</v>
       </c>
       <c r="AT171" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU171" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>9</v>
@@ -24298,15 +24799,18 @@
         <v>9</v>
       </c>
       <c r="AT172" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU172" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>6</v>
@@ -24435,15 +24939,18 @@
         <v>5</v>
       </c>
       <c r="AT173" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU173" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AQ174" s="0" t="n">
         <v>4</v>
@@ -24456,14 +24963,17 @@
       </c>
       <c r="AT174" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AU174" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>356</v>
@@ -24593,14 +25103,17 @@
       </c>
       <c r="AT175" s="0" t="n">
         <v>488</v>
+      </c>
+      <c r="AU175" s="0" t="n">
+        <v>491</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S176" s="0" t="n">
         <v>3</v>
@@ -24684,15 +25197,18 @@
         <v>3</v>
       </c>
       <c r="AT176" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU176" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>65</v>
@@ -24821,15 +25337,18 @@
         <v>125</v>
       </c>
       <c r="AT177" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="AU177" s="0" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>13</v>
@@ -24958,15 +25477,18 @@
         <v>18</v>
       </c>
       <c r="AT178" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU178" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>280</v>
@@ -25095,15 +25617,18 @@
         <v>395</v>
       </c>
       <c r="AT179" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="AU179" s="0" t="n">
         <v>395</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA180" s="0" t="n">
         <v>3</v>
@@ -25163,15 +25688,18 @@
         <v>3</v>
       </c>
       <c r="AT180" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU180" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>55</v>
@@ -25300,15 +25828,18 @@
         <v>79</v>
       </c>
       <c r="AT181" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="AU181" s="0" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>8</v>
@@ -25437,15 +25968,18 @@
         <v>9</v>
       </c>
       <c r="AT182" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU182" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>3</v>
@@ -25575,14 +26109,17 @@
       </c>
       <c r="AT183" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AU183" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>7</v>
@@ -25711,15 +26248,18 @@
         <v>8</v>
       </c>
       <c r="AT184" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU184" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>8</v>
@@ -25848,15 +26388,18 @@
         <v>13</v>
       </c>
       <c r="AT185" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU185" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>147</v>
@@ -25986,14 +26529,17 @@
       </c>
       <c r="AT186" s="0" t="n">
         <v>416</v>
+      </c>
+      <c r="AU186" s="0" t="n">
+        <v>432</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J187" s="0" t="n">
         <v>4</v>
@@ -26104,15 +26650,18 @@
         <v>6</v>
       </c>
       <c r="AT187" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU187" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>18</v>
@@ -26241,15 +26790,18 @@
         <v>14</v>
       </c>
       <c r="AT188" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU188" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>4</v>
@@ -26378,15 +26930,18 @@
         <v>4</v>
       </c>
       <c r="AT189" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU189" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>19</v>
@@ -26515,15 +27070,18 @@
         <v>40</v>
       </c>
       <c r="AT190" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AU190" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>59</v>
@@ -26653,14 +27211,17 @@
       </c>
       <c r="AT191" s="0" t="n">
         <v>110</v>
+      </c>
+      <c r="AU191" s="0" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>29</v>
@@ -26790,14 +27351,17 @@
       </c>
       <c r="AT192" s="0" t="n">
         <v>44</v>
+      </c>
+      <c r="AU192" s="0" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>21</v>
@@ -26926,15 +27490,18 @@
         <v>22</v>
       </c>
       <c r="AT193" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU193" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AR194" s="0" t="n">
         <v>3</v>
@@ -26943,15 +27510,18 @@
         <v>3</v>
       </c>
       <c r="AT194" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU194" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>514</v>
@@ -27081,14 +27651,17 @@
       </c>
       <c r="AT195" s="0" t="n">
         <v>1400</v>
+      </c>
+      <c r="AU195" s="0" t="n">
+        <v>1521</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG196" s="0" t="n">
         <v>4</v>
@@ -27130,15 +27703,18 @@
         <v>10</v>
       </c>
       <c r="AT196" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU196" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>19</v>
@@ -27267,15 +27843,18 @@
         <v>25</v>
       </c>
       <c r="AT197" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU197" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>34</v>
@@ -27404,15 +27983,18 @@
         <v>35</v>
       </c>
       <c r="AT198" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AU198" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>32</v>
@@ -27541,15 +28123,18 @@
         <v>30</v>
       </c>
       <c r="AT199" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU199" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>9</v>
@@ -27678,15 +28263,18 @@
         <v>10</v>
       </c>
       <c r="AT200" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU200" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>10</v>
@@ -27815,15 +28403,18 @@
         <v>13</v>
       </c>
       <c r="AT201" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU201" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>12</v>
@@ -27952,15 +28543,18 @@
         <v>13</v>
       </c>
       <c r="AT202" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU202" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>21</v>
@@ -28089,15 +28683,18 @@
         <v>23</v>
       </c>
       <c r="AT203" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU203" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>11</v>
@@ -28226,15 +28823,18 @@
         <v>20</v>
       </c>
       <c r="AT204" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU204" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>28</v>
@@ -28363,15 +28963,18 @@
         <v>52</v>
       </c>
       <c r="AT205" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AU205" s="0" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>17</v>
@@ -28500,15 +29103,18 @@
         <v>20</v>
       </c>
       <c r="AT206" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU206" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>114</v>
@@ -28637,15 +29243,18 @@
         <v>146</v>
       </c>
       <c r="AT207" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="AU207" s="0" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>17</v>
@@ -28774,15 +29383,18 @@
         <v>23</v>
       </c>
       <c r="AT208" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU208" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>85</v>
@@ -28911,15 +29523,18 @@
         <v>155</v>
       </c>
       <c r="AT209" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AU209" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>7</v>
@@ -29048,15 +29663,18 @@
         <v>12</v>
       </c>
       <c r="AT210" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU210" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>655</v>
@@ -29185,15 +29803,18 @@
         <v>760</v>
       </c>
       <c r="AT211" s="0" t="n">
+        <v>761</v>
+      </c>
+      <c r="AU211" s="0" t="n">
         <v>761</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>5</v>
@@ -29322,15 +29943,18 @@
         <v>6</v>
       </c>
       <c r="AT212" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU212" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>6</v>
@@ -29459,15 +30083,18 @@
         <v>5</v>
       </c>
       <c r="AT213" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU213" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>7</v>
@@ -29596,15 +30223,18 @@
         <v>8</v>
       </c>
       <c r="AT214" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU214" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>132</v>
@@ -29733,15 +30363,18 @@
         <v>187</v>
       </c>
       <c r="AT215" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="AU215" s="0" t="n">
         <v>187</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>24</v>
@@ -29870,15 +30503,18 @@
         <v>44</v>
       </c>
       <c r="AT216" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU216" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>7</v>
@@ -30007,15 +30643,18 @@
         <v>7</v>
       </c>
       <c r="AT217" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU217" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>212</v>
@@ -30144,15 +30783,18 @@
         <v>295</v>
       </c>
       <c r="AT218" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="AU218" s="0" t="n">
         <v>296</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>5</v>
@@ -30281,15 +30923,18 @@
         <v>4</v>
       </c>
       <c r="AT219" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU219" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>147</v>
@@ -30419,14 +31064,17 @@
       </c>
       <c r="AT220" s="0" t="n">
         <v>461</v>
+      </c>
+      <c r="AU220" s="0" t="n">
+        <v>473</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>3</v>
@@ -30473,10 +31121,10 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>6</v>
@@ -30605,15 +31253,18 @@
         <v>9</v>
       </c>
       <c r="AT222" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU222" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>305</v>
@@ -30742,15 +31393,18 @@
         <v>400</v>
       </c>
       <c r="AT223" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="AU223" s="0" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>79</v>
@@ -30879,15 +31533,18 @@
         <v>72</v>
       </c>
       <c r="AT224" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AU224" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>1161</v>
@@ -31016,15 +31673,18 @@
         <v>1580</v>
       </c>
       <c r="AT225" s="0" t="n">
+        <v>1580</v>
+      </c>
+      <c r="AU225" s="0" t="n">
         <v>1580</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>4</v>
@@ -31153,15 +31813,18 @@
         <v>7</v>
       </c>
       <c r="AT226" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU226" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>3</v>
@@ -31291,14 +31954,17 @@
       </c>
       <c r="AT227" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AU227" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>145</v>
@@ -31427,15 +32093,18 @@
         <v>155</v>
       </c>
       <c r="AT228" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AU228" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>14</v>
@@ -31564,15 +32233,18 @@
         <v>13</v>
       </c>
       <c r="AT229" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU229" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>135</v>
@@ -31701,15 +32373,18 @@
         <v>233</v>
       </c>
       <c r="AT230" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="AU230" s="0" t="n">
         <v>233</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>7</v>
@@ -31838,15 +32513,18 @@
         <v>11</v>
       </c>
       <c r="AT231" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU231" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>24</v>
@@ -31975,15 +32653,18 @@
         <v>30</v>
       </c>
       <c r="AT232" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU232" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>81</v>
@@ -32112,15 +32793,18 @@
         <v>101</v>
       </c>
       <c r="AT233" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AU233" s="0" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>68</v>
@@ -32249,15 +32933,18 @@
         <v>147</v>
       </c>
       <c r="AT234" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="AU234" s="0" t="n">
         <v>148</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D235" s="0" t="n">
         <v>6</v>
@@ -32386,6 +33073,9 @@
         <v>8</v>
       </c>
       <c r="AT235" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU235" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="517">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/06/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/06/06</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1695,24 +1698,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AU235"/>
+  <dimension ref="A1:AV235"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AS1" activeCellId="0" sqref="AS1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU1" activeCellId="0" sqref="AU1"/>
+      <selection pane="bottomRight" activeCell="AV1" activeCellId="0" sqref="AV:AV"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="4" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="985" min="39" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="986" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="983" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,13 +1859,16 @@
       <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="AV1" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -1996,14 +2001,17 @@
       </c>
       <c r="AU2" s="0" t="n">
         <v>20</v>
+      </c>
+      <c r="AV2" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -2136,14 +2144,17 @@
       </c>
       <c r="AU3" s="0" t="n">
         <v>65</v>
+      </c>
+      <c r="AV3" s="0" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2276,14 +2287,17 @@
       </c>
       <c r="AU4" s="0" t="n">
         <v>91</v>
+      </c>
+      <c r="AV4" s="0" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2416,14 +2430,17 @@
       </c>
       <c r="AU5" s="0" t="n">
         <v>78</v>
+      </c>
+      <c r="AV5" s="0" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2556,14 +2573,17 @@
       </c>
       <c r="AU6" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AV6" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2695,15 +2715,18 @@
         <v>9</v>
       </c>
       <c r="AU7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV7" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2836,14 +2859,17 @@
       </c>
       <c r="AU8" s="0" t="n">
         <v>42</v>
+      </c>
+      <c r="AV8" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -2975,15 +3001,18 @@
         <v>23</v>
       </c>
       <c r="AU9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV9" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -3116,14 +3145,17 @@
       </c>
       <c r="AU10" s="0" t="n">
         <v>101</v>
+      </c>
+      <c r="AV10" s="0" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -3255,15 +3287,18 @@
         <v>6</v>
       </c>
       <c r="AU11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -3387,14 +3422,17 @@
       </c>
       <c r="AU12" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AV12" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -3527,14 +3565,17 @@
       </c>
       <c r="AU13" s="0" t="n">
         <v>433</v>
+      </c>
+      <c r="AV13" s="0" t="n">
+        <v>442</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -3666,15 +3707,18 @@
         <v>4</v>
       </c>
       <c r="AU14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3806,15 +3850,18 @@
         <v>21</v>
       </c>
       <c r="AU15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV15" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3946,15 +3993,18 @@
         <v>8</v>
       </c>
       <c r="AU16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -4086,15 +4136,18 @@
         <v>12</v>
       </c>
       <c r="AU17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV17" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -4226,15 +4279,18 @@
         <v>25</v>
       </c>
       <c r="AU18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV18" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -4367,14 +4423,17 @@
       </c>
       <c r="AU19" s="0" t="n">
         <v>992</v>
+      </c>
+      <c r="AV19" s="0" t="n">
+        <v>1023</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -4507,14 +4566,17 @@
       </c>
       <c r="AU20" s="0" t="n">
         <v>99</v>
+      </c>
+      <c r="AV20" s="0" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -4646,15 +4708,18 @@
         <v>78</v>
       </c>
       <c r="AU21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AV21" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -4787,28 +4852,34 @@
       </c>
       <c r="AU22" s="0" t="n">
         <v>43</v>
+      </c>
+      <c r="AV22" s="0" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AT23" s="0" t="n">
         <v>4</v>
       </c>
       <c r="AU23" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AV23" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>5</v>
@@ -4941,14 +5012,17 @@
       </c>
       <c r="AU24" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AV24" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>50</v>
@@ -5081,14 +5155,17 @@
       </c>
       <c r="AU25" s="0" t="n">
         <v>73</v>
+      </c>
+      <c r="AV25" s="0" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>7</v>
@@ -5220,15 +5297,18 @@
         <v>9</v>
       </c>
       <c r="AU26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>30</v>
@@ -5361,14 +5441,17 @@
       </c>
       <c r="AU27" s="0" t="n">
         <v>41</v>
+      </c>
+      <c r="AV27" s="0" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>5</v>
@@ -5500,15 +5583,18 @@
         <v>14</v>
       </c>
       <c r="AU28" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV28" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>243</v>
@@ -5641,14 +5727,17 @@
       </c>
       <c r="AU29" s="0" t="n">
         <v>344</v>
+      </c>
+      <c r="AV29" s="0" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>7</v>
@@ -5780,15 +5869,18 @@
         <v>84</v>
       </c>
       <c r="AU30" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="AV30" s="0" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>9</v>
@@ -5920,15 +6012,18 @@
         <v>31</v>
       </c>
       <c r="AU31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AV31" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>190</v>
@@ -6061,14 +6156,17 @@
       </c>
       <c r="AU32" s="0" t="n">
         <v>304</v>
+      </c>
+      <c r="AV32" s="0" t="n">
+        <v>307</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>86</v>
@@ -6201,14 +6299,17 @@
       </c>
       <c r="AU33" s="0" t="n">
         <v>242</v>
+      </c>
+      <c r="AV33" s="0" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>4</v>
@@ -6341,14 +6442,17 @@
       </c>
       <c r="AU34" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AV34" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>9</v>
@@ -6481,14 +6585,17 @@
       </c>
       <c r="AU35" s="0" t="n">
         <v>16</v>
+      </c>
+      <c r="AV35" s="0" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>27</v>
@@ -6621,14 +6728,17 @@
       </c>
       <c r="AU36" s="0" t="n">
         <v>41</v>
+      </c>
+      <c r="AV36" s="0" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>3</v>
@@ -6761,14 +6871,17 @@
       </c>
       <c r="AU37" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AV37" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>950</v>
@@ -6901,14 +7014,17 @@
       </c>
       <c r="AU38" s="0" t="n">
         <v>1233</v>
+      </c>
+      <c r="AV38" s="0" t="n">
+        <v>1256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>99</v>
@@ -7041,14 +7157,17 @@
       </c>
       <c r="AU39" s="0" t="n">
         <v>122</v>
+      </c>
+      <c r="AV39" s="0" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>10</v>
@@ -7180,15 +7299,18 @@
         <v>18</v>
       </c>
       <c r="AU40" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV40" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>5</v>
@@ -7320,15 +7442,18 @@
         <v>12</v>
       </c>
       <c r="AU41" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV41" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>15</v>
@@ -7461,17 +7586,20 @@
       </c>
       <c r="AU42" s="0" t="n">
         <v>32</v>
+      </c>
+      <c r="AV42" s="0" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>5</v>
@@ -7579,18 +7707,21 @@
         <v>4</v>
       </c>
       <c r="AU43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>131</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>3</v>
@@ -7622,10 +7753,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>34</v>
@@ -7758,14 +7889,17 @@
       </c>
       <c r="AU45" s="0" t="n">
         <v>41</v>
+      </c>
+      <c r="AV45" s="0" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>14</v>
@@ -7898,14 +8032,17 @@
       </c>
       <c r="AU46" s="0" t="n">
         <v>19</v>
+      </c>
+      <c r="AV46" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>43</v>
@@ -8037,15 +8174,18 @@
         <v>71</v>
       </c>
       <c r="AU47" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AV47" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>5</v>
@@ -8178,14 +8318,17 @@
       </c>
       <c r="AU48" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AV48" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>12</v>
@@ -8318,14 +8461,17 @@
       </c>
       <c r="AU49" s="0" t="n">
         <v>12</v>
+      </c>
+      <c r="AV49" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>22</v>
@@ -8457,15 +8603,18 @@
         <v>66</v>
       </c>
       <c r="AU50" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="AV50" s="0" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>298</v>
@@ -8598,14 +8747,17 @@
       </c>
       <c r="AU51" s="0" t="n">
         <v>625</v>
+      </c>
+      <c r="AV51" s="0" t="n">
+        <v>649</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>5</v>
@@ -8738,14 +8890,17 @@
       </c>
       <c r="AU52" s="0" t="n">
         <v>16</v>
+      </c>
+      <c r="AV52" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>9</v>
@@ -8878,14 +9033,17 @@
       </c>
       <c r="AU53" s="0" t="n">
         <v>20</v>
+      </c>
+      <c r="AV53" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>100</v>
@@ -9017,15 +9175,18 @@
         <v>105</v>
       </c>
       <c r="AU54" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="AV54" s="0" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>3</v>
@@ -9157,15 +9318,18 @@
         <v>3</v>
       </c>
       <c r="AU55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV55" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>9</v>
@@ -9298,14 +9462,17 @@
       </c>
       <c r="AU56" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AV56" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>16</v>
@@ -9437,15 +9604,18 @@
         <v>23</v>
       </c>
       <c r="AU57" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV57" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>8</v>
@@ -9577,15 +9747,18 @@
         <v>9</v>
       </c>
       <c r="AU58" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV58" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>23</v>
@@ -9718,14 +9891,17 @@
       </c>
       <c r="AU59" s="0" t="n">
         <v>26</v>
+      </c>
+      <c r="AV59" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>8</v>
@@ -9857,15 +10033,18 @@
         <v>24</v>
       </c>
       <c r="AU60" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV60" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>367</v>
@@ -9998,14 +10177,17 @@
       </c>
       <c r="AU61" s="0" t="n">
         <v>600</v>
+      </c>
+      <c r="AV61" s="0" t="n">
+        <v>603</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>61</v>
@@ -10137,15 +10319,18 @@
         <v>155</v>
       </c>
       <c r="AU62" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AV62" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>33</v>
@@ -10278,14 +10463,17 @@
       </c>
       <c r="AU63" s="0" t="n">
         <v>49</v>
+      </c>
+      <c r="AV63" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>7</v>
@@ -10418,14 +10606,17 @@
       </c>
       <c r="AU64" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AV64" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>3</v>
@@ -10557,15 +10748,18 @@
         <v>4</v>
       </c>
       <c r="AU65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV65" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>8</v>
@@ -10698,14 +10892,17 @@
       </c>
       <c r="AU66" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AV66" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>3</v>
@@ -10829,14 +11026,17 @@
       </c>
       <c r="AU67" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AV67" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>63</v>
@@ -10968,15 +11168,18 @@
         <v>92</v>
       </c>
       <c r="AU68" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="AV68" s="0" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>38</v>
@@ -11109,14 +11312,17 @@
       </c>
       <c r="AU69" s="0" t="n">
         <v>47</v>
+      </c>
+      <c r="AV69" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>52</v>
@@ -11249,14 +11455,17 @@
       </c>
       <c r="AU70" s="0" t="n">
         <v>102</v>
+      </c>
+      <c r="AV70" s="0" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>19</v>
@@ -11389,14 +11598,17 @@
       </c>
       <c r="AU71" s="0" t="n">
         <v>26</v>
+      </c>
+      <c r="AV71" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>71</v>
@@ -11529,14 +11741,17 @@
       </c>
       <c r="AU72" s="0" t="n">
         <v>124</v>
+      </c>
+      <c r="AV72" s="0" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>56</v>
@@ -11669,14 +11884,17 @@
       </c>
       <c r="AU73" s="0" t="n">
         <v>66</v>
+      </c>
+      <c r="AV73" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>275</v>
@@ -11808,15 +12026,18 @@
         <v>408</v>
       </c>
       <c r="AU74" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="AV74" s="0" t="n">
         <v>408</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>17</v>
@@ -11948,15 +12169,18 @@
         <v>34</v>
       </c>
       <c r="AU75" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AV75" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>3</v>
@@ -11994,10 +12218,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>4</v>
@@ -12129,15 +12353,18 @@
         <v>9</v>
       </c>
       <c r="AU77" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV77" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O78" s="0" t="n">
         <v>3</v>
@@ -12236,15 +12463,18 @@
         <v>3</v>
       </c>
       <c r="AU78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV78" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>30</v>
@@ -12376,15 +12606,18 @@
         <v>26</v>
       </c>
       <c r="AU79" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV79" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>3</v>
@@ -12501,15 +12734,18 @@
         <v>5</v>
       </c>
       <c r="AU80" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV80" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>9</v>
@@ -12641,15 +12877,18 @@
         <v>10</v>
       </c>
       <c r="AU81" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV81" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>894</v>
@@ -12782,14 +13021,17 @@
       </c>
       <c r="AU82" s="0" t="n">
         <v>1088</v>
+      </c>
+      <c r="AV82" s="0" t="n">
+        <v>1093</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>15</v>
@@ -12922,14 +13164,17 @@
       </c>
       <c r="AU83" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="AV83" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>7</v>
@@ -13061,15 +13306,18 @@
         <v>11</v>
       </c>
       <c r="AU84" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>20</v>
@@ -13201,15 +13449,18 @@
         <v>25</v>
       </c>
       <c r="AU85" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV85" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>458</v>
@@ -13342,14 +13593,17 @@
       </c>
       <c r="AU86" s="0" t="n">
         <v>720</v>
+      </c>
+      <c r="AV86" s="0" t="n">
+        <v>725</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>6</v>
@@ -13481,15 +13735,18 @@
         <v>6</v>
       </c>
       <c r="AU87" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV87" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>95</v>
@@ -13622,17 +13879,20 @@
       </c>
       <c r="AU88" s="0" t="n">
         <v>142</v>
+      </c>
+      <c r="AV88" s="0" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>7</v>
@@ -13764,15 +14024,18 @@
         <v>10</v>
       </c>
       <c r="AU89" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV89" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>4</v>
@@ -13905,14 +14168,17 @@
       </c>
       <c r="AU90" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AV90" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>33</v>
@@ -14044,15 +14310,18 @@
         <v>39</v>
       </c>
       <c r="AU91" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AV91" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>61</v>
@@ -14185,14 +14454,17 @@
       </c>
       <c r="AU92" s="0" t="n">
         <v>84</v>
+      </c>
+      <c r="AV92" s="0" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>1266</v>
@@ -14325,14 +14597,17 @@
       </c>
       <c r="AU93" s="0" t="n">
         <v>2555</v>
+      </c>
+      <c r="AV93" s="0" t="n">
+        <v>2595</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>60</v>
@@ -14465,14 +14740,17 @@
       </c>
       <c r="AU94" s="0" t="n">
         <v>70</v>
+      </c>
+      <c r="AV94" s="0" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>301</v>
@@ -14605,14 +14883,17 @@
       </c>
       <c r="AU95" s="0" t="n">
         <v>1172</v>
+      </c>
+      <c r="AV95" s="0" t="n">
+        <v>1191</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>5</v>
@@ -14745,14 +15026,17 @@
       </c>
       <c r="AU96" s="0" t="n">
         <v>11</v>
+      </c>
+      <c r="AV96" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>12</v>
@@ -14885,14 +15169,17 @@
       </c>
       <c r="AU97" s="0" t="n">
         <v>20</v>
+      </c>
+      <c r="AV97" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>162</v>
@@ -15024,15 +15311,18 @@
         <v>342</v>
       </c>
       <c r="AU98" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="AV98" s="0" t="n">
         <v>343</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>19</v>
@@ -15165,14 +15455,17 @@
       </c>
       <c r="AU99" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="AV99" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>5</v>
@@ -15304,15 +15597,18 @@
         <v>5</v>
       </c>
       <c r="AU100" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV100" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>63</v>
@@ -15445,14 +15741,17 @@
       </c>
       <c r="AU101" s="0" t="n">
         <v>138</v>
+      </c>
+      <c r="AV101" s="0" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>763</v>
@@ -15585,14 +15884,17 @@
       </c>
       <c r="AU102" s="0" t="n">
         <v>946</v>
+      </c>
+      <c r="AV102" s="0" t="n">
+        <v>950</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>62</v>
@@ -15725,14 +16027,17 @@
       </c>
       <c r="AU103" s="0" t="n">
         <v>78</v>
+      </c>
+      <c r="AV103" s="0" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>3</v>
@@ -15864,15 +16169,18 @@
         <v>7</v>
       </c>
       <c r="AU104" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV104" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>59</v>
@@ -16004,15 +16312,18 @@
         <v>92</v>
       </c>
       <c r="AU105" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="AV105" s="0" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>14</v>
@@ -16145,14 +16456,17 @@
       </c>
       <c r="AU106" s="0" t="n">
         <v>18</v>
+      </c>
+      <c r="AV106" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>929</v>
@@ -16285,14 +16599,17 @@
       </c>
       <c r="AU107" s="0" t="n">
         <v>1285</v>
+      </c>
+      <c r="AV107" s="0" t="n">
+        <v>1292</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>14</v>
@@ -16424,15 +16741,18 @@
         <v>18</v>
       </c>
       <c r="AU108" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV108" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>32</v>
@@ -16565,14 +16885,17 @@
       </c>
       <c r="AU109" s="0" t="n">
         <v>63</v>
+      </c>
+      <c r="AV109" s="0" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>4</v>
@@ -16705,14 +17028,17 @@
       </c>
       <c r="AU110" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AV110" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>13</v>
@@ -16844,15 +17170,18 @@
         <v>17</v>
       </c>
       <c r="AU111" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV111" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>7</v>
@@ -16985,14 +17314,17 @@
       </c>
       <c r="AU112" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AV112" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>17</v>
@@ -17124,15 +17456,18 @@
         <v>21</v>
       </c>
       <c r="AU113" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV113" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>3</v>
@@ -17255,15 +17590,18 @@
         <v>5</v>
       </c>
       <c r="AU114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV114" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>11</v>
@@ -17395,15 +17733,18 @@
         <v>15</v>
       </c>
       <c r="AU115" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV115" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>61</v>
@@ -17536,14 +17877,17 @@
       </c>
       <c r="AU116" s="0" t="n">
         <v>176</v>
+      </c>
+      <c r="AV116" s="0" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>66</v>
@@ -17676,14 +18020,17 @@
       </c>
       <c r="AU117" s="0" t="n">
         <v>116</v>
+      </c>
+      <c r="AV117" s="0" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -17697,10 +18044,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>3</v>
@@ -17730,15 +18077,18 @@
         <v>3</v>
       </c>
       <c r="AU119" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV119" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>4</v>
@@ -17871,14 +18221,17 @@
       </c>
       <c r="AU120" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AV120" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>16</v>
@@ -18010,15 +18363,18 @@
         <v>30</v>
       </c>
       <c r="AU121" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV121" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>40</v>
@@ -18151,14 +18507,17 @@
       </c>
       <c r="AU122" s="0" t="n">
         <v>128</v>
+      </c>
+      <c r="AV122" s="0" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>4</v>
@@ -18290,15 +18649,18 @@
         <v>11</v>
       </c>
       <c r="AU123" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV123" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>29</v>
@@ -18430,15 +18792,18 @@
         <v>72</v>
       </c>
       <c r="AU124" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AV124" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>10</v>
@@ -18570,15 +18935,18 @@
         <v>20</v>
       </c>
       <c r="AU125" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV125" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>8</v>
@@ -18710,15 +19078,18 @@
         <v>17</v>
       </c>
       <c r="AU126" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV126" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK127" s="0" t="n">
         <v>3</v>
@@ -18751,15 +19122,18 @@
         <v>3</v>
       </c>
       <c r="AU127" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV127" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>14</v>
@@ -18892,14 +19266,17 @@
       </c>
       <c r="AU128" s="0" t="n">
         <v>21</v>
+      </c>
+      <c r="AV128" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>5</v>
@@ -19025,15 +19402,18 @@
         <v>32</v>
       </c>
       <c r="AU129" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AV129" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>3</v>
@@ -19041,10 +19421,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>3</v>
@@ -19173,15 +19553,18 @@
         <v>11</v>
       </c>
       <c r="AU131" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV131" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>187</v>
@@ -19314,14 +19697,17 @@
       </c>
       <c r="AU132" s="0" t="n">
         <v>642</v>
+      </c>
+      <c r="AV132" s="0" t="n">
+        <v>655</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>218</v>
@@ -19454,14 +19840,17 @@
       </c>
       <c r="AU133" s="0" t="n">
         <v>478</v>
+      </c>
+      <c r="AV133" s="0" t="n">
+        <v>495</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>15</v>
@@ -19594,14 +19983,17 @@
       </c>
       <c r="AU134" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="AV134" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>149</v>
@@ -19734,14 +20126,17 @@
       </c>
       <c r="AU135" s="0" t="n">
         <v>212</v>
+      </c>
+      <c r="AV135" s="0" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>8</v>
@@ -19873,15 +20268,18 @@
         <v>12</v>
       </c>
       <c r="AU136" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV136" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>17</v>
@@ -20014,14 +20412,17 @@
       </c>
       <c r="AU137" s="0" t="n">
         <v>40</v>
+      </c>
+      <c r="AV137" s="0" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>12</v>
@@ -20154,14 +20555,17 @@
       </c>
       <c r="AU138" s="0" t="n">
         <v>27</v>
+      </c>
+      <c r="AV138" s="0" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>29</v>
@@ -20294,14 +20698,17 @@
       </c>
       <c r="AU139" s="0" t="n">
         <v>38</v>
+      </c>
+      <c r="AV139" s="0" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>532</v>
@@ -20434,14 +20841,17 @@
       </c>
       <c r="AU140" s="0" t="n">
         <v>670</v>
+      </c>
+      <c r="AV140" s="0" t="n">
+        <v>672</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>219</v>
@@ -20574,14 +20984,17 @@
       </c>
       <c r="AU141" s="0" t="n">
         <v>312</v>
+      </c>
+      <c r="AV141" s="0" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>18</v>
@@ -20714,14 +21127,17 @@
       </c>
       <c r="AU142" s="0" t="n">
         <v>38</v>
+      </c>
+      <c r="AV142" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>250</v>
@@ -20854,14 +21270,17 @@
       </c>
       <c r="AU143" s="0" t="n">
         <v>344</v>
+      </c>
+      <c r="AV143" s="0" t="n">
+        <v>348</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>7</v>
@@ -20993,15 +21412,18 @@
         <v>7</v>
       </c>
       <c r="AU144" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV144" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>3</v>
@@ -21133,15 +21555,18 @@
         <v>4</v>
       </c>
       <c r="AU145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV145" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>13</v>
@@ -21273,15 +21698,18 @@
         <v>22</v>
       </c>
       <c r="AU146" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV146" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>134</v>
@@ -21413,15 +21841,18 @@
         <v>175</v>
       </c>
       <c r="AU147" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="AV147" s="0" t="n">
         <v>176</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>3</v>
@@ -21554,14 +21985,17 @@
       </c>
       <c r="AU148" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AV148" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>10</v>
@@ -21694,14 +22128,17 @@
       </c>
       <c r="AU149" s="0" t="n">
         <v>13</v>
+      </c>
+      <c r="AV149" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>52</v>
@@ -21834,14 +22271,17 @@
       </c>
       <c r="AU150" s="0" t="n">
         <v>65</v>
+      </c>
+      <c r="AV150" s="0" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>22</v>
@@ -21973,15 +22413,18 @@
         <v>23</v>
       </c>
       <c r="AU151" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV151" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>38</v>
@@ -22114,14 +22557,17 @@
       </c>
       <c r="AU152" s="0" t="n">
         <v>63</v>
+      </c>
+      <c r="AV152" s="0" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>4</v>
@@ -22253,15 +22699,18 @@
         <v>8</v>
       </c>
       <c r="AU153" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV153" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>5</v>
@@ -22393,15 +22842,18 @@
         <v>6</v>
       </c>
       <c r="AU154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV154" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>5</v>
@@ -22534,14 +22986,17 @@
       </c>
       <c r="AU155" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AV155" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>24</v>
@@ -22674,14 +23129,17 @@
       </c>
       <c r="AU156" s="0" t="n">
         <v>31</v>
+      </c>
+      <c r="AV156" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>3</v>
@@ -22707,10 +23165,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>6</v>
@@ -22843,14 +23301,17 @@
       </c>
       <c r="AU158" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AV158" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>3</v>
@@ -22982,15 +23443,18 @@
         <v>6</v>
       </c>
       <c r="AU159" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV159" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>33</v>
@@ -23123,14 +23587,17 @@
       </c>
       <c r="AU160" s="0" t="n">
         <v>41</v>
+      </c>
+      <c r="AV160" s="0" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>1099</v>
@@ -23263,14 +23730,17 @@
       </c>
       <c r="AU161" s="0" t="n">
         <v>1401</v>
+      </c>
+      <c r="AV161" s="0" t="n">
+        <v>1414</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>6</v>
@@ -23402,15 +23872,18 @@
         <v>9</v>
       </c>
       <c r="AU162" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV162" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>5</v>
@@ -23542,15 +24015,18 @@
         <v>4</v>
       </c>
       <c r="AU163" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV163" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>35</v>
@@ -23683,14 +24159,17 @@
       </c>
       <c r="AU164" s="0" t="n">
         <v>61</v>
+      </c>
+      <c r="AV164" s="0" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>95</v>
@@ -23823,14 +24302,17 @@
       </c>
       <c r="AU165" s="0" t="n">
         <v>158</v>
+      </c>
+      <c r="AV165" s="0" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>6</v>
@@ -23963,14 +24445,17 @@
       </c>
       <c r="AU166" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AV166" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>61</v>
@@ -24103,14 +24588,17 @@
       </c>
       <c r="AU167" s="0" t="n">
         <v>64</v>
+      </c>
+      <c r="AV167" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>3</v>
@@ -24242,15 +24730,18 @@
         <v>3</v>
       </c>
       <c r="AU168" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV168" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>14</v>
@@ -24383,14 +24874,17 @@
       </c>
       <c r="AU169" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="AV169" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>4</v>
@@ -24522,15 +25016,18 @@
         <v>7</v>
       </c>
       <c r="AU170" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV170" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>6</v>
@@ -24663,14 +25160,17 @@
       </c>
       <c r="AU171" s="0" t="n">
         <v>13</v>
+      </c>
+      <c r="AV171" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>9</v>
@@ -24803,14 +25303,17 @@
       </c>
       <c r="AU172" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AV172" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>6</v>
@@ -24942,15 +25445,18 @@
         <v>5</v>
       </c>
       <c r="AU173" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV173" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AQ174" s="0" t="n">
         <v>4</v>
@@ -24966,14 +25472,17 @@
       </c>
       <c r="AU174" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AV174" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>356</v>
@@ -25106,14 +25615,17 @@
       </c>
       <c r="AU175" s="0" t="n">
         <v>491</v>
+      </c>
+      <c r="AV175" s="0" t="n">
+        <v>497</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S176" s="0" t="n">
         <v>3</v>
@@ -25201,14 +25713,17 @@
       </c>
       <c r="AU176" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="AV176" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>65</v>
@@ -25341,14 +25856,17 @@
       </c>
       <c r="AU177" s="0" t="n">
         <v>126</v>
+      </c>
+      <c r="AV177" s="0" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>13</v>
@@ -25481,14 +25999,17 @@
       </c>
       <c r="AU178" s="0" t="n">
         <v>18</v>
+      </c>
+      <c r="AV178" s="0" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>280</v>
@@ -25621,14 +26142,17 @@
       </c>
       <c r="AU179" s="0" t="n">
         <v>395</v>
+      </c>
+      <c r="AV179" s="0" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA180" s="0" t="n">
         <v>3</v>
@@ -25692,14 +26216,17 @@
       </c>
       <c r="AU180" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="AV180" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>55</v>
@@ -25832,14 +26359,17 @@
       </c>
       <c r="AU181" s="0" t="n">
         <v>79</v>
+      </c>
+      <c r="AV181" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>8</v>
@@ -25971,15 +26501,18 @@
         <v>9</v>
       </c>
       <c r="AU182" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV182" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>3</v>
@@ -26111,15 +26644,18 @@
         <v>4</v>
       </c>
       <c r="AU183" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV183" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>7</v>
@@ -26252,14 +26788,17 @@
       </c>
       <c r="AU184" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AV184" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>8</v>
@@ -26391,15 +26930,18 @@
         <v>13</v>
       </c>
       <c r="AU185" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV185" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>147</v>
@@ -26532,14 +27074,17 @@
       </c>
       <c r="AU186" s="0" t="n">
         <v>432</v>
+      </c>
+      <c r="AV186" s="0" t="n">
+        <v>447</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J187" s="0" t="n">
         <v>4</v>
@@ -26653,15 +27198,18 @@
         <v>6</v>
       </c>
       <c r="AU187" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV187" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>18</v>
@@ -26794,14 +27342,17 @@
       </c>
       <c r="AU188" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="AV188" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>4</v>
@@ -26933,15 +27484,18 @@
         <v>4</v>
       </c>
       <c r="AU189" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV189" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>19</v>
@@ -27074,14 +27628,17 @@
       </c>
       <c r="AU190" s="0" t="n">
         <v>40</v>
+      </c>
+      <c r="AV190" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>59</v>
@@ -27214,14 +27771,17 @@
       </c>
       <c r="AU191" s="0" t="n">
         <v>111</v>
+      </c>
+      <c r="AV191" s="0" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>29</v>
@@ -27354,14 +27914,17 @@
       </c>
       <c r="AU192" s="0" t="n">
         <v>46</v>
+      </c>
+      <c r="AV192" s="0" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>21</v>
@@ -27494,14 +28057,17 @@
       </c>
       <c r="AU193" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="AV193" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AR194" s="0" t="n">
         <v>3</v>
@@ -27514,14 +28080,17 @@
       </c>
       <c r="AU194" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="AV194" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>514</v>
@@ -27654,14 +28223,17 @@
       </c>
       <c r="AU195" s="0" t="n">
         <v>1521</v>
+      </c>
+      <c r="AV195" s="0" t="n">
+        <v>1558</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG196" s="0" t="n">
         <v>4</v>
@@ -27707,14 +28279,17 @@
       </c>
       <c r="AU196" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AV196" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>19</v>
@@ -27846,15 +28421,18 @@
         <v>25</v>
       </c>
       <c r="AU197" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV197" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>34</v>
@@ -27986,15 +28564,18 @@
         <v>35</v>
       </c>
       <c r="AU198" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AV198" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>32</v>
@@ -28126,15 +28707,18 @@
         <v>30</v>
       </c>
       <c r="AU199" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV199" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>9</v>
@@ -28266,15 +28850,18 @@
         <v>10</v>
       </c>
       <c r="AU200" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV200" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>10</v>
@@ -28407,14 +28994,17 @@
       </c>
       <c r="AU201" s="0" t="n">
         <v>13</v>
+      </c>
+      <c r="AV201" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>12</v>
@@ -28547,14 +29137,17 @@
       </c>
       <c r="AU202" s="0" t="n">
         <v>13</v>
+      </c>
+      <c r="AV202" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>21</v>
@@ -28686,15 +29279,18 @@
         <v>23</v>
       </c>
       <c r="AU203" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV203" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>11</v>
@@ -28827,14 +29423,17 @@
       </c>
       <c r="AU204" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="AV204" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>28</v>
@@ -28967,14 +29566,17 @@
       </c>
       <c r="AU205" s="0" t="n">
         <v>52</v>
+      </c>
+      <c r="AV205" s="0" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>17</v>
@@ -29106,15 +29708,18 @@
         <v>20</v>
       </c>
       <c r="AU206" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV206" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>114</v>
@@ -29247,14 +29852,17 @@
       </c>
       <c r="AU207" s="0" t="n">
         <v>146</v>
+      </c>
+      <c r="AV207" s="0" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>17</v>
@@ -29387,14 +29995,17 @@
       </c>
       <c r="AU208" s="0" t="n">
         <v>24</v>
+      </c>
+      <c r="AV208" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>85</v>
@@ -29526,15 +30137,18 @@
         <v>155</v>
       </c>
       <c r="AU209" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AV209" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>7</v>
@@ -29667,14 +30281,17 @@
       </c>
       <c r="AU210" s="0" t="n">
         <v>12</v>
+      </c>
+      <c r="AV210" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>655</v>
@@ -29807,14 +30424,17 @@
       </c>
       <c r="AU211" s="0" t="n">
         <v>761</v>
+      </c>
+      <c r="AV211" s="0" t="n">
+        <v>762</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>5</v>
@@ -29947,14 +30567,17 @@
       </c>
       <c r="AU212" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AV212" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>6</v>
@@ -30086,15 +30709,18 @@
         <v>5</v>
       </c>
       <c r="AU213" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV213" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>7</v>
@@ -30227,14 +30853,17 @@
       </c>
       <c r="AU214" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AV214" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>132</v>
@@ -30367,14 +30996,17 @@
       </c>
       <c r="AU215" s="0" t="n">
         <v>187</v>
+      </c>
+      <c r="AV215" s="0" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>24</v>
@@ -30506,15 +31138,18 @@
         <v>44</v>
       </c>
       <c r="AU216" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AV216" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>7</v>
@@ -30646,15 +31281,18 @@
         <v>7</v>
       </c>
       <c r="AU217" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV217" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>212</v>
@@ -30787,14 +31425,17 @@
       </c>
       <c r="AU218" s="0" t="n">
         <v>296</v>
+      </c>
+      <c r="AV218" s="0" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>5</v>
@@ -30927,14 +31568,17 @@
       </c>
       <c r="AU219" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AV219" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>147</v>
@@ -31067,14 +31711,17 @@
       </c>
       <c r="AU220" s="0" t="n">
         <v>473</v>
+      </c>
+      <c r="AV220" s="0" t="n">
+        <v>479</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>3</v>
@@ -31121,10 +31768,10 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>6</v>
@@ -31256,15 +31903,18 @@
         <v>9</v>
       </c>
       <c r="AU222" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV222" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>305</v>
@@ -31397,14 +32047,17 @@
       </c>
       <c r="AU223" s="0" t="n">
         <v>400</v>
+      </c>
+      <c r="AV223" s="0" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>79</v>
@@ -31536,15 +32189,18 @@
         <v>72</v>
       </c>
       <c r="AU224" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AV224" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>1161</v>
@@ -31677,14 +32333,17 @@
       </c>
       <c r="AU225" s="0" t="n">
         <v>1580</v>
+      </c>
+      <c r="AV225" s="0" t="n">
+        <v>1592</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>4</v>
@@ -31816,15 +32475,18 @@
         <v>7</v>
       </c>
       <c r="AU226" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV226" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>3</v>
@@ -31957,14 +32619,17 @@
       </c>
       <c r="AU227" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AV227" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>145</v>
@@ -32097,14 +32762,17 @@
       </c>
       <c r="AU228" s="0" t="n">
         <v>155</v>
+      </c>
+      <c r="AV228" s="0" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>14</v>
@@ -32237,14 +32905,17 @@
       </c>
       <c r="AU229" s="0" t="n">
         <v>13</v>
+      </c>
+      <c r="AV229" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>135</v>
@@ -32377,14 +33048,17 @@
       </c>
       <c r="AU230" s="0" t="n">
         <v>233</v>
+      </c>
+      <c r="AV230" s="0" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>7</v>
@@ -32516,15 +33190,18 @@
         <v>11</v>
       </c>
       <c r="AU231" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV231" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>24</v>
@@ -32656,15 +33333,18 @@
         <v>30</v>
       </c>
       <c r="AU232" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV232" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>81</v>
@@ -32797,14 +33477,17 @@
       </c>
       <c r="AU233" s="0" t="n">
         <v>101</v>
+      </c>
+      <c r="AV233" s="0" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>68</v>
@@ -32937,14 +33620,17 @@
       </c>
       <c r="AU234" s="0" t="n">
         <v>148</v>
+      </c>
+      <c r="AV234" s="0" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D235" s="0" t="n">
         <v>6</v>
@@ -33076,6 +33762,9 @@
         <v>8</v>
       </c>
       <c r="AU235" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV235" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="518">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/06/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/06/07</t>
   </si>
   <si>
     <t xml:space="preserve">1401</t>
@@ -1698,23 +1701,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AV235"/>
+  <dimension ref="A1:AW235"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AS1" activeCellId="0" sqref="AS1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV1" activeCellId="0" sqref="AV:AV"/>
+      <selection pane="bottomRight" activeCell="AY11" activeCellId="0" sqref="AY11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="4" style="0" width="9.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="983" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="980" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,13 +1865,16 @@
       <c r="AV1" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="AW1" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7</v>
@@ -2004,14 +2010,17 @@
       </c>
       <c r="AV2" s="0" t="n">
         <v>21</v>
+      </c>
+      <c r="AW2" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>42</v>
@@ -2146,15 +2155,18 @@
         <v>65</v>
       </c>
       <c r="AV3" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AW3" s="0" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>61</v>
@@ -2289,15 +2301,18 @@
         <v>91</v>
       </c>
       <c r="AV4" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="AW4" s="0" t="n">
         <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>68</v>
@@ -2432,15 +2447,18 @@
         <v>78</v>
       </c>
       <c r="AV5" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="AW5" s="0" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -2576,14 +2594,17 @@
       </c>
       <c r="AV6" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AW6" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
@@ -2718,15 +2739,18 @@
         <v>11</v>
       </c>
       <c r="AV7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW7" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>24</v>
@@ -2861,15 +2885,18 @@
         <v>42</v>
       </c>
       <c r="AV8" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW8" s="0" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -3005,14 +3032,17 @@
       </c>
       <c r="AV9" s="0" t="n">
         <v>23</v>
+      </c>
+      <c r="AW9" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>16</v>
@@ -3148,14 +3178,17 @@
       </c>
       <c r="AV10" s="0" t="n">
         <v>102</v>
+      </c>
+      <c r="AW10" s="0" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -3290,15 +3323,18 @@
         <v>6</v>
       </c>
       <c r="AV11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW11" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3</v>
@@ -3424,15 +3460,18 @@
         <v>4</v>
       </c>
       <c r="AV12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW12" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>166</v>
@@ -3568,14 +3607,17 @@
       </c>
       <c r="AV13" s="0" t="n">
         <v>442</v>
+      </c>
+      <c r="AW13" s="0" t="n">
+        <v>455</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>6</v>
@@ -3710,15 +3752,18 @@
         <v>4</v>
       </c>
       <c r="AV14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW14" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>13</v>
@@ -3853,15 +3898,18 @@
         <v>21</v>
       </c>
       <c r="AV15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW15" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
@@ -3996,15 +4044,18 @@
         <v>8</v>
       </c>
       <c r="AV16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW16" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>9</v>
@@ -4139,15 +4190,18 @@
         <v>12</v>
       </c>
       <c r="AV17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW17" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>26</v>
@@ -4282,15 +4336,18 @@
         <v>25</v>
       </c>
       <c r="AV18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW18" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>251</v>
@@ -4426,14 +4483,17 @@
       </c>
       <c r="AV19" s="0" t="n">
         <v>1023</v>
+      </c>
+      <c r="AW19" s="0" t="n">
+        <v>1031</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>74</v>
@@ -4568,15 +4628,18 @@
         <v>99</v>
       </c>
       <c r="AV20" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW20" s="0" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>41</v>
@@ -4711,15 +4774,18 @@
         <v>78</v>
       </c>
       <c r="AV21" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AW21" s="0" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>27</v>
@@ -4854,15 +4920,18 @@
         <v>43</v>
       </c>
       <c r="AV22" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AW22" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AT23" s="0" t="n">
         <v>4</v>
@@ -4872,14 +4941,17 @@
       </c>
       <c r="AV23" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AW23" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>5</v>
@@ -5014,15 +5086,18 @@
         <v>8</v>
       </c>
       <c r="AV24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW24" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>50</v>
@@ -5157,15 +5232,18 @@
         <v>73</v>
       </c>
       <c r="AV25" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="AW25" s="0" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>7</v>
@@ -5300,15 +5378,18 @@
         <v>9</v>
       </c>
       <c r="AV26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW26" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>30</v>
@@ -5443,15 +5524,18 @@
         <v>41</v>
       </c>
       <c r="AV27" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AW27" s="0" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>5</v>
@@ -5586,15 +5670,18 @@
         <v>14</v>
       </c>
       <c r="AV28" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW28" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>243</v>
@@ -5729,15 +5816,18 @@
         <v>344</v>
       </c>
       <c r="AV29" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="AW29" s="0" t="n">
         <v>353</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>7</v>
@@ -5872,15 +5962,18 @@
         <v>84</v>
       </c>
       <c r="AV30" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="AW30" s="0" t="n">
         <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>9</v>
@@ -6015,15 +6108,18 @@
         <v>31</v>
       </c>
       <c r="AV31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AW31" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>190</v>
@@ -6158,15 +6254,18 @@
         <v>304</v>
       </c>
       <c r="AV32" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="AW32" s="0" t="n">
         <v>307</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>86</v>
@@ -6301,15 +6400,18 @@
         <v>242</v>
       </c>
       <c r="AV33" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="AW33" s="0" t="n">
         <v>253</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>4</v>
@@ -6444,15 +6546,18 @@
         <v>6</v>
       </c>
       <c r="AV34" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW34" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>9</v>
@@ -6588,14 +6693,17 @@
       </c>
       <c r="AV35" s="0" t="n">
         <v>19</v>
+      </c>
+      <c r="AW35" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>27</v>
@@ -6731,14 +6839,17 @@
       </c>
       <c r="AV36" s="0" t="n">
         <v>42</v>
+      </c>
+      <c r="AW36" s="0" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>3</v>
@@ -6874,14 +6985,17 @@
       </c>
       <c r="AV37" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AW37" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>950</v>
@@ -7016,15 +7130,18 @@
         <v>1233</v>
       </c>
       <c r="AV38" s="0" t="n">
+        <v>1256</v>
+      </c>
+      <c r="AW38" s="0" t="n">
         <v>1256</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>99</v>
@@ -7159,15 +7276,18 @@
         <v>122</v>
       </c>
       <c r="AV39" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="AW39" s="0" t="n">
         <v>123</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>10</v>
@@ -7302,15 +7422,18 @@
         <v>18</v>
       </c>
       <c r="AV40" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW40" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>5</v>
@@ -7445,15 +7568,18 @@
         <v>13</v>
       </c>
       <c r="AV41" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW41" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>15</v>
@@ -7589,17 +7715,20 @@
       </c>
       <c r="AV42" s="0" t="n">
         <v>33</v>
+      </c>
+      <c r="AW42" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>5</v>
@@ -7710,18 +7839,21 @@
         <v>4</v>
       </c>
       <c r="AV43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW43" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>3</v>
@@ -7753,10 +7885,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>34</v>
@@ -7892,14 +8024,17 @@
       </c>
       <c r="AV45" s="0" t="n">
         <v>42</v>
+      </c>
+      <c r="AW45" s="0" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>14</v>
@@ -8035,14 +8170,17 @@
       </c>
       <c r="AV46" s="0" t="n">
         <v>21</v>
+      </c>
+      <c r="AW46" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>43</v>
@@ -8177,15 +8315,18 @@
         <v>71</v>
       </c>
       <c r="AV47" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AW47" s="0" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>5</v>
@@ -8321,14 +8462,17 @@
       </c>
       <c r="AV48" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AW48" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>12</v>
@@ -8463,15 +8607,18 @@
         <v>12</v>
       </c>
       <c r="AV49" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW49" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>22</v>
@@ -8607,14 +8754,17 @@
       </c>
       <c r="AV50" s="0" t="n">
         <v>67</v>
+      </c>
+      <c r="AW50" s="0" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>298</v>
@@ -8749,15 +8899,18 @@
         <v>625</v>
       </c>
       <c r="AV51" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="AW51" s="0" t="n">
         <v>649</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>5</v>
@@ -8893,14 +9046,17 @@
       </c>
       <c r="AV52" s="0" t="n">
         <v>18</v>
+      </c>
+      <c r="AW52" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>9</v>
@@ -9035,15 +9191,18 @@
         <v>20</v>
       </c>
       <c r="AV53" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW53" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>100</v>
@@ -9179,14 +9338,17 @@
       </c>
       <c r="AV54" s="0" t="n">
         <v>105</v>
+      </c>
+      <c r="AW54" s="0" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>3</v>
@@ -9321,15 +9483,18 @@
         <v>3</v>
       </c>
       <c r="AV55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW55" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>9</v>
@@ -9464,15 +9629,18 @@
         <v>6</v>
       </c>
       <c r="AV56" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW56" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>16</v>
@@ -9607,15 +9775,18 @@
         <v>23</v>
       </c>
       <c r="AV57" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW57" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>8</v>
@@ -9750,15 +9921,18 @@
         <v>9</v>
       </c>
       <c r="AV58" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW58" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>23</v>
@@ -9893,15 +10067,18 @@
         <v>26</v>
       </c>
       <c r="AV59" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW59" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>8</v>
@@ -10036,15 +10213,18 @@
         <v>24</v>
       </c>
       <c r="AV60" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW60" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>367</v>
@@ -10179,15 +10359,18 @@
         <v>600</v>
       </c>
       <c r="AV61" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="AW61" s="0" t="n">
         <v>603</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>61</v>
@@ -10322,15 +10505,18 @@
         <v>155</v>
       </c>
       <c r="AV62" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AW62" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>33</v>
@@ -10465,15 +10651,18 @@
         <v>49</v>
       </c>
       <c r="AV63" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW63" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>7</v>
@@ -10608,15 +10797,18 @@
         <v>7</v>
       </c>
       <c r="AV64" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW64" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>3</v>
@@ -10751,15 +10943,18 @@
         <v>4</v>
       </c>
       <c r="AV65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW65" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>8</v>
@@ -10895,14 +11090,17 @@
       </c>
       <c r="AV66" s="0" t="n">
         <v>13</v>
+      </c>
+      <c r="AW66" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>3</v>
@@ -11028,15 +11226,18 @@
         <v>9</v>
       </c>
       <c r="AV67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW67" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>63</v>
@@ -11171,15 +11372,18 @@
         <v>92</v>
       </c>
       <c r="AV68" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="AW68" s="0" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>38</v>
@@ -11314,15 +11518,18 @@
         <v>47</v>
       </c>
       <c r="AV69" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW69" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>52</v>
@@ -11457,15 +11664,18 @@
         <v>102</v>
       </c>
       <c r="AV70" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="AW70" s="0" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>19</v>
@@ -11600,15 +11810,18 @@
         <v>26</v>
       </c>
       <c r="AV71" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW71" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>71</v>
@@ -11743,15 +11956,18 @@
         <v>124</v>
       </c>
       <c r="AV72" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="AW72" s="0" t="n">
         <v>125</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>56</v>
@@ -11886,15 +12102,18 @@
         <v>66</v>
       </c>
       <c r="AV73" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW73" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>275</v>
@@ -12029,15 +12248,18 @@
         <v>408</v>
       </c>
       <c r="AV74" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="AW74" s="0" t="n">
         <v>408</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>17</v>
@@ -12172,15 +12394,18 @@
         <v>34</v>
       </c>
       <c r="AV75" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW75" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>3</v>
@@ -12218,10 +12443,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>4</v>
@@ -12356,15 +12581,18 @@
         <v>9</v>
       </c>
       <c r="AV77" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW77" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O78" s="0" t="n">
         <v>3</v>
@@ -12466,15 +12694,18 @@
         <v>3</v>
       </c>
       <c r="AV78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW78" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>30</v>
@@ -12609,15 +12840,18 @@
         <v>26</v>
       </c>
       <c r="AV79" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW79" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>3</v>
@@ -12737,15 +12971,18 @@
         <v>5</v>
       </c>
       <c r="AV80" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW80" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>9</v>
@@ -12880,15 +13117,18 @@
         <v>10</v>
       </c>
       <c r="AV81" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW81" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>894</v>
@@ -13023,15 +13263,18 @@
         <v>1088</v>
       </c>
       <c r="AV82" s="0" t="n">
+        <v>1093</v>
+      </c>
+      <c r="AW82" s="0" t="n">
         <v>1093</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>15</v>
@@ -13166,15 +13409,18 @@
         <v>22</v>
       </c>
       <c r="AV83" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW83" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>7</v>
@@ -13309,15 +13555,18 @@
         <v>11</v>
       </c>
       <c r="AV84" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW84" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>20</v>
@@ -13452,15 +13701,18 @@
         <v>25</v>
       </c>
       <c r="AV85" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW85" s="0" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>458</v>
@@ -13595,15 +13847,18 @@
         <v>720</v>
       </c>
       <c r="AV86" s="0" t="n">
+        <v>725</v>
+      </c>
+      <c r="AW86" s="0" t="n">
         <v>725</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>6</v>
@@ -13738,15 +13993,18 @@
         <v>6</v>
       </c>
       <c r="AV87" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW87" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>95</v>
@@ -13881,18 +14139,21 @@
         <v>142</v>
       </c>
       <c r="AV88" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="AW88" s="0" t="n">
         <v>148</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>7</v>
@@ -14028,14 +14289,17 @@
       </c>
       <c r="AV89" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AW89" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>4</v>
@@ -14170,15 +14434,18 @@
         <v>4</v>
       </c>
       <c r="AV90" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW90" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>33</v>
@@ -14313,15 +14580,18 @@
         <v>39</v>
       </c>
       <c r="AV91" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AW91" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>61</v>
@@ -14456,15 +14726,18 @@
         <v>84</v>
       </c>
       <c r="AV92" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="AW92" s="0" t="n">
         <v>106</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>1266</v>
@@ -14600,14 +14873,17 @@
       </c>
       <c r="AV93" s="0" t="n">
         <v>2595</v>
+      </c>
+      <c r="AW93" s="0" t="n">
+        <v>2614</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>60</v>
@@ -14742,15 +15018,18 @@
         <v>70</v>
       </c>
       <c r="AV94" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AW94" s="0" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>301</v>
@@ -14886,14 +15165,17 @@
       </c>
       <c r="AV95" s="0" t="n">
         <v>1191</v>
+      </c>
+      <c r="AW95" s="0" t="n">
+        <v>1209</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>5</v>
@@ -15028,15 +15310,18 @@
         <v>11</v>
       </c>
       <c r="AV96" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW96" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>12</v>
@@ -15171,15 +15456,18 @@
         <v>20</v>
       </c>
       <c r="AV97" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW97" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>162</v>
@@ -15315,14 +15603,17 @@
       </c>
       <c r="AV98" s="0" t="n">
         <v>343</v>
+      </c>
+      <c r="AW98" s="0" t="n">
+        <v>345</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>19</v>
@@ -15458,14 +15749,17 @@
       </c>
       <c r="AV99" s="0" t="n">
         <v>25</v>
+      </c>
+      <c r="AW99" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>5</v>
@@ -15600,15 +15894,18 @@
         <v>5</v>
       </c>
       <c r="AV100" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW100" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>63</v>
@@ -15743,15 +16040,18 @@
         <v>138</v>
       </c>
       <c r="AV101" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="AW101" s="0" t="n">
         <v>147</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>763</v>
@@ -15886,15 +16186,18 @@
         <v>946</v>
       </c>
       <c r="AV102" s="0" t="n">
+        <v>950</v>
+      </c>
+      <c r="AW102" s="0" t="n">
         <v>950</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>62</v>
@@ -16029,15 +16332,18 @@
         <v>78</v>
       </c>
       <c r="AV103" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="AW103" s="0" t="n">
         <v>82</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>3</v>
@@ -16172,15 +16478,18 @@
         <v>7</v>
       </c>
       <c r="AV104" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW104" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>59</v>
@@ -16316,14 +16625,17 @@
       </c>
       <c r="AV105" s="0" t="n">
         <v>92</v>
+      </c>
+      <c r="AW105" s="0" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>14</v>
@@ -16458,15 +16770,18 @@
         <v>18</v>
       </c>
       <c r="AV106" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW106" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>929</v>
@@ -16601,15 +16916,18 @@
         <v>1285</v>
       </c>
       <c r="AV107" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="AW107" s="0" t="n">
         <v>1292</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>14</v>
@@ -16744,15 +17062,18 @@
         <v>18</v>
       </c>
       <c r="AV108" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW108" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>32</v>
@@ -16887,15 +17208,18 @@
         <v>63</v>
       </c>
       <c r="AV109" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AW109" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>4</v>
@@ -17031,14 +17355,17 @@
       </c>
       <c r="AV110" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AW110" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>13</v>
@@ -17173,15 +17500,18 @@
         <v>17</v>
       </c>
       <c r="AV111" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW111" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>7</v>
@@ -17317,14 +17647,17 @@
       </c>
       <c r="AV112" s="0" t="n">
         <v>11</v>
+      </c>
+      <c r="AW112" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>17</v>
@@ -17459,15 +17792,18 @@
         <v>21</v>
       </c>
       <c r="AV113" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW113" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>3</v>
@@ -17593,15 +17929,18 @@
         <v>5</v>
       </c>
       <c r="AV114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW114" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>11</v>
@@ -17736,15 +18075,18 @@
         <v>15</v>
       </c>
       <c r="AV115" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW115" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>61</v>
@@ -17880,14 +18222,17 @@
       </c>
       <c r="AV116" s="0" t="n">
         <v>181</v>
+      </c>
+      <c r="AW116" s="0" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>66</v>
@@ -18022,15 +18367,18 @@
         <v>116</v>
       </c>
       <c r="AV117" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="AW117" s="0" t="n">
         <v>118</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>3</v>
@@ -18044,10 +18392,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>3</v>
@@ -18080,15 +18428,18 @@
         <v>3</v>
       </c>
       <c r="AV119" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW119" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>4</v>
@@ -18224,14 +18575,17 @@
       </c>
       <c r="AV120" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AW120" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>16</v>
@@ -18366,15 +18720,18 @@
         <v>30</v>
       </c>
       <c r="AV121" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW121" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>40</v>
@@ -18509,15 +18866,18 @@
         <v>128</v>
       </c>
       <c r="AV122" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="AW122" s="0" t="n">
         <v>129</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>4</v>
@@ -18652,15 +19012,18 @@
         <v>11</v>
       </c>
       <c r="AV123" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW123" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>29</v>
@@ -18795,15 +19158,18 @@
         <v>72</v>
       </c>
       <c r="AV124" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AW124" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>10</v>
@@ -18938,15 +19304,18 @@
         <v>20</v>
       </c>
       <c r="AV125" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW125" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>8</v>
@@ -19081,15 +19450,18 @@
         <v>17</v>
       </c>
       <c r="AV126" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW126" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK127" s="0" t="n">
         <v>3</v>
@@ -19125,15 +19497,18 @@
         <v>3</v>
       </c>
       <c r="AV127" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW127" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>14</v>
@@ -19269,14 +19644,17 @@
       </c>
       <c r="AV128" s="0" t="n">
         <v>23</v>
+      </c>
+      <c r="AW128" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>5</v>
@@ -19405,15 +19783,18 @@
         <v>32</v>
       </c>
       <c r="AV129" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW129" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>3</v>
@@ -19421,10 +19802,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>3</v>
@@ -19556,15 +19937,18 @@
         <v>11</v>
       </c>
       <c r="AV131" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW131" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>187</v>
@@ -19700,14 +20084,17 @@
       </c>
       <c r="AV132" s="0" t="n">
         <v>655</v>
+      </c>
+      <c r="AW132" s="0" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>218</v>
@@ -19842,15 +20229,18 @@
         <v>478</v>
       </c>
       <c r="AV133" s="0" t="n">
+        <v>495</v>
+      </c>
+      <c r="AW133" s="0" t="n">
         <v>495</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>15</v>
@@ -19985,15 +20375,18 @@
         <v>14</v>
       </c>
       <c r="AV134" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW134" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>149</v>
@@ -20128,15 +20521,18 @@
         <v>212</v>
       </c>
       <c r="AV135" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="AW135" s="0" t="n">
         <v>218</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>8</v>
@@ -20271,15 +20667,18 @@
         <v>12</v>
       </c>
       <c r="AV136" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW136" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>17</v>
@@ -20414,15 +20813,18 @@
         <v>40</v>
       </c>
       <c r="AV137" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW137" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>12</v>
@@ -20557,15 +20959,18 @@
         <v>27</v>
       </c>
       <c r="AV138" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW138" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>29</v>
@@ -20700,15 +21105,18 @@
         <v>38</v>
       </c>
       <c r="AV139" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW139" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>532</v>
@@ -20843,15 +21251,18 @@
         <v>670</v>
       </c>
       <c r="AV140" s="0" t="n">
+        <v>672</v>
+      </c>
+      <c r="AW140" s="0" t="n">
         <v>672</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>219</v>
@@ -20986,15 +21397,18 @@
         <v>312</v>
       </c>
       <c r="AV141" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="AW141" s="0" t="n">
         <v>313</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>18</v>
@@ -21129,15 +21543,18 @@
         <v>38</v>
       </c>
       <c r="AV142" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW142" s="0" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>250</v>
@@ -21272,15 +21689,18 @@
         <v>344</v>
       </c>
       <c r="AV143" s="0" t="n">
+        <v>348</v>
+      </c>
+      <c r="AW143" s="0" t="n">
         <v>348</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>7</v>
@@ -21415,15 +21835,18 @@
         <v>7</v>
       </c>
       <c r="AV144" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW144" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>3</v>
@@ -21558,15 +21981,18 @@
         <v>4</v>
       </c>
       <c r="AV145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW145" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>13</v>
@@ -21701,15 +22127,18 @@
         <v>22</v>
       </c>
       <c r="AV146" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW146" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>134</v>
@@ -21844,15 +22273,18 @@
         <v>176</v>
       </c>
       <c r="AV147" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="AW147" s="0" t="n">
         <v>176</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>3</v>
@@ -21988,14 +22420,17 @@
       </c>
       <c r="AV148" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AW148" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>10</v>
@@ -22131,14 +22566,17 @@
       </c>
       <c r="AV149" s="0" t="n">
         <v>15</v>
+      </c>
+      <c r="AW149" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>52</v>
@@ -22273,15 +22711,18 @@
         <v>65</v>
       </c>
       <c r="AV150" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AW150" s="0" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>22</v>
@@ -22416,15 +22857,18 @@
         <v>23</v>
       </c>
       <c r="AV151" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW151" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>38</v>
@@ -22559,15 +23003,18 @@
         <v>63</v>
       </c>
       <c r="AV152" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AW152" s="0" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>4</v>
@@ -22702,15 +23149,18 @@
         <v>8</v>
       </c>
       <c r="AV153" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW153" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>5</v>
@@ -22845,15 +23295,18 @@
         <v>6</v>
       </c>
       <c r="AV154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW154" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>5</v>
@@ -22989,14 +23442,17 @@
       </c>
       <c r="AV155" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AW155" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>24</v>
@@ -23131,15 +23587,18 @@
         <v>31</v>
       </c>
       <c r="AV156" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW156" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>3</v>
@@ -23165,10 +23624,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>6</v>
@@ -23303,15 +23762,18 @@
         <v>6</v>
       </c>
       <c r="AV158" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW158" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>3</v>
@@ -23446,15 +23908,18 @@
         <v>6</v>
       </c>
       <c r="AV159" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW159" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>33</v>
@@ -23589,15 +24054,18 @@
         <v>41</v>
       </c>
       <c r="AV160" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AW160" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>1099</v>
@@ -23732,15 +24200,18 @@
         <v>1401</v>
       </c>
       <c r="AV161" s="0" t="n">
+        <v>1414</v>
+      </c>
+      <c r="AW161" s="0" t="n">
         <v>1414</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>6</v>
@@ -23875,15 +24346,18 @@
         <v>11</v>
       </c>
       <c r="AV162" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW162" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>5</v>
@@ -24018,15 +24492,18 @@
         <v>4</v>
       </c>
       <c r="AV163" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW163" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>35</v>
@@ -24161,15 +24638,18 @@
         <v>61</v>
       </c>
       <c r="AV164" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AW164" s="0" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>95</v>
@@ -24304,15 +24784,18 @@
         <v>158</v>
       </c>
       <c r="AV165" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="AW165" s="0" t="n">
         <v>159</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>6</v>
@@ -24448,14 +24931,17 @@
       </c>
       <c r="AV166" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="AW166" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>61</v>
@@ -24590,15 +25076,18 @@
         <v>64</v>
       </c>
       <c r="AV167" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW167" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>3</v>
@@ -24733,15 +25222,18 @@
         <v>3</v>
       </c>
       <c r="AV168" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW168" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>14</v>
@@ -24876,15 +25368,18 @@
         <v>22</v>
       </c>
       <c r="AV169" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW169" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>4</v>
@@ -25019,15 +25514,18 @@
         <v>7</v>
       </c>
       <c r="AV170" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW170" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>6</v>
@@ -25162,15 +25660,18 @@
         <v>13</v>
       </c>
       <c r="AV171" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW171" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>9</v>
@@ -25305,15 +25806,18 @@
         <v>9</v>
       </c>
       <c r="AV172" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW172" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>6</v>
@@ -25448,15 +25952,18 @@
         <v>5</v>
       </c>
       <c r="AV173" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW173" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AQ174" s="0" t="n">
         <v>4</v>
@@ -25475,14 +25982,17 @@
       </c>
       <c r="AV174" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="AW174" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>356</v>
@@ -25617,15 +26127,18 @@
         <v>491</v>
       </c>
       <c r="AV175" s="0" t="n">
+        <v>497</v>
+      </c>
+      <c r="AW175" s="0" t="n">
         <v>497</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S176" s="0" t="n">
         <v>3</v>
@@ -25716,14 +26229,17 @@
       </c>
       <c r="AV176" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AW176" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>65</v>
@@ -25858,15 +26374,18 @@
         <v>126</v>
       </c>
       <c r="AV177" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="AW177" s="0" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>13</v>
@@ -26001,15 +26520,18 @@
         <v>18</v>
       </c>
       <c r="AV178" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW178" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>280</v>
@@ -26144,15 +26666,18 @@
         <v>395</v>
       </c>
       <c r="AV179" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="AW179" s="0" t="n">
         <v>398</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA180" s="0" t="n">
         <v>3</v>
@@ -26219,14 +26744,17 @@
       </c>
       <c r="AV180" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="AW180" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>55</v>
@@ -26361,15 +26889,18 @@
         <v>79</v>
       </c>
       <c r="AV181" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW181" s="0" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>8</v>
@@ -26504,15 +27035,18 @@
         <v>9</v>
       </c>
       <c r="AV182" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW182" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>3</v>
@@ -26647,15 +27181,18 @@
         <v>5</v>
       </c>
       <c r="AV183" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW183" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>7</v>
@@ -26791,14 +27328,17 @@
       </c>
       <c r="AV184" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AW184" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>8</v>
@@ -26933,15 +27473,18 @@
         <v>13</v>
       </c>
       <c r="AV185" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW185" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>147</v>
@@ -27077,14 +27620,17 @@
       </c>
       <c r="AV186" s="0" t="n">
         <v>447</v>
+      </c>
+      <c r="AW186" s="0" t="n">
+        <v>450</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J187" s="0" t="n">
         <v>4</v>
@@ -27201,15 +27747,18 @@
         <v>6</v>
       </c>
       <c r="AV187" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW187" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>18</v>
@@ -27345,14 +27894,17 @@
       </c>
       <c r="AV188" s="0" t="n">
         <v>15</v>
+      </c>
+      <c r="AW188" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>4</v>
@@ -27487,15 +28039,18 @@
         <v>4</v>
       </c>
       <c r="AV189" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW189" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>19</v>
@@ -27630,15 +28185,18 @@
         <v>40</v>
       </c>
       <c r="AV190" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW190" s="0" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>59</v>
@@ -27773,15 +28331,18 @@
         <v>111</v>
       </c>
       <c r="AV191" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="AW191" s="0" t="n">
         <v>118</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>29</v>
@@ -27916,15 +28477,18 @@
         <v>46</v>
       </c>
       <c r="AV192" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AW192" s="0" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>21</v>
@@ -28059,15 +28623,18 @@
         <v>22</v>
       </c>
       <c r="AV193" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW193" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AR194" s="0" t="n">
         <v>3</v>
@@ -28083,14 +28650,17 @@
       </c>
       <c r="AV194" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="AW194" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>514</v>
@@ -28225,15 +28795,18 @@
         <v>1521</v>
       </c>
       <c r="AV195" s="0" t="n">
+        <v>1558</v>
+      </c>
+      <c r="AW195" s="0" t="n">
         <v>1558</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG196" s="0" t="n">
         <v>4</v>
@@ -28281,15 +28854,18 @@
         <v>10</v>
       </c>
       <c r="AV196" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW196" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>19</v>
@@ -28425,14 +29001,17 @@
       </c>
       <c r="AV197" s="0" t="n">
         <v>25</v>
+      </c>
+      <c r="AW197" s="0" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>34</v>
@@ -28567,15 +29146,18 @@
         <v>35</v>
       </c>
       <c r="AV198" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW198" s="0" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>32</v>
@@ -28710,15 +29292,18 @@
         <v>30</v>
       </c>
       <c r="AV199" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW199" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>9</v>
@@ -28853,15 +29438,18 @@
         <v>10</v>
       </c>
       <c r="AV200" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW200" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>10</v>
@@ -28996,15 +29584,18 @@
         <v>13</v>
       </c>
       <c r="AV201" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW201" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>12</v>
@@ -29139,15 +29730,18 @@
         <v>13</v>
       </c>
       <c r="AV202" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW202" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>21</v>
@@ -29282,15 +29876,18 @@
         <v>23</v>
       </c>
       <c r="AV203" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW203" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>11</v>
@@ -29425,15 +30022,18 @@
         <v>22</v>
       </c>
       <c r="AV204" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW204" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>28</v>
@@ -29568,15 +30168,18 @@
         <v>52</v>
       </c>
       <c r="AV205" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AW205" s="0" t="n">
         <v>54</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>17</v>
@@ -29711,15 +30314,18 @@
         <v>20</v>
       </c>
       <c r="AV206" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW206" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>114</v>
@@ -29854,15 +30460,18 @@
         <v>146</v>
       </c>
       <c r="AV207" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="AW207" s="0" t="n">
         <v>149</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>17</v>
@@ -29997,15 +30606,18 @@
         <v>24</v>
       </c>
       <c r="AV208" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW208" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>85</v>
@@ -30140,15 +30752,18 @@
         <v>155</v>
       </c>
       <c r="AV209" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="AW209" s="0" t="n">
         <v>155</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>7</v>
@@ -30283,15 +30898,18 @@
         <v>12</v>
       </c>
       <c r="AV210" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW210" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>655</v>
@@ -30426,15 +31044,18 @@
         <v>761</v>
       </c>
       <c r="AV211" s="0" t="n">
+        <v>762</v>
+      </c>
+      <c r="AW211" s="0" t="n">
         <v>762</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>5</v>
@@ -30570,14 +31191,17 @@
       </c>
       <c r="AV212" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="AW212" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>6</v>
@@ -30712,15 +31336,18 @@
         <v>5</v>
       </c>
       <c r="AV213" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW213" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>7</v>
@@ -30856,14 +31483,17 @@
       </c>
       <c r="AV214" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="AW214" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>132</v>
@@ -30998,15 +31628,18 @@
         <v>187</v>
       </c>
       <c r="AV215" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="AW215" s="0" t="n">
         <v>192</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>24</v>
@@ -31141,15 +31774,18 @@
         <v>44</v>
       </c>
       <c r="AV216" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AW216" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>7</v>
@@ -31284,15 +31920,18 @@
         <v>7</v>
       </c>
       <c r="AV217" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW217" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>212</v>
@@ -31427,15 +32066,18 @@
         <v>296</v>
       </c>
       <c r="AV218" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="AW218" s="0" t="n">
         <v>297</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>5</v>
@@ -31570,15 +32212,18 @@
         <v>4</v>
       </c>
       <c r="AV219" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW219" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>147</v>
@@ -31714,14 +32359,17 @@
       </c>
       <c r="AV220" s="0" t="n">
         <v>479</v>
+      </c>
+      <c r="AW220" s="0" t="n">
+        <v>485</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>3</v>
@@ -31768,10 +32416,10 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>6</v>
@@ -31906,15 +32554,18 @@
         <v>9</v>
       </c>
       <c r="AV222" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW222" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>305</v>
@@ -32049,15 +32700,18 @@
         <v>400</v>
       </c>
       <c r="AV223" s="0" t="n">
+        <v>404</v>
+      </c>
+      <c r="AW223" s="0" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>79</v>
@@ -32192,15 +32846,18 @@
         <v>72</v>
       </c>
       <c r="AV224" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AW224" s="0" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>1161</v>
@@ -32335,15 +32992,18 @@
         <v>1580</v>
       </c>
       <c r="AV225" s="0" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AW225" s="0" t="n">
         <v>1592</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>4</v>
@@ -32478,15 +33138,18 @@
         <v>7</v>
       </c>
       <c r="AV226" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW226" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>3</v>
@@ -32622,14 +33285,17 @@
       </c>
       <c r="AV227" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="AW227" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>145</v>
@@ -32764,15 +33430,18 @@
         <v>155</v>
       </c>
       <c r="AV228" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="AW228" s="0" t="n">
         <v>157</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>14</v>
@@ -32907,15 +33576,18 @@
         <v>13</v>
       </c>
       <c r="AV229" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW229" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>135</v>
@@ -33050,15 +33722,18 @@
         <v>233</v>
       </c>
       <c r="AV230" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="AW230" s="0" t="n">
         <v>237</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>7</v>
@@ -33193,15 +33868,18 @@
         <v>11</v>
       </c>
       <c r="AV231" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW231" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>24</v>
@@ -33336,15 +34014,18 @@
         <v>30</v>
       </c>
       <c r="AV232" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW232" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>81</v>
@@ -33479,15 +34160,18 @@
         <v>101</v>
       </c>
       <c r="AV233" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="AW233" s="0" t="n">
         <v>111</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>68</v>
@@ -33623,14 +34307,17 @@
       </c>
       <c r="AV234" s="0" t="n">
         <v>149</v>
+      </c>
+      <c r="AW234" s="0" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D235" s="0" t="n">
         <v>6</v>
@@ -33765,6 +34452,9 @@
         <v>8</v>
       </c>
       <c r="AV235" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW235" s="0" t="n">
         <v>8</v>
       </c>
     </row>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ309"/>
+  <dimension ref="A1:BA309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,6 +627,11 @@
           <t>2020/06/10</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2020/06/11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -787,6 +792,9 @@
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA2" t="n">
         <v>23</v>
       </c>
     </row>
@@ -853,6 +861,7 @@
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -917,6 +926,7 @@
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1079,6 +1089,9 @@
       <c r="AZ5" t="n">
         <v>95</v>
       </c>
+      <c r="BA5" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1239,6 +1252,9 @@
         <v>84</v>
       </c>
       <c r="AZ6" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA6" t="n">
         <v>80</v>
       </c>
     </row>
@@ -1403,6 +1419,9 @@
       <c r="AZ7" t="n">
         <v>11</v>
       </c>
+      <c r="BA7" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1565,6 +1584,9 @@
       <c r="AZ8" t="n">
         <v>45</v>
       </c>
+      <c r="BA8" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1725,6 +1747,9 @@
         <v>25</v>
       </c>
       <c r="AZ9" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA9" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1791,6 +1816,7 @@
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1953,6 +1979,9 @@
       <c r="AZ11" t="n">
         <v>9</v>
       </c>
+      <c r="BA11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2115,6 +2144,9 @@
       <c r="AZ12" t="n">
         <v>112</v>
       </c>
+      <c r="BA12" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2275,6 +2307,9 @@
         <v>5</v>
       </c>
       <c r="AZ13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2431,6 +2466,9 @@
         <v>5</v>
       </c>
       <c r="AZ14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2497,6 +2535,7 @@
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2561,6 +2600,7 @@
       <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2723,6 +2763,9 @@
       <c r="AZ17" t="n">
         <v>481</v>
       </c>
+      <c r="BA17" t="n">
+        <v>488</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2885,6 +2928,9 @@
       <c r="AZ18" t="n">
         <v>4</v>
       </c>
+      <c r="BA18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3047,6 +3093,9 @@
       <c r="AZ19" t="n">
         <v>21</v>
       </c>
+      <c r="BA19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3209,6 +3258,9 @@
       <c r="AZ20" t="n">
         <v>8</v>
       </c>
+      <c r="BA20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3369,6 +3421,9 @@
         <v>12</v>
       </c>
       <c r="AZ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA21" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3435,6 +3490,7 @@
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3595,6 +3651,9 @@
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA23" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3661,6 +3720,7 @@
       <c r="AX24" t="inlineStr"/>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3823,6 +3883,9 @@
       <c r="AZ25" t="n">
         <v>1131</v>
       </c>
+      <c r="BA25" t="n">
+        <v>1152</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3985,6 +4048,9 @@
       <c r="AZ26" t="n">
         <v>102</v>
       </c>
+      <c r="BA26" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4145,6 +4211,9 @@
         <v>78</v>
       </c>
       <c r="AZ27" t="n">
+        <v>78</v>
+      </c>
+      <c r="BA27" t="n">
         <v>78</v>
       </c>
     </row>
@@ -4308,6 +4377,9 @@
       </c>
       <c r="AZ28" t="n">
         <v>45</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -4387,6 +4459,9 @@
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
+      <c r="BA29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4549,6 +4624,9 @@
       <c r="AZ30" t="n">
         <v>9</v>
       </c>
+      <c r="BA30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4711,6 +4789,9 @@
       <c r="AZ31" t="n">
         <v>75</v>
       </c>
+      <c r="BA31" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4871,6 +4952,9 @@
         <v>9</v>
       </c>
       <c r="AZ32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA32" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4937,6 +5021,7 @@
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5098,6 +5183,9 @@
       </c>
       <c r="AZ34" t="n">
         <v>43</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -5163,6 +5251,7 @@
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="inlineStr"/>
       <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5227,6 +5316,7 @@
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5389,6 +5479,9 @@
       <c r="AZ37" t="n">
         <v>15</v>
       </c>
+      <c r="BA37" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5549,6 +5642,9 @@
         <v>353</v>
       </c>
       <c r="AZ38" t="n">
+        <v>353</v>
+      </c>
+      <c r="BA38" t="n">
         <v>353</v>
       </c>
     </row>
@@ -5615,6 +5711,7 @@
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="inlineStr"/>
       <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5777,6 +5874,9 @@
       <c r="AZ40" t="n">
         <v>87</v>
       </c>
+      <c r="BA40" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5939,6 +6039,9 @@
       <c r="AZ41" t="n">
         <v>35</v>
       </c>
+      <c r="BA41" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6099,6 +6202,9 @@
         <v>307</v>
       </c>
       <c r="AZ42" t="n">
+        <v>307</v>
+      </c>
+      <c r="BA42" t="n">
         <v>307</v>
       </c>
     </row>
@@ -6165,6 +6271,7 @@
       <c r="AX43" t="inlineStr"/>
       <c r="AY43" t="inlineStr"/>
       <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6327,6 +6434,9 @@
       <c r="AZ44" t="n">
         <v>255</v>
       </c>
+      <c r="BA44" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6489,6 +6599,9 @@
       <c r="AZ45" t="n">
         <v>8</v>
       </c>
+      <c r="BA45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6650,6 +6763,9 @@
       </c>
       <c r="AZ46" t="n">
         <v>21</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -6715,6 +6831,7 @@
       <c r="AX47" t="inlineStr"/>
       <c r="AY47" t="inlineStr"/>
       <c r="AZ47" t="inlineStr"/>
+      <c r="BA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6877,6 +6994,9 @@
       <c r="AZ48" t="n">
         <v>46</v>
       </c>
+      <c r="BA48" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7037,6 +7157,9 @@
         <v>14</v>
       </c>
       <c r="AZ49" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7103,6 +7226,7 @@
       <c r="AX50" t="inlineStr"/>
       <c r="AY50" t="inlineStr"/>
       <c r="AZ50" t="inlineStr"/>
+      <c r="BA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7167,6 +7291,7 @@
       <c r="AX51" t="inlineStr"/>
       <c r="AY51" t="inlineStr"/>
       <c r="AZ51" t="inlineStr"/>
+      <c r="BA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7329,6 +7454,9 @@
       <c r="AZ52" t="n">
         <v>1256</v>
       </c>
+      <c r="BA52" t="n">
+        <v>1256</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7491,6 +7619,9 @@
       <c r="AZ53" t="n">
         <v>124</v>
       </c>
+      <c r="BA53" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7651,6 +7782,9 @@
         <v>18</v>
       </c>
       <c r="AZ54" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA54" t="n">
         <v>18</v>
       </c>
     </row>
@@ -7815,6 +7949,9 @@
       <c r="AZ55" t="n">
         <v>13</v>
       </c>
+      <c r="BA55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7975,6 +8112,9 @@
         <v>44</v>
       </c>
       <c r="AZ56" t="n">
+        <v>48</v>
+      </c>
+      <c r="BA56" t="n">
         <v>48</v>
       </c>
     </row>
@@ -8121,6 +8261,9 @@
         <v>4</v>
       </c>
       <c r="AZ57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8207,6 +8350,9 @@
       <c r="AZ58" t="n">
         <v>4</v>
       </c>
+      <c r="BA58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8367,6 +8513,9 @@
         <v>20</v>
       </c>
       <c r="AZ59" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA59" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8433,6 +8582,7 @@
       <c r="AX60" t="inlineStr"/>
       <c r="AY60" t="inlineStr"/>
       <c r="AZ60" t="inlineStr"/>
+      <c r="BA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8595,6 +8745,9 @@
       <c r="AZ61" t="n">
         <v>71</v>
       </c>
+      <c r="BA61" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8755,6 +8908,9 @@
         <v>6</v>
       </c>
       <c r="AZ62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA62" t="n">
         <v>6</v>
       </c>
     </row>
@@ -8919,6 +9075,9 @@
       <c r="AZ63" t="n">
         <v>13</v>
       </c>
+      <c r="BA63" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9081,6 +9240,9 @@
       <c r="AZ64" t="n">
         <v>69</v>
       </c>
+      <c r="BA64" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9242,6 +9404,9 @@
       </c>
       <c r="AZ65" t="n">
         <v>666</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>681</v>
       </c>
     </row>
     <row r="66">
@@ -9307,6 +9472,7 @@
       <c r="AX66" t="inlineStr"/>
       <c r="AY66" t="inlineStr"/>
       <c r="AZ66" t="inlineStr"/>
+      <c r="BA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9467,6 +9633,9 @@
         <v>17</v>
       </c>
       <c r="AZ67" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA67" t="n">
         <v>17</v>
       </c>
     </row>
@@ -9629,6 +9798,9 @@
         <v>22</v>
       </c>
       <c r="AZ68" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA68" t="n">
         <v>22</v>
       </c>
     </row>
@@ -9695,6 +9867,7 @@
       <c r="AX69" t="inlineStr"/>
       <c r="AY69" t="inlineStr"/>
       <c r="AZ69" t="inlineStr"/>
+      <c r="BA69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -9857,6 +10030,9 @@
       <c r="AZ70" t="n">
         <v>106</v>
       </c>
+      <c r="BA70" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10017,6 +10193,9 @@
         <v>3</v>
       </c>
       <c r="AZ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10083,6 +10262,7 @@
       <c r="AX72" t="inlineStr"/>
       <c r="AY72" t="inlineStr"/>
       <c r="AZ72" t="inlineStr"/>
+      <c r="BA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -10245,6 +10425,9 @@
       <c r="AZ73" t="n">
         <v>8</v>
       </c>
+      <c r="BA73" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10405,6 +10588,9 @@
         <v>23</v>
       </c>
       <c r="AZ74" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA74" t="n">
         <v>23</v>
       </c>
     </row>
@@ -10569,6 +10755,9 @@
       <c r="AZ75" t="n">
         <v>9</v>
       </c>
+      <c r="BA75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -10731,6 +10920,9 @@
       <c r="AZ76" t="n">
         <v>26</v>
       </c>
+      <c r="BA76" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -10893,6 +11085,9 @@
       <c r="AZ77" t="n">
         <v>28</v>
       </c>
+      <c r="BA77" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -11055,6 +11250,9 @@
       <c r="AZ78" t="n">
         <v>605</v>
       </c>
+      <c r="BA78" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -11215,6 +11413,9 @@
         <v>155</v>
       </c>
       <c r="AZ79" t="n">
+        <v>155</v>
+      </c>
+      <c r="BA79" t="n">
         <v>155</v>
       </c>
     </row>
@@ -11281,6 +11482,7 @@
       <c r="AX80" t="inlineStr"/>
       <c r="AY80" t="inlineStr"/>
       <c r="AZ80" t="inlineStr"/>
+      <c r="BA80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -11441,6 +11643,9 @@
         <v>50</v>
       </c>
       <c r="AZ81" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA81" t="n">
         <v>50</v>
       </c>
     </row>
@@ -11507,6 +11712,7 @@
       <c r="AX82" t="inlineStr"/>
       <c r="AY82" t="inlineStr"/>
       <c r="AZ82" t="inlineStr"/>
+      <c r="BA82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -11667,6 +11873,9 @@
         <v>9</v>
       </c>
       <c r="AZ83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA83" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11733,6 +11942,7 @@
       <c r="AX84" t="inlineStr"/>
       <c r="AY84" t="inlineStr"/>
       <c r="AZ84" t="inlineStr"/>
+      <c r="BA84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -11895,6 +12105,9 @@
       <c r="AZ85" t="n">
         <v>4</v>
       </c>
+      <c r="BA85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -12057,6 +12270,9 @@
       <c r="AZ86" t="n">
         <v>41</v>
       </c>
+      <c r="BA86" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -12219,6 +12435,9 @@
       <c r="AZ87" t="n">
         <v>10</v>
       </c>
+      <c r="BA87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -12375,6 +12594,9 @@
       <c r="AZ88" t="n">
         <v>10</v>
       </c>
+      <c r="BA88" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -12537,6 +12759,9 @@
       <c r="AZ89" t="n">
         <v>94</v>
       </c>
+      <c r="BA89" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -12697,6 +12922,9 @@
         <v>50</v>
       </c>
       <c r="AZ90" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA90" t="n">
         <v>50</v>
       </c>
     </row>
@@ -12860,6 +13088,9 @@
       </c>
       <c r="AZ91" t="n">
         <v>105</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="92">
@@ -12925,6 +13156,7 @@
       <c r="AX92" t="inlineStr"/>
       <c r="AY92" t="inlineStr"/>
       <c r="AZ92" t="inlineStr"/>
+      <c r="BA92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -13087,6 +13319,9 @@
       <c r="AZ93" t="n">
         <v>125</v>
       </c>
+      <c r="BA93" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -13247,6 +13482,9 @@
         <v>70</v>
       </c>
       <c r="AZ94" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA94" t="n">
         <v>70</v>
       </c>
     </row>
@@ -13409,6 +13647,9 @@
         <v>408</v>
       </c>
       <c r="AZ95" t="n">
+        <v>408</v>
+      </c>
+      <c r="BA95" t="n">
         <v>408</v>
       </c>
     </row>
@@ -13475,6 +13716,7 @@
       <c r="AX96" t="inlineStr"/>
       <c r="AY96" t="inlineStr"/>
       <c r="AZ96" t="inlineStr"/>
+      <c r="BA96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -13539,6 +13781,7 @@
       <c r="AX97" t="inlineStr"/>
       <c r="AY97" t="inlineStr"/>
       <c r="AZ97" t="inlineStr"/>
+      <c r="BA97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -13699,6 +13942,9 @@
         <v>34</v>
       </c>
       <c r="AZ98" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA98" t="n">
         <v>34</v>
       </c>
     </row>
@@ -13787,6 +14033,7 @@
       <c r="AX99" t="inlineStr"/>
       <c r="AY99" t="inlineStr"/>
       <c r="AZ99" t="inlineStr"/>
+      <c r="BA99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -13947,6 +14194,9 @@
         <v>9</v>
       </c>
       <c r="AZ100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA100" t="n">
         <v>9</v>
       </c>
     </row>
@@ -14087,6 +14337,9 @@
         <v>3</v>
       </c>
       <c r="AZ101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA101" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14153,6 +14406,7 @@
       <c r="AX102" t="inlineStr"/>
       <c r="AY102" t="inlineStr"/>
       <c r="AZ102" t="inlineStr"/>
+      <c r="BA102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -14217,6 +14471,7 @@
       <c r="AX103" t="inlineStr"/>
       <c r="AY103" t="inlineStr"/>
       <c r="AZ103" t="inlineStr"/>
+      <c r="BA103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -14377,6 +14632,9 @@
         <v>26</v>
       </c>
       <c r="AZ104" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA104" t="n">
         <v>26</v>
       </c>
     </row>
@@ -14529,6 +14787,9 @@
         <v>5</v>
       </c>
       <c r="AZ105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA105" t="n">
         <v>5</v>
       </c>
     </row>
@@ -14595,6 +14856,7 @@
       <c r="AX106" t="inlineStr"/>
       <c r="AY106" t="inlineStr"/>
       <c r="AZ106" t="inlineStr"/>
+      <c r="BA106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -14659,6 +14921,7 @@
       <c r="AX107" t="inlineStr"/>
       <c r="AY107" t="inlineStr"/>
       <c r="AZ107" t="inlineStr"/>
+      <c r="BA107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -14821,6 +15084,9 @@
       <c r="AZ108" t="n">
         <v>1093</v>
       </c>
+      <c r="BA108" t="n">
+        <v>1093</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -14983,6 +15249,9 @@
       <c r="AZ109" t="n">
         <v>23</v>
       </c>
+      <c r="BA109" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -15145,6 +15414,9 @@
       <c r="AZ110" t="n">
         <v>11</v>
       </c>
+      <c r="BA110" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -15307,6 +15579,9 @@
       <c r="AZ111" t="n">
         <v>25</v>
       </c>
+      <c r="BA111" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -15469,6 +15744,9 @@
       <c r="AZ112" t="n">
         <v>725</v>
       </c>
+      <c r="BA112" t="n">
+        <v>725</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -15629,6 +15907,9 @@
         <v>10</v>
       </c>
       <c r="AZ113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA113" t="n">
         <v>10</v>
       </c>
     </row>
@@ -15791,6 +16072,9 @@
         <v>6</v>
       </c>
       <c r="AZ114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA114" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15857,6 +16141,7 @@
       <c r="AX115" t="inlineStr"/>
       <c r="AY115" t="inlineStr"/>
       <c r="AZ115" t="inlineStr"/>
+      <c r="BA115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -15923,6 +16208,9 @@
       <c r="AZ116" t="n">
         <v>11</v>
       </c>
+      <c r="BA116" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -16085,6 +16373,9 @@
       <c r="AZ117" t="n">
         <v>11</v>
       </c>
+      <c r="BA117" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -16245,6 +16536,9 @@
         <v>5</v>
       </c>
       <c r="AZ118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA118" t="n">
         <v>5</v>
       </c>
     </row>
@@ -16311,6 +16605,7 @@
       <c r="AX119" t="inlineStr"/>
       <c r="AY119" t="inlineStr"/>
       <c r="AZ119" t="inlineStr"/>
+      <c r="BA119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -16375,6 +16670,7 @@
       <c r="AX120" t="inlineStr"/>
       <c r="AY120" t="inlineStr"/>
       <c r="AZ120" t="inlineStr"/>
+      <c r="BA120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -16537,6 +16833,9 @@
       <c r="AZ121" t="n">
         <v>40</v>
       </c>
+      <c r="BA121" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -16699,6 +16998,9 @@
       <c r="AZ122" t="n">
         <v>106</v>
       </c>
+      <c r="BA122" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -16861,6 +17163,9 @@
       <c r="AZ123" t="n">
         <v>2751</v>
       </c>
+      <c r="BA123" t="n">
+        <v>2789</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -17021,6 +17326,9 @@
         <v>76</v>
       </c>
       <c r="AZ124" t="n">
+        <v>76</v>
+      </c>
+      <c r="BA124" t="n">
         <v>76</v>
       </c>
     </row>
@@ -17185,6 +17493,9 @@
       <c r="AZ125" t="n">
         <v>1331</v>
       </c>
+      <c r="BA125" t="n">
+        <v>1352</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -17347,6 +17658,9 @@
       <c r="AZ126" t="n">
         <v>15</v>
       </c>
+      <c r="BA126" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -17509,6 +17823,9 @@
       <c r="AZ127" t="n">
         <v>346</v>
       </c>
+      <c r="BA127" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -17671,6 +17988,9 @@
       <c r="AZ128" t="n">
         <v>21</v>
       </c>
+      <c r="BA128" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -17831,6 +18151,9 @@
         <v>23</v>
       </c>
       <c r="AZ129" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA129" t="n">
         <v>26</v>
       </c>
     </row>
@@ -17897,6 +18220,7 @@
       <c r="AX130" t="inlineStr"/>
       <c r="AY130" t="inlineStr"/>
       <c r="AZ130" t="inlineStr"/>
+      <c r="BA130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -18059,6 +18383,9 @@
       <c r="AZ131" t="n">
         <v>5</v>
       </c>
+      <c r="BA131" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -18221,6 +18548,9 @@
       <c r="AZ132" t="n">
         <v>155</v>
       </c>
+      <c r="BA132" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -18383,6 +18713,9 @@
       <c r="AZ133" t="n">
         <v>950</v>
       </c>
+      <c r="BA133" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -18545,6 +18878,9 @@
       <c r="AZ134" t="n">
         <v>78</v>
       </c>
+      <c r="BA134" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -18707,6 +19043,9 @@
       <c r="AZ135" t="n">
         <v>7</v>
       </c>
+      <c r="BA135" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -18869,6 +19208,9 @@
       <c r="AZ136" t="n">
         <v>91</v>
       </c>
+      <c r="BA136" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -19029,6 +19371,9 @@
         <v>20</v>
       </c>
       <c r="AZ137" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA137" t="n">
         <v>20</v>
       </c>
     </row>
@@ -19095,6 +19440,7 @@
       <c r="AX138" t="inlineStr"/>
       <c r="AY138" t="inlineStr"/>
       <c r="AZ138" t="inlineStr"/>
+      <c r="BA138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -19255,6 +19601,9 @@
         <v>1292</v>
       </c>
       <c r="AZ139" t="n">
+        <v>1292</v>
+      </c>
+      <c r="BA139" t="n">
         <v>1292</v>
       </c>
     </row>
@@ -19321,6 +19670,7 @@
       <c r="AX140" t="inlineStr"/>
       <c r="AY140" t="inlineStr"/>
       <c r="AZ140" t="inlineStr"/>
+      <c r="BA140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -19483,6 +19833,9 @@
       <c r="AZ141" t="n">
         <v>18</v>
       </c>
+      <c r="BA141" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -19643,6 +19996,9 @@
         <v>64</v>
       </c>
       <c r="AZ142" t="n">
+        <v>64</v>
+      </c>
+      <c r="BA142" t="n">
         <v>64</v>
       </c>
     </row>
@@ -19709,6 +20065,7 @@
       <c r="AX143" t="inlineStr"/>
       <c r="AY143" t="inlineStr"/>
       <c r="AZ143" t="inlineStr"/>
+      <c r="BA143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -19871,6 +20228,9 @@
       <c r="AZ144" t="n">
         <v>6</v>
       </c>
+      <c r="BA144" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -20033,6 +20393,9 @@
       <c r="AZ145" t="n">
         <v>17</v>
       </c>
+      <c r="BA145" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -20195,6 +20558,9 @@
       <c r="AZ146" t="n">
         <v>10</v>
       </c>
+      <c r="BA146" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -20355,6 +20721,9 @@
         <v>21</v>
       </c>
       <c r="AZ147" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA147" t="n">
         <v>21</v>
       </c>
     </row>
@@ -20513,6 +20882,9 @@
       <c r="AZ148" t="n">
         <v>5</v>
       </c>
+      <c r="BA148" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -20675,6 +21047,9 @@
       <c r="AZ149" t="n">
         <v>15</v>
       </c>
+      <c r="BA149" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -20836,6 +21211,9 @@
       </c>
       <c r="AZ150" t="n">
         <v>192</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="151">
@@ -20907,6 +21285,7 @@
       <c r="AX151" t="inlineStr"/>
       <c r="AY151" t="inlineStr"/>
       <c r="AZ151" t="inlineStr"/>
+      <c r="BA151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -20971,6 +21350,7 @@
       <c r="AX152" t="inlineStr"/>
       <c r="AY152" t="inlineStr"/>
       <c r="AZ152" t="inlineStr"/>
+      <c r="BA152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -21035,6 +21415,7 @@
       <c r="AX153" t="inlineStr"/>
       <c r="AY153" t="inlineStr"/>
       <c r="AZ153" t="inlineStr"/>
+      <c r="BA153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -21129,6 +21510,9 @@
       <c r="AZ154" t="n">
         <v>3</v>
       </c>
+      <c r="BA154" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -21291,6 +21675,9 @@
       <c r="AZ155" t="n">
         <v>8</v>
       </c>
+      <c r="BA155" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -21451,6 +21838,9 @@
         <v>30</v>
       </c>
       <c r="AZ156" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA156" t="n">
         <v>30</v>
       </c>
     </row>
@@ -21615,6 +22005,9 @@
       <c r="AZ157" t="n">
         <v>134</v>
       </c>
+      <c r="BA157" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -21775,6 +22168,9 @@
         <v>118</v>
       </c>
       <c r="AZ158" t="n">
+        <v>118</v>
+      </c>
+      <c r="BA158" t="n">
         <v>118</v>
       </c>
     </row>
@@ -21841,6 +22237,7 @@
       <c r="AX159" t="inlineStr"/>
       <c r="AY159" t="inlineStr"/>
       <c r="AZ159" t="inlineStr"/>
+      <c r="BA159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -22003,6 +22400,9 @@
       <c r="AZ160" t="n">
         <v>11</v>
       </c>
+      <c r="BA160" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -22163,6 +22563,9 @@
         <v>69</v>
       </c>
       <c r="AZ161" t="n">
+        <v>69</v>
+      </c>
+      <c r="BA161" t="n">
         <v>69</v>
       </c>
     </row>
@@ -22229,6 +22632,7 @@
       <c r="AX162" t="inlineStr"/>
       <c r="AY162" t="inlineStr"/>
       <c r="AZ162" t="inlineStr"/>
+      <c r="BA162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -22391,6 +22795,9 @@
       <c r="AZ163" t="n">
         <v>17</v>
       </c>
+      <c r="BA163" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -22551,6 +22958,9 @@
         <v>20</v>
       </c>
       <c r="AZ164" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA164" t="n">
         <v>20</v>
       </c>
     </row>
@@ -22617,6 +23027,7 @@
       <c r="AX165" t="inlineStr"/>
       <c r="AY165" t="inlineStr"/>
       <c r="AZ165" t="inlineStr"/>
+      <c r="BA165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -22681,6 +23092,7 @@
       <c r="AX166" t="inlineStr"/>
       <c r="AY166" t="inlineStr"/>
       <c r="AZ166" t="inlineStr"/>
+      <c r="BA166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -22777,6 +23189,9 @@
       <c r="AZ167" t="n">
         <v>3</v>
       </c>
+      <c r="BA167" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -22937,6 +23352,9 @@
         <v>23</v>
       </c>
       <c r="AZ168" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA168" t="n">
         <v>23</v>
       </c>
     </row>
@@ -23003,6 +23421,7 @@
       <c r="AX169" t="inlineStr"/>
       <c r="AY169" t="inlineStr"/>
       <c r="AZ169" t="inlineStr"/>
+      <c r="BA169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -23161,6 +23580,9 @@
       <c r="AZ170" t="n">
         <v>32</v>
       </c>
+      <c r="BA170" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -23321,6 +23743,9 @@
       <c r="AZ171" t="n">
         <v>12</v>
       </c>
+      <c r="BA171" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -23483,6 +23908,9 @@
       <c r="AZ172" t="n">
         <v>735</v>
       </c>
+      <c r="BA172" t="n">
+        <v>745</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -23644,6 +24072,9 @@
       </c>
       <c r="AZ173" t="n">
         <v>521</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>530</v>
       </c>
     </row>
     <row r="174">
@@ -23709,6 +24140,7 @@
       <c r="AX174" t="inlineStr"/>
       <c r="AY174" t="inlineStr"/>
       <c r="AZ174" t="inlineStr"/>
+      <c r="BA174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -23869,6 +24301,9 @@
         <v>18</v>
       </c>
       <c r="AZ175" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA175" t="n">
         <v>14</v>
       </c>
     </row>
@@ -24033,6 +24468,9 @@
       <c r="AZ176" t="n">
         <v>218</v>
       </c>
+      <c r="BA176" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -24195,6 +24633,9 @@
       <c r="AZ177" t="n">
         <v>12</v>
       </c>
+      <c r="BA177" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -24357,6 +24798,9 @@
       <c r="AZ178" t="n">
         <v>41</v>
       </c>
+      <c r="BA178" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -24517,6 +24961,9 @@
         <v>28</v>
       </c>
       <c r="AZ179" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA179" t="n">
         <v>28</v>
       </c>
     </row>
@@ -24583,6 +25030,7 @@
       <c r="AX180" t="inlineStr"/>
       <c r="AY180" t="inlineStr"/>
       <c r="AZ180" t="inlineStr"/>
+      <c r="BA180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -24745,6 +25193,9 @@
       <c r="AZ181" t="n">
         <v>41</v>
       </c>
+      <c r="BA181" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -24907,6 +25358,9 @@
       <c r="AZ182" t="n">
         <v>672</v>
       </c>
+      <c r="BA182" t="n">
+        <v>673</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -25067,6 +25521,9 @@
         <v>40</v>
       </c>
       <c r="AZ183" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA183" t="n">
         <v>40</v>
       </c>
     </row>
@@ -25133,6 +25590,7 @@
       <c r="AX184" t="inlineStr"/>
       <c r="AY184" t="inlineStr"/>
       <c r="AZ184" t="inlineStr"/>
+      <c r="BA184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -25295,6 +25753,9 @@
       <c r="AZ185" t="n">
         <v>349</v>
       </c>
+      <c r="BA185" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -25457,6 +25918,9 @@
       <c r="AZ186" t="n">
         <v>7</v>
       </c>
+      <c r="BA186" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -25619,6 +26083,9 @@
       <c r="AZ187" t="n">
         <v>315</v>
       </c>
+      <c r="BA187" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -25781,6 +26248,9 @@
       <c r="AZ188" t="n">
         <v>4</v>
       </c>
+      <c r="BA188" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -25941,6 +26411,9 @@
         <v>22</v>
       </c>
       <c r="AZ189" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA189" t="n">
         <v>22</v>
       </c>
     </row>
@@ -26104,6 +26577,9 @@
       </c>
       <c r="AZ190" t="n">
         <v>176</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="191">
@@ -26169,6 +26645,7 @@
       <c r="AX191" t="inlineStr"/>
       <c r="AY191" t="inlineStr"/>
       <c r="AZ191" t="inlineStr"/>
+      <c r="BA191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -26233,6 +26710,7 @@
       <c r="AX192" t="inlineStr"/>
       <c r="AY192" t="inlineStr"/>
       <c r="AZ192" t="inlineStr"/>
+      <c r="BA192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -26297,6 +26775,7 @@
       <c r="AX193" t="inlineStr"/>
       <c r="AY193" t="inlineStr"/>
       <c r="AZ193" t="inlineStr"/>
+      <c r="BA193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -26457,6 +26936,9 @@
         <v>5</v>
       </c>
       <c r="AZ194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA194" t="n">
         <v>5</v>
       </c>
     </row>
@@ -26621,6 +27103,9 @@
       <c r="AZ195" t="n">
         <v>19</v>
       </c>
+      <c r="BA195" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -26783,6 +27268,9 @@
       <c r="AZ196" t="n">
         <v>66</v>
       </c>
+      <c r="BA196" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -26945,6 +27433,9 @@
       <c r="AZ197" t="n">
         <v>23</v>
       </c>
+      <c r="BA197" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -27107,6 +27598,9 @@
       <c r="AZ198" t="n">
         <v>69</v>
       </c>
+      <c r="BA198" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -27269,6 +27763,9 @@
       <c r="AZ199" t="n">
         <v>8</v>
       </c>
+      <c r="BA199" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -27431,6 +27928,9 @@
       <c r="AZ200" t="n">
         <v>6</v>
       </c>
+      <c r="BA200" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -27593,6 +28093,9 @@
       <c r="AZ201" t="n">
         <v>6</v>
       </c>
+      <c r="BA201" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -27753,6 +28256,9 @@
         <v>33</v>
       </c>
       <c r="AZ202" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA202" t="n">
         <v>34</v>
       </c>
     </row>
@@ -27833,6 +28339,7 @@
       <c r="AX203" t="inlineStr"/>
       <c r="AY203" t="inlineStr"/>
       <c r="AZ203" t="inlineStr"/>
+      <c r="BA203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -27995,6 +28502,9 @@
       <c r="AZ204" t="n">
         <v>11</v>
       </c>
+      <c r="BA204" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -28157,6 +28667,9 @@
       <c r="AZ205" t="n">
         <v>6</v>
       </c>
+      <c r="BA205" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -28318,6 +28831,9 @@
       </c>
       <c r="AZ206" t="n">
         <v>44</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="207">
@@ -28479,6 +28995,9 @@
         <v>1414</v>
       </c>
       <c r="AZ207" t="n">
+        <v>1414</v>
+      </c>
+      <c r="BA207" t="n">
         <v>1414</v>
       </c>
     </row>
@@ -28545,6 +29064,7 @@
       <c r="AX208" t="inlineStr"/>
       <c r="AY208" t="inlineStr"/>
       <c r="AZ208" t="inlineStr"/>
+      <c r="BA208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -28707,6 +29227,9 @@
       <c r="AZ209" t="n">
         <v>4</v>
       </c>
+      <c r="BA209" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -28867,6 +29390,9 @@
         <v>11</v>
       </c>
       <c r="AZ210" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA210" t="n">
         <v>11</v>
       </c>
     </row>
@@ -28937,6 +29463,9 @@
       <c r="AZ211" t="n">
         <v>4</v>
       </c>
+      <c r="BA211" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -29007,6 +29536,9 @@
       <c r="AZ212" t="n">
         <v>3</v>
       </c>
+      <c r="BA212" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -29167,6 +29699,9 @@
         <v>62</v>
       </c>
       <c r="AZ213" t="n">
+        <v>62</v>
+      </c>
+      <c r="BA213" t="n">
         <v>62</v>
       </c>
     </row>
@@ -29329,6 +29864,9 @@
         <v>159</v>
       </c>
       <c r="AZ214" t="n">
+        <v>159</v>
+      </c>
+      <c r="BA214" t="n">
         <v>159</v>
       </c>
     </row>
@@ -29395,6 +29933,7 @@
       <c r="AX215" t="inlineStr"/>
       <c r="AY215" t="inlineStr"/>
       <c r="AZ215" t="inlineStr"/>
+      <c r="BA215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -29555,6 +30094,9 @@
         <v>6</v>
       </c>
       <c r="AZ216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA216" t="n">
         <v>6</v>
       </c>
     </row>
@@ -29717,6 +30259,9 @@
         <v>65</v>
       </c>
       <c r="AZ217" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA217" t="n">
         <v>65</v>
       </c>
     </row>
@@ -29783,6 +30328,7 @@
       <c r="AX218" t="inlineStr"/>
       <c r="AY218" t="inlineStr"/>
       <c r="AZ218" t="inlineStr"/>
+      <c r="BA218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -29847,6 +30393,7 @@
       <c r="AX219" t="inlineStr"/>
       <c r="AY219" t="inlineStr"/>
       <c r="AZ219" t="inlineStr"/>
+      <c r="BA219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -30009,6 +30556,9 @@
       <c r="AZ220" t="n">
         <v>3</v>
       </c>
+      <c r="BA220" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -30171,6 +30721,9 @@
       <c r="AZ221" t="n">
         <v>23</v>
       </c>
+      <c r="BA221" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -30331,6 +30884,9 @@
         <v>7</v>
       </c>
       <c r="AZ222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA222" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30397,6 +30953,7 @@
       <c r="AX223" t="inlineStr"/>
       <c r="AY223" t="inlineStr"/>
       <c r="AZ223" t="inlineStr"/>
+      <c r="BA223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -30559,6 +31116,9 @@
       <c r="AZ224" t="n">
         <v>14</v>
       </c>
+      <c r="BA224" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -30721,6 +31281,9 @@
       <c r="AZ225" t="n">
         <v>9</v>
       </c>
+      <c r="BA225" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -30881,6 +31444,9 @@
         <v>5</v>
       </c>
       <c r="AZ226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA226" t="n">
         <v>5</v>
       </c>
     </row>
@@ -30965,6 +31531,9 @@
         <v>5</v>
       </c>
       <c r="AZ227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA227" t="n">
         <v>5</v>
       </c>
     </row>
@@ -31031,6 +31600,7 @@
       <c r="AX228" t="inlineStr"/>
       <c r="AY228" t="inlineStr"/>
       <c r="AZ228" t="inlineStr"/>
+      <c r="BA228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -31191,6 +31761,9 @@
         <v>497</v>
       </c>
       <c r="AZ229" t="n">
+        <v>497</v>
+      </c>
+      <c r="BA229" t="n">
         <v>497</v>
       </c>
     </row>
@@ -31325,6 +31898,7 @@
       <c r="AZ230" t="n">
         <v>3</v>
       </c>
+      <c r="BA230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -31389,6 +31963,7 @@
       <c r="AX231" t="inlineStr"/>
       <c r="AY231" t="inlineStr"/>
       <c r="AZ231" t="inlineStr"/>
+      <c r="BA231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -31551,6 +32126,9 @@
       <c r="AZ232" t="n">
         <v>134</v>
       </c>
+      <c r="BA232" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -31713,6 +32291,9 @@
       <c r="AZ233" t="n">
         <v>19</v>
       </c>
+      <c r="BA233" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -31873,6 +32454,9 @@
         <v>398</v>
       </c>
       <c r="AZ234" t="n">
+        <v>399</v>
+      </c>
+      <c r="BA234" t="n">
         <v>399</v>
       </c>
     </row>
@@ -31939,6 +32523,7 @@
       <c r="AX235" t="inlineStr"/>
       <c r="AY235" t="inlineStr"/>
       <c r="AZ235" t="inlineStr"/>
+      <c r="BA235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -32101,6 +32686,9 @@
       <c r="AZ236" t="n">
         <v>13</v>
       </c>
+      <c r="BA236" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -32262,6 +32850,9 @@
       </c>
       <c r="AZ237" t="n">
         <v>473</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="238">
@@ -32413,6 +33004,9 @@
       <c r="AZ238" t="n">
         <v>6</v>
       </c>
+      <c r="BA238" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -32575,6 +33169,9 @@
       <c r="AZ239" t="n">
         <v>14</v>
       </c>
+      <c r="BA239" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -32735,6 +33332,9 @@
         <v>4</v>
       </c>
       <c r="AZ240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA240" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32899,6 +33499,9 @@
       <c r="AZ241" t="n">
         <v>45</v>
       </c>
+      <c r="BA241" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -33061,6 +33664,9 @@
       <c r="AZ242" t="n">
         <v>120</v>
       </c>
+      <c r="BA242" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -33223,6 +33829,9 @@
       <c r="AZ243" t="n">
         <v>47</v>
       </c>
+      <c r="BA243" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -33383,6 +33992,9 @@
         <v>23</v>
       </c>
       <c r="AZ244" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA244" t="n">
         <v>23</v>
       </c>
     </row>
@@ -33467,6 +34079,9 @@
       <c r="AZ245" t="n">
         <v>6</v>
       </c>
+      <c r="BA245" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -33628,6 +34243,9 @@
       </c>
       <c r="AZ246" t="n">
         <v>1754</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1802</v>
       </c>
     </row>
     <row r="247">
@@ -33733,6 +34351,9 @@
       <c r="AZ247" t="n">
         <v>10</v>
       </c>
+      <c r="BA247" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -33893,6 +34514,9 @@
         <v>26</v>
       </c>
       <c r="AZ248" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA248" t="n">
         <v>26</v>
       </c>
     </row>
@@ -33959,6 +34583,7 @@
       <c r="AX249" t="inlineStr"/>
       <c r="AY249" t="inlineStr"/>
       <c r="AZ249" t="inlineStr"/>
+      <c r="BA249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -34119,6 +34744,9 @@
         <v>8</v>
       </c>
       <c r="AZ250" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA250" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34237,6 +34865,9 @@
       <c r="AZ251" t="n">
         <v>3</v>
       </c>
+      <c r="BA251" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -34397,6 +35028,9 @@
         <v>80</v>
       </c>
       <c r="AZ252" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA252" t="n">
         <v>80</v>
       </c>
     </row>
@@ -34463,6 +35097,7 @@
       <c r="AX253" t="inlineStr"/>
       <c r="AY253" t="inlineStr"/>
       <c r="AZ253" t="inlineStr"/>
+      <c r="BA253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -34625,6 +35260,9 @@
       <c r="AZ254" t="n">
         <v>9</v>
       </c>
+      <c r="BA254" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -34785,6 +35423,9 @@
         <v>5</v>
       </c>
       <c r="AZ255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA255" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34851,6 +35492,7 @@
       <c r="AX256" t="inlineStr"/>
       <c r="AY256" t="inlineStr"/>
       <c r="AZ256" t="inlineStr"/>
+      <c r="BA256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -34915,6 +35557,7 @@
       <c r="AX257" t="inlineStr"/>
       <c r="AY257" t="inlineStr"/>
       <c r="AZ257" t="inlineStr"/>
+      <c r="BA257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -34979,6 +35622,7 @@
       <c r="AX258" t="inlineStr"/>
       <c r="AY258" t="inlineStr"/>
       <c r="AZ258" t="inlineStr"/>
+      <c r="BA258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -35141,6 +35785,9 @@
       <c r="AZ259" t="n">
         <v>30</v>
       </c>
+      <c r="BA259" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -35301,6 +35948,9 @@
         <v>10</v>
       </c>
       <c r="AZ260" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA260" t="n">
         <v>10</v>
       </c>
     </row>
@@ -35465,6 +36115,9 @@
       <c r="AZ261" t="n">
         <v>18</v>
       </c>
+      <c r="BA261" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -35627,6 +36280,9 @@
       <c r="AZ262" t="n">
         <v>14</v>
       </c>
+      <c r="BA262" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -35787,6 +36443,9 @@
         <v>23</v>
       </c>
       <c r="AZ263" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA263" t="n">
         <v>23</v>
       </c>
     </row>
@@ -35951,6 +36610,9 @@
       <c r="AZ264" t="n">
         <v>26</v>
       </c>
+      <c r="BA264" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -36113,6 +36775,9 @@
       <c r="AZ265" t="n">
         <v>54</v>
       </c>
+      <c r="BA265" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -36275,6 +36940,9 @@
       <c r="AZ266" t="n">
         <v>20</v>
       </c>
+      <c r="BA266" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -36437,6 +37105,9 @@
       <c r="AZ267" t="n">
         <v>149</v>
       </c>
+      <c r="BA267" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -36597,6 +37268,9 @@
         <v>35</v>
       </c>
       <c r="AZ268" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA268" t="n">
         <v>35</v>
       </c>
     </row>
@@ -36761,6 +37435,9 @@
       <c r="AZ269" t="n">
         <v>28</v>
       </c>
+      <c r="BA269" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -36923,6 +37600,9 @@
       <c r="AZ270" t="n">
         <v>155</v>
       </c>
+      <c r="BA270" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -37085,6 +37765,9 @@
       <c r="AZ271" t="n">
         <v>15</v>
       </c>
+      <c r="BA271" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -37247,6 +37930,9 @@
       <c r="AZ272" t="n">
         <v>762</v>
       </c>
+      <c r="BA272" t="n">
+        <v>762</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -37409,6 +38095,9 @@
       <c r="AZ273" t="n">
         <v>6</v>
       </c>
+      <c r="BA273" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -37571,6 +38260,9 @@
       <c r="AZ274" t="n">
         <v>5</v>
       </c>
+      <c r="BA274" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -37731,6 +38423,9 @@
         <v>9</v>
       </c>
       <c r="AZ275" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA275" t="n">
         <v>9</v>
       </c>
     </row>
@@ -37797,6 +38492,7 @@
       <c r="AX276" t="inlineStr"/>
       <c r="AY276" t="inlineStr"/>
       <c r="AZ276" t="inlineStr"/>
+      <c r="BA276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -37957,6 +38653,9 @@
         <v>192</v>
       </c>
       <c r="AZ277" t="n">
+        <v>192</v>
+      </c>
+      <c r="BA277" t="n">
         <v>192</v>
       </c>
     </row>
@@ -38023,6 +38722,7 @@
       <c r="AX278" t="inlineStr"/>
       <c r="AY278" t="inlineStr"/>
       <c r="AZ278" t="inlineStr"/>
+      <c r="BA278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -38185,6 +38885,9 @@
       <c r="AZ279" t="n">
         <v>44</v>
       </c>
+      <c r="BA279" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -38345,6 +39048,9 @@
         <v>5</v>
       </c>
       <c r="AZ280" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA280" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38507,6 +39213,9 @@
         <v>507</v>
       </c>
       <c r="AZ281" t="n">
+        <v>525</v>
+      </c>
+      <c r="BA281" t="n">
         <v>525</v>
       </c>
     </row>
@@ -38573,6 +39282,7 @@
       <c r="AX282" t="inlineStr"/>
       <c r="AY282" t="inlineStr"/>
       <c r="AZ282" t="inlineStr"/>
+      <c r="BA282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -38665,6 +39375,7 @@
       <c r="AX283" t="inlineStr"/>
       <c r="AY283" t="inlineStr"/>
       <c r="AZ283" t="inlineStr"/>
+      <c r="BA283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -38827,6 +39538,9 @@
       <c r="AZ284" t="n">
         <v>9</v>
       </c>
+      <c r="BA284" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -38987,6 +39701,9 @@
         <v>404</v>
       </c>
       <c r="AZ285" t="n">
+        <v>404</v>
+      </c>
+      <c r="BA285" t="n">
         <v>404</v>
       </c>
     </row>
@@ -39151,6 +39868,9 @@
       <c r="AZ286" t="n">
         <v>72</v>
       </c>
+      <c r="BA286" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -39311,6 +40031,9 @@
         <v>1592</v>
       </c>
       <c r="AZ287" t="n">
+        <v>1592</v>
+      </c>
+      <c r="BA287" t="n">
         <v>1592</v>
       </c>
     </row>
@@ -39377,6 +40100,7 @@
       <c r="AX288" t="inlineStr"/>
       <c r="AY288" t="inlineStr"/>
       <c r="AZ288" t="inlineStr"/>
+      <c r="BA288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -39537,6 +40261,9 @@
         <v>7</v>
       </c>
       <c r="AZ289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA289" t="n">
         <v>7</v>
       </c>
     </row>
@@ -39701,6 +40428,9 @@
       <c r="AZ290" t="n">
         <v>7</v>
       </c>
+      <c r="BA290" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -39863,6 +40593,9 @@
       <c r="AZ291" t="n">
         <v>157</v>
       </c>
+      <c r="BA291" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -40023,6 +40756,9 @@
         <v>14</v>
       </c>
       <c r="AZ292" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA292" t="n">
         <v>14</v>
       </c>
     </row>
@@ -40089,6 +40825,7 @@
       <c r="AX293" t="inlineStr"/>
       <c r="AY293" t="inlineStr"/>
       <c r="AZ293" t="inlineStr"/>
+      <c r="BA293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -40249,6 +40986,9 @@
         <v>237</v>
       </c>
       <c r="AZ294" t="n">
+        <v>237</v>
+      </c>
+      <c r="BA294" t="n">
         <v>237</v>
       </c>
     </row>
@@ -40315,6 +41055,7 @@
       <c r="AX295" t="inlineStr"/>
       <c r="AY295" t="inlineStr"/>
       <c r="AZ295" t="inlineStr"/>
+      <c r="BA295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -40475,6 +41216,9 @@
         <v>7</v>
       </c>
       <c r="AZ296" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA296" t="n">
         <v>7</v>
       </c>
     </row>
@@ -40541,6 +41285,7 @@
       <c r="AX297" t="inlineStr"/>
       <c r="AY297" t="inlineStr"/>
       <c r="AZ297" t="inlineStr"/>
+      <c r="BA297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -40605,6 +41350,7 @@
       <c r="AX298" t="inlineStr"/>
       <c r="AY298" t="inlineStr"/>
       <c r="AZ298" t="inlineStr"/>
+      <c r="BA298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -40765,6 +41511,9 @@
         <v>297</v>
       </c>
       <c r="AZ299" t="n">
+        <v>297</v>
+      </c>
+      <c r="BA299" t="n">
         <v>297</v>
       </c>
     </row>
@@ -40831,6 +41580,7 @@
       <c r="AX300" t="inlineStr"/>
       <c r="AY300" t="inlineStr"/>
       <c r="AZ300" t="inlineStr"/>
+      <c r="BA300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -40993,6 +41743,9 @@
       <c r="AZ301" t="n">
         <v>11</v>
       </c>
+      <c r="BA301" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -41153,6 +41906,9 @@
         <v>30</v>
       </c>
       <c r="AZ302" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA302" t="n">
         <v>30</v>
       </c>
     </row>
@@ -41317,6 +42073,9 @@
       <c r="AZ303" t="n">
         <v>101</v>
       </c>
+      <c r="BA303" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -41477,6 +42236,9 @@
         <v>151</v>
       </c>
       <c r="AZ304" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA304" t="n">
         <v>151</v>
       </c>
     </row>
@@ -41641,6 +42403,9 @@
       <c r="AZ305" t="n">
         <v>8</v>
       </c>
+      <c r="BA305" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -41803,6 +42568,9 @@
       <c r="AZ306" t="n">
         <v>68</v>
       </c>
+      <c r="BA306" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -41963,6 +42731,9 @@
         <v>30</v>
       </c>
       <c r="AZ307" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA307" t="n">
         <v>30</v>
       </c>
     </row>
@@ -42125,6 +42896,9 @@
         <v>148</v>
       </c>
       <c r="AZ308" t="n">
+        <v>148</v>
+      </c>
+      <c r="BA308" t="n">
         <v>148</v>
       </c>
     </row>
@@ -42193,6 +42967,7 @@
       <c r="AX309" t="inlineStr"/>
       <c r="AY309" t="inlineStr"/>
       <c r="AZ309" t="inlineStr"/>
+      <c r="BA309" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA309"/>
+  <dimension ref="A1:BB309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,11 @@
           <t>2020/06/11</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2020/06/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -795,6 +800,9 @@
         <v>23</v>
       </c>
       <c r="BA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB2" t="n">
         <v>23</v>
       </c>
     </row>
@@ -862,6 +870,7 @@
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -927,6 +936,7 @@
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1092,6 +1102,9 @@
       <c r="BA5" t="n">
         <v>95</v>
       </c>
+      <c r="BB5" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1256,6 +1269,9 @@
       </c>
       <c r="BA6" t="n">
         <v>80</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1422,6 +1438,9 @@
       <c r="BA7" t="n">
         <v>11</v>
       </c>
+      <c r="BB7" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1587,6 +1606,9 @@
       <c r="BA8" t="n">
         <v>46</v>
       </c>
+      <c r="BB8" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1750,6 +1772,9 @@
         <v>25</v>
       </c>
       <c r="BA9" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB9" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1817,6 +1842,7 @@
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1982,6 +2008,9 @@
       <c r="BA11" t="n">
         <v>9</v>
       </c>
+      <c r="BB11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2147,6 +2176,9 @@
       <c r="BA12" t="n">
         <v>114</v>
       </c>
+      <c r="BB12" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2310,6 +2342,9 @@
         <v>5</v>
       </c>
       <c r="BA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2469,6 +2504,9 @@
         <v>5</v>
       </c>
       <c r="BA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2536,6 +2574,7 @@
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2601,6 +2640,7 @@
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2766,6 +2806,9 @@
       <c r="BA17" t="n">
         <v>488</v>
       </c>
+      <c r="BB17" t="n">
+        <v>489</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2931,6 +2974,9 @@
       <c r="BA18" t="n">
         <v>4</v>
       </c>
+      <c r="BB18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3096,6 +3142,9 @@
       <c r="BA19" t="n">
         <v>21</v>
       </c>
+      <c r="BB19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3261,6 +3310,9 @@
       <c r="BA20" t="n">
         <v>8</v>
       </c>
+      <c r="BB20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3424,6 +3476,9 @@
         <v>12</v>
       </c>
       <c r="BA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB21" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3491,6 +3546,7 @@
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3654,6 +3710,9 @@
         <v>25</v>
       </c>
       <c r="BA23" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB23" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3721,6 +3780,7 @@
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3886,6 +3946,9 @@
       <c r="BA25" t="n">
         <v>1152</v>
       </c>
+      <c r="BB25" t="n">
+        <v>1186</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4051,6 +4114,9 @@
       <c r="BA26" t="n">
         <v>102</v>
       </c>
+      <c r="BB26" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4214,6 +4280,9 @@
         <v>78</v>
       </c>
       <c r="BA27" t="n">
+        <v>78</v>
+      </c>
+      <c r="BB27" t="n">
         <v>78</v>
       </c>
     </row>
@@ -4379,6 +4448,9 @@
         <v>45</v>
       </c>
       <c r="BA28" t="n">
+        <v>46</v>
+      </c>
+      <c r="BB28" t="n">
         <v>46</v>
       </c>
     </row>
@@ -4462,6 +4534,9 @@
       <c r="BA29" t="n">
         <v>4</v>
       </c>
+      <c r="BB29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4627,6 +4702,9 @@
       <c r="BA30" t="n">
         <v>9</v>
       </c>
+      <c r="BB30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4792,6 +4870,9 @@
       <c r="BA31" t="n">
         <v>75</v>
       </c>
+      <c r="BB31" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4955,6 +5036,9 @@
         <v>9</v>
       </c>
       <c r="BA32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB32" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5022,6 +5106,7 @@
       <c r="AY33" t="inlineStr"/>
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5185,6 +5270,9 @@
         <v>43</v>
       </c>
       <c r="BA34" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB34" t="n">
         <v>44</v>
       </c>
     </row>
@@ -5252,6 +5340,7 @@
       <c r="AY35" t="inlineStr"/>
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5317,6 +5406,7 @@
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5482,6 +5572,9 @@
       <c r="BA37" t="n">
         <v>15</v>
       </c>
+      <c r="BB37" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5645,6 +5738,9 @@
         <v>353</v>
       </c>
       <c r="BA38" t="n">
+        <v>353</v>
+      </c>
+      <c r="BB38" t="n">
         <v>353</v>
       </c>
     </row>
@@ -5712,6 +5808,7 @@
       <c r="AY39" t="inlineStr"/>
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5877,6 +5974,9 @@
       <c r="BA40" t="n">
         <v>92</v>
       </c>
+      <c r="BB40" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6042,6 +6142,9 @@
       <c r="BA41" t="n">
         <v>35</v>
       </c>
+      <c r="BB41" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6205,6 +6308,9 @@
         <v>307</v>
       </c>
       <c r="BA42" t="n">
+        <v>307</v>
+      </c>
+      <c r="BB42" t="n">
         <v>307</v>
       </c>
     </row>
@@ -6272,6 +6378,7 @@
       <c r="AY43" t="inlineStr"/>
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6437,6 +6544,9 @@
       <c r="BA44" t="n">
         <v>260</v>
       </c>
+      <c r="BB44" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6602,6 +6712,9 @@
       <c r="BA45" t="n">
         <v>8</v>
       </c>
+      <c r="BB45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6765,6 +6878,9 @@
         <v>21</v>
       </c>
       <c r="BA46" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB46" t="n">
         <v>23</v>
       </c>
     </row>
@@ -6832,6 +6948,7 @@
       <c r="AY47" t="inlineStr"/>
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
+      <c r="BB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6997,6 +7114,9 @@
       <c r="BA48" t="n">
         <v>46</v>
       </c>
+      <c r="BB48" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7160,6 +7280,9 @@
         <v>14</v>
       </c>
       <c r="BA49" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7227,6 +7350,7 @@
       <c r="AY50" t="inlineStr"/>
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
+      <c r="BB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7292,6 +7416,7 @@
       <c r="AY51" t="inlineStr"/>
       <c r="AZ51" t="inlineStr"/>
       <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7457,6 +7582,9 @@
       <c r="BA52" t="n">
         <v>1256</v>
       </c>
+      <c r="BB52" t="n">
+        <v>1256</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7622,6 +7750,9 @@
       <c r="BA53" t="n">
         <v>124</v>
       </c>
+      <c r="BB53" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7785,6 +7916,9 @@
         <v>18</v>
       </c>
       <c r="BA54" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB54" t="n">
         <v>18</v>
       </c>
     </row>
@@ -7952,6 +8086,9 @@
       <c r="BA55" t="n">
         <v>13</v>
       </c>
+      <c r="BB55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8116,6 +8253,9 @@
       </c>
       <c r="BA56" t="n">
         <v>48</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="57">
@@ -8264,6 +8404,9 @@
         <v>4</v>
       </c>
       <c r="BA57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8353,6 +8496,9 @@
       <c r="BA58" t="n">
         <v>4</v>
       </c>
+      <c r="BB58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8516,6 +8662,9 @@
         <v>20</v>
       </c>
       <c r="BA59" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB59" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8583,6 +8732,7 @@
       <c r="AY60" t="inlineStr"/>
       <c r="AZ60" t="inlineStr"/>
       <c r="BA60" t="inlineStr"/>
+      <c r="BB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8748,6 +8898,9 @@
       <c r="BA61" t="n">
         <v>71</v>
       </c>
+      <c r="BB61" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8911,6 +9064,9 @@
         <v>6</v>
       </c>
       <c r="BA62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB62" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9078,6 +9234,9 @@
       <c r="BA63" t="n">
         <v>13</v>
       </c>
+      <c r="BB63" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9243,6 +9402,9 @@
       <c r="BA64" t="n">
         <v>70</v>
       </c>
+      <c r="BB64" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9407,6 +9569,9 @@
       </c>
       <c r="BA65" t="n">
         <v>681</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>692</v>
       </c>
     </row>
     <row r="66">
@@ -9473,6 +9638,7 @@
       <c r="AY66" t="inlineStr"/>
       <c r="AZ66" t="inlineStr"/>
       <c r="BA66" t="inlineStr"/>
+      <c r="BB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9636,6 +9802,9 @@
         <v>17</v>
       </c>
       <c r="BA67" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB67" t="n">
         <v>17</v>
       </c>
     </row>
@@ -9801,6 +9970,9 @@
         <v>22</v>
       </c>
       <c r="BA68" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB68" t="n">
         <v>22</v>
       </c>
     </row>
@@ -9868,6 +10040,7 @@
       <c r="AY69" t="inlineStr"/>
       <c r="AZ69" t="inlineStr"/>
       <c r="BA69" t="inlineStr"/>
+      <c r="BB69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -10033,6 +10206,9 @@
       <c r="BA70" t="n">
         <v>106</v>
       </c>
+      <c r="BB70" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10196,6 +10372,9 @@
         <v>3</v>
       </c>
       <c r="BA71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10263,6 +10442,7 @@
       <c r="AY72" t="inlineStr"/>
       <c r="AZ72" t="inlineStr"/>
       <c r="BA72" t="inlineStr"/>
+      <c r="BB72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -10428,6 +10608,9 @@
       <c r="BA73" t="n">
         <v>8</v>
       </c>
+      <c r="BB73" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10591,6 +10774,9 @@
         <v>23</v>
       </c>
       <c r="BA74" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB74" t="n">
         <v>23</v>
       </c>
     </row>
@@ -10758,6 +10944,9 @@
       <c r="BA75" t="n">
         <v>9</v>
       </c>
+      <c r="BB75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -10923,6 +11112,9 @@
       <c r="BA76" t="n">
         <v>26</v>
       </c>
+      <c r="BB76" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -11088,6 +11280,9 @@
       <c r="BA77" t="n">
         <v>28</v>
       </c>
+      <c r="BB77" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -11253,6 +11448,9 @@
       <c r="BA78" t="n">
         <v>605</v>
       </c>
+      <c r="BB78" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -11416,6 +11614,9 @@
         <v>155</v>
       </c>
       <c r="BA79" t="n">
+        <v>155</v>
+      </c>
+      <c r="BB79" t="n">
         <v>155</v>
       </c>
     </row>
@@ -11483,6 +11684,7 @@
       <c r="AY80" t="inlineStr"/>
       <c r="AZ80" t="inlineStr"/>
       <c r="BA80" t="inlineStr"/>
+      <c r="BB80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -11646,6 +11848,9 @@
         <v>50</v>
       </c>
       <c r="BA81" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB81" t="n">
         <v>50</v>
       </c>
     </row>
@@ -11713,6 +11918,7 @@
       <c r="AY82" t="inlineStr"/>
       <c r="AZ82" t="inlineStr"/>
       <c r="BA82" t="inlineStr"/>
+      <c r="BB82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -11876,6 +12082,9 @@
         <v>9</v>
       </c>
       <c r="BA83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB83" t="n">
         <v>9</v>
       </c>
     </row>
@@ -11943,6 +12152,7 @@
       <c r="AY84" t="inlineStr"/>
       <c r="AZ84" t="inlineStr"/>
       <c r="BA84" t="inlineStr"/>
+      <c r="BB84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -12108,6 +12318,9 @@
       <c r="BA85" t="n">
         <v>4</v>
       </c>
+      <c r="BB85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -12273,6 +12486,9 @@
       <c r="BA86" t="n">
         <v>41</v>
       </c>
+      <c r="BB86" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -12438,6 +12654,9 @@
       <c r="BA87" t="n">
         <v>10</v>
       </c>
+      <c r="BB87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -12597,6 +12816,9 @@
       <c r="BA88" t="n">
         <v>10</v>
       </c>
+      <c r="BB88" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -12762,6 +12984,9 @@
       <c r="BA89" t="n">
         <v>94</v>
       </c>
+      <c r="BB89" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -12925,6 +13150,9 @@
         <v>50</v>
       </c>
       <c r="BA90" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB90" t="n">
         <v>50</v>
       </c>
     </row>
@@ -13090,6 +13318,9 @@
         <v>105</v>
       </c>
       <c r="BA91" t="n">
+        <v>106</v>
+      </c>
+      <c r="BB91" t="n">
         <v>106</v>
       </c>
     </row>
@@ -13157,6 +13388,7 @@
       <c r="AY92" t="inlineStr"/>
       <c r="AZ92" t="inlineStr"/>
       <c r="BA92" t="inlineStr"/>
+      <c r="BB92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -13322,6 +13554,9 @@
       <c r="BA93" t="n">
         <v>125</v>
       </c>
+      <c r="BB93" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -13485,6 +13720,9 @@
         <v>70</v>
       </c>
       <c r="BA94" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB94" t="n">
         <v>70</v>
       </c>
     </row>
@@ -13650,6 +13888,9 @@
         <v>408</v>
       </c>
       <c r="BA95" t="n">
+        <v>408</v>
+      </c>
+      <c r="BB95" t="n">
         <v>408</v>
       </c>
     </row>
@@ -13717,6 +13958,7 @@
       <c r="AY96" t="inlineStr"/>
       <c r="AZ96" t="inlineStr"/>
       <c r="BA96" t="inlineStr"/>
+      <c r="BB96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -13782,6 +14024,7 @@
       <c r="AY97" t="inlineStr"/>
       <c r="AZ97" t="inlineStr"/>
       <c r="BA97" t="inlineStr"/>
+      <c r="BB97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -13945,6 +14188,9 @@
         <v>34</v>
       </c>
       <c r="BA98" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB98" t="n">
         <v>34</v>
       </c>
     </row>
@@ -14034,6 +14280,7 @@
       <c r="AY99" t="inlineStr"/>
       <c r="AZ99" t="inlineStr"/>
       <c r="BA99" t="inlineStr"/>
+      <c r="BB99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -14197,6 +14444,9 @@
         <v>9</v>
       </c>
       <c r="BA100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB100" t="n">
         <v>9</v>
       </c>
     </row>
@@ -14340,6 +14590,9 @@
         <v>3</v>
       </c>
       <c r="BA101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB101" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14407,6 +14660,7 @@
       <c r="AY102" t="inlineStr"/>
       <c r="AZ102" t="inlineStr"/>
       <c r="BA102" t="inlineStr"/>
+      <c r="BB102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -14472,6 +14726,7 @@
       <c r="AY103" t="inlineStr"/>
       <c r="AZ103" t="inlineStr"/>
       <c r="BA103" t="inlineStr"/>
+      <c r="BB103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -14635,6 +14890,9 @@
         <v>26</v>
       </c>
       <c r="BA104" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB104" t="n">
         <v>26</v>
       </c>
     </row>
@@ -14790,6 +15048,9 @@
         <v>5</v>
       </c>
       <c r="BA105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB105" t="n">
         <v>5</v>
       </c>
     </row>
@@ -14857,6 +15118,7 @@
       <c r="AY106" t="inlineStr"/>
       <c r="AZ106" t="inlineStr"/>
       <c r="BA106" t="inlineStr"/>
+      <c r="BB106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -14922,6 +15184,7 @@
       <c r="AY107" t="inlineStr"/>
       <c r="AZ107" t="inlineStr"/>
       <c r="BA107" t="inlineStr"/>
+      <c r="BB107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -15087,6 +15350,9 @@
       <c r="BA108" t="n">
         <v>1093</v>
       </c>
+      <c r="BB108" t="n">
+        <v>1093</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -15252,6 +15518,9 @@
       <c r="BA109" t="n">
         <v>23</v>
       </c>
+      <c r="BB109" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -15417,6 +15686,9 @@
       <c r="BA110" t="n">
         <v>11</v>
       </c>
+      <c r="BB110" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -15582,6 +15854,9 @@
       <c r="BA111" t="n">
         <v>25</v>
       </c>
+      <c r="BB111" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -15747,6 +16022,9 @@
       <c r="BA112" t="n">
         <v>725</v>
       </c>
+      <c r="BB112" t="n">
+        <v>725</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -15910,6 +16188,9 @@
         <v>10</v>
       </c>
       <c r="BA113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB113" t="n">
         <v>10</v>
       </c>
     </row>
@@ -16075,6 +16356,9 @@
         <v>6</v>
       </c>
       <c r="BA114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB114" t="n">
         <v>6</v>
       </c>
     </row>
@@ -16142,6 +16426,7 @@
       <c r="AY115" t="inlineStr"/>
       <c r="AZ115" t="inlineStr"/>
       <c r="BA115" t="inlineStr"/>
+      <c r="BB115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -16211,6 +16496,9 @@
       <c r="BA116" t="n">
         <v>11</v>
       </c>
+      <c r="BB116" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -16376,6 +16664,9 @@
       <c r="BA117" t="n">
         <v>11</v>
       </c>
+      <c r="BB117" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -16539,6 +16830,9 @@
         <v>5</v>
       </c>
       <c r="BA118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB118" t="n">
         <v>5</v>
       </c>
     </row>
@@ -16606,6 +16900,7 @@
       <c r="AY119" t="inlineStr"/>
       <c r="AZ119" t="inlineStr"/>
       <c r="BA119" t="inlineStr"/>
+      <c r="BB119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -16671,6 +16966,7 @@
       <c r="AY120" t="inlineStr"/>
       <c r="AZ120" t="inlineStr"/>
       <c r="BA120" t="inlineStr"/>
+      <c r="BB120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -16836,6 +17132,9 @@
       <c r="BA121" t="n">
         <v>40</v>
       </c>
+      <c r="BB121" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -17001,6 +17300,9 @@
       <c r="BA122" t="n">
         <v>106</v>
       </c>
+      <c r="BB122" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -17166,6 +17468,9 @@
       <c r="BA123" t="n">
         <v>2789</v>
       </c>
+      <c r="BB123" t="n">
+        <v>2803</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -17329,6 +17634,9 @@
         <v>76</v>
       </c>
       <c r="BA124" t="n">
+        <v>76</v>
+      </c>
+      <c r="BB124" t="n">
         <v>76</v>
       </c>
     </row>
@@ -17496,6 +17804,9 @@
       <c r="BA125" t="n">
         <v>1352</v>
       </c>
+      <c r="BB125" t="n">
+        <v>1383</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -17661,6 +17972,9 @@
       <c r="BA126" t="n">
         <v>15</v>
       </c>
+      <c r="BB126" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -17826,6 +18140,9 @@
       <c r="BA127" t="n">
         <v>346</v>
       </c>
+      <c r="BB127" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -17991,6 +18308,9 @@
       <c r="BA128" t="n">
         <v>21</v>
       </c>
+      <c r="BB128" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -18154,6 +18474,9 @@
         <v>26</v>
       </c>
       <c r="BA129" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB129" t="n">
         <v>26</v>
       </c>
     </row>
@@ -18221,6 +18544,7 @@
       <c r="AY130" t="inlineStr"/>
       <c r="AZ130" t="inlineStr"/>
       <c r="BA130" t="inlineStr"/>
+      <c r="BB130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -18386,6 +18710,9 @@
       <c r="BA131" t="n">
         <v>5</v>
       </c>
+      <c r="BB131" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -18551,6 +18878,9 @@
       <c r="BA132" t="n">
         <v>161</v>
       </c>
+      <c r="BB132" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -18716,6 +19046,9 @@
       <c r="BA133" t="n">
         <v>950</v>
       </c>
+      <c r="BB133" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -18881,6 +19214,9 @@
       <c r="BA134" t="n">
         <v>78</v>
       </c>
+      <c r="BB134" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -19046,6 +19382,9 @@
       <c r="BA135" t="n">
         <v>7</v>
       </c>
+      <c r="BB135" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -19211,6 +19550,9 @@
       <c r="BA136" t="n">
         <v>92</v>
       </c>
+      <c r="BB136" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -19374,6 +19716,9 @@
         <v>20</v>
       </c>
       <c r="BA137" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB137" t="n">
         <v>20</v>
       </c>
     </row>
@@ -19441,6 +19786,7 @@
       <c r="AY138" t="inlineStr"/>
       <c r="AZ138" t="inlineStr"/>
       <c r="BA138" t="inlineStr"/>
+      <c r="BB138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -19604,6 +19950,9 @@
         <v>1292</v>
       </c>
       <c r="BA139" t="n">
+        <v>1292</v>
+      </c>
+      <c r="BB139" t="n">
         <v>1292</v>
       </c>
     </row>
@@ -19671,6 +20020,7 @@
       <c r="AY140" t="inlineStr"/>
       <c r="AZ140" t="inlineStr"/>
       <c r="BA140" t="inlineStr"/>
+      <c r="BB140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -19836,6 +20186,9 @@
       <c r="BA141" t="n">
         <v>18</v>
       </c>
+      <c r="BB141" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -19999,6 +20352,9 @@
         <v>64</v>
       </c>
       <c r="BA142" t="n">
+        <v>64</v>
+      </c>
+      <c r="BB142" t="n">
         <v>64</v>
       </c>
     </row>
@@ -20066,6 +20422,7 @@
       <c r="AY143" t="inlineStr"/>
       <c r="AZ143" t="inlineStr"/>
       <c r="BA143" t="inlineStr"/>
+      <c r="BB143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -20231,6 +20588,9 @@
       <c r="BA144" t="n">
         <v>6</v>
       </c>
+      <c r="BB144" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -20396,6 +20756,9 @@
       <c r="BA145" t="n">
         <v>17</v>
       </c>
+      <c r="BB145" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -20561,6 +20924,9 @@
       <c r="BA146" t="n">
         <v>10</v>
       </c>
+      <c r="BB146" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -20724,6 +21090,9 @@
         <v>21</v>
       </c>
       <c r="BA147" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB147" t="n">
         <v>21</v>
       </c>
     </row>
@@ -20885,6 +21254,9 @@
       <c r="BA148" t="n">
         <v>5</v>
       </c>
+      <c r="BB148" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -21050,6 +21422,9 @@
       <c r="BA149" t="n">
         <v>15</v>
       </c>
+      <c r="BB149" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -21214,6 +21589,9 @@
       </c>
       <c r="BA150" t="n">
         <v>196</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="151">
@@ -21286,6 +21664,7 @@
       <c r="AY151" t="inlineStr"/>
       <c r="AZ151" t="inlineStr"/>
       <c r="BA151" t="inlineStr"/>
+      <c r="BB151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -21351,6 +21730,7 @@
       <c r="AY152" t="inlineStr"/>
       <c r="AZ152" t="inlineStr"/>
       <c r="BA152" t="inlineStr"/>
+      <c r="BB152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -21416,6 +21796,7 @@
       <c r="AY153" t="inlineStr"/>
       <c r="AZ153" t="inlineStr"/>
       <c r="BA153" t="inlineStr"/>
+      <c r="BB153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -21513,6 +21894,9 @@
       <c r="BA154" t="n">
         <v>3</v>
       </c>
+      <c r="BB154" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -21678,6 +22062,9 @@
       <c r="BA155" t="n">
         <v>8</v>
       </c>
+      <c r="BB155" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -21841,6 +22228,9 @@
         <v>30</v>
       </c>
       <c r="BA156" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB156" t="n">
         <v>30</v>
       </c>
     </row>
@@ -22008,6 +22398,9 @@
       <c r="BA157" t="n">
         <v>134</v>
       </c>
+      <c r="BB157" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -22171,6 +22564,9 @@
         <v>118</v>
       </c>
       <c r="BA158" t="n">
+        <v>118</v>
+      </c>
+      <c r="BB158" t="n">
         <v>118</v>
       </c>
     </row>
@@ -22238,6 +22634,7 @@
       <c r="AY159" t="inlineStr"/>
       <c r="AZ159" t="inlineStr"/>
       <c r="BA159" t="inlineStr"/>
+      <c r="BB159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -22403,6 +22800,9 @@
       <c r="BA160" t="n">
         <v>11</v>
       </c>
+      <c r="BB160" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -22566,6 +22966,9 @@
         <v>69</v>
       </c>
       <c r="BA161" t="n">
+        <v>69</v>
+      </c>
+      <c r="BB161" t="n">
         <v>69</v>
       </c>
     </row>
@@ -22633,6 +23036,7 @@
       <c r="AY162" t="inlineStr"/>
       <c r="AZ162" t="inlineStr"/>
       <c r="BA162" t="inlineStr"/>
+      <c r="BB162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -22798,6 +23202,9 @@
       <c r="BA163" t="n">
         <v>17</v>
       </c>
+      <c r="BB163" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -22961,6 +23368,9 @@
         <v>20</v>
       </c>
       <c r="BA164" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB164" t="n">
         <v>20</v>
       </c>
     </row>
@@ -23028,6 +23438,7 @@
       <c r="AY165" t="inlineStr"/>
       <c r="AZ165" t="inlineStr"/>
       <c r="BA165" t="inlineStr"/>
+      <c r="BB165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -23093,6 +23504,7 @@
       <c r="AY166" t="inlineStr"/>
       <c r="AZ166" t="inlineStr"/>
       <c r="BA166" t="inlineStr"/>
+      <c r="BB166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -23192,6 +23604,9 @@
       <c r="BA167" t="n">
         <v>3</v>
       </c>
+      <c r="BB167" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -23355,6 +23770,9 @@
         <v>23</v>
       </c>
       <c r="BA168" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB168" t="n">
         <v>23</v>
       </c>
     </row>
@@ -23422,6 +23840,7 @@
       <c r="AY169" t="inlineStr"/>
       <c r="AZ169" t="inlineStr"/>
       <c r="BA169" t="inlineStr"/>
+      <c r="BB169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -23583,6 +24002,9 @@
       <c r="BA170" t="n">
         <v>32</v>
       </c>
+      <c r="BB170" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -23746,6 +24168,9 @@
       <c r="BA171" t="n">
         <v>12</v>
       </c>
+      <c r="BB171" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -23911,6 +24336,9 @@
       <c r="BA172" t="n">
         <v>745</v>
       </c>
+      <c r="BB172" t="n">
+        <v>758</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -24075,6 +24503,9 @@
       </c>
       <c r="BA173" t="n">
         <v>530</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>543</v>
       </c>
     </row>
     <row r="174">
@@ -24141,6 +24572,7 @@
       <c r="AY174" t="inlineStr"/>
       <c r="AZ174" t="inlineStr"/>
       <c r="BA174" t="inlineStr"/>
+      <c r="BB174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -24304,6 +24736,9 @@
         <v>14</v>
       </c>
       <c r="BA175" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB175" t="n">
         <v>14</v>
       </c>
     </row>
@@ -24471,6 +24906,9 @@
       <c r="BA176" t="n">
         <v>218</v>
       </c>
+      <c r="BB176" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -24636,6 +25074,9 @@
       <c r="BA177" t="n">
         <v>12</v>
       </c>
+      <c r="BB177" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -24801,6 +25242,9 @@
       <c r="BA178" t="n">
         <v>41</v>
       </c>
+      <c r="BB178" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -24964,6 +25408,9 @@
         <v>28</v>
       </c>
       <c r="BA179" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB179" t="n">
         <v>28</v>
       </c>
     </row>
@@ -25031,6 +25478,7 @@
       <c r="AY180" t="inlineStr"/>
       <c r="AZ180" t="inlineStr"/>
       <c r="BA180" t="inlineStr"/>
+      <c r="BB180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -25196,6 +25644,9 @@
       <c r="BA181" t="n">
         <v>41</v>
       </c>
+      <c r="BB181" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -25361,6 +25812,9 @@
       <c r="BA182" t="n">
         <v>673</v>
       </c>
+      <c r="BB182" t="n">
+        <v>673</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -25524,6 +25978,9 @@
         <v>40</v>
       </c>
       <c r="BA183" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB183" t="n">
         <v>40</v>
       </c>
     </row>
@@ -25591,6 +26048,7 @@
       <c r="AY184" t="inlineStr"/>
       <c r="AZ184" t="inlineStr"/>
       <c r="BA184" t="inlineStr"/>
+      <c r="BB184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -25756,6 +26214,9 @@
       <c r="BA185" t="n">
         <v>350</v>
       </c>
+      <c r="BB185" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -25921,6 +26382,9 @@
       <c r="BA186" t="n">
         <v>7</v>
       </c>
+      <c r="BB186" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -26086,6 +26550,9 @@
       <c r="BA187" t="n">
         <v>315</v>
       </c>
+      <c r="BB187" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -26251,6 +26718,9 @@
       <c r="BA188" t="n">
         <v>4</v>
       </c>
+      <c r="BB188" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -26414,6 +26884,9 @@
         <v>22</v>
       </c>
       <c r="BA189" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB189" t="n">
         <v>22</v>
       </c>
     </row>
@@ -26579,6 +27052,9 @@
         <v>176</v>
       </c>
       <c r="BA190" t="n">
+        <v>177</v>
+      </c>
+      <c r="BB190" t="n">
         <v>177</v>
       </c>
     </row>
@@ -26646,6 +27122,7 @@
       <c r="AY191" t="inlineStr"/>
       <c r="AZ191" t="inlineStr"/>
       <c r="BA191" t="inlineStr"/>
+      <c r="BB191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -26711,6 +27188,7 @@
       <c r="AY192" t="inlineStr"/>
       <c r="AZ192" t="inlineStr"/>
       <c r="BA192" t="inlineStr"/>
+      <c r="BB192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -26776,6 +27254,7 @@
       <c r="AY193" t="inlineStr"/>
       <c r="AZ193" t="inlineStr"/>
       <c r="BA193" t="inlineStr"/>
+      <c r="BB193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -26939,6 +27418,9 @@
         <v>5</v>
       </c>
       <c r="BA194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB194" t="n">
         <v>5</v>
       </c>
     </row>
@@ -27106,6 +27588,9 @@
       <c r="BA195" t="n">
         <v>19</v>
       </c>
+      <c r="BB195" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -27271,6 +27756,9 @@
       <c r="BA196" t="n">
         <v>66</v>
       </c>
+      <c r="BB196" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -27436,6 +27924,9 @@
       <c r="BA197" t="n">
         <v>23</v>
       </c>
+      <c r="BB197" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -27601,6 +28092,9 @@
       <c r="BA198" t="n">
         <v>69</v>
       </c>
+      <c r="BB198" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -27766,6 +28260,9 @@
       <c r="BA199" t="n">
         <v>9</v>
       </c>
+      <c r="BB199" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -27931,6 +28428,9 @@
       <c r="BA200" t="n">
         <v>6</v>
       </c>
+      <c r="BB200" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -28096,6 +28596,9 @@
       <c r="BA201" t="n">
         <v>6</v>
       </c>
+      <c r="BB201" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -28259,6 +28762,9 @@
         <v>34</v>
       </c>
       <c r="BA202" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB202" t="n">
         <v>34</v>
       </c>
     </row>
@@ -28340,6 +28846,7 @@
       <c r="AY203" t="inlineStr"/>
       <c r="AZ203" t="inlineStr"/>
       <c r="BA203" t="inlineStr"/>
+      <c r="BB203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -28505,6 +29012,9 @@
       <c r="BA204" t="n">
         <v>11</v>
       </c>
+      <c r="BB204" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -28670,6 +29180,9 @@
       <c r="BA205" t="n">
         <v>6</v>
       </c>
+      <c r="BB205" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -28833,6 +29346,9 @@
         <v>44</v>
       </c>
       <c r="BA206" t="n">
+        <v>46</v>
+      </c>
+      <c r="BB206" t="n">
         <v>46</v>
       </c>
     </row>
@@ -28998,6 +29514,9 @@
         <v>1414</v>
       </c>
       <c r="BA207" t="n">
+        <v>1414</v>
+      </c>
+      <c r="BB207" t="n">
         <v>1414</v>
       </c>
     </row>
@@ -29065,6 +29584,7 @@
       <c r="AY208" t="inlineStr"/>
       <c r="AZ208" t="inlineStr"/>
       <c r="BA208" t="inlineStr"/>
+      <c r="BB208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -29230,6 +29750,9 @@
       <c r="BA209" t="n">
         <v>4</v>
       </c>
+      <c r="BB209" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -29393,6 +29916,9 @@
         <v>11</v>
       </c>
       <c r="BA210" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB210" t="n">
         <v>11</v>
       </c>
     </row>
@@ -29466,6 +29992,9 @@
       <c r="BA211" t="n">
         <v>4</v>
       </c>
+      <c r="BB211" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -29539,6 +30068,9 @@
       <c r="BA212" t="n">
         <v>3</v>
       </c>
+      <c r="BB212" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -29702,6 +30234,9 @@
         <v>62</v>
       </c>
       <c r="BA213" t="n">
+        <v>62</v>
+      </c>
+      <c r="BB213" t="n">
         <v>62</v>
       </c>
     </row>
@@ -29867,6 +30402,9 @@
         <v>159</v>
       </c>
       <c r="BA214" t="n">
+        <v>159</v>
+      </c>
+      <c r="BB214" t="n">
         <v>159</v>
       </c>
     </row>
@@ -29934,6 +30472,7 @@
       <c r="AY215" t="inlineStr"/>
       <c r="AZ215" t="inlineStr"/>
       <c r="BA215" t="inlineStr"/>
+      <c r="BB215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -30097,6 +30636,9 @@
         <v>6</v>
       </c>
       <c r="BA216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB216" t="n">
         <v>6</v>
       </c>
     </row>
@@ -30262,6 +30804,9 @@
         <v>65</v>
       </c>
       <c r="BA217" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB217" t="n">
         <v>65</v>
       </c>
     </row>
@@ -30329,6 +30874,7 @@
       <c r="AY218" t="inlineStr"/>
       <c r="AZ218" t="inlineStr"/>
       <c r="BA218" t="inlineStr"/>
+      <c r="BB218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -30394,6 +30940,7 @@
       <c r="AY219" t="inlineStr"/>
       <c r="AZ219" t="inlineStr"/>
       <c r="BA219" t="inlineStr"/>
+      <c r="BB219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -30559,6 +31106,9 @@
       <c r="BA220" t="n">
         <v>3</v>
       </c>
+      <c r="BB220" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -30724,6 +31274,9 @@
       <c r="BA221" t="n">
         <v>23</v>
       </c>
+      <c r="BB221" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -30887,6 +31440,9 @@
         <v>7</v>
       </c>
       <c r="BA222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB222" t="n">
         <v>7</v>
       </c>
     </row>
@@ -30954,6 +31510,7 @@
       <c r="AY223" t="inlineStr"/>
       <c r="AZ223" t="inlineStr"/>
       <c r="BA223" t="inlineStr"/>
+      <c r="BB223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -31119,6 +31676,9 @@
       <c r="BA224" t="n">
         <v>14</v>
       </c>
+      <c r="BB224" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -31284,6 +31844,9 @@
       <c r="BA225" t="n">
         <v>9</v>
       </c>
+      <c r="BB225" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -31447,6 +32010,9 @@
         <v>5</v>
       </c>
       <c r="BA226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB226" t="n">
         <v>5</v>
       </c>
     </row>
@@ -31534,6 +32100,9 @@
         <v>5</v>
       </c>
       <c r="BA227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB227" t="n">
         <v>5</v>
       </c>
     </row>
@@ -31601,6 +32170,7 @@
       <c r="AY228" t="inlineStr"/>
       <c r="AZ228" t="inlineStr"/>
       <c r="BA228" t="inlineStr"/>
+      <c r="BB228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -31764,6 +32334,9 @@
         <v>497</v>
       </c>
       <c r="BA229" t="n">
+        <v>497</v>
+      </c>
+      <c r="BB229" t="n">
         <v>497</v>
       </c>
     </row>
@@ -31899,6 +32472,7 @@
         <v>3</v>
       </c>
       <c r="BA230" t="inlineStr"/>
+      <c r="BB230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -31964,6 +32538,7 @@
       <c r="AY231" t="inlineStr"/>
       <c r="AZ231" t="inlineStr"/>
       <c r="BA231" t="inlineStr"/>
+      <c r="BB231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -32129,6 +32704,9 @@
       <c r="BA232" t="n">
         <v>135</v>
       </c>
+      <c r="BB232" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -32294,6 +32872,9 @@
       <c r="BA233" t="n">
         <v>19</v>
       </c>
+      <c r="BB233" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -32458,6 +33039,9 @@
       </c>
       <c r="BA234" t="n">
         <v>399</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="235">
@@ -32524,6 +33108,7 @@
       <c r="AY235" t="inlineStr"/>
       <c r="AZ235" t="inlineStr"/>
       <c r="BA235" t="inlineStr"/>
+      <c r="BB235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -32689,6 +33274,9 @@
       <c r="BA236" t="n">
         <v>13</v>
       </c>
+      <c r="BB236" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -32853,6 +33441,9 @@
       </c>
       <c r="BA237" t="n">
         <v>480</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>482</v>
       </c>
     </row>
     <row r="238">
@@ -33007,6 +33598,9 @@
       <c r="BA238" t="n">
         <v>6</v>
       </c>
+      <c r="BB238" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -33172,6 +33766,9 @@
       <c r="BA239" t="n">
         <v>14</v>
       </c>
+      <c r="BB239" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -33335,6 +33932,9 @@
         <v>4</v>
       </c>
       <c r="BA240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB240" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33502,6 +34102,9 @@
       <c r="BA241" t="n">
         <v>46</v>
       </c>
+      <c r="BB241" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -33667,6 +34270,9 @@
       <c r="BA242" t="n">
         <v>122</v>
       </c>
+      <c r="BB242" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -33832,6 +34438,9 @@
       <c r="BA243" t="n">
         <v>47</v>
       </c>
+      <c r="BB243" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -33995,6 +34604,9 @@
         <v>23</v>
       </c>
       <c r="BA244" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB244" t="n">
         <v>23</v>
       </c>
     </row>
@@ -34082,6 +34694,9 @@
       <c r="BA245" t="n">
         <v>6</v>
       </c>
+      <c r="BB245" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -34246,6 +34861,9 @@
       </c>
       <c r="BA246" t="n">
         <v>1802</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1839</v>
       </c>
     </row>
     <row r="247">
@@ -34354,6 +34972,9 @@
       <c r="BA247" t="n">
         <v>10</v>
       </c>
+      <c r="BB247" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -34517,6 +35138,9 @@
         <v>26</v>
       </c>
       <c r="BA248" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB248" t="n">
         <v>26</v>
       </c>
     </row>
@@ -34584,6 +35208,7 @@
       <c r="AY249" t="inlineStr"/>
       <c r="AZ249" t="inlineStr"/>
       <c r="BA249" t="inlineStr"/>
+      <c r="BB249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -34747,6 +35372,9 @@
         <v>8</v>
       </c>
       <c r="BA250" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB250" t="n">
         <v>8</v>
       </c>
     </row>
@@ -34868,6 +35496,9 @@
       <c r="BA251" t="n">
         <v>3</v>
       </c>
+      <c r="BB251" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -35031,6 +35662,9 @@
         <v>80</v>
       </c>
       <c r="BA252" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB252" t="n">
         <v>80</v>
       </c>
     </row>
@@ -35098,6 +35732,7 @@
       <c r="AY253" t="inlineStr"/>
       <c r="AZ253" t="inlineStr"/>
       <c r="BA253" t="inlineStr"/>
+      <c r="BB253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -35263,6 +35898,9 @@
       <c r="BA254" t="n">
         <v>9</v>
       </c>
+      <c r="BB254" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -35426,6 +36064,9 @@
         <v>5</v>
       </c>
       <c r="BA255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB255" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35493,6 +36134,7 @@
       <c r="AY256" t="inlineStr"/>
       <c r="AZ256" t="inlineStr"/>
       <c r="BA256" t="inlineStr"/>
+      <c r="BB256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -35558,6 +36200,7 @@
       <c r="AY257" t="inlineStr"/>
       <c r="AZ257" t="inlineStr"/>
       <c r="BA257" t="inlineStr"/>
+      <c r="BB257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -35623,6 +36266,7 @@
       <c r="AY258" t="inlineStr"/>
       <c r="AZ258" t="inlineStr"/>
       <c r="BA258" t="inlineStr"/>
+      <c r="BB258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -35788,6 +36432,9 @@
       <c r="BA259" t="n">
         <v>30</v>
       </c>
+      <c r="BB259" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -35951,6 +36598,9 @@
         <v>10</v>
       </c>
       <c r="BA260" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB260" t="n">
         <v>10</v>
       </c>
     </row>
@@ -36118,6 +36768,9 @@
       <c r="BA261" t="n">
         <v>18</v>
       </c>
+      <c r="BB261" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -36283,6 +36936,9 @@
       <c r="BA262" t="n">
         <v>14</v>
       </c>
+      <c r="BB262" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -36446,6 +37102,9 @@
         <v>23</v>
       </c>
       <c r="BA263" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB263" t="n">
         <v>23</v>
       </c>
     </row>
@@ -36613,6 +37272,9 @@
       <c r="BA264" t="n">
         <v>26</v>
       </c>
+      <c r="BB264" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -36778,6 +37440,9 @@
       <c r="BA265" t="n">
         <v>54</v>
       </c>
+      <c r="BB265" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -36943,6 +37608,9 @@
       <c r="BA266" t="n">
         <v>20</v>
       </c>
+      <c r="BB266" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -37108,6 +37776,9 @@
       <c r="BA267" t="n">
         <v>149</v>
       </c>
+      <c r="BB267" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -37271,6 +37942,9 @@
         <v>35</v>
       </c>
       <c r="BA268" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB268" t="n">
         <v>35</v>
       </c>
     </row>
@@ -37438,6 +38112,9 @@
       <c r="BA269" t="n">
         <v>29</v>
       </c>
+      <c r="BB269" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -37603,6 +38280,9 @@
       <c r="BA270" t="n">
         <v>155</v>
       </c>
+      <c r="BB270" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -37768,6 +38448,9 @@
       <c r="BA271" t="n">
         <v>15</v>
       </c>
+      <c r="BB271" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -37933,6 +38616,9 @@
       <c r="BA272" t="n">
         <v>762</v>
       </c>
+      <c r="BB272" t="n">
+        <v>762</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -38098,6 +38784,9 @@
       <c r="BA273" t="n">
         <v>6</v>
       </c>
+      <c r="BB273" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -38263,6 +38952,9 @@
       <c r="BA274" t="n">
         <v>5</v>
       </c>
+      <c r="BB274" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -38426,6 +39118,9 @@
         <v>9</v>
       </c>
       <c r="BA275" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB275" t="n">
         <v>9</v>
       </c>
     </row>
@@ -38493,6 +39188,7 @@
       <c r="AY276" t="inlineStr"/>
       <c r="AZ276" t="inlineStr"/>
       <c r="BA276" t="inlineStr"/>
+      <c r="BB276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -38656,6 +39352,9 @@
         <v>192</v>
       </c>
       <c r="BA277" t="n">
+        <v>192</v>
+      </c>
+      <c r="BB277" t="n">
         <v>192</v>
       </c>
     </row>
@@ -38723,6 +39422,7 @@
       <c r="AY278" t="inlineStr"/>
       <c r="AZ278" t="inlineStr"/>
       <c r="BA278" t="inlineStr"/>
+      <c r="BB278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -38888,6 +39588,9 @@
       <c r="BA279" t="n">
         <v>44</v>
       </c>
+      <c r="BB279" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -39051,6 +39754,9 @@
         <v>5</v>
       </c>
       <c r="BA280" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB280" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39217,6 +39923,9 @@
       </c>
       <c r="BA281" t="n">
         <v>525</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>536</v>
       </c>
     </row>
     <row r="282">
@@ -39283,6 +39992,7 @@
       <c r="AY282" t="inlineStr"/>
       <c r="AZ282" t="inlineStr"/>
       <c r="BA282" t="inlineStr"/>
+      <c r="BB282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -39376,6 +40086,7 @@
       <c r="AY283" t="inlineStr"/>
       <c r="AZ283" t="inlineStr"/>
       <c r="BA283" t="inlineStr"/>
+      <c r="BB283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -39541,6 +40252,9 @@
       <c r="BA284" t="n">
         <v>9</v>
       </c>
+      <c r="BB284" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -39704,6 +40418,9 @@
         <v>404</v>
       </c>
       <c r="BA285" t="n">
+        <v>404</v>
+      </c>
+      <c r="BB285" t="n">
         <v>404</v>
       </c>
     </row>
@@ -39871,6 +40588,9 @@
       <c r="BA286" t="n">
         <v>72</v>
       </c>
+      <c r="BB286" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -40035,6 +40755,9 @@
       </c>
       <c r="BA287" t="n">
         <v>1592</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1597</v>
       </c>
     </row>
     <row r="288">
@@ -40101,6 +40824,7 @@
       <c r="AY288" t="inlineStr"/>
       <c r="AZ288" t="inlineStr"/>
       <c r="BA288" t="inlineStr"/>
+      <c r="BB288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -40264,6 +40988,9 @@
         <v>7</v>
       </c>
       <c r="BA289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB289" t="n">
         <v>7</v>
       </c>
     </row>
@@ -40431,6 +41158,9 @@
       <c r="BA290" t="n">
         <v>7</v>
       </c>
+      <c r="BB290" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -40596,6 +41326,9 @@
       <c r="BA291" t="n">
         <v>157</v>
       </c>
+      <c r="BB291" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -40759,6 +41492,9 @@
         <v>14</v>
       </c>
       <c r="BA292" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB292" t="n">
         <v>14</v>
       </c>
     </row>
@@ -40826,6 +41562,7 @@
       <c r="AY293" t="inlineStr"/>
       <c r="AZ293" t="inlineStr"/>
       <c r="BA293" t="inlineStr"/>
+      <c r="BB293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -40989,6 +41726,9 @@
         <v>237</v>
       </c>
       <c r="BA294" t="n">
+        <v>237</v>
+      </c>
+      <c r="BB294" t="n">
         <v>237</v>
       </c>
     </row>
@@ -41056,6 +41796,7 @@
       <c r="AY295" t="inlineStr"/>
       <c r="AZ295" t="inlineStr"/>
       <c r="BA295" t="inlineStr"/>
+      <c r="BB295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -41219,6 +41960,9 @@
         <v>7</v>
       </c>
       <c r="BA296" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB296" t="n">
         <v>7</v>
       </c>
     </row>
@@ -41286,6 +42030,7 @@
       <c r="AY297" t="inlineStr"/>
       <c r="AZ297" t="inlineStr"/>
       <c r="BA297" t="inlineStr"/>
+      <c r="BB297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -41351,6 +42096,7 @@
       <c r="AY298" t="inlineStr"/>
       <c r="AZ298" t="inlineStr"/>
       <c r="BA298" t="inlineStr"/>
+      <c r="BB298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -41514,6 +42260,9 @@
         <v>297</v>
       </c>
       <c r="BA299" t="n">
+        <v>297</v>
+      </c>
+      <c r="BB299" t="n">
         <v>297</v>
       </c>
     </row>
@@ -41581,6 +42330,7 @@
       <c r="AY300" t="inlineStr"/>
       <c r="AZ300" t="inlineStr"/>
       <c r="BA300" t="inlineStr"/>
+      <c r="BB300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -41746,6 +42496,9 @@
       <c r="BA301" t="n">
         <v>11</v>
       </c>
+      <c r="BB301" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -41909,6 +42662,9 @@
         <v>30</v>
       </c>
       <c r="BA302" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB302" t="n">
         <v>30</v>
       </c>
     </row>
@@ -42076,6 +42832,9 @@
       <c r="BA303" t="n">
         <v>101</v>
       </c>
+      <c r="BB303" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -42239,6 +42998,9 @@
         <v>151</v>
       </c>
       <c r="BA304" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB304" t="n">
         <v>151</v>
       </c>
     </row>
@@ -42406,6 +43168,9 @@
       <c r="BA305" t="n">
         <v>8</v>
       </c>
+      <c r="BB305" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -42571,6 +43336,9 @@
       <c r="BA306" t="n">
         <v>68</v>
       </c>
+      <c r="BB306" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -42734,6 +43502,9 @@
         <v>30</v>
       </c>
       <c r="BA307" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB307" t="n">
         <v>30</v>
       </c>
     </row>
@@ -42900,6 +43671,9 @@
       </c>
       <c r="BA308" t="n">
         <v>148</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="309">
@@ -42968,6 +43742,7 @@
       <c r="AY309" t="inlineStr"/>
       <c r="AZ309" t="inlineStr"/>
       <c r="BA309" t="inlineStr"/>
+      <c r="BB309" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/time_series_covid19_portugal_confirmados_concelhos.xlsx
+++ b/time_series_covid19_portugal_confirmados_concelhos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB309"/>
+  <dimension ref="A1:BC309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,11 @@
           <t>2020/06/12</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2020/06/13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -803,6 +808,9 @@
         <v>23</v>
       </c>
       <c r="BB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC2" t="n">
         <v>23</v>
       </c>
     </row>
@@ -871,6 +879,7 @@
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -937,6 +946,7 @@
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1105,6 +1115,9 @@
       <c r="BB5" t="n">
         <v>95</v>
       </c>
+      <c r="BC5" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1271,6 +1284,9 @@
         <v>80</v>
       </c>
       <c r="BB6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC6" t="n">
         <v>81</v>
       </c>
     </row>
@@ -1441,6 +1457,9 @@
       <c r="BB7" t="n">
         <v>11</v>
       </c>
+      <c r="BC7" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1609,6 +1628,9 @@
       <c r="BB8" t="n">
         <v>48</v>
       </c>
+      <c r="BC8" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1775,6 +1797,9 @@
         <v>25</v>
       </c>
       <c r="BB9" t="n">
+        <v>25</v>
+      </c>
+      <c r="BC9" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1843,6 +1868,7 @@
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2011,6 +2037,9 @@
       <c r="BB11" t="n">
         <v>9</v>
       </c>
+      <c r="BC11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2179,6 +2208,9 @@
       <c r="BB12" t="n">
         <v>115</v>
       </c>
+      <c r="BC12" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2345,6 +2377,9 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2507,6 +2542,9 @@
         <v>5</v>
       </c>
       <c r="BB14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2575,6 +2613,7 @@
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2641,6 +2680,7 @@
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2809,6 +2849,9 @@
       <c r="BB17" t="n">
         <v>489</v>
       </c>
+      <c r="BC17" t="n">
+        <v>495</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2977,6 +3020,9 @@
       <c r="BB18" t="n">
         <v>4</v>
       </c>
+      <c r="BC18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3145,6 +3191,9 @@
       <c r="BB19" t="n">
         <v>21</v>
       </c>
+      <c r="BC19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3313,6 +3362,9 @@
       <c r="BB20" t="n">
         <v>8</v>
       </c>
+      <c r="BC20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3479,6 +3531,9 @@
         <v>12</v>
       </c>
       <c r="BB21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC21" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3547,6 +3602,7 @@
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3713,6 +3769,9 @@
         <v>25</v>
       </c>
       <c r="BB23" t="n">
+        <v>25</v>
+      </c>
+      <c r="BC23" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3781,6 +3840,7 @@
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3949,6 +4009,9 @@
       <c r="BB25" t="n">
         <v>1186</v>
       </c>
+      <c r="BC25" t="n">
+        <v>1226</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4117,6 +4180,9 @@
       <c r="BB26" t="n">
         <v>102</v>
       </c>
+      <c r="BC26" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4284,6 +4350,9 @@
       </c>
       <c r="BB27" t="n">
         <v>78</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -4452,6 +4521,9 @@
       </c>
       <c r="BB28" t="n">
         <v>46</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -4537,6 +4609,9 @@
       <c r="BB29" t="n">
         <v>4</v>
       </c>
+      <c r="BC29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4705,6 +4780,9 @@
       <c r="BB30" t="n">
         <v>9</v>
       </c>
+      <c r="BC30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4873,6 +4951,9 @@
       <c r="BB31" t="n">
         <v>75</v>
       </c>
+      <c r="BC31" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5039,6 +5120,9 @@
         <v>9</v>
       </c>
       <c r="BB32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC32" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5107,6 +5191,7 @@
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5273,6 +5358,9 @@
         <v>44</v>
       </c>
       <c r="BB34" t="n">
+        <v>44</v>
+      </c>
+      <c r="BC34" t="n">
         <v>44</v>
       </c>
     </row>
@@ -5341,6 +5429,7 @@
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5407,6 +5496,7 @@
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5575,6 +5665,9 @@
       <c r="BB37" t="n">
         <v>15</v>
       </c>
+      <c r="BC37" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5741,6 +5834,9 @@
         <v>353</v>
       </c>
       <c r="BB38" t="n">
+        <v>353</v>
+      </c>
+      <c r="BC38" t="n">
         <v>353</v>
       </c>
     </row>
@@ -5809,6 +5905,7 @@
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5977,6 +6074,9 @@
       <c r="BB40" t="n">
         <v>93</v>
       </c>
+      <c r="BC40" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6145,6 +6245,9 @@
       <c r="BB41" t="n">
         <v>35</v>
       </c>
+      <c r="BC41" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6312,6 +6415,9 @@
       </c>
       <c r="BB42" t="n">
         <v>307</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="43">
@@ -6379,6 +6485,7 @@
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
       <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6547,6 +6654,9 @@
       <c r="BB44" t="n">
         <v>262</v>
       </c>
+      <c r="BC44" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6715,6 +6825,9 @@
       <c r="BB45" t="n">
         <v>8</v>
       </c>
+      <c r="BC45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6882,6 +6995,9 @@
       </c>
       <c r="BB46" t="n">
         <v>23</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -6949,6 +7065,7 @@
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7117,6 +7234,9 @@
       <c r="BB48" t="n">
         <v>46</v>
       </c>
+      <c r="BC48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7283,6 +7403,9 @@
         <v>14</v>
       </c>
       <c r="BB49" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -7351,6 +7474,7 @@
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
       <c r="BB50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7417,6 +7541,7 @@
       <c r="AZ51" t="inlineStr"/>
       <c r="BA51" t="inlineStr"/>
       <c r="BB51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7585,6 +7710,9 @@
       <c r="BB52" t="n">
         <v>1256</v>
       </c>
+      <c r="BC52" t="n">
+        <v>1256</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7753,6 +7881,9 @@
       <c r="BB53" t="n">
         <v>124</v>
       </c>
+      <c r="BC53" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7919,6 +8050,9 @@
         <v>18</v>
       </c>
       <c r="BB54" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC54" t="n">
         <v>18</v>
       </c>
     </row>
@@ -8089,6 +8223,9 @@
       <c r="BB55" t="n">
         <v>13</v>
       </c>
+      <c r="BC55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8256,6 +8393,9 @@
       </c>
       <c r="BB56" t="n">
         <v>51</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="57">
@@ -8407,6 +8547,9 @@
         <v>4</v>
       </c>
       <c r="BB57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8499,6 +8642,9 @@
       <c r="BB58" t="n">
         <v>4</v>
       </c>
+      <c r="BC58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8666,6 +8812,9 @@
       </c>
       <c r="BB59" t="n">
         <v>20</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -8733,6 +8882,7 @@
       <c r="AZ60" t="inlineStr"/>
       <c r="BA60" t="inlineStr"/>
       <c r="BB60" t="inlineStr"/>
+      <c r="BC60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8901,6 +9051,9 @@
       <c r="BB61" t="n">
         <v>71</v>
       </c>
+      <c r="BC61" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9067,6 +9220,9 @@
         <v>6</v>
       </c>
       <c r="BB62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC62" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9237,6 +9393,9 @@
       <c r="BB63" t="n">
         <v>13</v>
       </c>
+      <c r="BC63" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9405,6 +9564,9 @@
       <c r="BB64" t="n">
         <v>71</v>
       </c>
+      <c r="BC64" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9572,6 +9734,9 @@
       </c>
       <c r="BB65" t="n">
         <v>692</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>697</v>
       </c>
     </row>
     <row r="66">
@@ -9639,6 +9804,7 @@
       <c r="AZ66" t="inlineStr"/>
       <c r="BA66" t="inlineStr"/>
       <c r="BB66" t="inlineStr"/>
+      <c r="BC66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9805,6 +9971,9 @@
         <v>17</v>
       </c>
       <c r="BB67" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC67" t="n">
         <v>17</v>
       </c>
     </row>
@@ -9973,6 +10142,9 @@
         <v>22</v>
       </c>
       <c r="BB68" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC68" t="n">
         <v>22</v>
       </c>
     </row>
@@ -10041,6 +10213,7 @@
       <c r="AZ69" t="inlineStr"/>
       <c r="BA69" t="inlineStr"/>
       <c r="BB69" t="inlineStr"/>
+      <c r="BC69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -10209,6 +10382,9 @@
       <c r="BB70" t="n">
         <v>106</v>
       </c>
+      <c r="BC70" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10375,6 +10551,9 @@
         <v>3</v>
       </c>
       <c r="BB71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10443,6 +10622,7 @@
       <c r="AZ72" t="inlineStr"/>
       <c r="BA72" t="inlineStr"/>
       <c r="BB72" t="inlineStr"/>
+      <c r="BC72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -10611,6 +10791,9 @@
       <c r="BB73" t="n">
         <v>8</v>
       </c>
+      <c r="BC73" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10777,6 +10960,9 @@
         <v>23</v>
       </c>
       <c r="BB74" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC74" t="n">
         <v>23</v>
       </c>
     </row>
@@ -10947,6 +11133,9 @@
       <c r="BB75" t="n">
         <v>9</v>
       </c>
+      <c r="BC75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -11115,6 +11304,9 @@
       <c r="BB76" t="n">
         <v>26</v>
       </c>
+      <c r="BC76" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -11283,6 +11475,9 @@
       <c r="BB77" t="n">
         <v>28</v>
       </c>
+      <c r="BC77" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -11451,6 +11646,9 @@
       <c r="BB78" t="n">
         <v>605</v>
       </c>
+      <c r="BC78" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -11617,6 +11815,9 @@
         <v>155</v>
       </c>
       <c r="BB79" t="n">
+        <v>155</v>
+      </c>
+      <c r="BC79" t="n">
         <v>155</v>
       </c>
     </row>
@@ -11685,6 +11886,7 @@
       <c r="AZ80" t="inlineStr"/>
       <c r="BA80" t="inlineStr"/>
       <c r="BB80" t="inlineStr"/>
+      <c r="BC80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -11851,6 +12053,9 @@
         <v>50</v>
       </c>
       <c r="BB81" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC81" t="n">
         <v>50</v>
       </c>
     </row>
@@ -11919,6 +12124,7 @@
       <c r="AZ82" t="inlineStr"/>
       <c r="BA82" t="inlineStr"/>
       <c r="BB82" t="inlineStr"/>
+      <c r="BC82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -12085,6 +12291,9 @@
         <v>9</v>
       </c>
       <c r="BB83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC83" t="n">
         <v>9</v>
       </c>
     </row>
@@ -12153,6 +12362,7 @@
       <c r="AZ84" t="inlineStr"/>
       <c r="BA84" t="inlineStr"/>
       <c r="BB84" t="inlineStr"/>
+      <c r="BC84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -12321,6 +12531,9 @@
       <c r="BB85" t="n">
         <v>4</v>
       </c>
+      <c r="BC85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -12489,6 +12702,9 @@
       <c r="BB86" t="n">
         <v>41</v>
       </c>
+      <c r="BC86" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -12657,6 +12873,9 @@
       <c r="BB87" t="n">
         <v>10</v>
       </c>
+      <c r="BC87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -12819,6 +13038,9 @@
       <c r="BB88" t="n">
         <v>10</v>
       </c>
+      <c r="BC88" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -12987,6 +13209,9 @@
       <c r="BB89" t="n">
         <v>97</v>
       </c>
+      <c r="BC89" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -13153,6 +13378,9 @@
         <v>50</v>
       </c>
       <c r="BB90" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC90" t="n">
         <v>50</v>
       </c>
     </row>
@@ -13321,6 +13549,9 @@
         <v>106</v>
       </c>
       <c r="BB91" t="n">
+        <v>106</v>
+      </c>
+      <c r="BC91" t="n">
         <v>106</v>
       </c>
     </row>
@@ -13389,6 +13620,7 @@
       <c r="AZ92" t="inlineStr"/>
       <c r="BA92" t="inlineStr"/>
       <c r="BB92" t="inlineStr"/>
+      <c r="BC92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -13557,6 +13789,9 @@
       <c r="BB93" t="n">
         <v>125</v>
       </c>
+      <c r="BC93" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -13723,6 +13958,9 @@
         <v>70</v>
       </c>
       <c r="BB94" t="n">
+        <v>70</v>
+      </c>
+      <c r="BC94" t="n">
         <v>70</v>
       </c>
     </row>
@@ -13891,6 +14129,9 @@
         <v>408</v>
       </c>
       <c r="BB95" t="n">
+        <v>408</v>
+      </c>
+      <c r="BC95" t="n">
         <v>408</v>
       </c>
     </row>
@@ -13959,6 +14200,7 @@
       <c r="AZ96" t="inlineStr"/>
       <c r="BA96" t="inlineStr"/>
       <c r="BB96" t="inlineStr"/>
+      <c r="BC96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -14025,6 +14267,7 @@
       <c r="AZ97" t="inlineStr"/>
       <c r="BA97" t="inlineStr"/>
       <c r="BB97" t="inlineStr"/>
+      <c r="BC97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -14191,6 +14434,9 @@
         <v>34</v>
       </c>
       <c r="BB98" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC98" t="n">
         <v>34</v>
       </c>
     </row>
@@ -14281,6 +14527,7 @@
       <c r="AZ99" t="inlineStr"/>
       <c r="BA99" t="inlineStr"/>
       <c r="BB99" t="inlineStr"/>
+      <c r="BC99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -14447,6 +14694,9 @@
         <v>9</v>
       </c>
       <c r="BB100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC100" t="n">
         <v>9</v>
       </c>
     </row>
@@ -14593,6 +14843,9 @@
         <v>3</v>
       </c>
       <c r="BB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC101" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14661,6 +14914,7 @@
       <c r="AZ102" t="inlineStr"/>
       <c r="BA102" t="inlineStr"/>
       <c r="BB102" t="inlineStr"/>
+      <c r="BC102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -14727,6 +14981,7 @@
       <c r="AZ103" t="inlineStr"/>
       <c r="BA103" t="inlineStr"/>
       <c r="BB103" t="inlineStr"/>
+      <c r="BC103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -14893,6 +15148,9 @@
         <v>26</v>
       </c>
       <c r="BB104" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC104" t="n">
         <v>26</v>
       </c>
     </row>
@@ -15051,6 +15309,9 @@
         <v>5</v>
       </c>
       <c r="BB105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC105" t="n">
         <v>5</v>
       </c>
     </row>
@@ -15119,6 +15380,7 @@
       <c r="AZ106" t="inlineStr"/>
       <c r="BA106" t="inlineStr"/>
       <c r="BB106" t="inlineStr"/>
+      <c r="BC106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -15185,6 +15447,7 @@
       <c r="AZ107" t="inlineStr"/>
       <c r="BA107" t="inlineStr"/>
       <c r="BB107" t="inlineStr"/>
+      <c r="BC107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -15353,6 +15616,9 @@
       <c r="BB108" t="n">
         <v>1093</v>
       </c>
+      <c r="BC108" t="n">
+        <v>1093</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -15521,6 +15787,9 @@
       <c r="BB109" t="n">
         <v>23</v>
       </c>
+      <c r="BC109" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -15689,6 +15958,9 @@
       <c r="BB110" t="n">
         <v>11</v>
       </c>
+      <c r="BC110" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -15857,6 +16129,9 @@
       <c r="BB111" t="n">
         <v>25</v>
       </c>
+      <c r="BC111" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -16025,6 +16300,9 @@
       <c r="BB112" t="n">
         <v>725</v>
       </c>
+      <c r="BC112" t="n">
+        <v>725</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -16191,6 +16469,9 @@
         <v>10</v>
       </c>
       <c r="BB113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC113" t="n">
         <v>10</v>
       </c>
     </row>
@@ -16359,6 +16640,9 @@
         <v>6</v>
       </c>
       <c r="BB114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC114" t="n">
         <v>6</v>
       </c>
     </row>
@@ -16427,6 +16711,7 @@
       <c r="AZ115" t="inlineStr"/>
       <c r="BA115" t="inlineStr"/>
       <c r="BB115" t="inlineStr"/>
+      <c r="BC115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -16499,6 +16784,9 @@
       <c r="BB116" t="n">
         <v>11</v>
       </c>
+      <c r="BC116" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -16667,6 +16955,9 @@
       <c r="BB117" t="n">
         <v>11</v>
       </c>
+      <c r="BC117" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -16833,6 +17124,9 @@
         <v>5</v>
       </c>
       <c r="BB118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC118" t="n">
         <v>5</v>
       </c>
     </row>
@@ -16901,6 +17195,7 @@
       <c r="AZ119" t="inlineStr"/>
       <c r="BA119" t="inlineStr"/>
       <c r="BB119" t="inlineStr"/>
+      <c r="BC119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -16967,6 +17262,7 @@
       <c r="AZ120" t="inlineStr"/>
       <c r="BA120" t="inlineStr"/>
       <c r="BB120" t="inlineStr"/>
+      <c r="BC120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -17135,6 +17431,9 @@
       <c r="BB121" t="n">
         <v>40</v>
       </c>
+      <c r="BC121" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -17303,6 +17602,9 @@
       <c r="BB122" t="n">
         <v>106</v>
       </c>
+      <c r="BC122" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -17471,6 +17773,9 @@
       <c r="BB123" t="n">
         <v>2803</v>
       </c>
+      <c r="BC123" t="n">
+        <v>2852</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -17637,6 +17942,9 @@
         <v>76</v>
       </c>
       <c r="BB124" t="n">
+        <v>76</v>
+      </c>
+      <c r="BC124" t="n">
         <v>76</v>
       </c>
     </row>
@@ -17807,6 +18115,9 @@
       <c r="BB125" t="n">
         <v>1383</v>
       </c>
+      <c r="BC125" t="n">
+        <v>1424</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -17975,6 +18286,9 @@
       <c r="BB126" t="n">
         <v>15</v>
       </c>
+      <c r="BC126" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -18143,6 +18457,9 @@
       <c r="BB127" t="n">
         <v>346</v>
       </c>
+      <c r="BC127" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -18311,6 +18628,9 @@
       <c r="BB128" t="n">
         <v>21</v>
       </c>
+      <c r="BC128" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -18477,6 +18797,9 @@
         <v>26</v>
       </c>
       <c r="BB129" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC129" t="n">
         <v>26</v>
       </c>
     </row>
@@ -18545,6 +18868,7 @@
       <c r="AZ130" t="inlineStr"/>
       <c r="BA130" t="inlineStr"/>
       <c r="BB130" t="inlineStr"/>
+      <c r="BC130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -18713,6 +19037,9 @@
       <c r="BB131" t="n">
         <v>5</v>
       </c>
+      <c r="BC131" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -18881,6 +19208,9 @@
       <c r="BB132" t="n">
         <v>161</v>
       </c>
+      <c r="BC132" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -19049,6 +19379,9 @@
       <c r="BB133" t="n">
         <v>950</v>
       </c>
+      <c r="BC133" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -19217,6 +19550,9 @@
       <c r="BB134" t="n">
         <v>78</v>
       </c>
+      <c r="BC134" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -19385,6 +19721,9 @@
       <c r="BB135" t="n">
         <v>7</v>
       </c>
+      <c r="BC135" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -19553,6 +19892,9 @@
       <c r="BB136" t="n">
         <v>92</v>
       </c>
+      <c r="BC136" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -19719,6 +20061,9 @@
         <v>20</v>
       </c>
       <c r="BB137" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC137" t="n">
         <v>20</v>
       </c>
     </row>
@@ -19787,6 +20132,7 @@
       <c r="AZ138" t="inlineStr"/>
       <c r="BA138" t="inlineStr"/>
       <c r="BB138" t="inlineStr"/>
+      <c r="BC138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -19953,6 +20299,9 @@
         <v>1292</v>
       </c>
       <c r="BB139" t="n">
+        <v>1292</v>
+      </c>
+      <c r="BC139" t="n">
         <v>1292</v>
       </c>
     </row>
@@ -20021,6 +20370,7 @@
       <c r="AZ140" t="inlineStr"/>
       <c r="BA140" t="inlineStr"/>
       <c r="BB140" t="inlineStr"/>
+      <c r="BC140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -20189,6 +20539,9 @@
       <c r="BB141" t="n">
         <v>18</v>
       </c>
+      <c r="BC141" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -20355,6 +20708,9 @@
         <v>64</v>
       </c>
       <c r="BB142" t="n">
+        <v>64</v>
+      </c>
+      <c r="BC142" t="n">
         <v>64</v>
       </c>
     </row>
@@ -20423,6 +20779,7 @@
       <c r="AZ143" t="inlineStr"/>
       <c r="BA143" t="inlineStr"/>
       <c r="BB143" t="inlineStr"/>
+      <c r="BC143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -20591,6 +20948,9 @@
       <c r="BB144" t="n">
         <v>6</v>
       </c>
+      <c r="BC144" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -20759,6 +21119,9 @@
       <c r="BB145" t="n">
         <v>17</v>
       </c>
+      <c r="BC145" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -20927,6 +21290,9 @@
       <c r="BB146" t="n">
         <v>10</v>
       </c>
+      <c r="BC146" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -21093,6 +21459,9 @@
         <v>21</v>
       </c>
       <c r="BB147" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC147" t="n">
         <v>21</v>
       </c>
     </row>
@@ -21257,6 +21626,9 @@
       <c r="BB148" t="n">
         <v>5</v>
       </c>
+      <c r="BC148" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -21425,6 +21797,9 @@
       <c r="BB149" t="n">
         <v>15</v>
       </c>
+      <c r="BC149" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -21592,6 +21967,9 @@
       </c>
       <c r="BB150" t="n">
         <v>198</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="151">
@@ -21665,6 +22043,7 @@
       <c r="AZ151" t="inlineStr"/>
       <c r="BA151" t="inlineStr"/>
       <c r="BB151" t="inlineStr"/>
+      <c r="BC151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -21731,6 +22110,7 @@
       <c r="AZ152" t="inlineStr"/>
       <c r="BA152" t="inlineStr"/>
       <c r="BB152" t="inlineStr"/>
+      <c r="BC152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -21797,6 +22177,7 @@
       <c r="AZ153" t="inlineStr"/>
       <c r="BA153" t="inlineStr"/>
       <c r="BB153" t="inlineStr"/>
+      <c r="BC153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -21897,6 +22278,9 @@
       <c r="BB154" t="n">
         <v>3</v>
       </c>
+      <c r="BC154" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -22065,6 +22449,9 @@
       <c r="BB155" t="n">
         <v>8</v>
       </c>
+      <c r="BC155" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -22231,6 +22618,9 @@
         <v>30</v>
       </c>
       <c r="BB156" t="n">
+        <v>30</v>
+      </c>
+      <c r="BC156" t="n">
         <v>30</v>
       </c>
     </row>
@@ -22401,6 +22791,9 @@
       <c r="BB157" t="n">
         <v>134</v>
       </c>
+      <c r="BC157" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -22567,6 +22960,9 @@
         <v>118</v>
       </c>
       <c r="BB158" t="n">
+        <v>118</v>
+      </c>
+      <c r="BC158" t="n">
         <v>118</v>
       </c>
     </row>
@@ -22635,6 +23031,7 @@
       <c r="AZ159" t="inlineStr"/>
       <c r="BA159" t="inlineStr"/>
       <c r="BB159" t="inlineStr"/>
+      <c r="BC159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -22803,6 +23200,9 @@
       <c r="BB160" t="n">
         <v>11</v>
       </c>
+      <c r="BC160" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -22969,6 +23369,9 @@
         <v>69</v>
       </c>
       <c r="BB161" t="n">
+        <v>69</v>
+      </c>
+      <c r="BC161" t="n">
         <v>69</v>
       </c>
     </row>
@@ -23037,6 +23440,7 @@
       <c r="AZ162" t="inlineStr"/>
       <c r="BA162" t="inlineStr"/>
       <c r="BB162" t="inlineStr"/>
+      <c r="BC162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -23205,6 +23609,9 @@
       <c r="BB163" t="n">
         <v>17</v>
       </c>
+      <c r="BC163" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -23371,6 +23778,9 @@
         <v>20</v>
       </c>
       <c r="BB164" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC164" t="n">
         <v>20</v>
       </c>
     </row>
@@ -23439,6 +23849,7 @@
       <c r="AZ165" t="inlineStr"/>
       <c r="BA165" t="inlineStr"/>
       <c r="BB165" t="inlineStr"/>
+      <c r="BC165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -23505,6 +23916,7 @@
       <c r="AZ166" t="inlineStr"/>
       <c r="BA166" t="inlineStr"/>
       <c r="BB166" t="inlineStr"/>
+      <c r="BC166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -23607,6 +24019,9 @@
       <c r="BB167" t="n">
         <v>3</v>
       </c>
+      <c r="BC167" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -23773,6 +24188,9 @@
         <v>23</v>
       </c>
       <c r="BB168" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC168" t="n">
         <v>23</v>
       </c>
     </row>
@@ -23841,6 +24259,7 @@
       <c r="AZ169" t="inlineStr"/>
       <c r="BA169" t="inlineStr"/>
       <c r="BB169" t="inlineStr"/>
+      <c r="BC169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -24005,6 +24424,9 @@
       <c r="BB170" t="n">
         <v>32</v>
       </c>
+      <c r="BC170" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -24171,6 +24593,9 @@
       <c r="BB171" t="n">
         <v>12</v>
       </c>
+      <c r="BC171" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -24339,6 +24764,9 @@
       <c r="BB172" t="n">
         <v>758</v>
       </c>
+      <c r="BC172" t="n">
+        <v>777</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -24506,6 +24934,9 @@
       </c>
       <c r="BB173" t="n">
         <v>543</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>555</v>
       </c>
     </row>
     <row r="174">
@@ -24573,6 +25004,7 @@
       <c r="AZ174" t="inlineStr"/>
       <c r="BA174" t="inlineStr"/>
       <c r="BB174" t="inlineStr"/>
+      <c r="BC174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -24739,6 +25171,9 @@
         <v>14</v>
       </c>
       <c r="BB175" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC175" t="n">
         <v>14</v>
       </c>
     </row>
@@ -24909,6 +25344,9 @@
       <c r="BB176" t="n">
         <v>218</v>
       </c>
+      <c r="BC176" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -25077,6 +25515,9 @@
       <c r="BB177" t="n">
         <v>12</v>
       </c>
+      <c r="BC177" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -25245,6 +25686,9 @@
       <c r="BB178" t="n">
         <v>41</v>
       </c>
+      <c r="BC178" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -25411,6 +25855,9 @@
         <v>28</v>
       </c>
       <c r="BB179" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC179" t="n">
         <v>28</v>
       </c>
     </row>
@@ -25479,6 +25926,7 @@
       <c r="AZ180" t="inlineStr"/>
       <c r="BA180" t="inlineStr"/>
       <c r="BB180" t="inlineStr"/>
+      <c r="BC180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -25647,6 +26095,9 @@
       <c r="BB181" t="n">
         <v>41</v>
       </c>
+      <c r="BC181" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -25815,6 +26266,9 @@
       <c r="BB182" t="n">
         <v>673</v>
       </c>
+      <c r="BC182" t="n">
+        <v>673</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -25981,6 +26435,9 @@
         <v>40</v>
       </c>
       <c r="BB183" t="n">
+        <v>40</v>
+      </c>
+      <c r="BC183" t="n">
         <v>40</v>
       </c>
     </row>
@@ -26049,6 +26506,7 @@
       <c r="AZ184" t="inlineStr"/>
       <c r="BA184" t="inlineStr"/>
       <c r="BB184" t="inlineStr"/>
+      <c r="BC184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -26217,6 +26675,9 @@
       <c r="BB185" t="n">
         <v>350</v>
       </c>
+      <c r="BC185" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -26385,6 +26846,9 @@
       <c r="BB186" t="n">
         <v>7</v>
       </c>
+      <c r="BC186" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -26553,6 +27017,9 @@
       <c r="BB187" t="n">
         <v>315</v>
       </c>
+      <c r="BC187" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -26721,6 +27188,9 @@
       <c r="BB188" t="n">
         <v>4</v>
       </c>
+      <c r="BC188" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -26887,6 +27357,9 @@
         <v>22</v>
       </c>
       <c r="BB189" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC189" t="n">
         <v>22</v>
       </c>
     </row>
@@ -27055,6 +27528,9 @@
         <v>177</v>
       </c>
       <c r="BB190" t="n">
+        <v>177</v>
+      </c>
+      <c r="BC190" t="n">
         <v>177</v>
       </c>
     </row>
@@ -27123,6 +27599,7 @@
       <c r="AZ191" t="inlineStr"/>
       <c r="BA191" t="inlineStr"/>
       <c r="BB191" t="inlineStr"/>
+      <c r="BC191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -27189,6 +27666,7 @@
       <c r="AZ192" t="inlineStr"/>
       <c r="BA192" t="inlineStr"/>
       <c r="BB192" t="inlineStr"/>
+      <c r="BC192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -27255,6 +27733,7 @@
       <c r="AZ193" t="inlineStr"/>
       <c r="BA193" t="inlineStr"/>
       <c r="BB193" t="inlineStr"/>
+      <c r="BC193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -27421,6 +27900,9 @@
         <v>5</v>
       </c>
       <c r="BB194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC194" t="n">
         <v>5</v>
       </c>
     </row>
@@ -27591,6 +28073,9 @@
       <c r="BB195" t="n">
         <v>20</v>
       </c>
+      <c r="BC195" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -27759,6 +28244,9 @@
       <c r="BB196" t="n">
         <v>66</v>
       </c>
+      <c r="BC196" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -27927,6 +28415,9 @@
       <c r="BB197" t="n">
         <v>23</v>
       </c>
+      <c r="BC197" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -28095,6 +28586,9 @@
       <c r="BB198" t="n">
         <v>69</v>
       </c>
+      <c r="BC198" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -28263,6 +28757,9 @@
       <c r="BB199" t="n">
         <v>9</v>
       </c>
+      <c r="BC199" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -28431,6 +28928,9 @@
       <c r="BB200" t="n">
         <v>6</v>
       </c>
+      <c r="BC200" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -28599,6 +29099,9 @@
       <c r="BB201" t="n">
         <v>6</v>
       </c>
+      <c r="BC201" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -28765,6 +29268,9 @@
         <v>34</v>
       </c>
       <c r="BB202" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC202" t="n">
         <v>34</v>
       </c>
     </row>
@@ -28847,6 +29353,7 @@
       <c r="AZ203" t="inlineStr"/>
       <c r="BA203" t="inlineStr"/>
       <c r="BB203" t="inlineStr"/>
+      <c r="BC203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -29015,6 +29522,9 @@
       <c r="BB204" t="n">
         <v>11</v>
       </c>
+      <c r="BC204" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -29183,6 +29693,9 @@
       <c r="BB205" t="n">
         <v>6</v>
       </c>
+      <c r="BC205" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -29350,6 +29863,9 @@
       </c>
       <c r="BB206" t="n">
         <v>46</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="207">
@@ -29517,6 +30033,9 @@
         <v>1414</v>
       </c>
       <c r="BB207" t="n">
+        <v>1414</v>
+      </c>
+      <c r="BC207" t="n">
         <v>1414</v>
       </c>
     </row>
@@ -29585,6 +30104,7 @@
       <c r="AZ208" t="inlineStr"/>
       <c r="BA208" t="inlineStr"/>
       <c r="BB208" t="inlineStr"/>
+      <c r="BC208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -29753,6 +30273,9 @@
       <c r="BB209" t="n">
         <v>4</v>
       </c>
+      <c r="BC209" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -29919,6 +30442,9 @@
         <v>11</v>
       </c>
       <c r="BB210" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC210" t="n">
         <v>11</v>
       </c>
     </row>
@@ -29995,6 +30521,9 @@
       <c r="BB211" t="n">
         <v>4</v>
       </c>
+      <c r="BC211" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -30071,6 +30600,9 @@
       <c r="BB212" t="n">
         <v>3</v>
       </c>
+      <c r="BC212" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -30237,6 +30769,9 @@
         <v>62</v>
       </c>
       <c r="BB213" t="n">
+        <v>62</v>
+      </c>
+      <c r="BC213" t="n">
         <v>62</v>
       </c>
     </row>
@@ -30405,6 +30940,9 @@
         <v>159</v>
       </c>
       <c r="BB214" t="n">
+        <v>159</v>
+      </c>
+      <c r="BC214" t="n">
         <v>159</v>
       </c>
     </row>
@@ -30473,6 +31011,7 @@
       <c r="AZ215" t="inlineStr"/>
       <c r="BA215" t="inlineStr"/>
       <c r="BB215" t="inlineStr"/>
+      <c r="BC215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -30639,6 +31178,9 @@
         <v>6</v>
       </c>
       <c r="BB216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC216" t="n">
         <v>6</v>
       </c>
     </row>
@@ -30807,6 +31349,9 @@
         <v>65</v>
       </c>
       <c r="BB217" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC217" t="n">
         <v>65</v>
       </c>
     </row>
@@ -30875,6 +31420,7 @@
       <c r="AZ218" t="inlineStr"/>
       <c r="BA218" t="inlineStr"/>
       <c r="BB218" t="inlineStr"/>
+      <c r="BC218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -30941,6 +31487,7 @@
       <c r="AZ219" t="inlineStr"/>
       <c r="BA219" t="inlineStr"/>
       <c r="BB219" t="inlineStr"/>
+      <c r="BC219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -31109,6 +31656,9 @@
       <c r="BB220" t="n">
         <v>3</v>
       </c>
+      <c r="BC220" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -31277,6 +31827,9 @@
       <c r="BB221" t="n">
         <v>23</v>
       </c>
+      <c r="BC221" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -31443,6 +31996,9 @@
         <v>7</v>
       </c>
       <c r="BB222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC222" t="n">
         <v>7</v>
       </c>
     </row>
@@ -31511,6 +32067,7 @@
       <c r="AZ223" t="inlineStr"/>
       <c r="BA223" t="inlineStr"/>
       <c r="BB223" t="inlineStr"/>
+      <c r="BC223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -31679,6 +32236,9 @@
       <c r="BB224" t="n">
         <v>14</v>
       </c>
+      <c r="BC224" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -31847,6 +32407,9 @@
       <c r="BB225" t="n">
         <v>9</v>
       </c>
+      <c r="BC225" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -32013,6 +32576,9 @@
         <v>5</v>
       </c>
       <c r="BB226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC226" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32103,6 +32669,9 @@
         <v>5</v>
       </c>
       <c r="BB227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC227" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32171,6 +32740,7 @@
       <c r="AZ228" t="inlineStr"/>
       <c r="BA228" t="inlineStr"/>
       <c r="BB228" t="inlineStr"/>
+      <c r="BC228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -32337,6 +32907,9 @@
         <v>497</v>
       </c>
       <c r="BB229" t="n">
+        <v>497</v>
+      </c>
+      <c r="BC229" t="n">
         <v>497</v>
       </c>
     </row>
@@ -32473,6 +33046,7 @@
       </c>
       <c r="BA230" t="inlineStr"/>
       <c r="BB230" t="inlineStr"/>
+      <c r="BC230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -32539,6 +33113,7 @@
       <c r="AZ231" t="inlineStr"/>
       <c r="BA231" t="inlineStr"/>
       <c r="BB231" t="inlineStr"/>
+      <c r="BC231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -32707,6 +33282,9 @@
       <c r="BB232" t="n">
         <v>135</v>
       </c>
+      <c r="BC232" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -32875,6 +33453,9 @@
       <c r="BB233" t="n">
         <v>19</v>
       </c>
+      <c r="BC233" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -33041,6 +33622,9 @@
         <v>399</v>
       </c>
       <c r="BB234" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC234" t="n">
         <v>400</v>
       </c>
     </row>
@@ -33109,6 +33693,7 @@
       <c r="AZ235" t="inlineStr"/>
       <c r="BA235" t="inlineStr"/>
       <c r="BB235" t="inlineStr"/>
+      <c r="BC235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -33277,6 +33862,9 @@
       <c r="BB236" t="n">
         <v>13</v>
       </c>
+      <c r="BC236" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -33444,6 +34032,9 @@
       </c>
       <c r="BB237" t="n">
         <v>482</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>485</v>
       </c>
     </row>
     <row r="238">
@@ -33601,6 +34192,9 @@
       <c r="BB238" t="n">
         <v>6</v>
       </c>
+      <c r="BC238" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -33769,6 +34363,9 @@
       <c r="BB239" t="n">
         <v>14</v>
       </c>
+      <c r="BC239" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -33935,6 +34532,9 @@
         <v>4</v>
       </c>
       <c r="BB240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC240" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34105,6 +34705,9 @@
       <c r="BB241" t="n">
         <v>47</v>
       </c>
+      <c r="BC241" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -34273,6 +34876,9 @@
       <c r="BB242" t="n">
         <v>125</v>
       </c>
+      <c r="BC242" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -34441,6 +35047,9 @@
       <c r="BB243" t="n">
         <v>47</v>
       </c>
+      <c r="BC243" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -34607,6 +35216,9 @@
         <v>23</v>
       </c>
       <c r="BB244" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC244" t="n">
         <v>23</v>
       </c>
     </row>
@@ -34697,6 +35309,9 @@
       <c r="BB245" t="n">
         <v>6</v>
       </c>
+      <c r="BC245" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -34864,6 +35479,9 @@
       </c>
       <c r="BB246" t="n">
         <v>1839</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1886</v>
       </c>
     </row>
     <row r="247">
@@ -34975,6 +35593,9 @@
       <c r="BB247" t="n">
         <v>10</v>
       </c>
+      <c r="BC247" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -35141,6 +35762,9 @@
         <v>26</v>
       </c>
       <c r="BB248" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC248" t="n">
         <v>26</v>
       </c>
     </row>
@@ -35209,6 +35833,7 @@
       <c r="AZ249" t="inlineStr"/>
       <c r="BA249" t="inlineStr"/>
       <c r="BB249" t="inlineStr"/>
+      <c r="BC249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -35375,6 +36000,9 @@
         <v>8</v>
       </c>
       <c r="BB250" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC250" t="n">
         <v>8</v>
       </c>
     </row>
@@ -35499,6 +36127,9 @@
       <c r="BB251" t="n">
         <v>3</v>
       </c>
+      <c r="BC251" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -35665,6 +36296,9 @@
         <v>80</v>
       </c>
       <c r="BB252" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC252" t="n">
         <v>80</v>
       </c>
     </row>
@@ -35733,6 +36367,7 @@
       <c r="AZ253" t="inlineStr"/>
       <c r="BA253" t="inlineStr"/>
       <c r="BB253" t="inlineStr"/>
+      <c r="BC253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -35901,6 +36536,9 @@
       <c r="BB254" t="n">
         <v>9</v>
       </c>
+      <c r="BC254" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -36067,6 +36705,9 @@
         <v>5</v>
       </c>
       <c r="BB255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC255" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36135,6 +36776,7 @@
       <c r="AZ256" t="inlineStr"/>
       <c r="BA256" t="inlineStr"/>
       <c r="BB256" t="inlineStr"/>
+      <c r="BC256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -36201,6 +36843,7 @@
       <c r="AZ257" t="inlineStr"/>
       <c r="BA257" t="inlineStr"/>
       <c r="BB257" t="inlineStr"/>
+      <c r="BC257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -36267,6 +36910,7 @@
       <c r="AZ258" t="inlineStr"/>
       <c r="BA258" t="inlineStr"/>
       <c r="BB258" t="inlineStr"/>
+      <c r="BC258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -36435,6 +37079,9 @@
       <c r="BB259" t="n">
         <v>30</v>
       </c>
+      <c r="BC259" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -36601,6 +37248,9 @@
         <v>10</v>
       </c>
       <c r="BB260" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC260" t="n">
         <v>10</v>
       </c>
     </row>
@@ -36771,6 +37421,9 @@
       <c r="BB261" t="n">
         <v>18</v>
       </c>
+      <c r="BC261" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">